--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,7 +70,7 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CMIG4</t>
+    <t>ELET3</t>
   </si>
   <si>
     <t>MRVE3</t>
@@ -79,43 +79,46 @@
     <t>B3SA3</t>
   </si>
   <si>
-    <t>BBAS3</t>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
   </si>
   <si>
     <t>VIVT3</t>
   </si>
   <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
   </si>
   <si>
     <t>VBBR3</t>
-  </si>
-  <si>
-    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -537,58 +540,58 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1126</v>
+        <v>1779</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.9182210635461735</v>
+        <v>0.6726291584696151</v>
       </c>
       <c r="E2">
-        <v>0.8357633059289216</v>
+        <v>0.7400816771409443</v>
       </c>
       <c r="F2">
-        <v>0.008243114129361667</v>
+        <v>0.0004844564004239807</v>
       </c>
       <c r="G2">
-        <v>2.954607292027498</v>
+        <v>-3.167297077001912</v>
       </c>
       <c r="H2">
-        <v>0.1644112430261407</v>
+        <v>0.9727260307269293</v>
       </c>
       <c r="I2">
-        <v>6.587483338245498E-65</v>
+        <v>1.519747898085253E-140</v>
       </c>
       <c r="J2">
-        <v>11.59000015258789</v>
+        <v>35.2599983215332</v>
       </c>
       <c r="K2">
-        <v>56.25</v>
+        <v>39.81000137329102</v>
       </c>
       <c r="L2">
-        <v>0.8572924689953005</v>
+        <v>0.5236248714255751</v>
       </c>
       <c r="M2">
-        <v>-0.8472203430934293</v>
+        <v>-0.6259267258356545</v>
       </c>
       <c r="N2">
-        <v>0.3527990320460285</v>
+        <v>0.2075016554200002</v>
       </c>
       <c r="O2">
-        <v>-0.6127395596600209</v>
+        <v>-0.2969292205398588</v>
       </c>
       <c r="P2">
-        <v>0.0108403325944406</v>
+        <v>0.006232483239186018</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,52 +602,52 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.1330197979651784</v>
+        <v>0.1099496637784558</v>
       </c>
       <c r="E3">
-        <v>0.4590366753417512</v>
+        <v>0.6078451384355389</v>
       </c>
       <c r="F3">
-        <v>0.0007005797586710144</v>
+        <v>0.002384672542614217</v>
       </c>
       <c r="G3">
-        <v>2.871443655033742</v>
+        <v>2.800656068668141</v>
       </c>
       <c r="H3">
-        <v>0.1443276371104014</v>
+        <v>0.1463733642525107</v>
       </c>
       <c r="I3">
-        <v>5.66019741397291E-30</v>
+        <v>1.627452204904708E-29</v>
       </c>
       <c r="J3">
-        <v>6.230000019073486</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="K3">
-        <v>28.22999954223633</v>
+        <v>29.11000061035156</v>
       </c>
       <c r="L3">
-        <v>0.6266661701370388</v>
+        <v>0.6352022789439484</v>
       </c>
       <c r="M3">
-        <v>-0.9833358456846728</v>
+        <v>-0.9728153790526939</v>
       </c>
       <c r="N3">
-        <v>0.2566131327465088</v>
+        <v>0.2611886056859403</v>
       </c>
       <c r="O3">
-        <v>-0.7158127655189381</v>
+        <v>-0.6815846769570215</v>
       </c>
       <c r="P3">
-        <v>0.01123281764695218</v>
+        <v>0.01254757637588991</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -655,161 +658,161 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.7095384826598063</v>
+        <v>0.6765098887898161</v>
       </c>
       <c r="E4">
-        <v>0.3888484720430935</v>
+        <v>0.3557002667548752</v>
       </c>
       <c r="F4">
-        <v>0.0005802053765266834</v>
+        <v>0.0005187435492112748</v>
       </c>
       <c r="G4">
-        <v>-4.139355056696132</v>
+        <v>-4.206060631813193</v>
       </c>
       <c r="H4">
-        <v>1.234829671350899</v>
+        <v>1.239720226701315</v>
       </c>
       <c r="I4">
-        <v>3.855606213629137E-57</v>
+        <v>1.282314658104002E-55</v>
       </c>
       <c r="J4">
-        <v>9.819999694824219</v>
+        <v>10.02000045776367</v>
       </c>
       <c r="K4">
-        <v>11.84000015258789</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="L4">
-        <v>0.718887622477304</v>
+        <v>0.722615298281454</v>
       </c>
       <c r="M4">
-        <v>-0.8074495444485592</v>
+        <v>-0.8026316089817431</v>
       </c>
       <c r="N4">
-        <v>0.2995776783944949</v>
+        <v>0.3068768004183218</v>
       </c>
       <c r="O4">
-        <v>-0.6610287456943436</v>
+        <v>-0.7125678786318463</v>
       </c>
       <c r="P4">
-        <v>0.01206397524990981</v>
+        <v>0.01323980164172036</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>359</v>
+        <v>2644</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5539964967881109</v>
+        <v>0.1099496637784558</v>
       </c>
       <c r="E5">
-        <v>0.4590366753417512</v>
+        <v>0.5373166983792583</v>
       </c>
       <c r="F5">
-        <v>0.001019443402265425</v>
+        <v>0.00569728031343234</v>
       </c>
       <c r="G5">
-        <v>16.40746934545043</v>
+        <v>2.100538398066724</v>
       </c>
       <c r="H5">
-        <v>0.347428812713997</v>
+        <v>0.2963748192745647</v>
       </c>
       <c r="I5">
-        <v>1.279712124811765E-40</v>
+        <v>2.181751178944371E-21</v>
       </c>
       <c r="J5">
-        <v>25.26000022888184</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="K5">
-        <v>28.22999954223633</v>
+        <v>16.20999908447266</v>
       </c>
       <c r="L5">
-        <v>1.306857103711661</v>
+        <v>0.6781482249622828</v>
       </c>
       <c r="M5">
-        <v>-1.286618481279937</v>
+        <v>-0.8447954175563295</v>
       </c>
       <c r="N5">
-        <v>0.474624127798724</v>
+        <v>0.2991767787897537</v>
       </c>
       <c r="O5">
-        <v>-0.9553843404444375</v>
+        <v>-0.5247738327272486</v>
       </c>
       <c r="P5">
-        <v>0.01361515028686701</v>
+        <v>0.01515797391177113</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>3001</v>
+        <v>1290</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7496384267793488</v>
+        <v>0.2587506162665535</v>
       </c>
       <c r="E6">
-        <v>0.6817356946925198</v>
+        <v>0.6070515339578807</v>
       </c>
       <c r="F6">
-        <v>0.0009613386991859661</v>
+        <v>0.0009260851512518387</v>
       </c>
       <c r="G6">
-        <v>22.84186351014647</v>
+        <v>4.058099632534</v>
       </c>
       <c r="H6">
-        <v>0.5596638846024493</v>
+        <v>-0.04975910331458547</v>
       </c>
       <c r="I6">
-        <v>1.393969474932273E-66</v>
+        <v>1.013760381196491E-39</v>
       </c>
       <c r="J6">
-        <v>50.54999923706055</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="K6">
-        <v>53.72999954223633</v>
+        <v>51</v>
       </c>
       <c r="L6">
-        <v>5.479917122096708</v>
+        <v>0.3434346181487715</v>
       </c>
       <c r="M6">
-        <v>-2.799124483416449</v>
+        <v>-0.2668506084614339</v>
       </c>
       <c r="N6">
-        <v>1.393118024016182</v>
+        <v>0.1267450098063462</v>
       </c>
       <c r="O6">
-        <v>-2.362604536581735</v>
+        <v>-0.1303853777952555</v>
       </c>
       <c r="P6">
-        <v>0.01389687014572039</v>
+        <v>0.01520116881278837</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -817,282 +820,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2644</v>
+        <v>1364</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.1330197979651784</v>
+        <v>0.4902326959642413</v>
       </c>
       <c r="E7">
-        <v>0.6914808799934522</v>
+        <v>0.7021839151937906</v>
       </c>
       <c r="F7">
-        <v>0.003533267132660719</v>
+        <v>0.004427258047058307</v>
       </c>
       <c r="G7">
-        <v>2.220733064962221</v>
+        <v>1.816455343887843</v>
       </c>
       <c r="H7">
-        <v>0.2894625228131222</v>
+        <v>0.533996682430304</v>
       </c>
       <c r="I7">
-        <v>3.703790246329127E-21</v>
+        <v>5.542910454850948E-56</v>
       </c>
       <c r="J7">
-        <v>6.230000019073486</v>
+        <v>9.380000114440918</v>
       </c>
       <c r="K7">
-        <v>15.86999988555908</v>
+        <v>13.57999992370605</v>
       </c>
       <c r="L7">
-        <v>0.6706334117884669</v>
+        <v>0.4432293674943626</v>
       </c>
       <c r="M7">
-        <v>-0.8510754419314512</v>
+        <v>-0.646754278810505</v>
       </c>
       <c r="N7">
-        <v>0.2967067015125277</v>
+        <v>0.1986898821364235</v>
       </c>
       <c r="O7">
-        <v>-0.5845032498066267</v>
+        <v>0.3118698638902613</v>
       </c>
       <c r="P7">
-        <v>0.01430766098631909</v>
+        <v>0.01596475077358796</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2406</v>
+        <v>2638</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.5122909228140473</v>
+        <v>0.1099496637784558</v>
       </c>
       <c r="E8">
-        <v>0.7496384267793488</v>
+        <v>0.7180015839249878</v>
       </c>
       <c r="F8">
-        <v>0.0005055945462551088</v>
+        <v>0.007930630447330949</v>
       </c>
       <c r="G8">
-        <v>4.504400995920121</v>
+        <v>1.823401643565686</v>
       </c>
       <c r="H8">
-        <v>0.1172968389532992</v>
+        <v>0.1886650782144079</v>
       </c>
       <c r="I8">
-        <v>4.083017287923418E-56</v>
+        <v>6.62610138098997E-20</v>
       </c>
       <c r="J8">
-        <v>10.21000003814697</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="K8">
-        <v>50.54999923706055</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="L8">
-        <v>0.4781431126127487</v>
+        <v>0.7210141441455438</v>
       </c>
       <c r="M8">
-        <v>-0.6973180518260769</v>
+        <v>-0.744933476115782</v>
       </c>
       <c r="N8">
-        <v>0.2127286647723426</v>
+        <v>0.306664176266452</v>
       </c>
       <c r="O8">
-        <v>-0.2237560773720357</v>
+        <v>-0.393973138288823</v>
       </c>
       <c r="P8">
-        <v>0.01466247316994663</v>
+        <v>0.01627060543815501</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>789</v>
+        <v>1664</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.196862521629123</v>
+        <v>0.2060249303101976</v>
       </c>
       <c r="E9">
-        <v>0.7241072336787022</v>
+        <v>0.8256430893193248</v>
       </c>
       <c r="F9">
-        <v>0.003333190449510751</v>
+        <v>0.004390471941256701</v>
       </c>
       <c r="G9">
-        <v>16.50147992851081</v>
+        <v>11.34151086424809</v>
       </c>
       <c r="H9">
-        <v>0.7325698585905707</v>
+        <v>0.1075254366251095</v>
       </c>
       <c r="I9">
-        <v>8.962759834868315E-36</v>
+        <v>1.520483255060302E-31</v>
       </c>
       <c r="J9">
-        <v>33.18999862670898</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="K9">
-        <v>21.5</v>
+        <v>98.02999877929688</v>
       </c>
       <c r="L9">
-        <v>1.815508211667364</v>
+        <v>1.458173462101573</v>
       </c>
       <c r="M9">
-        <v>-1.54760459625669</v>
+        <v>-1.641166269172054</v>
       </c>
       <c r="N9">
-        <v>0.8453232962134123</v>
+        <v>0.6661697622495925</v>
       </c>
       <c r="O9">
-        <v>0.9382667385009036</v>
+        <v>-0.7922291327630404</v>
       </c>
       <c r="P9">
-        <v>0.01547880528119453</v>
+        <v>0.01638706440912339</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1824</v>
+        <v>789</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.6492900160025556</v>
+        <v>0.2654391855725039</v>
       </c>
       <c r="E10">
-        <v>0.7241072336787022</v>
+        <v>0.7044612619528846</v>
       </c>
       <c r="F10">
-        <v>0.0063468003985183</v>
+        <v>0.009733763833383285</v>
       </c>
       <c r="G10">
-        <v>12.2140310058966</v>
+        <v>16.47413824679764</v>
       </c>
       <c r="H10">
-        <v>1.139660314319705</v>
+        <v>0.7325962877073398</v>
       </c>
       <c r="I10">
-        <v>1.238989758690692E-51</v>
+        <v>1.153625952415476E-36</v>
       </c>
       <c r="J10">
-        <v>35.11999893188477</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="K10">
-        <v>21.5</v>
+        <v>21.82999992370605</v>
       </c>
       <c r="L10">
-        <v>2.059485618972147</v>
+        <v>1.747827425473616</v>
       </c>
       <c r="M10">
-        <v>-2.506611746120626</v>
+        <v>-1.521472782756213</v>
       </c>
       <c r="N10">
-        <v>0.9252299100225015</v>
+        <v>0.8240224889924421</v>
       </c>
       <c r="O10">
-        <v>-1.596728831885482</v>
+        <v>0.8332840855043404</v>
       </c>
       <c r="P10">
-        <v>0.01572603171939744</v>
+        <v>0.01690763026193735</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1697</v>
+        <v>2737</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.4542602613625357</v>
+        <v>0.2542471074353803</v>
       </c>
       <c r="E11">
-        <v>0.7566300984488459</v>
+        <v>0.8256430893193248</v>
       </c>
       <c r="F11">
-        <v>0.003938866492094281</v>
+        <v>0.002665700824473885</v>
       </c>
       <c r="G11">
-        <v>4.008270042067313</v>
+        <v>27.89310498210661</v>
       </c>
       <c r="H11">
-        <v>0.2311915984562384</v>
+        <v>0.1329826384351079</v>
       </c>
       <c r="I11">
-        <v>6.754006188566747E-57</v>
+        <v>1.096333014752753E-16</v>
       </c>
       <c r="J11">
-        <v>7.349999904632568</v>
+        <v>43.2400016784668</v>
       </c>
       <c r="K11">
-        <v>15.68000030517578</v>
+        <v>98.02999877929688</v>
       </c>
       <c r="L11">
-        <v>0.6089312760922239</v>
+        <v>3.738735035062547</v>
       </c>
       <c r="M11">
-        <v>-0.4111838077086034</v>
+        <v>-2.494081303400407</v>
       </c>
       <c r="N11">
-        <v>0.2429407335383913</v>
+        <v>1.334306524506266</v>
       </c>
       <c r="O11">
-        <v>-0.2833544717826397</v>
+        <v>2.310608812898874</v>
       </c>
       <c r="P11">
-        <v>0.01574705881999207</v>
+        <v>0.01781771533697266</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -73,52 +73,43 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>MRVE3</t>
+    <t>CASH3</t>
   </si>
   <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>COGN3</t>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
   </si>
   <si>
     <t>CPLE6</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
     <t>SBSP3</t>
   </si>
   <si>
     <t>VBBR3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
   </si>
 </sst>
 </file>
@@ -546,108 +537,108 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.6726291584696151</v>
+        <v>0.6248357378304481</v>
       </c>
       <c r="E2">
-        <v>0.7400816771409443</v>
+        <v>0.692381606636864</v>
       </c>
       <c r="F2">
-        <v>0.0004844564004239807</v>
+        <v>0.0005523575780484501</v>
       </c>
       <c r="G2">
-        <v>-3.167297077001912</v>
+        <v>-3.215776823707451</v>
       </c>
       <c r="H2">
-        <v>0.9727260307269293</v>
+        <v>0.9737865146355885</v>
       </c>
       <c r="I2">
-        <v>1.519747898085253E-140</v>
+        <v>1.793175016092855E-140</v>
       </c>
       <c r="J2">
-        <v>35.2599983215332</v>
+        <v>35.79000091552734</v>
       </c>
       <c r="K2">
-        <v>39.81000137329102</v>
+        <v>40.36999893188477</v>
       </c>
       <c r="L2">
-        <v>0.5236248714255751</v>
+        <v>0.5275324807447035</v>
       </c>
       <c r="M2">
-        <v>-0.6259267258356545</v>
+        <v>-0.620481418085312</v>
       </c>
       <c r="N2">
-        <v>0.2075016554200002</v>
+        <v>0.2086964538653621</v>
       </c>
       <c r="O2">
-        <v>-0.2969292205398588</v>
+        <v>-0.3059828164877061</v>
       </c>
       <c r="P2">
-        <v>0.006232483239186018</v>
+        <v>0.006290624715322312</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>2636</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>0.1099496637784558</v>
+        <v>0.1215455491616651</v>
       </c>
       <c r="E3">
-        <v>0.6078451384355389</v>
+        <v>0.692381606636864</v>
       </c>
       <c r="F3">
-        <v>0.002384672542614217</v>
+        <v>3.251485116469342E-05</v>
       </c>
       <c r="G3">
-        <v>2.800656068668141</v>
+        <v>-1.684454520756949</v>
       </c>
       <c r="H3">
-        <v>0.1463733642525107</v>
+        <v>0.1258557197545385</v>
       </c>
       <c r="I3">
-        <v>1.627452204904708E-29</v>
+        <v>5.696653452814828E-37</v>
       </c>
       <c r="J3">
-        <v>6.380000114440918</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="K3">
-        <v>29.11000061035156</v>
+        <v>40.36999893188477</v>
       </c>
       <c r="L3">
-        <v>0.6352022789439484</v>
+        <v>0.4459549645925209</v>
       </c>
       <c r="M3">
-        <v>-0.9728153790526939</v>
+        <v>-0.5919387924291923</v>
       </c>
       <c r="N3">
-        <v>0.2611886056859403</v>
+        <v>0.1833763697132661</v>
       </c>
       <c r="O3">
-        <v>-0.6815846769570215</v>
+        <v>-0.1963407036216447</v>
       </c>
       <c r="P3">
-        <v>0.01254757637588991</v>
+        <v>0.01046497767927919</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -658,276 +649,276 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.6765098887898161</v>
+        <v>0.6409784373132171</v>
       </c>
       <c r="E4">
-        <v>0.3557002667548752</v>
+        <v>0.3598218506860711</v>
       </c>
       <c r="F4">
-        <v>0.0005187435492112748</v>
+        <v>0.0007444630583030132</v>
       </c>
       <c r="G4">
-        <v>-4.206060631813193</v>
+        <v>-4.27578339062298</v>
       </c>
       <c r="H4">
-        <v>1.239720226701315</v>
+        <v>1.245223156193551</v>
       </c>
       <c r="I4">
-        <v>1.282314658104002E-55</v>
+        <v>2.508400335123502E-55</v>
       </c>
       <c r="J4">
-        <v>10.02000045776367</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="K4">
-        <v>12.05000019073486</v>
+        <v>12.07999992370605</v>
       </c>
       <c r="L4">
-        <v>0.722615298281454</v>
+        <v>0.7216857368057923</v>
       </c>
       <c r="M4">
-        <v>-0.8026316089817431</v>
+        <v>-0.8023655127948732</v>
       </c>
       <c r="N4">
-        <v>0.3068768004183218</v>
+        <v>0.3100050661761789</v>
       </c>
       <c r="O4">
-        <v>-0.7125678786318463</v>
+        <v>-0.6265118978693742</v>
       </c>
       <c r="P4">
-        <v>0.01323980164172036</v>
+        <v>0.01296449531028072</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2644</v>
+        <v>1642</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.1099496637784558</v>
+        <v>0.2204016181051032</v>
       </c>
       <c r="E5">
-        <v>0.5373166983792583</v>
+        <v>0.592767960932273</v>
       </c>
       <c r="F5">
-        <v>0.00569728031343234</v>
+        <v>0.0009267834804716422</v>
       </c>
       <c r="G5">
-        <v>2.100538398066724</v>
+        <v>2.233908372534342</v>
       </c>
       <c r="H5">
-        <v>0.2963748192745647</v>
+        <v>1.783248423737242</v>
       </c>
       <c r="I5">
-        <v>2.181751178944371E-21</v>
+        <v>3.984562817590473E-38</v>
       </c>
       <c r="J5">
-        <v>6.380000114440918</v>
+        <v>21.09000015258789</v>
       </c>
       <c r="K5">
-        <v>16.20999908447266</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="L5">
-        <v>0.6781482249622828</v>
+        <v>1.299323058906975</v>
       </c>
       <c r="M5">
-        <v>-0.8447954175563295</v>
+        <v>-1.481314976957368</v>
       </c>
       <c r="N5">
-        <v>0.2991767787897537</v>
+        <v>0.5962508353513577</v>
       </c>
       <c r="O5">
-        <v>-0.5247738327272486</v>
+        <v>0.6669581980613302</v>
       </c>
       <c r="P5">
-        <v>0.01515797391177113</v>
+        <v>0.01426063089841387</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1290</v>
+        <v>1042</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.2587506162665535</v>
+        <v>0.1215455491616651</v>
       </c>
       <c r="E6">
-        <v>0.6070515339578807</v>
+        <v>0.5142315345783052</v>
       </c>
       <c r="F6">
-        <v>0.0009260851512518387</v>
+        <v>0.002332885736236588</v>
       </c>
       <c r="G6">
-        <v>4.058099632534</v>
+        <v>-0.5594879196299367</v>
       </c>
       <c r="H6">
-        <v>-0.04975910331458547</v>
+        <v>0.249324741115371</v>
       </c>
       <c r="I6">
-        <v>1.013760381196491E-39</v>
+        <v>5.441540743532538E-25</v>
       </c>
       <c r="J6">
-        <v>1.389999985694885</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="K6">
-        <v>51</v>
+        <v>16.30999946594238</v>
       </c>
       <c r="L6">
-        <v>0.3434346181487715</v>
+        <v>0.478687911085415</v>
       </c>
       <c r="M6">
-        <v>-0.2668506084614339</v>
+        <v>-0.5334754944408155</v>
       </c>
       <c r="N6">
-        <v>0.1267450098063462</v>
+        <v>0.2240825788991727</v>
       </c>
       <c r="O6">
-        <v>-0.1303853777952555</v>
+        <v>-0.3069984271242712</v>
       </c>
       <c r="P6">
-        <v>0.01520116881278837</v>
+        <v>0.01506433235501155</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1364</v>
+        <v>1034</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.4902326959642413</v>
+        <v>0.1215455491616651</v>
       </c>
       <c r="E7">
-        <v>0.7021839151937906</v>
+        <v>0.5967471494616809</v>
       </c>
       <c r="F7">
-        <v>0.004427258047058307</v>
+        <v>0.001470312205851643</v>
       </c>
       <c r="G7">
-        <v>1.816455343887843</v>
+        <v>0.4068943942181583</v>
       </c>
       <c r="H7">
-        <v>0.533996682430304</v>
+        <v>0.1103511336196624</v>
       </c>
       <c r="I7">
-        <v>5.542910454850948E-56</v>
+        <v>3.722407784356027E-25</v>
       </c>
       <c r="J7">
-        <v>9.380000114440918</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="K7">
-        <v>13.57999992370605</v>
+        <v>29.52000045776367</v>
       </c>
       <c r="L7">
-        <v>0.4432293674943626</v>
+        <v>0.6326022818653514</v>
       </c>
       <c r="M7">
-        <v>-0.646754278810505</v>
+        <v>-0.7440786273420743</v>
       </c>
       <c r="N7">
-        <v>0.1986898821364235</v>
+        <v>0.2234660819265415</v>
       </c>
       <c r="O7">
-        <v>0.3118698638902613</v>
+        <v>-0.4644598615016156</v>
       </c>
       <c r="P7">
-        <v>0.01596475077358796</v>
+        <v>0.01527924386027769</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2638</v>
+        <v>993</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.1099496637784558</v>
+        <v>0.1215455491616651</v>
       </c>
       <c r="E8">
-        <v>0.7180015839249878</v>
+        <v>0.3384126956184911</v>
       </c>
       <c r="F8">
-        <v>0.007930630447330949</v>
+        <v>0.008936519294962109</v>
       </c>
       <c r="G8">
-        <v>1.823401643565686</v>
+        <v>-1.439411815488059</v>
       </c>
       <c r="H8">
-        <v>0.1886650782144079</v>
+        <v>0.5205913481591573</v>
       </c>
       <c r="I8">
-        <v>6.62610138098997E-20</v>
+        <v>1.865721238171627E-28</v>
       </c>
       <c r="J8">
-        <v>6.380000114440918</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="K8">
-        <v>26.23999977111816</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="L8">
-        <v>0.7210141441455438</v>
+        <v>0.4883431919719206</v>
       </c>
       <c r="M8">
-        <v>-0.744933476115782</v>
+        <v>-0.4357566076538051</v>
       </c>
       <c r="N8">
-        <v>0.306664176266452</v>
+        <v>0.2114724108094717</v>
       </c>
       <c r="O8">
-        <v>-0.393973138288823</v>
+        <v>-0.3947065132452439</v>
       </c>
       <c r="P8">
-        <v>0.01627060543815501</v>
+        <v>0.01614065029633525</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -935,167 +926,167 @@
         <v>1664</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2060249303101976</v>
+        <v>0.2204016181051032</v>
       </c>
       <c r="E9">
-        <v>0.8256430893193248</v>
+        <v>0.7948813090046257</v>
       </c>
       <c r="F9">
-        <v>0.004390471941256701</v>
+        <v>0.006143318163840012</v>
       </c>
       <c r="G9">
-        <v>11.34151086424809</v>
+        <v>11.28526559121038</v>
       </c>
       <c r="H9">
-        <v>0.1075254366251095</v>
+        <v>0.107986714170558</v>
       </c>
       <c r="I9">
-        <v>1.520483255060302E-31</v>
+        <v>2.74306995337949E-32</v>
       </c>
       <c r="J9">
         <v>21.09000015258789</v>
       </c>
       <c r="K9">
-        <v>98.02999877929688</v>
+        <v>97.66999816894531</v>
       </c>
       <c r="L9">
-        <v>1.458173462101573</v>
+        <v>1.179956323628559</v>
       </c>
       <c r="M9">
-        <v>-1.641166269172054</v>
+        <v>-1.626274528787661</v>
       </c>
       <c r="N9">
-        <v>0.6661697622495925</v>
+        <v>0.6574973873238414</v>
       </c>
       <c r="O9">
-        <v>-0.7922291327630404</v>
+        <v>-0.7423276139313089</v>
       </c>
       <c r="P9">
-        <v>0.01638706440912339</v>
+        <v>0.01663556565423514</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>789</v>
+        <v>1824</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.2654391855725039</v>
+        <v>0.6248357378304481</v>
       </c>
       <c r="E10">
-        <v>0.7044612619528846</v>
+        <v>0.7053398598640473</v>
       </c>
       <c r="F10">
-        <v>0.009733763833383285</v>
+        <v>0.009559233504626195</v>
       </c>
       <c r="G10">
-        <v>16.47413824679764</v>
+        <v>11.93685268951104</v>
       </c>
       <c r="H10">
-        <v>0.7325962877073398</v>
+        <v>1.149551393370166</v>
       </c>
       <c r="I10">
-        <v>1.153625952415476E-36</v>
+        <v>1.103600685418222E-51</v>
       </c>
       <c r="J10">
-        <v>33.29999923706055</v>
+        <v>35.79000091552734</v>
       </c>
       <c r="K10">
-        <v>21.82999992370605</v>
+        <v>21.79999923706055</v>
       </c>
       <c r="L10">
-        <v>1.747827425473616</v>
+        <v>2.137021651712246</v>
       </c>
       <c r="M10">
-        <v>-1.521472782756213</v>
+        <v>-2.451290335855447</v>
       </c>
       <c r="N10">
-        <v>0.8240224889924421</v>
+        <v>0.9274762037128992</v>
       </c>
       <c r="O10">
-        <v>0.8332840855043404</v>
+        <v>-1.20707127241521</v>
       </c>
       <c r="P10">
-        <v>0.01690763026193735</v>
+        <v>0.01669580028713711</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2737</v>
+        <v>1707</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.2542471074353803</v>
+        <v>0.4456258772974987</v>
       </c>
       <c r="E11">
-        <v>0.8256430893193248</v>
+        <v>0.5150983072225125</v>
       </c>
       <c r="F11">
-        <v>0.002665700824473885</v>
+        <v>0.008715000877316872</v>
       </c>
       <c r="G11">
-        <v>27.89310498210661</v>
+        <v>3.807472997375749</v>
       </c>
       <c r="H11">
-        <v>0.1329826384351079</v>
+        <v>0.9342559634784529</v>
       </c>
       <c r="I11">
-        <v>1.096333014752753E-16</v>
+        <v>3.148924570053541E-46</v>
       </c>
       <c r="J11">
-        <v>43.2400016784668</v>
+        <v>7.639999866485596</v>
       </c>
       <c r="K11">
-        <v>98.02999877929688</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="L11">
-        <v>3.738735035062547</v>
+        <v>0.8613340796755109</v>
       </c>
       <c r="M11">
-        <v>-2.494081303400407</v>
+        <v>-0.5507453106068017</v>
       </c>
       <c r="N11">
-        <v>1.334306524506266</v>
+        <v>0.2887077436062264</v>
       </c>
       <c r="O11">
-        <v>2.310608812898874</v>
+        <v>-0.3529398650931403</v>
       </c>
       <c r="P11">
-        <v>0.01781771533697266</v>
+        <v>0.01680983113445852</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -73,16 +73,19 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>B3SA3</t>
+    <t>EZTC3</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>DXCO3</t>
+    <t>PETR3</t>
   </si>
   <si>
     <t>ELET6</t>
@@ -91,25 +94,22 @@
     <t>CCRO3</t>
   </si>
   <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
+  </si>
+  <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>SBSP3</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
+    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -537,217 +537,217 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.6248357378304481</v>
+        <v>0.5767653639762174</v>
       </c>
       <c r="E2">
-        <v>0.692381606636864</v>
+        <v>0.6528819191933048</v>
       </c>
       <c r="F2">
-        <v>0.0005523575780484501</v>
+        <v>0.0001564929201821095</v>
       </c>
       <c r="G2">
-        <v>-3.215776823707451</v>
+        <v>-3.249707401392925</v>
       </c>
       <c r="H2">
-        <v>0.9737865146355885</v>
+        <v>0.9745075840204946</v>
       </c>
       <c r="I2">
-        <v>1.793175016092855E-140</v>
+        <v>1.458445207850128E-140</v>
       </c>
       <c r="J2">
-        <v>35.79000091552734</v>
+        <v>36.45000076293945</v>
       </c>
       <c r="K2">
-        <v>40.36999893188477</v>
+        <v>40.97999954223633</v>
       </c>
       <c r="L2">
-        <v>0.5275324807447035</v>
+        <v>0.5311565130627827</v>
       </c>
       <c r="M2">
-        <v>-0.620481418085312</v>
+        <v>-0.6158118373596437</v>
       </c>
       <c r="N2">
-        <v>0.2086964538653621</v>
+        <v>0.2088535369982963</v>
       </c>
       <c r="O2">
-        <v>-0.3059828164877061</v>
+        <v>-0.2356121827333197</v>
       </c>
       <c r="P2">
-        <v>0.006290624715322312</v>
+        <v>0.006279833504877108</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1002</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1215455491616651</v>
+        <v>0.6510408556571818</v>
       </c>
       <c r="E3">
-        <v>0.692381606636864</v>
+        <v>0.3408809619342221</v>
       </c>
       <c r="F3">
-        <v>3.251485116469342E-05</v>
+        <v>0.005445571938959688</v>
       </c>
       <c r="G3">
-        <v>-1.684454520756949</v>
+        <v>-4.318577617660286</v>
       </c>
       <c r="H3">
-        <v>0.1258557197545385</v>
+        <v>1.248538275108926</v>
       </c>
       <c r="I3">
-        <v>5.696653452814828E-37</v>
+        <v>8.915188446363271E-55</v>
       </c>
       <c r="J3">
-        <v>3.200000047683716</v>
+        <v>10.18000030517578</v>
       </c>
       <c r="K3">
-        <v>40.36999893188477</v>
+        <v>12.25</v>
       </c>
       <c r="L3">
-        <v>0.4459549645925209</v>
+        <v>0.7219170264614938</v>
       </c>
       <c r="M3">
-        <v>-0.5919387924291923</v>
+        <v>-0.8014139254615493</v>
       </c>
       <c r="N3">
-        <v>0.1833763697132661</v>
+        <v>0.3141924816215929</v>
       </c>
       <c r="O3">
-        <v>-0.1963407036216447</v>
+        <v>-0.7960159472482768</v>
       </c>
       <c r="P3">
-        <v>0.01046497767927919</v>
+        <v>0.0141630842949663</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>240</v>
+        <v>1034</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.6409784373132171</v>
+        <v>0.1137764338027633</v>
       </c>
       <c r="E4">
-        <v>0.3598218506860711</v>
+        <v>0.5917875663779105</v>
       </c>
       <c r="F4">
-        <v>0.0007444630583030132</v>
+        <v>0.0008140112007160797</v>
       </c>
       <c r="G4">
-        <v>-4.27578339062298</v>
+        <v>0.3848734394426072</v>
       </c>
       <c r="H4">
-        <v>1.245223156193551</v>
+        <v>0.1112210085917669</v>
       </c>
       <c r="I4">
-        <v>2.508400335123502E-55</v>
+        <v>1.197838374831248E-26</v>
       </c>
       <c r="J4">
-        <v>10.14000034332275</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="K4">
-        <v>12.07999992370605</v>
+        <v>29.43000030517578</v>
       </c>
       <c r="L4">
-        <v>0.7216857368057923</v>
+        <v>0.6292186891300444</v>
       </c>
       <c r="M4">
-        <v>-0.8023655127948732</v>
+        <v>-0.6305094857841684</v>
       </c>
       <c r="N4">
-        <v>0.3100050661761789</v>
+        <v>0.2152499456918477</v>
       </c>
       <c r="O4">
-        <v>-0.6265118978693742</v>
+        <v>-0.2381076799463213</v>
       </c>
       <c r="P4">
-        <v>0.01296449531028072</v>
+        <v>0.01424300027479775</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1642</v>
+        <v>2024</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.2204016181051032</v>
+        <v>0.1097846521530777</v>
       </c>
       <c r="E5">
-        <v>0.592767960932273</v>
+        <v>0.1976503424276762</v>
       </c>
       <c r="F5">
-        <v>0.0009267834804716422</v>
+        <v>0.002416760325524665</v>
       </c>
       <c r="G5">
-        <v>2.233908372534342</v>
+        <v>8.80678722425097</v>
       </c>
       <c r="H5">
-        <v>1.783248423737242</v>
+        <v>0.1396138495770693</v>
       </c>
       <c r="I5">
-        <v>3.984562817590473E-38</v>
+        <v>1.19888486511718E-16</v>
       </c>
       <c r="J5">
-        <v>21.09000015258789</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="K5">
-        <v>10.19999980926514</v>
+        <v>35.06000137329102</v>
       </c>
       <c r="L5">
-        <v>1.299323058906975</v>
+        <v>1.114700493529385</v>
       </c>
       <c r="M5">
-        <v>-1.481314976957368</v>
+        <v>-0.9810495444648328</v>
       </c>
       <c r="N5">
-        <v>0.5962508353513577</v>
+        <v>0.5281712840488098</v>
       </c>
       <c r="O5">
-        <v>0.6669581980613302</v>
+        <v>0.7083508652586437</v>
       </c>
       <c r="P5">
-        <v>0.01426063089841387</v>
+        <v>0.0142838230612426</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
         <v>21</v>
@@ -755,338 +755,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1042</v>
+        <v>2047</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.1215455491616651</v>
+        <v>0.1097846521530777</v>
       </c>
       <c r="E6">
-        <v>0.5142315345783052</v>
+        <v>0.4308678207138356</v>
       </c>
       <c r="F6">
-        <v>0.002332885736236588</v>
+        <v>0.003611562171611749</v>
       </c>
       <c r="G6">
-        <v>-0.5594879196299367</v>
+        <v>6.585451471903618</v>
       </c>
       <c r="H6">
-        <v>0.249324741115371</v>
+        <v>0.1209989271473536</v>
       </c>
       <c r="I6">
-        <v>5.441540743532538E-25</v>
+        <v>1.852265853942238E-16</v>
       </c>
       <c r="J6">
-        <v>3.200000047683716</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="K6">
-        <v>16.30999946594238</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="L6">
-        <v>0.478687911085415</v>
+        <v>1.111803240478419</v>
       </c>
       <c r="M6">
-        <v>-0.5334754944408155</v>
+        <v>-1.346080661985976</v>
       </c>
       <c r="N6">
-        <v>0.2240825788991727</v>
+        <v>0.5298329561395686</v>
       </c>
       <c r="O6">
-        <v>-0.3069984271242712</v>
+        <v>0.6493120879852805</v>
       </c>
       <c r="P6">
-        <v>0.01506433235501155</v>
+        <v>0.01439501104471828</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1034</v>
+        <v>1642</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.1215455491616651</v>
+        <v>0.2415095176618478</v>
       </c>
       <c r="E7">
-        <v>0.5967471494616809</v>
+        <v>0.5998909392371469</v>
       </c>
       <c r="F7">
-        <v>0.001470312205851643</v>
+        <v>0.001272291466210512</v>
       </c>
       <c r="G7">
-        <v>0.4068943942181583</v>
+        <v>2.056400513281488</v>
       </c>
       <c r="H7">
-        <v>0.1103511336196624</v>
+        <v>1.800098549774922</v>
       </c>
       <c r="I7">
-        <v>3.722407784356027E-25</v>
+        <v>1.133729444123614E-38</v>
       </c>
       <c r="J7">
-        <v>3.200000047683716</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="K7">
-        <v>29.52000045776367</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="L7">
-        <v>0.6326022818653514</v>
+        <v>1.298556585966729</v>
       </c>
       <c r="M7">
-        <v>-0.7440786273420743</v>
+        <v>-1.48747348508742</v>
       </c>
       <c r="N7">
-        <v>0.2234660819265415</v>
+        <v>0.5920377283202051</v>
       </c>
       <c r="O7">
-        <v>-0.4644598615016156</v>
+        <v>0.7305713061257926</v>
       </c>
       <c r="P7">
-        <v>0.01527924386027769</v>
+        <v>0.01487039338545166</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>993</v>
+        <v>2034</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0.1215455491616651</v>
+        <v>0.1097846521530777</v>
       </c>
       <c r="E8">
-        <v>0.3384126956184911</v>
+        <v>0.2229176005231722</v>
       </c>
       <c r="F8">
-        <v>0.008936519294962109</v>
+        <v>0.004424443267763863</v>
       </c>
       <c r="G8">
-        <v>-1.439411815488059</v>
+        <v>5.490795190677069</v>
       </c>
       <c r="H8">
-        <v>0.5205913481591573</v>
+        <v>0.1932630523345781</v>
       </c>
       <c r="I8">
-        <v>1.865721238171627E-28</v>
+        <v>6.844940306993664E-10</v>
       </c>
       <c r="J8">
-        <v>3.200000047683716</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="K8">
-        <v>9.670000076293945</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="L8">
-        <v>0.4883431919719206</v>
+        <v>1.883949538011917</v>
       </c>
       <c r="M8">
-        <v>-0.4357566076538051</v>
+        <v>-0.9721685124501036</v>
       </c>
       <c r="N8">
-        <v>0.2114724108094717</v>
+        <v>0.5906882985380131</v>
       </c>
       <c r="O8">
-        <v>-0.3947065132452439</v>
+        <v>0.6861989221780274</v>
       </c>
       <c r="P8">
-        <v>0.01614065029633525</v>
+        <v>0.01514538368317922</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1664</v>
+        <v>2044</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.2204016181051032</v>
+        <v>0.1097846521530777</v>
       </c>
       <c r="E9">
-        <v>0.7948813090046257</v>
+        <v>0.8205402563976082</v>
       </c>
       <c r="F9">
-        <v>0.006143318163840012</v>
+        <v>0.005795855287764396</v>
       </c>
       <c r="G9">
-        <v>11.28526559121038</v>
+        <v>8.417798326507357</v>
       </c>
       <c r="H9">
-        <v>0.107986714170558</v>
+        <v>0.05376943357744437</v>
       </c>
       <c r="I9">
-        <v>2.74306995337949E-32</v>
+        <v>8.811953808858486E-18</v>
       </c>
       <c r="J9">
-        <v>21.09000015258789</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="K9">
-        <v>97.66999816894531</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L9">
-        <v>1.179956323628559</v>
+        <v>1.405524307016261</v>
       </c>
       <c r="M9">
-        <v>-1.626274528787661</v>
+        <v>-1.013872431139053</v>
       </c>
       <c r="N9">
-        <v>0.6574973873238414</v>
+        <v>0.5183033529965818</v>
       </c>
       <c r="O9">
-        <v>-0.7423276139313089</v>
+        <v>0.6744044580498594</v>
       </c>
       <c r="P9">
-        <v>0.01663556565423514</v>
+        <v>0.01539374776794415</v>
       </c>
       <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
         <v>21</v>
-      </c>
-      <c r="R9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1824</v>
+        <v>2737</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.6248357378304481</v>
+        <v>0.2229176005231722</v>
       </c>
       <c r="E10">
-        <v>0.7053398598640473</v>
+        <v>0.8205402563976082</v>
       </c>
       <c r="F10">
-        <v>0.009559233504626195</v>
+        <v>0.0009952192956538012</v>
       </c>
       <c r="G10">
-        <v>11.93685268951104</v>
+        <v>26.91253090867528</v>
       </c>
       <c r="H10">
-        <v>1.149551393370166</v>
+        <v>0.143868072691629</v>
       </c>
       <c r="I10">
-        <v>1.103600685418222E-51</v>
+        <v>5.48405931312935E-20</v>
       </c>
       <c r="J10">
-        <v>35.79000091552734</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="K10">
-        <v>21.79999923706055</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="L10">
-        <v>2.137021651712246</v>
+        <v>3.654468308477156</v>
       </c>
       <c r="M10">
-        <v>-2.451290335855447</v>
+        <v>-2.572986566088083</v>
       </c>
       <c r="N10">
-        <v>0.9274762037128992</v>
+        <v>1.275204674532602</v>
       </c>
       <c r="O10">
-        <v>-1.20707127241521</v>
+        <v>1.458914956718454</v>
       </c>
       <c r="P10">
-        <v>0.01669580028713711</v>
+        <v>0.01572160200779787</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1707</v>
+        <v>2056</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4456258772974987</v>
+        <v>0.1097846521530777</v>
       </c>
       <c r="E11">
-        <v>0.5150983072225125</v>
+        <v>0.6224888951749501</v>
       </c>
       <c r="F11">
-        <v>0.008715000877316872</v>
+        <v>0.00847011276203909</v>
       </c>
       <c r="G11">
-        <v>3.807472997375749</v>
+        <v>10.07423884734554</v>
       </c>
       <c r="H11">
-        <v>0.9342559634784529</v>
+        <v>0.06260243616635605</v>
       </c>
       <c r="I11">
-        <v>3.148924570053541E-46</v>
+        <v>1.004662685940391E-15</v>
       </c>
       <c r="J11">
-        <v>7.639999866485596</v>
+        <v>14.40999984741211</v>
       </c>
       <c r="K11">
-        <v>4.480000019073486</v>
+        <v>52.77999877929688</v>
       </c>
       <c r="L11">
-        <v>0.8613340796755109</v>
+        <v>1.154390269649344</v>
       </c>
       <c r="M11">
-        <v>-0.5507453106068017</v>
+        <v>-1.103637974338085</v>
       </c>
       <c r="N11">
-        <v>0.2887077436062264</v>
+        <v>0.5363385450401987</v>
       </c>
       <c r="O11">
-        <v>-0.3529398650931403</v>
+        <v>1.031604495625291</v>
       </c>
       <c r="P11">
-        <v>0.01680983113445852</v>
+        <v>0.01577850745723177</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,43 +73,49 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>EZTC3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>PETR3</t>
+    <t>MRVE3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
     <t>CCRO3</t>
   </si>
   <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>RDOR3</t>
   </si>
   <si>
-    <t>JBSS3</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -540,43 +546,43 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5767653639762174</v>
+        <v>0.6437901537865502</v>
       </c>
       <c r="E2">
-        <v>0.6528819191933048</v>
+        <v>0.7127550199701913</v>
       </c>
       <c r="F2">
-        <v>0.0001564929201821095</v>
+        <v>0.0001639548776402299</v>
       </c>
       <c r="G2">
-        <v>-3.249707401392925</v>
+        <v>-3.292318116199148</v>
       </c>
       <c r="H2">
-        <v>0.9745075840204946</v>
+        <v>0.975467993010541</v>
       </c>
       <c r="I2">
-        <v>1.458445207850128E-140</v>
+        <v>1.270221825980612E-141</v>
       </c>
       <c r="J2">
-        <v>36.45000076293945</v>
+        <v>35.40000152587891</v>
       </c>
       <c r="K2">
-        <v>40.97999954223633</v>
+        <v>39.91999816894531</v>
       </c>
       <c r="L2">
-        <v>0.5311565130627827</v>
+        <v>0.533401239189736</v>
       </c>
       <c r="M2">
-        <v>-0.6158118373596437</v>
+        <v>-0.6121745211280682</v>
       </c>
       <c r="N2">
-        <v>0.2088535369982963</v>
+        <v>0.2091803066720932</v>
       </c>
       <c r="O2">
-        <v>-0.2356121827333197</v>
+        <v>-0.2483608527675045</v>
       </c>
       <c r="P2">
-        <v>0.006279833504877108</v>
+        <v>0.006350546763343104</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -587,7 +593,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>240</v>
+        <v>1007</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,54 +602,54 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0.6510408556571818</v>
+        <v>0.1105919156958976</v>
       </c>
       <c r="E3">
-        <v>0.3408809619342221</v>
+        <v>0.7074576318401188</v>
       </c>
       <c r="F3">
-        <v>0.005445571938959688</v>
+        <v>1.711232484191047E-05</v>
       </c>
       <c r="G3">
-        <v>-4.318577617660286</v>
+        <v>-1.28261196901121</v>
       </c>
       <c r="H3">
-        <v>1.248538275108926</v>
+        <v>0.3310240904822943</v>
       </c>
       <c r="I3">
-        <v>8.915188446363271E-55</v>
+        <v>1.221638488805863E-43</v>
       </c>
       <c r="J3">
-        <v>10.18000030517578</v>
+        <v>3.440000057220459</v>
       </c>
       <c r="K3">
-        <v>12.25</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="L3">
-        <v>0.7219170264614938</v>
+        <v>0.4906314395424416</v>
       </c>
       <c r="M3">
-        <v>-0.8014139254615493</v>
+        <v>-0.3370377463106826</v>
       </c>
       <c r="N3">
-        <v>0.3141924816215929</v>
+        <v>0.162473880444306</v>
       </c>
       <c r="O3">
-        <v>-0.7960159472482768</v>
+        <v>0.2239945860670218</v>
       </c>
       <c r="P3">
-        <v>0.0141630842949663</v>
+        <v>0.008820419721677681</v>
       </c>
       <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1034</v>
+        <v>1656</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -652,43 +658,43 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.1137764338027633</v>
+        <v>0.1880731417843406</v>
       </c>
       <c r="E4">
-        <v>0.5917875663779105</v>
+        <v>0.4818856871338487</v>
       </c>
       <c r="F4">
-        <v>0.0008140112007160797</v>
+        <v>0.0004190583219215305</v>
       </c>
       <c r="G4">
-        <v>0.3848734394426072</v>
+        <v>14.16962609669249</v>
       </c>
       <c r="H4">
-        <v>0.1112210085917669</v>
+        <v>1.610568100244098</v>
       </c>
       <c r="I4">
-        <v>1.197838374831248E-26</v>
+        <v>1.236809640058696E-38</v>
       </c>
       <c r="J4">
-        <v>3.420000076293945</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="K4">
-        <v>29.43000030517578</v>
+        <v>4.289999961853027</v>
       </c>
       <c r="L4">
-        <v>0.6292186891300444</v>
+        <v>2.744886369630553</v>
       </c>
       <c r="M4">
-        <v>-0.6305094857841684</v>
+        <v>-1.16377084341562</v>
       </c>
       <c r="N4">
-        <v>0.2152499456918477</v>
+        <v>0.5936096372052944</v>
       </c>
       <c r="O4">
-        <v>-0.2381076799463213</v>
+        <v>-0.9589623460679766</v>
       </c>
       <c r="P4">
-        <v>0.01424300027479775</v>
+        <v>0.01113498465140985</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -699,7 +705,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2024</v>
+        <v>1894</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -708,385 +714,385 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.1097846521530777</v>
+        <v>0.7940048732510099</v>
       </c>
       <c r="E5">
-        <v>0.1976503424276762</v>
+        <v>0.9728618630710681</v>
       </c>
       <c r="F5">
-        <v>0.002416760325524665</v>
+        <v>0.00158804748697433</v>
       </c>
       <c r="G5">
-        <v>8.80678722425097</v>
+        <v>7.328018645860519</v>
       </c>
       <c r="H5">
-        <v>0.1396138495770693</v>
+        <v>2.799752820953263</v>
       </c>
       <c r="I5">
-        <v>1.19888486511718E-16</v>
+        <v>3.455463857481148E-56</v>
       </c>
       <c r="J5">
-        <v>14.40999984741211</v>
+        <v>56.68999862670898</v>
       </c>
       <c r="K5">
-        <v>35.06000137329102</v>
+        <v>18.75</v>
       </c>
       <c r="L5">
-        <v>1.114700493529385</v>
+        <v>5.657839406986874</v>
       </c>
       <c r="M5">
-        <v>-0.9810495444648328</v>
+        <v>-6.744842089839878</v>
       </c>
       <c r="N5">
-        <v>0.5281712840488098</v>
+        <v>2.365944611361424</v>
       </c>
       <c r="O5">
-        <v>0.7083508652586437</v>
+        <v>-3.13338541202522</v>
       </c>
       <c r="P5">
-        <v>0.0142838230612426</v>
+        <v>0.01301174241714515</v>
       </c>
       <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
         <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2047</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.1097846521530777</v>
+        <v>0.7450075994668487</v>
       </c>
       <c r="E6">
-        <v>0.4308678207138356</v>
+        <v>0.3937428557092396</v>
       </c>
       <c r="F6">
-        <v>0.003611562171611749</v>
+        <v>0.001640814006396981</v>
       </c>
       <c r="G6">
-        <v>6.585451471903618</v>
+        <v>-4.404964106741422</v>
       </c>
       <c r="H6">
-        <v>0.1209989271473536</v>
+        <v>1.255318840048297</v>
       </c>
       <c r="I6">
-        <v>1.852265853942238E-16</v>
+        <v>2.247097505747356E-55</v>
       </c>
       <c r="J6">
-        <v>14.40999984741211</v>
+        <v>9.760000228881836</v>
       </c>
       <c r="K6">
-        <v>59.29999923706055</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="L6">
-        <v>1.111803240478419</v>
+        <v>0.7214354591754937</v>
       </c>
       <c r="M6">
-        <v>-1.346080661985976</v>
+        <v>-0.8004498913884692</v>
       </c>
       <c r="N6">
-        <v>0.5298329561395686</v>
+        <v>0.315148114759587</v>
       </c>
       <c r="O6">
-        <v>0.6493120879852805</v>
+        <v>-0.4218404420781159</v>
       </c>
       <c r="P6">
-        <v>0.01439501104471828</v>
+        <v>0.01320328859240597</v>
       </c>
       <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
         <v>28</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1642</v>
+        <v>1676</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.2415095176618478</v>
+        <v>0.1880731417843406</v>
       </c>
       <c r="E7">
-        <v>0.5998909392371469</v>
+        <v>0.5903355366060592</v>
       </c>
       <c r="F7">
-        <v>0.001272291466210512</v>
+        <v>0.001817467147808467</v>
       </c>
       <c r="G7">
-        <v>2.056400513281488</v>
+        <v>14.41239430969865</v>
       </c>
       <c r="H7">
-        <v>1.800098549774922</v>
+        <v>0.1294374181356482</v>
       </c>
       <c r="I7">
-        <v>1.133729444123614E-38</v>
+        <v>3.214122145538134E-30</v>
       </c>
       <c r="J7">
-        <v>21.57999992370605</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="K7">
-        <v>10.4399995803833</v>
+        <v>52.11000061035156</v>
       </c>
       <c r="L7">
-        <v>1.298556585966729</v>
+        <v>1.415152581027584</v>
       </c>
       <c r="M7">
-        <v>-1.48747348508742</v>
+        <v>-1.607599138807565</v>
       </c>
       <c r="N7">
-        <v>0.5920377283202051</v>
+        <v>0.6827419111988053</v>
       </c>
       <c r="O7">
-        <v>0.7305713061257926</v>
+        <v>-1.037377408516214</v>
       </c>
       <c r="P7">
-        <v>0.01487039338545166</v>
+        <v>0.01371472759715648</v>
       </c>
       <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
         <v>29</v>
-      </c>
-      <c r="R7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2034</v>
+        <v>2636</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1097846521530777</v>
+        <v>0.1672163263417132</v>
       </c>
       <c r="E8">
-        <v>0.2229176005231722</v>
+        <v>0.6107828731523373</v>
       </c>
       <c r="F8">
-        <v>0.004424443267763863</v>
+        <v>0.005637968386747195</v>
       </c>
       <c r="G8">
-        <v>5.490795190677069</v>
+        <v>2.735270440864214</v>
       </c>
       <c r="H8">
-        <v>0.1932630523345781</v>
+        <v>0.1481655869809016</v>
       </c>
       <c r="I8">
-        <v>6.844940306993664E-10</v>
+        <v>2.382204309243054E-28</v>
       </c>
       <c r="J8">
-        <v>14.40999984741211</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="K8">
-        <v>42.59999847412109</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="L8">
-        <v>1.883949538011917</v>
+        <v>0.6460505685759967</v>
       </c>
       <c r="M8">
-        <v>-0.9721685124501036</v>
+        <v>-0.9602286311863333</v>
       </c>
       <c r="N8">
-        <v>0.5906882985380131</v>
+        <v>0.2739551609940911</v>
       </c>
       <c r="O8">
-        <v>0.6861989221780274</v>
+        <v>-0.7213149663431873</v>
       </c>
       <c r="P8">
-        <v>0.01514538368317922</v>
+        <v>0.01417025821722873</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2044</v>
+        <v>1641</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1097846521530777</v>
+        <v>0.1880731417843406</v>
       </c>
       <c r="E9">
-        <v>0.8205402563976082</v>
+        <v>0.6981545254423436</v>
       </c>
       <c r="F9">
-        <v>0.005795855287764396</v>
+        <v>0.003453046912808916</v>
       </c>
       <c r="G9">
-        <v>8.417798326507357</v>
+        <v>16.00631864866635</v>
       </c>
       <c r="H9">
-        <v>0.05376943357744437</v>
+        <v>0.1229851588903029</v>
       </c>
       <c r="I9">
-        <v>8.811953808858486E-18</v>
+        <v>1.757457799642996E-30</v>
       </c>
       <c r="J9">
-        <v>14.40999984741211</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="K9">
-        <v>98.90000152587891</v>
+        <v>40.79999923706055</v>
       </c>
       <c r="L9">
-        <v>1.405524307016261</v>
+        <v>2.142998665685639</v>
       </c>
       <c r="M9">
-        <v>-1.013872431139053</v>
+        <v>-1.408453439479178</v>
       </c>
       <c r="N9">
-        <v>0.5183033529965818</v>
+        <v>0.6797749114073177</v>
       </c>
       <c r="O9">
-        <v>0.6744044580498594</v>
+        <v>-0.9041121983270832</v>
       </c>
       <c r="P9">
-        <v>0.01539374776794415</v>
+        <v>0.01429043213473729</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2737</v>
+        <v>1651</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.2229176005231722</v>
+        <v>0.1880731417843406</v>
       </c>
       <c r="E10">
-        <v>0.8205402563976082</v>
+        <v>0.4729859361381882</v>
       </c>
       <c r="F10">
-        <v>0.0009952192956538012</v>
+        <v>0.002959310996057633</v>
       </c>
       <c r="G10">
-        <v>26.91253090867528</v>
+        <v>5.088818922715794</v>
       </c>
       <c r="H10">
-        <v>0.143868072691629</v>
+        <v>0.6300323537818686</v>
       </c>
       <c r="I10">
-        <v>5.48405931312935E-20</v>
+        <v>1.966320496542035E-40</v>
       </c>
       <c r="J10">
-        <v>42.59999847412109</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="K10">
-        <v>98.90000152587891</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="L10">
-        <v>3.654468308477156</v>
+        <v>1.272786940089247</v>
       </c>
       <c r="M10">
-        <v>-2.572986566088083</v>
+        <v>-1.846144928578109</v>
       </c>
       <c r="N10">
-        <v>1.275204674532602</v>
+        <v>0.5761080085283754</v>
       </c>
       <c r="O10">
-        <v>1.458914956718454</v>
+        <v>-0.6251223153001018</v>
       </c>
       <c r="P10">
-        <v>0.01572160200779787</v>
+        <v>0.01460341301464289</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2056</v>
+        <v>1675</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.1097846521530777</v>
+        <v>0.1880731417843406</v>
       </c>
       <c r="E11">
-        <v>0.6224888951749501</v>
+        <v>0.6008058772846391</v>
       </c>
       <c r="F11">
-        <v>0.00847011276203909</v>
+        <v>0.004148744810319638</v>
       </c>
       <c r="G11">
-        <v>10.07423884734554</v>
+        <v>9.826994068551107</v>
       </c>
       <c r="H11">
-        <v>0.06260243616635605</v>
+        <v>0.217888650342255</v>
       </c>
       <c r="I11">
-        <v>1.004662685940391E-15</v>
+        <v>2.172489381393472E-32</v>
       </c>
       <c r="J11">
-        <v>14.40999984741211</v>
+        <v>20.1200008392334</v>
       </c>
       <c r="K11">
-        <v>52.77999877929688</v>
+        <v>50.86999893188477</v>
       </c>
       <c r="L11">
-        <v>1.154390269649344</v>
+        <v>1.532796647709247</v>
       </c>
       <c r="M11">
-        <v>-1.103637974338085</v>
+        <v>-1.605617164287899</v>
       </c>
       <c r="N11">
-        <v>0.5363385450401987</v>
+        <v>0.6585630558285965</v>
       </c>
       <c r="O11">
-        <v>1.031604495625291</v>
+        <v>-0.7909886394980354</v>
       </c>
       <c r="P11">
-        <v>0.01577850745723177</v>
+        <v>0.01547370163010082</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -76,16 +76,25 @@
     <t>CASH3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>BBSE3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>BBDC3</t>
   </si>
   <si>
     <t>ELET6</t>
@@ -94,28 +103,22 @@
     <t>FLRY3</t>
   </si>
   <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>WEGE3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
   </si>
 </sst>
 </file>
@@ -543,52 +546,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.6437901537865502</v>
+        <v>0.7586034409226904</v>
       </c>
       <c r="E2">
-        <v>0.7127550199701913</v>
+        <v>0.7958509920470764</v>
       </c>
       <c r="F2">
-        <v>0.0001639548776402299</v>
+        <v>0.0004814320498756033</v>
       </c>
       <c r="G2">
-        <v>-3.292318116199148</v>
+        <v>-3.413978230037814</v>
       </c>
       <c r="H2">
-        <v>0.975467993010541</v>
+        <v>0.9782453770915811</v>
       </c>
       <c r="I2">
-        <v>1.270221825980612E-141</v>
+        <v>4.14775937331281E-142</v>
       </c>
       <c r="J2">
-        <v>35.40000152587891</v>
+        <v>34.04999923706055</v>
       </c>
       <c r="K2">
-        <v>39.91999816894531</v>
+        <v>38.81999969482422</v>
       </c>
       <c r="L2">
-        <v>0.533401239189736</v>
+        <v>0.5383279034926431</v>
       </c>
       <c r="M2">
-        <v>-0.6121745211280682</v>
+        <v>-0.6032206583835489</v>
       </c>
       <c r="N2">
-        <v>0.2091803066720932</v>
+        <v>0.2129598341160563</v>
       </c>
       <c r="O2">
-        <v>-0.2483608527675045</v>
+        <v>-0.5115077730600248</v>
       </c>
       <c r="P2">
-        <v>0.006350546763343104</v>
+        <v>0.006596216639832706</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -599,49 +602,49 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>0.1105919156958976</v>
+        <v>0.1269006958040801</v>
       </c>
       <c r="E3">
-        <v>0.7074576318401188</v>
+        <v>0.7869366008801906</v>
       </c>
       <c r="F3">
-        <v>1.711232484191047E-05</v>
+        <v>1.70825335963168E-05</v>
       </c>
       <c r="G3">
-        <v>-1.28261196901121</v>
+        <v>-1.232348003434835</v>
       </c>
       <c r="H3">
-        <v>0.3310240904822943</v>
+        <v>0.3277582424151196</v>
       </c>
       <c r="I3">
-        <v>1.221638488805863E-43</v>
+        <v>7.517875278535807E-44</v>
       </c>
       <c r="J3">
-        <v>3.440000057220459</v>
+        <v>3.319999933242798</v>
       </c>
       <c r="K3">
-        <v>13.59000015258789</v>
+        <v>13.27999973297119</v>
       </c>
       <c r="L3">
-        <v>0.4906314395424416</v>
+        <v>0.4902322880408994</v>
       </c>
       <c r="M3">
-        <v>-0.3370377463106826</v>
+        <v>-0.3382040501875618</v>
       </c>
       <c r="N3">
-        <v>0.162473880444306</v>
+        <v>0.1627980283231738</v>
       </c>
       <c r="O3">
-        <v>0.2239945860670218</v>
+        <v>0.1997185649257371</v>
       </c>
       <c r="P3">
-        <v>0.008820419721677681</v>
+        <v>0.008922714697517287</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -649,450 +652,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1656</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.1880731417843406</v>
+        <v>0.676649281281298</v>
       </c>
       <c r="E4">
-        <v>0.4818856871338487</v>
+        <v>0.1269006958040801</v>
       </c>
       <c r="F4">
-        <v>0.0004190583219215305</v>
+        <v>0.0005196044581409179</v>
       </c>
       <c r="G4">
-        <v>14.16962609669249</v>
+        <v>17.54239685782404</v>
       </c>
       <c r="H4">
-        <v>1.610568100244098</v>
+        <v>2.342136805901519</v>
       </c>
       <c r="I4">
-        <v>1.236809640058696E-38</v>
+        <v>8.39878650673196E-40</v>
       </c>
       <c r="J4">
-        <v>20.1200008392334</v>
+        <v>24.47999954223633</v>
       </c>
       <c r="K4">
-        <v>4.289999961853027</v>
+        <v>3.319999933242798</v>
       </c>
       <c r="L4">
-        <v>2.744886369630553</v>
+        <v>1.29876442461795</v>
       </c>
       <c r="M4">
-        <v>-1.16377084341562</v>
+        <v>-1.518010703944324</v>
       </c>
       <c r="N4">
-        <v>0.5936096372052944</v>
+        <v>0.4818411219093353</v>
       </c>
       <c r="O4">
-        <v>-0.9589623460679766</v>
+        <v>-0.8382913548262589</v>
       </c>
       <c r="P4">
-        <v>0.01113498465140985</v>
+        <v>0.01235909264909801</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1894</v>
+        <v>554</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.7940048732510099</v>
+        <v>0.6805070294395119</v>
       </c>
       <c r="E5">
-        <v>0.9728618630710681</v>
+        <v>0.680603998604036</v>
       </c>
       <c r="F5">
-        <v>0.00158804748697433</v>
+        <v>0.0030192479944498</v>
       </c>
       <c r="G5">
-        <v>7.328018645860519</v>
+        <v>4.807184014022981</v>
       </c>
       <c r="H5">
-        <v>2.799752820953263</v>
+        <v>0.850244729534638</v>
       </c>
       <c r="I5">
-        <v>3.455463857481148E-56</v>
+        <v>5.351432141216865E-70</v>
       </c>
       <c r="J5">
-        <v>56.68999862670898</v>
+        <v>33.43000030517578</v>
       </c>
       <c r="K5">
-        <v>18.75</v>
+        <v>32.68000030517578</v>
       </c>
       <c r="L5">
-        <v>5.657839406986874</v>
+        <v>1.629286065653829</v>
       </c>
       <c r="M5">
-        <v>-6.744842089839878</v>
+        <v>-0.9686997295570663</v>
       </c>
       <c r="N5">
-        <v>2.365944611361424</v>
+        <v>0.5574605540829717</v>
       </c>
       <c r="O5">
-        <v>-3.13338541202522</v>
+        <v>0.8368182704867309</v>
       </c>
       <c r="P5">
-        <v>0.01301174241714515</v>
+        <v>0.01401136806999663</v>
       </c>
       <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>240</v>
+        <v>1642</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.7450075994668487</v>
+        <v>0.302991218815313</v>
       </c>
       <c r="E6">
-        <v>0.3937428557092396</v>
+        <v>0.6784765108561434</v>
       </c>
       <c r="F6">
-        <v>0.001640814006396981</v>
+        <v>0.000516904126621763</v>
       </c>
       <c r="G6">
-        <v>-4.404964106741422</v>
+        <v>1.849259027882281</v>
       </c>
       <c r="H6">
-        <v>1.255318840048297</v>
+        <v>1.819219315900038</v>
       </c>
       <c r="I6">
-        <v>2.247097505747356E-55</v>
+        <v>2.487918379886604E-39</v>
       </c>
       <c r="J6">
-        <v>9.760000228881836</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="K6">
-        <v>11.61999988555908</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="L6">
-        <v>0.7214354591754937</v>
+        <v>1.303400367221009</v>
       </c>
       <c r="M6">
-        <v>-0.8004498913884692</v>
+        <v>-1.488748343157987</v>
       </c>
       <c r="N6">
-        <v>0.315148114759587</v>
+        <v>0.5959357974547645</v>
       </c>
       <c r="O6">
-        <v>-0.4218404420781159</v>
+        <v>-1.151223680482524</v>
       </c>
       <c r="P6">
-        <v>0.01320328859240597</v>
+        <v>0.01421953126554443</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1676</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.1880731417843406</v>
+        <v>0.6140695589625003</v>
       </c>
       <c r="E7">
-        <v>0.5903355366060592</v>
+        <v>0.8096299745045896</v>
       </c>
       <c r="F7">
-        <v>0.001817467147808467</v>
+        <v>0.007462727851267619</v>
       </c>
       <c r="G7">
-        <v>14.41239430969865</v>
+        <v>5.501343692112782</v>
       </c>
       <c r="H7">
-        <v>0.1294374181356482</v>
+        <v>0.2980377478469854</v>
       </c>
       <c r="I7">
-        <v>3.214122145538134E-30</v>
+        <v>1.043788406148843E-47</v>
       </c>
       <c r="J7">
-        <v>20.1200008392334</v>
+        <v>10.96000003814697</v>
       </c>
       <c r="K7">
-        <v>52.11000061035156</v>
+        <v>20.36000061035156</v>
       </c>
       <c r="L7">
-        <v>1.415152581027584</v>
+        <v>0.6144611323685609</v>
       </c>
       <c r="M7">
-        <v>-1.607599138807565</v>
+        <v>-0.6093923820382372</v>
       </c>
       <c r="N7">
-        <v>0.6827419111988053</v>
+        <v>0.266048183204225</v>
       </c>
       <c r="O7">
-        <v>-1.037377408516214</v>
+        <v>-0.6093923820382363</v>
       </c>
       <c r="P7">
-        <v>0.01371472759715648</v>
+        <v>0.01527573637112086</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2636</v>
+        <v>2737</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>0.1672163263417132</v>
+        <v>0.170011076164604</v>
       </c>
       <c r="E8">
-        <v>0.6107828731523373</v>
+        <v>0.6867407919128409</v>
       </c>
       <c r="F8">
-        <v>0.005637968386747195</v>
+        <v>0.0007722888443005269</v>
       </c>
       <c r="G8">
-        <v>2.735270440864214</v>
+        <v>26.71764835810749</v>
       </c>
       <c r="H8">
-        <v>0.1481655869809016</v>
+        <v>0.1463253389899881</v>
       </c>
       <c r="I8">
-        <v>2.382204309243054E-28</v>
+        <v>1.132521697347731E-20</v>
       </c>
       <c r="J8">
-        <v>6.170000076293945</v>
+        <v>41.75</v>
       </c>
       <c r="K8">
-        <v>28.04999923706055</v>
+        <v>93.94999694824219</v>
       </c>
       <c r="L8">
-        <v>0.6460505685759967</v>
+        <v>3.656655054622874</v>
       </c>
       <c r="M8">
-        <v>-0.9602286311863333</v>
+        <v>-2.617269748838979</v>
       </c>
       <c r="N8">
-        <v>0.2739551609940911</v>
+        <v>1.277658315988726</v>
       </c>
       <c r="O8">
-        <v>-0.7213149663431873</v>
+        <v>1.285086490332626</v>
       </c>
       <c r="P8">
-        <v>0.01417025821722873</v>
+        <v>0.01589284062752203</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1641</v>
+        <v>993</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>0.1880731417843406</v>
+        <v>0.1269006958040801</v>
       </c>
       <c r="E9">
-        <v>0.6981545254423436</v>
+        <v>0.3359769596114969</v>
       </c>
       <c r="F9">
-        <v>0.003453046912808916</v>
+        <v>0.008425931317329728</v>
       </c>
       <c r="G9">
-        <v>16.00631864866635</v>
+        <v>-1.345990517883458</v>
       </c>
       <c r="H9">
-        <v>0.1229851588903029</v>
+        <v>0.5105277625692449</v>
       </c>
       <c r="I9">
-        <v>1.757457799642996E-30</v>
+        <v>4.363209573021291E-27</v>
       </c>
       <c r="J9">
-        <v>20.1200008392334</v>
+        <v>3.319999933242798</v>
       </c>
       <c r="K9">
-        <v>40.79999923706055</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="L9">
-        <v>2.142998665685639</v>
+        <v>0.4952707789141302</v>
       </c>
       <c r="M9">
-        <v>-1.408453439479178</v>
+        <v>-0.4311821845782182</v>
       </c>
       <c r="N9">
-        <v>0.6797749114073177</v>
+        <v>0.214695360542331</v>
       </c>
       <c r="O9">
-        <v>-0.9041121983270832</v>
+        <v>-0.2912341428962009</v>
       </c>
       <c r="P9">
-        <v>0.01429043213473729</v>
+        <v>0.01654603900469288</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1651</v>
+        <v>1291</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>0.1880731417843406</v>
+        <v>0.3373816817489527</v>
       </c>
       <c r="E10">
-        <v>0.4729859361381882</v>
+        <v>0.6093503420557544</v>
       </c>
       <c r="F10">
-        <v>0.002959310996057633</v>
+        <v>0.006935420080083595</v>
       </c>
       <c r="G10">
-        <v>5.088818922715794</v>
+        <v>3.064754702501937</v>
       </c>
       <c r="H10">
-        <v>0.6300323537818686</v>
+        <v>-0.03079949296928679</v>
       </c>
       <c r="I10">
-        <v>1.966320496542035E-40</v>
+        <v>9.089354503278587E-48</v>
       </c>
       <c r="J10">
-        <v>20.1200008392334</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K10">
-        <v>24.85000038146973</v>
+        <v>52.90999984741211</v>
       </c>
       <c r="L10">
-        <v>1.272786940089247</v>
+        <v>0.2905524544186904</v>
       </c>
       <c r="M10">
-        <v>-1.846144928578109</v>
+        <v>-0.2584086179859011</v>
       </c>
       <c r="N10">
-        <v>0.5761080085283754</v>
+        <v>0.1077829086523677</v>
       </c>
       <c r="O10">
-        <v>-0.6251223153001018</v>
+        <v>-0.1451535723435753</v>
       </c>
       <c r="P10">
-        <v>0.01460341301464289</v>
+        <v>0.01664217068900934</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1675</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>0.1880731417843406</v>
+        <v>0.6305483132559832</v>
       </c>
       <c r="E11">
-        <v>0.6008058772846391</v>
+        <v>0.302991218815313</v>
       </c>
       <c r="F11">
-        <v>0.004148744810319638</v>
+        <v>0.00271411369554966</v>
       </c>
       <c r="G11">
-        <v>9.826994068551107</v>
+        <v>-5.351341472917713</v>
       </c>
       <c r="H11">
-        <v>0.217888650342255</v>
+        <v>0.8481497491795092</v>
       </c>
       <c r="I11">
-        <v>2.172489381393472E-32</v>
+        <v>5.320341000615819E-40</v>
       </c>
       <c r="J11">
-        <v>20.1200008392334</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="K11">
-        <v>50.86999893188477</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="L11">
-        <v>1.532796647709247</v>
+        <v>1.41482956295993</v>
       </c>
       <c r="M11">
-        <v>-1.605617164287899</v>
+        <v>-1.237694215286776</v>
       </c>
       <c r="N11">
-        <v>0.6585630558285965</v>
+        <v>0.5900620212668309</v>
       </c>
       <c r="O11">
-        <v>-0.7909886394980354</v>
+        <v>0.8990523469509881</v>
       </c>
       <c r="P11">
-        <v>0.01547370163010082</v>
+        <v>0.01676140449269647</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -73,10 +73,13 @@
     <t>ELET3</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>COGN3</t>
   </si>
   <si>
     <t>BBSE3</t>
@@ -85,40 +88,34 @@
     <t>CYRE3</t>
   </si>
   <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>BBDC3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>BPAC11</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
     <t>ITUB4</t>
   </si>
   <si>
     <t>ITSA4</t>
   </si>
   <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
     <t>VBBR3</t>
   </si>
   <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
+    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -546,105 +543,105 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.7586034409226904</v>
+        <v>0.7310252678803908</v>
       </c>
       <c r="E2">
-        <v>0.7958509920470764</v>
+        <v>0.7863399925155532</v>
       </c>
       <c r="F2">
-        <v>0.0004814320498756033</v>
+        <v>0.001687451053052967</v>
       </c>
       <c r="G2">
-        <v>-3.413978230037814</v>
+        <v>-3.525865083648725</v>
       </c>
       <c r="H2">
-        <v>0.9782453770915811</v>
+        <v>0.9806395455287622</v>
       </c>
       <c r="I2">
-        <v>4.14775937331281E-142</v>
+        <v>4.050250072742356E-142</v>
       </c>
       <c r="J2">
-        <v>34.04999923706055</v>
+        <v>34.36999893188477</v>
       </c>
       <c r="K2">
-        <v>38.81999969482422</v>
+        <v>39.0099983215332</v>
       </c>
       <c r="L2">
-        <v>0.5383279034926431</v>
+        <v>0.4396624695796163</v>
       </c>
       <c r="M2">
-        <v>-0.6032206583835489</v>
+        <v>-0.5884891643373038</v>
       </c>
       <c r="N2">
-        <v>0.2129598341160563</v>
+        <v>0.2094491471640909</v>
       </c>
       <c r="O2">
-        <v>-0.5115077730600248</v>
+        <v>-0.3588830095726081</v>
       </c>
       <c r="P2">
-        <v>0.006596216639832706</v>
+        <v>0.006575904918147693</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1007</v>
+        <v>1832</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.1269006958040801</v>
+        <v>0.7863399925155532</v>
       </c>
       <c r="E3">
-        <v>0.7869366008801906</v>
+        <v>0.8451322239297936</v>
       </c>
       <c r="F3">
-        <v>1.70825335963168E-05</v>
+        <v>0.0003706167688871809</v>
       </c>
       <c r="G3">
-        <v>-1.232348003434835</v>
+        <v>6.404024105313511</v>
       </c>
       <c r="H3">
-        <v>0.3277582424151196</v>
+        <v>2.411473924943727</v>
       </c>
       <c r="I3">
-        <v>7.517875278535807E-44</v>
+        <v>5.457858289792855E-66</v>
       </c>
       <c r="J3">
-        <v>3.319999933242798</v>
+        <v>39.0099983215332</v>
       </c>
       <c r="K3">
-        <v>13.27999973297119</v>
+        <v>13.18000030517578</v>
       </c>
       <c r="L3">
-        <v>0.4902322880408994</v>
+        <v>2.037032215141885</v>
       </c>
       <c r="M3">
-        <v>-0.3382040501875618</v>
+        <v>-1.970915594147115</v>
       </c>
       <c r="N3">
-        <v>0.1627980283231738</v>
+        <v>0.7640541412175764</v>
       </c>
       <c r="O3">
-        <v>0.1997185649257371</v>
+        <v>0.8227471495379319</v>
       </c>
       <c r="P3">
-        <v>0.008922714697517287</v>
+        <v>0.01199671157082685</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
         <v>19</v>
@@ -652,450 +649,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>312</v>
+        <v>2320</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.676649281281298</v>
+        <v>0.6152637708893347</v>
       </c>
       <c r="E4">
-        <v>0.1269006958040801</v>
+        <v>0.6155852233718117</v>
       </c>
       <c r="F4">
-        <v>0.0005196044581409179</v>
+        <v>0.002180521527457058</v>
       </c>
       <c r="G4">
-        <v>17.54239685782404</v>
+        <v>8.683351596352917</v>
       </c>
       <c r="H4">
-        <v>2.342136805901519</v>
+        <v>4.240735311412319</v>
       </c>
       <c r="I4">
-        <v>8.39878650673196E-40</v>
+        <v>3.404531892048429E-40</v>
       </c>
       <c r="J4">
-        <v>24.47999954223633</v>
+        <v>19.14999961853027</v>
       </c>
       <c r="K4">
-        <v>3.319999933242798</v>
+        <v>2.640000104904175</v>
       </c>
       <c r="L4">
-        <v>1.29876442461795</v>
+        <v>1.204068245017119</v>
       </c>
       <c r="M4">
-        <v>-1.518010703944324</v>
+        <v>-1.241628806009579</v>
       </c>
       <c r="N4">
-        <v>0.4818411219093353</v>
+        <v>0.5217133865869436</v>
       </c>
       <c r="O4">
-        <v>-0.8382913548262589</v>
+        <v>-0.7288936448220049</v>
       </c>
       <c r="P4">
-        <v>0.01235909264909801</v>
+        <v>0.01361360765510821</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>554</v>
+        <v>1287</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.6805070294395119</v>
+        <v>0.2770230898131508</v>
       </c>
       <c r="E5">
-        <v>0.680603998604036</v>
+        <v>0.3601743705501009</v>
       </c>
       <c r="F5">
-        <v>0.0030192479944498</v>
+        <v>0.001319184966707305</v>
       </c>
       <c r="G5">
-        <v>4.807184014022981</v>
+        <v>-0.002694896756712223</v>
       </c>
       <c r="H5">
-        <v>0.850244729534638</v>
+        <v>0.2287785061932657</v>
       </c>
       <c r="I5">
-        <v>5.351432141216865E-70</v>
+        <v>1.940083528313263E-42</v>
       </c>
       <c r="J5">
-        <v>33.43000030517578</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K5">
-        <v>32.68000030517578</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="L5">
-        <v>1.629286065653829</v>
+        <v>0.2493301836388235</v>
       </c>
       <c r="M5">
-        <v>-0.9686997295570663</v>
+        <v>-0.3215910209809882</v>
       </c>
       <c r="N5">
-        <v>0.5574605540829717</v>
+        <v>0.1119687700338442</v>
       </c>
       <c r="O5">
-        <v>0.8368182704867309</v>
+        <v>-0.1120051388716858</v>
       </c>
       <c r="P5">
-        <v>0.01401136806999663</v>
+        <v>0.01398843590401322</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1642</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.302991218815313</v>
+        <v>0.7418337942283701</v>
       </c>
       <c r="E6">
-        <v>0.6784765108561434</v>
+        <v>0.7032399592808521</v>
       </c>
       <c r="F6">
-        <v>0.000516904126621763</v>
+        <v>0.003694965937308573</v>
       </c>
       <c r="G6">
-        <v>1.849259027882281</v>
+        <v>4.88540387481406</v>
       </c>
       <c r="H6">
-        <v>1.819219315900038</v>
+        <v>0.8485559180638729</v>
       </c>
       <c r="I6">
-        <v>2.487918379886604E-39</v>
+        <v>4.057009507502733E-68</v>
       </c>
       <c r="J6">
-        <v>18.48999977111816</v>
+        <v>33.52999877929688</v>
       </c>
       <c r="K6">
-        <v>9.779999732971191</v>
+        <v>32.58234786987305</v>
       </c>
       <c r="L6">
-        <v>1.303400367221009</v>
+        <v>1.622708419921906</v>
       </c>
       <c r="M6">
-        <v>-1.488748343157987</v>
+        <v>-0.971170483664757</v>
       </c>
       <c r="N6">
-        <v>0.5959357974547645</v>
+        <v>0.567078190429709</v>
       </c>
       <c r="O6">
-        <v>-1.151223680482524</v>
+        <v>0.996650795086218</v>
       </c>
       <c r="P6">
-        <v>0.01421953126554443</v>
+        <v>0.0142913048898712</v>
       </c>
       <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1109</v>
+        <v>1642</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.6140695589625003</v>
+        <v>0.3364126940826725</v>
       </c>
       <c r="E7">
-        <v>0.8096299745045896</v>
+        <v>0.7369863792901878</v>
       </c>
       <c r="F7">
-        <v>0.007462727851267619</v>
+        <v>0.0004225142047478979</v>
       </c>
       <c r="G7">
-        <v>5.501343692112782</v>
+        <v>1.462451750355285</v>
       </c>
       <c r="H7">
-        <v>0.2980377478469854</v>
+        <v>1.859022263679116</v>
       </c>
       <c r="I7">
-        <v>1.043788406148843E-47</v>
+        <v>1.765717356089408E-39</v>
       </c>
       <c r="J7">
-        <v>10.96000003814697</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="K7">
-        <v>20.36000061035156</v>
+        <v>9.726469993591309</v>
       </c>
       <c r="L7">
-        <v>0.6144611323685609</v>
+        <v>1.316558359811996</v>
       </c>
       <c r="M7">
-        <v>-0.6093923820382372</v>
+        <v>-1.486891231262341</v>
       </c>
       <c r="N7">
-        <v>0.266048183204225</v>
+        <v>0.602270265469747</v>
       </c>
       <c r="O7">
-        <v>-0.6093923820382363</v>
+        <v>-1.144176396918127</v>
       </c>
       <c r="P7">
-        <v>0.01527573637112086</v>
+        <v>0.01441432299073786</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2737</v>
+        <v>1291</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.170011076164604</v>
+        <v>0.2770230898131508</v>
       </c>
       <c r="E8">
-        <v>0.6867407919128409</v>
+        <v>0.6201916603687494</v>
       </c>
       <c r="F8">
-        <v>0.0007722888443005269</v>
+        <v>0.002088950544203175</v>
       </c>
       <c r="G8">
-        <v>26.71764835810749</v>
+        <v>3.016434499979928</v>
       </c>
       <c r="H8">
-        <v>0.1463253389899881</v>
+        <v>-0.02991725718783188</v>
       </c>
       <c r="I8">
-        <v>1.132521697347731E-20</v>
+        <v>2.144343736962103E-46</v>
       </c>
       <c r="J8">
-        <v>41.75</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K8">
-        <v>93.94999694824219</v>
+        <v>53.93999862670898</v>
       </c>
       <c r="L8">
-        <v>3.656655054622874</v>
+        <v>0.2980454582290779</v>
       </c>
       <c r="M8">
-        <v>-2.617269748838979</v>
+        <v>-0.2440706943860116</v>
       </c>
       <c r="N8">
-        <v>1.277658315988726</v>
+        <v>0.1047808870437704</v>
       </c>
       <c r="O8">
-        <v>1.285086490332626</v>
+        <v>-0.1126977265003499</v>
       </c>
       <c r="P8">
-        <v>0.01589284062752203</v>
+        <v>0.01478982090894055</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>993</v>
+        <v>1290</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.1269006958040801</v>
+        <v>0.2770230898131508</v>
       </c>
       <c r="E9">
-        <v>0.3359769596114969</v>
+        <v>0.6648033468911232</v>
       </c>
       <c r="F9">
-        <v>0.008425931317329728</v>
+        <v>0.00455081667189203</v>
       </c>
       <c r="G9">
-        <v>-1.345990517883458</v>
+        <v>3.884737515340501</v>
       </c>
       <c r="H9">
-        <v>0.5105277625692449</v>
+        <v>-0.04660017343515387</v>
       </c>
       <c r="I9">
-        <v>4.363209573021291E-27</v>
+        <v>2.745919693165655E-37</v>
       </c>
       <c r="J9">
-        <v>3.319999933242798</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K9">
-        <v>9.710000038146973</v>
+        <v>49.52000045776367</v>
       </c>
       <c r="L9">
-        <v>0.4952707789141302</v>
+        <v>0.3196527186384412</v>
       </c>
       <c r="M9">
-        <v>-0.4311821845782182</v>
+        <v>-0.2954849890863596</v>
       </c>
       <c r="N9">
-        <v>0.214695360542331</v>
+        <v>0.1220648593470214</v>
       </c>
       <c r="O9">
-        <v>-0.2912341428962009</v>
+        <v>-0.2870969436467878</v>
       </c>
       <c r="P9">
-        <v>0.01654603900469288</v>
+        <v>0.01505024601526786</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1291</v>
+        <v>789</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.3373816817489527</v>
+        <v>0.3253861490321269</v>
       </c>
       <c r="E10">
-        <v>0.6093503420557544</v>
+        <v>0.7823312232867191</v>
       </c>
       <c r="F10">
-        <v>0.006935420080083595</v>
+        <v>0.003091112567154366</v>
       </c>
       <c r="G10">
-        <v>3.064754702501937</v>
+        <v>16.34907982229529</v>
       </c>
       <c r="H10">
-        <v>-0.03079949296928679</v>
+        <v>0.737425406392978</v>
       </c>
       <c r="I10">
-        <v>9.089354503278587E-48</v>
+        <v>1.181940298904821E-37</v>
       </c>
       <c r="J10">
-        <v>1.289999961853027</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="K10">
-        <v>52.90999984741211</v>
+        <v>20.6299991607666</v>
       </c>
       <c r="L10">
-        <v>0.2905524544186904</v>
+        <v>1.761776467893306</v>
       </c>
       <c r="M10">
-        <v>-0.2584086179859011</v>
+        <v>-1.506066953740287</v>
       </c>
       <c r="N10">
-        <v>0.1077829086523677</v>
+        <v>0.8241627887724771</v>
       </c>
       <c r="O10">
-        <v>-0.1451535723435753</v>
+        <v>-1.282164650664894</v>
       </c>
       <c r="P10">
-        <v>0.01664217068900934</v>
+        <v>0.01510558236590723</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>395</v>
+        <v>1261</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.6305483132559832</v>
+        <v>0.2770230898131508</v>
       </c>
       <c r="E11">
-        <v>0.302991218815313</v>
+        <v>0.7937626829800969</v>
       </c>
       <c r="F11">
-        <v>0.00271411369554966</v>
+        <v>0.001201439702929606</v>
       </c>
       <c r="G11">
-        <v>-5.351341472917713</v>
+        <v>2.658237868906929</v>
       </c>
       <c r="H11">
-        <v>0.8481497491795092</v>
+        <v>-0.07819858999995956</v>
       </c>
       <c r="I11">
-        <v>5.320341000615819E-40</v>
+        <v>3.276090877669578E-29</v>
       </c>
       <c r="J11">
-        <v>11.22999954223633</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K11">
-        <v>18.48999977111816</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="L11">
-        <v>1.41482956295993</v>
+        <v>0.4525012083355844</v>
       </c>
       <c r="M11">
-        <v>-1.237694215286776</v>
+        <v>-0.2628556884717741</v>
       </c>
       <c r="N11">
-        <v>0.5900620212668309</v>
+        <v>0.1397394369199269</v>
       </c>
       <c r="O11">
-        <v>0.8990523469509881</v>
+        <v>-0.1905671088410763</v>
       </c>
       <c r="P11">
-        <v>0.01676140449269647</v>
+        <v>0.01563284638362227</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,10 +70,10 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>IGTI11</t>
@@ -82,15 +82,18 @@
     <t>COGN3</t>
   </si>
   <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
     <t>CYRE3</t>
   </si>
   <si>
+    <t>CSAN3</t>
+  </si>
+  <si>
     <t>BPAC11</t>
   </si>
   <si>
+    <t>DXCO3</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
@@ -109,7 +112,7 @@
     <t>WEGE3</t>
   </si>
   <si>
-    <t>VIVT3</t>
+    <t>EGIE3</t>
   </si>
   <si>
     <t>VBBR3</t>
@@ -537,114 +540,114 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1779</v>
+        <v>1007</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.7310252678803908</v>
+        <v>0.2425538297387949</v>
       </c>
       <c r="E2">
-        <v>0.7863399925155532</v>
+        <v>0.8241328590807491</v>
       </c>
       <c r="F2">
-        <v>0.001687451053052967</v>
+        <v>6.289401486792431E-05</v>
       </c>
       <c r="G2">
-        <v>-3.525865083648725</v>
+        <v>-1.145019482879058</v>
       </c>
       <c r="H2">
-        <v>0.9806395455287622</v>
+        <v>0.3220959027162835</v>
       </c>
       <c r="I2">
-        <v>4.050250072742356E-142</v>
+        <v>1.394927107451356E-43</v>
       </c>
       <c r="J2">
-        <v>34.36999893188477</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="K2">
-        <v>39.0099983215332</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="L2">
-        <v>0.4396624695796163</v>
+        <v>0.4893595702363105</v>
       </c>
       <c r="M2">
-        <v>-0.5884891643373038</v>
+        <v>-0.3404068596744891</v>
       </c>
       <c r="N2">
-        <v>0.2094491471640909</v>
+        <v>0.1628539050619821</v>
       </c>
       <c r="O2">
-        <v>-0.3588830095726081</v>
+        <v>0.2204697188066769</v>
       </c>
       <c r="P2">
-        <v>0.006575904918147693</v>
+        <v>0.009526932301665009</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1832</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.7863399925155532</v>
+        <v>0.6615472680089323</v>
       </c>
       <c r="E3">
-        <v>0.8451322239297936</v>
+        <v>0.2425538297387949</v>
       </c>
       <c r="F3">
-        <v>0.0003706167688871809</v>
+        <v>0.001556429622310325</v>
       </c>
       <c r="G3">
-        <v>6.404024105313511</v>
+        <v>17.24877199211427</v>
       </c>
       <c r="H3">
-        <v>2.411473924943727</v>
+        <v>2.416757221318875</v>
       </c>
       <c r="I3">
-        <v>5.457858289792855E-66</v>
+        <v>2.646377449335302E-41</v>
       </c>
       <c r="J3">
-        <v>39.0099983215332</v>
+        <v>24.56999969482422</v>
       </c>
       <c r="K3">
-        <v>13.18000030517578</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="L3">
-        <v>2.037032215141885</v>
+        <v>1.299969693944647</v>
       </c>
       <c r="M3">
-        <v>-1.970915594147115</v>
+        <v>-1.541258470619809</v>
       </c>
       <c r="N3">
-        <v>0.7640541412175764</v>
+        <v>0.4770443418464551</v>
       </c>
       <c r="O3">
-        <v>0.8227471495379319</v>
+        <v>-0.7507412090631576</v>
       </c>
       <c r="P3">
-        <v>0.01199671157082685</v>
+        <v>0.01269445680422995</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -655,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6152637708893347</v>
+        <v>0.721738967281938</v>
       </c>
       <c r="E4">
-        <v>0.6155852233718117</v>
+        <v>0.7502271972794837</v>
       </c>
       <c r="F4">
-        <v>0.002180521527457058</v>
+        <v>0.002150823433578843</v>
       </c>
       <c r="G4">
-        <v>8.683351596352917</v>
+        <v>8.525192248708541</v>
       </c>
       <c r="H4">
-        <v>4.240735311412319</v>
+        <v>4.294122309370768</v>
       </c>
       <c r="I4">
-        <v>3.404531892048429E-40</v>
+        <v>1.93194072265276E-41</v>
       </c>
       <c r="J4">
-        <v>19.14999961853027</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="K4">
-        <v>2.640000104904175</v>
+        <v>2.519999980926514</v>
       </c>
       <c r="L4">
-        <v>1.204068245017119</v>
+        <v>1.23303105352894</v>
       </c>
       <c r="M4">
-        <v>-1.241628806009579</v>
+        <v>-1.233509728959952</v>
       </c>
       <c r="N4">
-        <v>0.5217133865869436</v>
+        <v>0.5220425679955529</v>
       </c>
       <c r="O4">
-        <v>-0.7288936448220049</v>
+        <v>-0.6063806153008287</v>
       </c>
       <c r="P4">
-        <v>0.01361360765510821</v>
+        <v>0.01359388205843674</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -711,108 +714,108 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.2770230898131508</v>
+        <v>0.2761758311676944</v>
       </c>
       <c r="E5">
-        <v>0.3601743705501009</v>
+        <v>0.3485264315202525</v>
       </c>
       <c r="F5">
-        <v>0.001319184966707305</v>
+        <v>0.001900617227525913</v>
       </c>
       <c r="G5">
-        <v>-0.002694896756712223</v>
+        <v>0.008814712022765792</v>
       </c>
       <c r="H5">
-        <v>0.2287785061932657</v>
+        <v>0.2266437983144238</v>
       </c>
       <c r="I5">
-        <v>1.940083528313263E-42</v>
+        <v>2.83369785154978E-42</v>
       </c>
       <c r="J5">
-        <v>1.289999961853027</v>
+        <v>1.25</v>
       </c>
       <c r="K5">
-        <v>6.139999866485596</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="L5">
-        <v>0.2493301836388235</v>
+        <v>0.2325162811657258</v>
       </c>
       <c r="M5">
-        <v>-0.3215910209809882</v>
+        <v>-0.315425249093684</v>
       </c>
       <c r="N5">
-        <v>0.1119687700338442</v>
+        <v>0.1107229720084933</v>
       </c>
       <c r="O5">
-        <v>-0.1120051388716858</v>
+        <v>-0.1572069649143102</v>
       </c>
       <c r="P5">
-        <v>0.01398843590401322</v>
+        <v>0.0141400919242716</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>554</v>
+        <v>1643</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7418337942283701</v>
+        <v>0.3740584662448695</v>
       </c>
       <c r="E6">
-        <v>0.7032399592808521</v>
+        <v>0.6711735744714922</v>
       </c>
       <c r="F6">
-        <v>0.003694965937308573</v>
+        <v>0.0006030392582427565</v>
       </c>
       <c r="G6">
-        <v>4.88540387481406</v>
+        <v>3.441022569393028</v>
       </c>
       <c r="H6">
-        <v>0.8485559180638729</v>
+        <v>0.5046940580210461</v>
       </c>
       <c r="I6">
-        <v>4.057009507502733E-68</v>
+        <v>9.184919601002575E-39</v>
       </c>
       <c r="J6">
-        <v>33.52999877929688</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="K6">
-        <v>32.58234786987305</v>
+        <v>32.11999893188477</v>
       </c>
       <c r="L6">
-        <v>1.622708419921906</v>
+        <v>1.292979242432438</v>
       </c>
       <c r="M6">
-        <v>-0.971170483664757</v>
+        <v>-1.485140317162369</v>
       </c>
       <c r="N6">
-        <v>0.567078190429709</v>
+        <v>0.6192500264773585</v>
       </c>
       <c r="O6">
-        <v>0.996650795086218</v>
+        <v>-1.371794487312105</v>
       </c>
       <c r="P6">
-        <v>0.0142913048898712</v>
+        <v>0.01449785687055609</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -820,55 +823,55 @@
         <v>1642</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3364126940826725</v>
+        <v>0.3740584662448695</v>
       </c>
       <c r="E7">
-        <v>0.7369863792901878</v>
+        <v>0.6945910068769211</v>
       </c>
       <c r="F7">
-        <v>0.0004225142047478979</v>
+        <v>0.0003901079248796898</v>
       </c>
       <c r="G7">
-        <v>1.462451750355285</v>
+        <v>1.267655237918852</v>
       </c>
       <c r="H7">
-        <v>1.859022263679116</v>
+        <v>1.971298094100212</v>
       </c>
       <c r="I7">
-        <v>1.765717356089408E-39</v>
+        <v>4.499383130763053E-40</v>
       </c>
       <c r="J7">
-        <v>18.39999961853027</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="K7">
-        <v>9.726469993591309</v>
+        <v>9.142856597900391</v>
       </c>
       <c r="L7">
-        <v>1.316558359811996</v>
+        <v>1.319502855195378</v>
       </c>
       <c r="M7">
-        <v>-1.486891231262341</v>
+        <v>-1.489749974626218</v>
       </c>
       <c r="N7">
-        <v>0.602270265469747</v>
+        <v>0.6058030195716612</v>
       </c>
       <c r="O7">
-        <v>-1.144176396918127</v>
+        <v>-1.010950337345932</v>
       </c>
       <c r="P7">
-        <v>0.01441432299073786</v>
+        <v>0.01462051378517984</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -879,108 +882,108 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.2770230898131508</v>
+        <v>0.2761758311676944</v>
       </c>
       <c r="E8">
-        <v>0.6201916603687494</v>
+        <v>0.6016868346248269</v>
       </c>
       <c r="F8">
-        <v>0.002088950544203175</v>
+        <v>0.00307481623308116</v>
       </c>
       <c r="G8">
-        <v>3.016434499979928</v>
+        <v>3.00070946501152</v>
       </c>
       <c r="H8">
-        <v>-0.02991725718783188</v>
+        <v>-0.02965392968476956</v>
       </c>
       <c r="I8">
-        <v>2.144343736962103E-46</v>
+        <v>3.638153665782955E-46</v>
       </c>
       <c r="J8">
-        <v>1.289999961853027</v>
+        <v>1.25</v>
       </c>
       <c r="K8">
-        <v>53.93999862670898</v>
+        <v>53.84999847412109</v>
       </c>
       <c r="L8">
-        <v>0.2980454582290779</v>
+        <v>0.3015844942618839</v>
       </c>
       <c r="M8">
-        <v>-0.2440706943860116</v>
+        <v>-0.2384886040192962</v>
       </c>
       <c r="N8">
-        <v>0.1047808870437704</v>
+        <v>0.1037282914850084</v>
       </c>
       <c r="O8">
-        <v>-0.1126977265003499</v>
+        <v>-0.1538453967349844</v>
       </c>
       <c r="P8">
-        <v>0.01478982090894055</v>
+        <v>0.01497433732474259</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1290</v>
+        <v>1468</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.2770230898131508</v>
+        <v>0.975273264667636</v>
       </c>
       <c r="E9">
-        <v>0.6648033468911232</v>
+        <v>0.9839874234383014</v>
       </c>
       <c r="F9">
-        <v>0.00455081667189203</v>
+        <v>0.001893451931380542</v>
       </c>
       <c r="G9">
-        <v>3.884737515340501</v>
+        <v>-6.482977837472079</v>
       </c>
       <c r="H9">
-        <v>-0.04660017343515387</v>
+        <v>0.4524337100402257</v>
       </c>
       <c r="I9">
-        <v>2.745919693165655E-37</v>
+        <v>2.683132385905532E-51</v>
       </c>
       <c r="J9">
-        <v>1.289999961853027</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="K9">
-        <v>49.52000045776367</v>
+        <v>37.36000061035156</v>
       </c>
       <c r="L9">
-        <v>0.3196527186384412</v>
+        <v>1.087635261782014</v>
       </c>
       <c r="M9">
-        <v>-0.2954849890863596</v>
+        <v>-1.15579891049436</v>
       </c>
       <c r="N9">
-        <v>0.1220648593470214</v>
+        <v>0.4202762833809326</v>
       </c>
       <c r="O9">
-        <v>-0.2870969436467878</v>
+        <v>-0.4299460746562112</v>
       </c>
       <c r="P9">
-        <v>0.01505024601526786</v>
+        <v>0.01530505422410534</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -991,108 +994,108 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.3253861490321269</v>
+        <v>0.4224030862461905</v>
       </c>
       <c r="E10">
-        <v>0.7823312232867191</v>
+        <v>0.8016042316316336</v>
       </c>
       <c r="F10">
-        <v>0.003091112567154366</v>
+        <v>0.005405517490501595</v>
       </c>
       <c r="G10">
-        <v>16.34907982229529</v>
+        <v>16.18157293678235</v>
       </c>
       <c r="H10">
-        <v>0.737425406392978</v>
+        <v>0.7437782176214047</v>
       </c>
       <c r="I10">
-        <v>1.181940298904821E-37</v>
+        <v>1.533050500261808E-38</v>
       </c>
       <c r="J10">
-        <v>30.28000068664551</v>
+        <v>30.01000022888184</v>
       </c>
       <c r="K10">
-        <v>20.6299991607666</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="L10">
-        <v>1.761776467893306</v>
+        <v>1.764062333940885</v>
       </c>
       <c r="M10">
-        <v>-1.506066953740287</v>
+        <v>-1.483609652981741</v>
       </c>
       <c r="N10">
-        <v>0.8241627887724771</v>
+        <v>0.8190937592874933</v>
       </c>
       <c r="O10">
-        <v>-1.282164650664894</v>
+        <v>-1.38927435948516</v>
       </c>
       <c r="P10">
-        <v>0.01510558236590723</v>
+        <v>0.01562998169191387</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1261</v>
+        <v>1697</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.2770230898131508</v>
+        <v>0.4470091595053983</v>
       </c>
       <c r="E11">
-        <v>0.7937626829800969</v>
+        <v>0.7252755624603294</v>
       </c>
       <c r="F11">
-        <v>0.001201439702929606</v>
+        <v>0.001019175532039106</v>
       </c>
       <c r="G11">
-        <v>2.658237868906929</v>
+        <v>3.963540678997981</v>
       </c>
       <c r="H11">
-        <v>-0.07819858999995956</v>
+        <v>0.2330145116566186</v>
       </c>
       <c r="I11">
-        <v>3.276090877669578E-29</v>
+        <v>6.364444364923516E-56</v>
       </c>
       <c r="J11">
-        <v>1.289999961853027</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="K11">
-        <v>15.0600004196167</v>
+        <v>14.98999977111816</v>
       </c>
       <c r="L11">
-        <v>0.4525012083355844</v>
+        <v>0.6204279537830475</v>
       </c>
       <c r="M11">
-        <v>-0.2628556884717741</v>
+        <v>-0.4067827162026276</v>
       </c>
       <c r="N11">
-        <v>0.1397394369199269</v>
+        <v>0.2468406150262583</v>
       </c>
       <c r="O11">
-        <v>-0.1905671088410763</v>
+        <v>-0.2664280981774447</v>
       </c>
       <c r="P11">
-        <v>0.01563284638362227</v>
+        <v>0.015691222294512</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>IGTI11</t>
   </si>
   <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>CSAN3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>DXCO3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
-    <t>USIM5</t>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>ITUB4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
   </si>
   <si>
     <t>LREN3</t>
@@ -540,119 +531,119 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1007</v>
+        <v>2320</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.2425538297387949</v>
+        <v>0.7349805614132732</v>
       </c>
       <c r="E2">
-        <v>0.8241328590807491</v>
+        <v>0.7528657544337239</v>
       </c>
       <c r="F2">
-        <v>6.289401486792431E-05</v>
+        <v>0.0021238527158399</v>
       </c>
       <c r="G2">
-        <v>-1.145019482879058</v>
+        <v>8.378002732062777</v>
       </c>
       <c r="H2">
-        <v>0.3220959027162835</v>
+        <v>4.343368612404682</v>
       </c>
       <c r="I2">
-        <v>1.394927107451356E-43</v>
+        <v>1.64952700527596E-42</v>
       </c>
       <c r="J2">
-        <v>3.339999914169312</v>
+        <v>18.68000030517578</v>
       </c>
       <c r="K2">
-        <v>13.23999977111816</v>
+        <v>2.519999980926514</v>
       </c>
       <c r="L2">
-        <v>0.4893595702363105</v>
+        <v>1.26104451307544</v>
       </c>
       <c r="M2">
-        <v>-0.3404068596744891</v>
+        <v>-1.224723361312194</v>
       </c>
       <c r="N2">
-        <v>0.1628539050619821</v>
+        <v>0.5238082004757108</v>
       </c>
       <c r="O2">
-        <v>0.2204697188066769</v>
+        <v>-0.6432912473036136</v>
       </c>
       <c r="P2">
-        <v>0.009526932301665009</v>
+        <v>0.01357028183345199</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>312</v>
+        <v>1894</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.6615472680089323</v>
+        <v>0.869329250766072</v>
       </c>
       <c r="E3">
-        <v>0.2425538297387949</v>
+        <v>0.9914507315842928</v>
       </c>
       <c r="F3">
-        <v>0.001556429622310325</v>
+        <v>0.003939549857630444</v>
       </c>
       <c r="G3">
-        <v>17.24877199211427</v>
+        <v>8.592374853546971</v>
       </c>
       <c r="H3">
-        <v>2.416757221318875</v>
+        <v>2.699004599146988</v>
       </c>
       <c r="I3">
-        <v>2.646377449335302E-41</v>
+        <v>5.236227197587274E-57</v>
       </c>
       <c r="J3">
-        <v>24.56999969482422</v>
+        <v>56.08000183105469</v>
       </c>
       <c r="K3">
-        <v>3.339999914169312</v>
+        <v>19.20000076293945</v>
       </c>
       <c r="L3">
-        <v>1.299969693944647</v>
+        <v>5.966162907107218</v>
       </c>
       <c r="M3">
-        <v>-1.541258470619809</v>
+        <v>-6.714583608883302</v>
       </c>
       <c r="N3">
-        <v>0.4770443418464551</v>
+        <v>2.415780093179015</v>
       </c>
       <c r="O3">
-        <v>-0.7507412090631576</v>
+        <v>-4.333263385291552</v>
       </c>
       <c r="P3">
-        <v>0.01269445680422995</v>
+        <v>0.01423688008663332</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2320</v>
+        <v>2565</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -661,43 +652,43 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.721738967281938</v>
+        <v>0.1291476155360721</v>
       </c>
       <c r="E4">
-        <v>0.7502271972794837</v>
+        <v>0.807022787585236</v>
       </c>
       <c r="F4">
-        <v>0.002150823433578843</v>
+        <v>0.007674156329458687</v>
       </c>
       <c r="G4">
-        <v>8.525192248708541</v>
+        <v>2.001070049554148</v>
       </c>
       <c r="H4">
-        <v>4.294122309370768</v>
+        <v>0.1000940243633698</v>
       </c>
       <c r="I4">
-        <v>1.93194072265276E-41</v>
+        <v>4.688615297944531E-20</v>
       </c>
       <c r="J4">
-        <v>18.73999977111816</v>
+        <v>3.490000009536743</v>
       </c>
       <c r="K4">
-        <v>2.519999980926514</v>
+        <v>20.39999961853027</v>
       </c>
       <c r="L4">
-        <v>1.23303105352894</v>
+        <v>0.5282848565605605</v>
       </c>
       <c r="M4">
-        <v>-1.233509728959952</v>
+        <v>-0.5529880988473099</v>
       </c>
       <c r="N4">
-        <v>0.5220425679955529</v>
+        <v>0.1876868090043571</v>
       </c>
       <c r="O4">
-        <v>-0.6063806153008287</v>
+        <v>-0.5529880988473095</v>
       </c>
       <c r="P4">
-        <v>0.01359388205843674</v>
+        <v>0.01435273309437141</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -708,394 +699,394 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1287</v>
+        <v>2551</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.2761758311676944</v>
+        <v>0.1291476155360721</v>
       </c>
       <c r="E5">
-        <v>0.3485264315202525</v>
+        <v>0.7528657544337239</v>
       </c>
       <c r="F5">
-        <v>0.001900617227525913</v>
+        <v>0.005386237503435394</v>
       </c>
       <c r="G5">
-        <v>0.008814712022765792</v>
+        <v>1.971099728416829</v>
       </c>
       <c r="H5">
-        <v>0.2266437983144238</v>
+        <v>0.7811079566089187</v>
       </c>
       <c r="I5">
-        <v>2.83369785154978E-42</v>
+        <v>8.569911737356275E-17</v>
       </c>
       <c r="J5">
-        <v>1.25</v>
+        <v>3.490000009536743</v>
       </c>
       <c r="K5">
-        <v>6.170000076293945</v>
+        <v>2.519999980926514</v>
       </c>
       <c r="L5">
-        <v>0.2325162811657258</v>
+        <v>0.5821968871028771</v>
       </c>
       <c r="M5">
-        <v>-0.315425249093684</v>
+        <v>-0.4652134935509347</v>
       </c>
       <c r="N5">
-        <v>0.1107229720084933</v>
+        <v>0.1981624917939629</v>
       </c>
       <c r="O5">
-        <v>-0.1572069649143102</v>
+        <v>-0.4494917546361092</v>
       </c>
       <c r="P5">
-        <v>0.0141400919242716</v>
+        <v>0.014583777185248</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1643</v>
+        <v>1290</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3740584662448695</v>
+        <v>0.2173648957662462</v>
       </c>
       <c r="E6">
-        <v>0.6711735744714922</v>
+        <v>0.6152204093395069</v>
       </c>
       <c r="F6">
-        <v>0.0006030392582427565</v>
+        <v>0.002318759045855696</v>
       </c>
       <c r="G6">
-        <v>3.441022569393028</v>
+        <v>3.814189279088627</v>
       </c>
       <c r="H6">
-        <v>0.5046940580210461</v>
+        <v>-0.04535783903998614</v>
       </c>
       <c r="I6">
-        <v>9.184919601002575E-39</v>
+        <v>2.548852613154901E-36</v>
       </c>
       <c r="J6">
-        <v>18.28000068664551</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K6">
-        <v>32.11999893188477</v>
+        <v>51.29000091552734</v>
       </c>
       <c r="L6">
-        <v>1.292979242432438</v>
+        <v>0.307800772743791</v>
       </c>
       <c r="M6">
-        <v>-1.485140317162369</v>
+        <v>-0.3167083892625988</v>
       </c>
       <c r="N6">
-        <v>0.6192500264773585</v>
+        <v>0.1205993516845975</v>
       </c>
       <c r="O6">
-        <v>-1.371794487312105</v>
+        <v>-0.1977857113483688</v>
       </c>
       <c r="P6">
-        <v>0.01449785687055609</v>
+        <v>0.01463443241387674</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1642</v>
+        <v>2796</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.3740584662448695</v>
+        <v>0.3046613593998996</v>
       </c>
       <c r="E7">
-        <v>0.6945910068769211</v>
+        <v>0.7528657544337239</v>
       </c>
       <c r="F7">
-        <v>0.0003901079248796898</v>
+        <v>0.00136700107468908</v>
       </c>
       <c r="G7">
-        <v>1.267655237918852</v>
+        <v>11.92848851386917</v>
       </c>
       <c r="H7">
-        <v>1.971298094100212</v>
+        <v>10.73797927371799</v>
       </c>
       <c r="I7">
-        <v>4.499383130763053E-40</v>
+        <v>4.483023244530462E-36</v>
       </c>
       <c r="J7">
-        <v>18.28000068664551</v>
+        <v>40.81000137329102</v>
       </c>
       <c r="K7">
-        <v>9.142856597900391</v>
+        <v>2.519999980926514</v>
       </c>
       <c r="L7">
-        <v>1.319502855195378</v>
+        <v>4.277974790784711</v>
       </c>
       <c r="M7">
-        <v>-1.489749974626218</v>
+        <v>-2.846007290981987</v>
       </c>
       <c r="N7">
-        <v>0.6058030195716612</v>
+        <v>1.505726999221557</v>
       </c>
       <c r="O7">
-        <v>-1.010950337345932</v>
+        <v>1.821805294463211</v>
       </c>
       <c r="P7">
-        <v>0.01462051378517984</v>
+        <v>0.01474896458376882</v>
       </c>
       <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1291</v>
+        <v>1642</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.2761758311676944</v>
+        <v>0.3683694269617318</v>
       </c>
       <c r="E8">
-        <v>0.6016868346248269</v>
+        <v>0.7437441892989053</v>
       </c>
       <c r="F8">
-        <v>0.00307481623308116</v>
+        <v>0.0004036136077861045</v>
       </c>
       <c r="G8">
-        <v>3.00070946501152</v>
+        <v>0.9542604071359548</v>
       </c>
       <c r="H8">
-        <v>-0.02965392968476956</v>
+        <v>2.001448861967043</v>
       </c>
       <c r="I8">
-        <v>3.638153665782955E-46</v>
+        <v>1.750400752024598E-40</v>
       </c>
       <c r="J8">
-        <v>1.25</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="K8">
-        <v>53.84999847412109</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="L8">
-        <v>0.3015844942618839</v>
+        <v>1.329862651650902</v>
       </c>
       <c r="M8">
-        <v>-0.2384886040192962</v>
+        <v>-1.488555692317647</v>
       </c>
       <c r="N8">
-        <v>0.1037282914850084</v>
+        <v>0.61028354159326</v>
       </c>
       <c r="O8">
-        <v>-0.1538453967349844</v>
+        <v>-1.007588945135115</v>
       </c>
       <c r="P8">
-        <v>0.01497433732474259</v>
+        <v>0.01487800294810262</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1468</v>
+        <v>1643</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.975273264667636</v>
+        <v>0.3683694269617318</v>
       </c>
       <c r="E9">
-        <v>0.9839874234383014</v>
+        <v>0.7011662430898726</v>
       </c>
       <c r="F9">
-        <v>0.001893451931380542</v>
+        <v>0.0007200158288405196</v>
       </c>
       <c r="G9">
-        <v>-6.482977837472079</v>
+        <v>3.187776932494793</v>
       </c>
       <c r="H9">
-        <v>0.4524337100402257</v>
+        <v>0.5116464188639132</v>
       </c>
       <c r="I9">
-        <v>2.683132385905532E-51</v>
+        <v>9.742041804133311E-39</v>
       </c>
       <c r="J9">
-        <v>9.989999771118164</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="K9">
-        <v>37.36000061035156</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="L9">
-        <v>1.087635261782014</v>
+        <v>1.302868752089744</v>
       </c>
       <c r="M9">
-        <v>-1.15579891049436</v>
+        <v>-1.458418919763311</v>
       </c>
       <c r="N9">
-        <v>0.4202762833809326</v>
+        <v>0.6284013686938006</v>
       </c>
       <c r="O9">
-        <v>-0.4299460746562112</v>
+        <v>-1.446051772629986</v>
       </c>
       <c r="P9">
-        <v>0.01530505422410534</v>
+        <v>0.01511813780034874</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>789</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0.4224030862461905</v>
+        <v>0.8519721858383618</v>
       </c>
       <c r="E10">
-        <v>0.8016042316316336</v>
+        <v>0.2173648957662462</v>
       </c>
       <c r="F10">
-        <v>0.005405517490501595</v>
+        <v>0.003153849206614307</v>
       </c>
       <c r="G10">
-        <v>16.18157293678235</v>
+        <v>16.27426545527655</v>
       </c>
       <c r="H10">
-        <v>0.7437782176214047</v>
+        <v>-2.559427630760139</v>
       </c>
       <c r="I10">
-        <v>1.533050500261808E-38</v>
+        <v>9.216632976816217E-34</v>
       </c>
       <c r="J10">
-        <v>30.01000022888184</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="K10">
-        <v>20.45999908447266</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="L10">
-        <v>1.764062333940885</v>
+        <v>1.072561447208439</v>
       </c>
       <c r="M10">
-        <v>-1.483609652981741</v>
+        <v>-0.9356155210569455</v>
       </c>
       <c r="N10">
-        <v>0.8190937592874933</v>
+        <v>0.3970441341913565</v>
       </c>
       <c r="O10">
-        <v>-1.38927435948516</v>
+        <v>0.8773964722393375</v>
       </c>
       <c r="P10">
-        <v>0.01562998169191387</v>
+        <v>0.01525498832551247</v>
       </c>
       <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
         <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1697</v>
+        <v>1261</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.4470091595053983</v>
+        <v>0.2173648957662462</v>
       </c>
       <c r="E11">
-        <v>0.7252755624603294</v>
+        <v>0.7163930700238568</v>
       </c>
       <c r="F11">
-        <v>0.001019175532039106</v>
+        <v>0.001883685267813409</v>
       </c>
       <c r="G11">
-        <v>3.963540678997981</v>
+        <v>2.612332698696268</v>
       </c>
       <c r="H11">
-        <v>0.2330145116566186</v>
+        <v>-0.06881397355486542</v>
       </c>
       <c r="I11">
-        <v>6.364444364923516E-56</v>
+        <v>2.155052678167719E-28</v>
       </c>
       <c r="J11">
-        <v>7.190000057220459</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="K11">
-        <v>14.98999977111816</v>
+        <v>15.39999961853027</v>
       </c>
       <c r="L11">
-        <v>0.6204279537830475</v>
+        <v>0.4284194593027182</v>
       </c>
       <c r="M11">
-        <v>-0.4067827162026276</v>
+        <v>-0.3308112508591043</v>
       </c>
       <c r="N11">
-        <v>0.2468406150262583</v>
+        <v>0.1377131768213839</v>
       </c>
       <c r="O11">
-        <v>-0.2664280981774447</v>
+        <v>-0.2625975703487611</v>
       </c>
       <c r="P11">
-        <v>0.015691222294512</v>
+        <v>0.01550419589458566</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>B3SA3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
     <t>IGTI11</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>ABEV3</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CCRO3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
   </si>
   <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>MRFG3</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
     <t>VIVT3</t>
   </si>
   <si>
     <t>ITSA4</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>LREN3</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2320</v>
+        <v>1784</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -540,54 +546,54 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.7349805614132732</v>
+        <v>0.6666416685628886</v>
       </c>
       <c r="E2">
-        <v>0.7528657544337239</v>
+        <v>0.7660854803487746</v>
       </c>
       <c r="F2">
-        <v>0.0021238527158399</v>
+        <v>0.000206027773611458</v>
       </c>
       <c r="G2">
-        <v>8.378002732062777</v>
+        <v>2.573133936408208</v>
       </c>
       <c r="H2">
-        <v>4.343368612404682</v>
+        <v>2.376064616755568</v>
       </c>
       <c r="I2">
-        <v>1.64952700527596E-42</v>
+        <v>3.306141989886961E-71</v>
       </c>
       <c r="J2">
-        <v>18.68000030517578</v>
+        <v>35.04999923706055</v>
       </c>
       <c r="K2">
-        <v>2.519999980926514</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="L2">
-        <v>1.26104451307544</v>
+        <v>1.865909415153197</v>
       </c>
       <c r="M2">
-        <v>-1.224723361312194</v>
+        <v>-1.807347984560096</v>
       </c>
       <c r="N2">
-        <v>0.5238082004757108</v>
+        <v>0.7085999212291765</v>
       </c>
       <c r="O2">
-        <v>-0.6432912473036136</v>
+        <v>1.041531508652234</v>
       </c>
       <c r="P2">
-        <v>0.01357028183345199</v>
+        <v>0.01042997191665865</v>
       </c>
       <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1894</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,54 +602,54 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>0.869329250766072</v>
+        <v>0.7755542750305672</v>
       </c>
       <c r="E3">
-        <v>0.9914507315842928</v>
+        <v>0.7565327319060584</v>
       </c>
       <c r="F3">
-        <v>0.003939549857630444</v>
+        <v>0.0008725133931118921</v>
       </c>
       <c r="G3">
-        <v>8.592374853546971</v>
+        <v>-4.164043123545153</v>
       </c>
       <c r="H3">
-        <v>2.699004599146988</v>
+        <v>1.236447276696382</v>
       </c>
       <c r="I3">
-        <v>5.236227197587274E-57</v>
+        <v>4.914337628907406E-59</v>
       </c>
       <c r="J3">
-        <v>56.08000183105469</v>
+        <v>9.569999694824219</v>
       </c>
       <c r="K3">
-        <v>19.20000076293945</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="L3">
-        <v>5.966162907107218</v>
+        <v>0.7228071929961821</v>
       </c>
       <c r="M3">
-        <v>-6.714583608883302</v>
+        <v>-0.8031785061834533</v>
       </c>
       <c r="N3">
-        <v>2.415780093179015</v>
+        <v>0.3193726873121785</v>
       </c>
       <c r="O3">
-        <v>-4.333263385291552</v>
+        <v>0.516421949318973</v>
       </c>
       <c r="P3">
-        <v>0.01423688008663332</v>
+        <v>0.01373658753728895</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2565</v>
+        <v>1287</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -652,43 +658,43 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.1291476155360721</v>
+        <v>0.2294132433841979</v>
       </c>
       <c r="E4">
-        <v>0.807022787585236</v>
+        <v>0.2966533778595185</v>
       </c>
       <c r="F4">
-        <v>0.007674156329458687</v>
+        <v>0.001735182569000564</v>
       </c>
       <c r="G4">
-        <v>2.001070049554148</v>
+        <v>0.0144958714933571</v>
       </c>
       <c r="H4">
-        <v>0.1000940243633698</v>
+        <v>0.2253273834563903</v>
       </c>
       <c r="I4">
-        <v>4.688615297944531E-20</v>
+        <v>1.448981956682255E-42</v>
       </c>
       <c r="J4">
-        <v>3.490000009536743</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="K4">
-        <v>20.39999961853027</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="L4">
-        <v>0.5282848565605605</v>
+        <v>0.236107619083999</v>
       </c>
       <c r="M4">
-        <v>-0.5529880988473099</v>
+        <v>-0.3102064938912787</v>
       </c>
       <c r="N4">
-        <v>0.1876868090043571</v>
+        <v>0.1094070807958859</v>
       </c>
       <c r="O4">
-        <v>-0.5529880988473095</v>
+        <v>-0.1222331372903984</v>
       </c>
       <c r="P4">
-        <v>0.01435273309437141</v>
+        <v>0.01402476415492591</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -699,167 +705,167 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2551</v>
+        <v>2320</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.1291476155360721</v>
+        <v>0.8063102578502996</v>
       </c>
       <c r="E5">
-        <v>0.7528657544337239</v>
+        <v>0.7075728370269019</v>
       </c>
       <c r="F5">
-        <v>0.005386237503435394</v>
+        <v>0.008005883060043071</v>
       </c>
       <c r="G5">
-        <v>1.971099728416829</v>
+        <v>8.158546515789279</v>
       </c>
       <c r="H5">
-        <v>0.7811079566089187</v>
+        <v>4.415070857864232</v>
       </c>
       <c r="I5">
-        <v>8.569911737356275E-17</v>
+        <v>2.045624848759411E-43</v>
       </c>
       <c r="J5">
-        <v>3.490000009536743</v>
+        <v>18.3799991607666</v>
       </c>
       <c r="K5">
-        <v>2.519999980926514</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="L5">
-        <v>0.5821968871028771</v>
+        <v>1.306981289866378</v>
       </c>
       <c r="M5">
-        <v>-0.4652134935509347</v>
+        <v>-1.206781085181483</v>
       </c>
       <c r="N5">
-        <v>0.1981624917939629</v>
+        <v>0.5301332648127882</v>
       </c>
       <c r="O5">
-        <v>-0.4494917546361092</v>
+        <v>-1.08112849852273</v>
       </c>
       <c r="P5">
-        <v>0.014583777185248</v>
+        <v>0.01407582195985636</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.2173648957662462</v>
+        <v>0.2294132433841979</v>
       </c>
       <c r="E6">
-        <v>0.6152204093395069</v>
+        <v>0.5942835729017287</v>
       </c>
       <c r="F6">
-        <v>0.002318759045855696</v>
+        <v>0.001451815386223022</v>
       </c>
       <c r="G6">
-        <v>3.814189279088627</v>
+        <v>2.989709956461915</v>
       </c>
       <c r="H6">
-        <v>-0.04535783903998614</v>
+        <v>-0.02949007193159409</v>
       </c>
       <c r="I6">
-        <v>2.548852613154901E-36</v>
+        <v>1.827606239799965E-46</v>
       </c>
       <c r="J6">
-        <v>1.289999961853027</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="K6">
-        <v>51.29000091552734</v>
+        <v>55</v>
       </c>
       <c r="L6">
-        <v>0.307800772743791</v>
+        <v>0.3050012749940179</v>
       </c>
       <c r="M6">
-        <v>-0.3167083892625988</v>
+        <v>-0.2338006280429661</v>
       </c>
       <c r="N6">
-        <v>0.1205993516845975</v>
+        <v>0.1025307531213174</v>
       </c>
       <c r="O6">
-        <v>-0.1977857113483688</v>
+        <v>-0.1077560097609835</v>
       </c>
       <c r="P6">
-        <v>0.01463443241387674</v>
+        <v>0.01421888614913334</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2796</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.3046613593998996</v>
+        <v>0.5375531090224615</v>
       </c>
       <c r="E7">
-        <v>0.7528657544337239</v>
+        <v>0.7959120282952707</v>
       </c>
       <c r="F7">
-        <v>0.00136700107468908</v>
+        <v>0.002991586353991342</v>
       </c>
       <c r="G7">
-        <v>11.92848851386917</v>
+        <v>11.30662579336705</v>
       </c>
       <c r="H7">
-        <v>10.73797927371799</v>
+        <v>0.5294583092315852</v>
       </c>
       <c r="I7">
-        <v>4.483023244530462E-36</v>
+        <v>4.886409182056488E-54</v>
       </c>
       <c r="J7">
-        <v>40.81000137329102</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="K7">
-        <v>2.519999980926514</v>
+        <v>25.29999923706055</v>
       </c>
       <c r="L7">
-        <v>4.277974790784711</v>
+        <v>0.7548981252715947</v>
       </c>
       <c r="M7">
-        <v>-2.846007290981987</v>
+        <v>-1.241387670732301</v>
       </c>
       <c r="N7">
-        <v>1.505726999221557</v>
+        <v>0.3901658339500552</v>
       </c>
       <c r="O7">
-        <v>1.821805294463211</v>
+        <v>0.4680794633124226</v>
       </c>
       <c r="P7">
-        <v>0.01474896458376882</v>
+        <v>0.01450532021532193</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>22</v>
@@ -867,226 +873,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1642</v>
+        <v>1894</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.3683694269617318</v>
+        <v>0.8694921932267934</v>
       </c>
       <c r="E8">
-        <v>0.7437441892989053</v>
+        <v>0.9934021383989726</v>
       </c>
       <c r="F8">
-        <v>0.0004036136077861045</v>
+        <v>0.005683819942472831</v>
       </c>
       <c r="G8">
-        <v>0.9542604071359548</v>
+        <v>9.196396856672482</v>
       </c>
       <c r="H8">
-        <v>2.001448861967043</v>
+        <v>2.651557543511323</v>
       </c>
       <c r="I8">
-        <v>1.750400752024598E-40</v>
+        <v>2.8339782633867E-57</v>
       </c>
       <c r="J8">
-        <v>18.36000061035156</v>
+        <v>56.16999816894531</v>
       </c>
       <c r="K8">
-        <v>9.199999809265137</v>
+        <v>19.48999977111816</v>
       </c>
       <c r="L8">
-        <v>1.329862651650902</v>
+        <v>6.10278942616479</v>
       </c>
       <c r="M8">
-        <v>-1.488555692317647</v>
+        <v>-6.708910928990889</v>
       </c>
       <c r="N8">
-        <v>0.61028354159326</v>
+        <v>2.441971665429736</v>
       </c>
       <c r="O8">
-        <v>-1.007588945135115</v>
+        <v>-4.705254603869484</v>
       </c>
       <c r="P8">
-        <v>0.01487800294810262</v>
+        <v>0.01495642102102608</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1643</v>
+        <v>1290</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.3683694269617318</v>
+        <v>0.2294132433841979</v>
       </c>
       <c r="E9">
-        <v>0.7011662430898726</v>
+        <v>0.6124654455014893</v>
       </c>
       <c r="F9">
-        <v>0.0007200158288405196</v>
+        <v>0.002934019687628606</v>
       </c>
       <c r="G9">
-        <v>3.187776932494793</v>
+        <v>3.81717897648644</v>
       </c>
       <c r="H9">
-        <v>0.5116464188639132</v>
+        <v>-0.04545134227951017</v>
       </c>
       <c r="I9">
-        <v>9.742041804133311E-39</v>
+        <v>4.2518269844823E-36</v>
       </c>
       <c r="J9">
-        <v>18.36000061035156</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="K9">
-        <v>32.47999954223633</v>
+        <v>51.04999923706055</v>
       </c>
       <c r="L9">
-        <v>1.302868752089744</v>
+        <v>0.30932976891898</v>
       </c>
       <c r="M9">
-        <v>-1.458418919763311</v>
+        <v>-0.3150650012133331</v>
       </c>
       <c r="N9">
-        <v>0.6284013686938006</v>
+        <v>0.1218366200279573</v>
       </c>
       <c r="O9">
-        <v>-1.446051772629986</v>
+        <v>-0.2368879973308111</v>
       </c>
       <c r="P9">
-        <v>0.01511813780034874</v>
+        <v>0.01521539145060804</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>18</v>
+        <v>1642</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.8519721858383618</v>
+        <v>0.3675898526544791</v>
       </c>
       <c r="E10">
-        <v>0.2173648957662462</v>
+        <v>0.7206565503219431</v>
       </c>
       <c r="F10">
-        <v>0.003153849206614307</v>
+        <v>0.0005149668169565936</v>
       </c>
       <c r="G10">
-        <v>16.27426545527655</v>
+        <v>0.7674544303743951</v>
       </c>
       <c r="H10">
-        <v>-2.559427630760139</v>
+        <v>2.019639552564126</v>
       </c>
       <c r="I10">
-        <v>9.216632976816217E-34</v>
+        <v>6.823277117431496E-41</v>
       </c>
       <c r="J10">
-        <v>13.85000038146973</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="K10">
-        <v>1.289999961853027</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="L10">
-        <v>1.072561447208439</v>
+        <v>1.333840231674028</v>
       </c>
       <c r="M10">
-        <v>-0.9356155210569455</v>
+        <v>-1.490107889603909</v>
       </c>
       <c r="N10">
-        <v>0.3970441341913565</v>
+        <v>0.6148929653391547</v>
       </c>
       <c r="O10">
-        <v>0.8773964722393375</v>
+        <v>-1.069317530846739</v>
       </c>
       <c r="P10">
-        <v>0.01525498832551247</v>
+        <v>0.01527972252760614</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1261</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>0.2173648957662462</v>
+        <v>0.5375531090224615</v>
       </c>
       <c r="E11">
-        <v>0.7163930700238568</v>
+        <v>0.7660854803487746</v>
       </c>
       <c r="F11">
-        <v>0.001883685267813409</v>
+        <v>0.005309783696935626</v>
       </c>
       <c r="G11">
-        <v>2.612332698696268</v>
+        <v>12.55961461693266</v>
       </c>
       <c r="H11">
-        <v>-0.06881397355486542</v>
+        <v>0.9071997107575269</v>
       </c>
       <c r="I11">
-        <v>2.155052678167719E-28</v>
+        <v>1.297092161191628E-45</v>
       </c>
       <c r="J11">
-        <v>1.289999961853027</v>
+        <v>25.17000007629395</v>
       </c>
       <c r="K11">
-        <v>15.39999961853027</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="L11">
-        <v>0.4284194593027182</v>
+        <v>1.131041289131044</v>
       </c>
       <c r="M11">
-        <v>-0.3308112508591043</v>
+        <v>-1.259202165979552</v>
       </c>
       <c r="N11">
-        <v>0.1377131768213839</v>
+        <v>0.4489338335863581</v>
       </c>
       <c r="O11">
-        <v>-0.2625975703487611</v>
+        <v>0.6081337013222701</v>
       </c>
       <c r="P11">
-        <v>0.01550419589458566</v>
+        <v>0.01538160417188724</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
     <t>B3SA3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
+    <t>CYRE3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>USIM5</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>MRFG3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
   </si>
 </sst>
 </file>
@@ -537,335 +531,335 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1784</v>
+        <v>987</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0.6666416685628886</v>
+        <v>0.3084161154823517</v>
       </c>
       <c r="E2">
-        <v>0.7660854803487746</v>
+        <v>0.5499748747323622</v>
       </c>
       <c r="F2">
-        <v>0.000206027773611458</v>
+        <v>0.0001937168391799078</v>
       </c>
       <c r="G2">
-        <v>2.573133936408208</v>
+        <v>-1.099855809530487</v>
       </c>
       <c r="H2">
-        <v>2.376064616755568</v>
+        <v>0.1251289949882763</v>
       </c>
       <c r="I2">
-        <v>3.306141989886961E-71</v>
+        <v>1.278781425919056E-39</v>
       </c>
       <c r="J2">
-        <v>35.04999923706055</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="K2">
-        <v>13.22999954223633</v>
+        <v>36.45999908447266</v>
       </c>
       <c r="L2">
-        <v>1.865909415153197</v>
+        <v>0.439804156000922</v>
       </c>
       <c r="M2">
-        <v>-1.807347984560096</v>
+        <v>-0.5684694560680423</v>
       </c>
       <c r="N2">
-        <v>0.7085999212291765</v>
+        <v>0.1780686535457826</v>
       </c>
       <c r="O2">
-        <v>1.041531508652234</v>
+        <v>-0.2923471568891038</v>
       </c>
       <c r="P2">
-        <v>0.01042997191665865</v>
+        <v>0.0107589711444068</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>240</v>
+        <v>988</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.7755542750305672</v>
+        <v>0.3084161154823517</v>
       </c>
       <c r="E3">
-        <v>0.7565327319060584</v>
+        <v>0.6496388617812185</v>
       </c>
       <c r="F3">
-        <v>0.0008725133931118921</v>
+        <v>0.0002606106369566734</v>
       </c>
       <c r="G3">
-        <v>-4.164043123545153</v>
+        <v>-1.640396776041241</v>
       </c>
       <c r="H3">
-        <v>1.236447276696382</v>
+        <v>0.1250433493141978</v>
       </c>
       <c r="I3">
-        <v>4.914337628907406E-59</v>
+        <v>7.821800098818163E-42</v>
       </c>
       <c r="J3">
-        <v>9.569999694824219</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="K3">
-        <v>10.6899995803833</v>
+        <v>40.59999847412109</v>
       </c>
       <c r="L3">
-        <v>0.7228071929961821</v>
+        <v>0.4372597041531825</v>
       </c>
       <c r="M3">
-        <v>-0.8031785061834533</v>
+        <v>-0.5171595838763969</v>
       </c>
       <c r="N3">
-        <v>0.3193726873121785</v>
+        <v>0.1716744818592136</v>
       </c>
       <c r="O3">
-        <v>0.516421949318973</v>
+        <v>-0.2663629390202358</v>
       </c>
       <c r="P3">
-        <v>0.01373658753728895</v>
+        <v>0.01104137386147714</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1287</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.2294132433841979</v>
+        <v>0.4896127762471329</v>
       </c>
       <c r="E4">
-        <v>0.2966533778595185</v>
+        <v>0.3084161154823517</v>
       </c>
       <c r="F4">
-        <v>0.001735182569000564</v>
+        <v>0.0008139321509419391</v>
       </c>
       <c r="G4">
-        <v>0.0144958714933571</v>
+        <v>17.32065474910631</v>
       </c>
       <c r="H4">
-        <v>0.2253273834563903</v>
+        <v>2.398381613727022</v>
       </c>
       <c r="I4">
-        <v>1.448981956682255E-42</v>
+        <v>3.299023542788025E-42</v>
       </c>
       <c r="J4">
-        <v>1.259999990463257</v>
+        <v>25.47999954223633</v>
       </c>
       <c r="K4">
-        <v>6.070000171661377</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="L4">
-        <v>0.236107619083999</v>
+        <v>1.300410311863487</v>
       </c>
       <c r="M4">
-        <v>-0.3102064938912787</v>
+        <v>-1.534819199307105</v>
       </c>
       <c r="N4">
-        <v>0.1094070807958859</v>
+        <v>0.4764724444041304</v>
       </c>
       <c r="O4">
-        <v>-0.1222331372903984</v>
+        <v>0.5564748946333653</v>
       </c>
       <c r="P4">
-        <v>0.01402476415492591</v>
+        <v>0.01224904694748189</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2320</v>
+        <v>1784</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.8063102578502996</v>
+        <v>0.5499748747323622</v>
       </c>
       <c r="E5">
-        <v>0.7075728370269019</v>
+        <v>0.7449203945451294</v>
       </c>
       <c r="F5">
-        <v>0.008005883060043071</v>
+        <v>0.002998641449903433</v>
       </c>
       <c r="G5">
-        <v>8.158546515789279</v>
+        <v>2.287173629886739</v>
       </c>
       <c r="H5">
-        <v>4.415070857864232</v>
+        <v>1.277903829188081</v>
       </c>
       <c r="I5">
-        <v>2.045624848759411E-43</v>
+        <v>1.349664187360831E-57</v>
       </c>
       <c r="J5">
-        <v>18.3799991607666</v>
+        <v>36.45999908447266</v>
       </c>
       <c r="K5">
-        <v>2.559999942779541</v>
+        <v>25.75</v>
       </c>
       <c r="L5">
-        <v>1.306981289866378</v>
+        <v>2.970867678443767</v>
       </c>
       <c r="M5">
-        <v>-1.206781085181483</v>
+        <v>-2.157860371575353</v>
       </c>
       <c r="N5">
-        <v>0.5301332648127882</v>
+        <v>0.8933856633250773</v>
       </c>
       <c r="O5">
-        <v>-1.08112849852273</v>
+        <v>1.266801852992835</v>
       </c>
       <c r="P5">
-        <v>0.01407582195985636</v>
+        <v>0.01406014799730621</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1291</v>
+        <v>1268</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.2294132433841979</v>
+        <v>0.2160393939877543</v>
       </c>
       <c r="E6">
-        <v>0.5942835729017287</v>
+        <v>0.2816898294749488</v>
       </c>
       <c r="F6">
-        <v>0.001451815386223022</v>
+        <v>0.001723824940190852</v>
       </c>
       <c r="G6">
-        <v>2.989709956461915</v>
+        <v>0.008585727603057503</v>
       </c>
       <c r="H6">
-        <v>-0.02949007193159409</v>
+        <v>0.2260748180182636</v>
       </c>
       <c r="I6">
-        <v>1.827606239799965E-46</v>
+        <v>6.805156131308591E-43</v>
       </c>
       <c r="J6">
-        <v>1.259999990463257</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="L6">
-        <v>0.3050012749940179</v>
+        <v>0.2365465418530805</v>
       </c>
       <c r="M6">
-        <v>-0.2338006280429661</v>
+        <v>-0.3104851079737032</v>
       </c>
       <c r="N6">
-        <v>0.1025307531213174</v>
+        <v>0.1095003687102666</v>
       </c>
       <c r="O6">
-        <v>-0.1077560097609835</v>
+        <v>-0.1212066007095112</v>
       </c>
       <c r="P6">
-        <v>0.01421888614913334</v>
+        <v>0.01410735956134923</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>361</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.5375531090224615</v>
+        <v>0.7207389389708432</v>
       </c>
       <c r="E7">
-        <v>0.7959120282952707</v>
+        <v>0.6861590131333093</v>
       </c>
       <c r="F7">
-        <v>0.002991586353991342</v>
+        <v>0.0009965298726650909</v>
       </c>
       <c r="G7">
-        <v>11.30662579336705</v>
+        <v>-4.004097320151658</v>
       </c>
       <c r="H7">
-        <v>0.5294583092315852</v>
+        <v>1.223672294590775</v>
       </c>
       <c r="I7">
-        <v>4.886409182056488E-54</v>
+        <v>2.344723152021856E-59</v>
       </c>
       <c r="J7">
-        <v>25.17000007629395</v>
+        <v>9.779999732971191</v>
       </c>
       <c r="K7">
-        <v>25.29999923706055</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="L7">
-        <v>0.7548981252715947</v>
+        <v>0.7268798689671065</v>
       </c>
       <c r="M7">
-        <v>-1.241387670732301</v>
+        <v>-0.8058879834095567</v>
       </c>
       <c r="N7">
-        <v>0.3901658339500552</v>
+        <v>0.3210729919564683</v>
       </c>
       <c r="O7">
-        <v>0.4680794633124226</v>
+        <v>0.4950163539815726</v>
       </c>
       <c r="P7">
-        <v>0.01450532021532193</v>
+        <v>0.01416529063484589</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
         <v>22</v>
@@ -873,226 +867,226 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1894</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.8694921932267934</v>
+        <v>0.4896127762471329</v>
       </c>
       <c r="E8">
-        <v>0.9934021383989726</v>
+        <v>0.7449203945451294</v>
       </c>
       <c r="F8">
-        <v>0.005683819942472831</v>
+        <v>0.003824714988618943</v>
       </c>
       <c r="G8">
-        <v>9.196396856672482</v>
+        <v>11.49149507983331</v>
       </c>
       <c r="H8">
-        <v>2.651557543511323</v>
+        <v>0.5222093282836239</v>
       </c>
       <c r="I8">
-        <v>2.8339782633867E-57</v>
+        <v>4.934761874421757E-54</v>
       </c>
       <c r="J8">
-        <v>56.16999816894531</v>
+        <v>25.47999954223633</v>
       </c>
       <c r="K8">
-        <v>19.48999977111816</v>
+        <v>25.75</v>
       </c>
       <c r="L8">
-        <v>6.10278942616479</v>
+        <v>0.7633383613875608</v>
       </c>
       <c r="M8">
-        <v>-6.708910928990889</v>
+        <v>-1.246107894431933</v>
       </c>
       <c r="N8">
-        <v>2.441971665429736</v>
+        <v>0.3918611350067691</v>
       </c>
       <c r="O8">
-        <v>-4.705254603869484</v>
+        <v>0.5416142590997044</v>
       </c>
       <c r="P8">
-        <v>0.01495642102102608</v>
+        <v>0.0149387487092675</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1290</v>
+        <v>1271</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.2294132433841979</v>
+        <v>0.2160393939877543</v>
       </c>
       <c r="E9">
-        <v>0.6124654455014893</v>
+        <v>0.5647495146165158</v>
       </c>
       <c r="F9">
-        <v>0.002934019687628606</v>
+        <v>0.002455203543958292</v>
       </c>
       <c r="G9">
-        <v>3.81717897648644</v>
+        <v>3.822950183948158</v>
       </c>
       <c r="H9">
-        <v>-0.04545134227951017</v>
+        <v>-0.04559130907025389</v>
       </c>
       <c r="I9">
-        <v>4.2518269844823E-36</v>
+        <v>3.395997245774029E-36</v>
       </c>
       <c r="J9">
-        <v>1.259999990463257</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="K9">
-        <v>51.04999923706055</v>
+        <v>51.91999816894531</v>
       </c>
       <c r="L9">
-        <v>0.30932976891898</v>
+        <v>0.3103226804438002</v>
       </c>
       <c r="M9">
-        <v>-0.3150650012133331</v>
+        <v>-0.3139008543004858</v>
       </c>
       <c r="N9">
-        <v>0.1218366200279573</v>
+        <v>0.1223113387740357</v>
       </c>
       <c r="O9">
-        <v>-0.2368879973308111</v>
+        <v>-0.1758495291109856</v>
       </c>
       <c r="P9">
-        <v>0.01521539145060804</v>
+        <v>0.01500574918379669</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1642</v>
+        <v>1617</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.3675898526544791</v>
+        <v>0.3021820748400623</v>
       </c>
       <c r="E10">
-        <v>0.7206565503219431</v>
+        <v>0.5551602655928629</v>
       </c>
       <c r="F10">
-        <v>0.0005149668169565936</v>
+        <v>0.0005752831885090979</v>
       </c>
       <c r="G10">
-        <v>0.7674544303743951</v>
+        <v>0.6772934555552409</v>
       </c>
       <c r="H10">
-        <v>2.019639552564126</v>
+        <v>2.028428281255522</v>
       </c>
       <c r="I10">
-        <v>6.823277117431496E-41</v>
+        <v>5.059233660150724E-41</v>
       </c>
       <c r="J10">
-        <v>18.39999961853027</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="K10">
-        <v>9.260000228881836</v>
+        <v>9.470000267028809</v>
       </c>
       <c r="L10">
-        <v>1.333840231674028</v>
+        <v>1.335668706556394</v>
       </c>
       <c r="M10">
-        <v>-1.490107889603909</v>
+        <v>-1.490951095174609</v>
       </c>
       <c r="N10">
-        <v>0.6148929653391547</v>
+        <v>0.6194667572717899</v>
       </c>
       <c r="O10">
-        <v>-1.069317530846739</v>
+        <v>-1.066510125869602</v>
       </c>
       <c r="P10">
-        <v>0.01527972252760614</v>
+        <v>0.01560692028285421</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>332</v>
+        <v>1863</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5375531090224615</v>
+        <v>0.8725867550981112</v>
       </c>
       <c r="E11">
-        <v>0.7660854803487746</v>
+        <v>0.9953563169553479</v>
       </c>
       <c r="F11">
-        <v>0.005309783696935626</v>
+        <v>0.008651379839541912</v>
       </c>
       <c r="G11">
-        <v>12.55961461693266</v>
+        <v>9.857561779912068</v>
       </c>
       <c r="H11">
-        <v>0.9071997107575269</v>
+        <v>2.599804925239984</v>
       </c>
       <c r="I11">
-        <v>1.297092161191628E-45</v>
+        <v>2.169706209703054E-57</v>
       </c>
       <c r="J11">
-        <v>25.17000007629395</v>
+        <v>56.36000061035156</v>
       </c>
       <c r="K11">
-        <v>13.22999954223633</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="L11">
-        <v>1.131041289131044</v>
+        <v>6.24948285637295</v>
       </c>
       <c r="M11">
-        <v>-1.259202165979552</v>
+        <v>-6.705054687701718</v>
       </c>
       <c r="N11">
-        <v>0.4489338335863581</v>
+        <v>2.474444786244373</v>
       </c>
       <c r="O11">
-        <v>0.6081337013222701</v>
+        <v>-5.155687215922107</v>
       </c>
       <c r="P11">
-        <v>0.01538160417188724</v>
+        <v>0.01584888040165682</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>EMBR3</t>
+    <t>LWSA3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
     <t>SANB11</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>CCRO3</t>
-  </si>
-  <si>
-    <t>VIVT3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
   </si>
 </sst>
 </file>
@@ -531,223 +528,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>987</v>
+        <v>1751</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.3084161154823517</v>
+        <v>0.535732696924619</v>
       </c>
       <c r="E2">
-        <v>0.5499748747323622</v>
+        <v>0.6343651448371677</v>
       </c>
       <c r="F2">
-        <v>0.0001937168391799078</v>
+        <v>0.001092513797637984</v>
       </c>
       <c r="G2">
-        <v>-1.099855809530487</v>
+        <v>-3.496198118746264</v>
       </c>
       <c r="H2">
-        <v>0.1251289949882763</v>
+        <v>0.9799720103045944</v>
       </c>
       <c r="I2">
-        <v>1.278781425919056E-39</v>
+        <v>2.308713512867121E-143</v>
       </c>
       <c r="J2">
-        <v>3.170000076293945</v>
+        <v>36.47000122070312</v>
       </c>
       <c r="K2">
-        <v>36.45999908447266</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="L2">
-        <v>0.439804156000922</v>
+        <v>0.4394338070443808</v>
       </c>
       <c r="M2">
-        <v>-0.5684694560680423</v>
+        <v>-0.5910675486207353</v>
       </c>
       <c r="N2">
-        <v>0.1780686535457826</v>
+        <v>0.209780390789219</v>
       </c>
       <c r="O2">
-        <v>-0.2923471568891038</v>
+        <v>0.3263307749692359</v>
       </c>
       <c r="P2">
-        <v>0.0107589711444068</v>
+        <v>0.007183728606485282</v>
       </c>
       <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3">
-        <v>0.3084161154823517</v>
+        <v>0.2991942975232877</v>
       </c>
       <c r="E3">
-        <v>0.6496388617812185</v>
+        <v>0.535732696924619</v>
       </c>
       <c r="F3">
-        <v>0.0002606106369566734</v>
+        <v>0.0009073472370477822</v>
       </c>
       <c r="G3">
-        <v>-1.640396776041241</v>
+        <v>-1.143012890230683</v>
       </c>
       <c r="H3">
-        <v>0.1250433493141978</v>
+        <v>0.1261710425371208</v>
       </c>
       <c r="I3">
-        <v>7.821800098818163E-42</v>
+        <v>1.983588025866861E-39</v>
       </c>
       <c r="J3">
         <v>3.170000076293945</v>
       </c>
       <c r="K3">
-        <v>40.59999847412109</v>
+        <v>36.47000122070312</v>
       </c>
       <c r="L3">
-        <v>0.4372597041531825</v>
+        <v>0.4421546548473696</v>
       </c>
       <c r="M3">
-        <v>-0.5171595838763969</v>
+        <v>-0.5671610047704396</v>
       </c>
       <c r="N3">
-        <v>0.1716744818592136</v>
+        <v>0.179039982675081</v>
       </c>
       <c r="O3">
-        <v>-0.2663629390202358</v>
+        <v>-0.2884451088215538</v>
       </c>
       <c r="P3">
-        <v>0.01104137386147714</v>
+        <v>0.01198126313654247</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>308</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.4896127762471329</v>
+        <v>0.2991942975232877</v>
       </c>
       <c r="E4">
-        <v>0.3084161154823517</v>
+        <v>0.6343651448371677</v>
       </c>
       <c r="F4">
-        <v>0.0008139321509419391</v>
+        <v>0.0008527002052283529</v>
       </c>
       <c r="G4">
-        <v>17.32065474910631</v>
+        <v>-1.680260120844854</v>
       </c>
       <c r="H4">
-        <v>2.398381613727022</v>
+        <v>0.1259127753208058</v>
       </c>
       <c r="I4">
-        <v>3.299023542788025E-42</v>
+        <v>1.224181787532622E-41</v>
       </c>
       <c r="J4">
-        <v>25.47999954223633</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="K4">
-        <v>3.170000076293945</v>
+        <v>40.45000076293945</v>
       </c>
       <c r="L4">
-        <v>1.300410311863487</v>
+        <v>0.4392769359504616</v>
       </c>
       <c r="M4">
-        <v>-1.534819199307105</v>
+        <v>-0.5156379246375566</v>
       </c>
       <c r="N4">
-        <v>0.4764724444041304</v>
+        <v>0.1725299921380816</v>
       </c>
       <c r="O4">
-        <v>0.5564748946333653</v>
+        <v>-0.2429116606516173</v>
       </c>
       <c r="P4">
-        <v>0.01224904694748189</v>
+        <v>0.01203207660944687</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1784</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>0.5499748747323622</v>
+        <v>0.8911437352789928</v>
       </c>
       <c r="E5">
-        <v>0.7449203945451294</v>
+        <v>0.3733576473420636</v>
       </c>
       <c r="F5">
-        <v>0.002998641449903433</v>
+        <v>0.0009851171605087957</v>
       </c>
       <c r="G5">
-        <v>2.287173629886739</v>
+        <v>16.8945114096727</v>
       </c>
       <c r="H5">
-        <v>1.277903829188081</v>
+        <v>-2.96548551707624</v>
       </c>
       <c r="I5">
-        <v>1.349664187360831E-57</v>
+        <v>5.536884397733007E-38</v>
       </c>
       <c r="J5">
-        <v>36.45999908447266</v>
+        <v>14.22000026702881</v>
       </c>
       <c r="K5">
-        <v>25.75</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="L5">
-        <v>2.970867678443767</v>
+        <v>1.321310043635616</v>
       </c>
       <c r="M5">
-        <v>-2.157860371575353</v>
+        <v>-0.8818053977220046</v>
       </c>
       <c r="N5">
-        <v>0.8933856633250773</v>
+        <v>0.3971651748438261</v>
       </c>
       <c r="O5">
-        <v>1.266801852992835</v>
+        <v>0.8840716192529694</v>
       </c>
       <c r="P5">
-        <v>0.01406014799730621</v>
+        <v>0.01282748364389033</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -755,338 +752,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1268</v>
+        <v>1756</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.2160393939877543</v>
+        <v>0.535732696924619</v>
       </c>
       <c r="E6">
-        <v>0.2816898294749488</v>
+        <v>0.7767559440514844</v>
       </c>
       <c r="F6">
-        <v>0.001723824940190852</v>
+        <v>0.006783135038813237</v>
       </c>
       <c r="G6">
-        <v>0.008585727603057503</v>
+        <v>3.787045841182277</v>
       </c>
       <c r="H6">
-        <v>0.2260748180182636</v>
+        <v>2.297128154392039</v>
       </c>
       <c r="I6">
-        <v>6.805156131308591E-43</v>
+        <v>1.370017444963842E-65</v>
       </c>
       <c r="J6">
-        <v>1.279999971389771</v>
+        <v>36.47000122070312</v>
       </c>
       <c r="K6">
-        <v>6.159999847412109</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="L6">
-        <v>0.2365465418530805</v>
+        <v>2.613547488015129</v>
       </c>
       <c r="M6">
-        <v>-0.3104851079737032</v>
+        <v>-1.833783061247587</v>
       </c>
       <c r="N6">
-        <v>0.1095003687102666</v>
+        <v>0.7749473004909504</v>
       </c>
       <c r="O6">
-        <v>-0.1212066007095112</v>
+        <v>2.613547488015126</v>
       </c>
       <c r="P6">
-        <v>0.01410735956134923</v>
+        <v>0.01333560012452457</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.7207389389708432</v>
+        <v>0.5403350481973301</v>
       </c>
       <c r="E7">
-        <v>0.6861590131333093</v>
+        <v>0.6969364866334654</v>
       </c>
       <c r="F7">
-        <v>0.0009965298726650909</v>
+        <v>0.001691603661588246</v>
       </c>
       <c r="G7">
-        <v>-4.004097320151658</v>
+        <v>25.66801536095478</v>
       </c>
       <c r="H7">
-        <v>1.223672294590775</v>
+        <v>-1.752846431016994</v>
       </c>
       <c r="I7">
-        <v>2.344723152021856E-59</v>
+        <v>2.90680773167109E-45</v>
       </c>
       <c r="J7">
-        <v>9.779999732971191</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="K7">
-        <v>10.85999965667725</v>
+        <v>11.5</v>
       </c>
       <c r="L7">
-        <v>0.7268798689671065</v>
+        <v>1.9547742722111</v>
       </c>
       <c r="M7">
-        <v>-0.8058879834095567</v>
+        <v>-1.946946035265182</v>
       </c>
       <c r="N7">
-        <v>0.3210729919564683</v>
+        <v>0.7927415924251224</v>
       </c>
       <c r="O7">
-        <v>0.4950163539815726</v>
+        <v>-1.140281518700263</v>
       </c>
       <c r="P7">
-        <v>0.01416529063484589</v>
+        <v>0.01334886701961561</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>356</v>
+        <v>1272</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.4896127762471329</v>
+        <v>0.3733576473420636</v>
       </c>
       <c r="E8">
-        <v>0.7449203945451294</v>
+        <v>0.459617848679612</v>
       </c>
       <c r="F8">
-        <v>0.003824714988618943</v>
+        <v>0.002210533001001036</v>
       </c>
       <c r="G8">
-        <v>11.49149507983331</v>
+        <v>2.9389253762249</v>
       </c>
       <c r="H8">
-        <v>0.5222093282836239</v>
+        <v>-0.02859191297458844</v>
       </c>
       <c r="I8">
-        <v>4.934761874421757E-54</v>
+        <v>1.473591738620296E-45</v>
       </c>
       <c r="J8">
-        <v>25.47999954223633</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="K8">
-        <v>25.75</v>
+        <v>55.59999847412109</v>
       </c>
       <c r="L8">
-        <v>0.7633383613875608</v>
+        <v>0.3142216677078866</v>
       </c>
       <c r="M8">
-        <v>-1.246107894431933</v>
+        <v>-0.2176116613992154</v>
       </c>
       <c r="N8">
-        <v>0.3918611350067691</v>
+        <v>0.09893532165952457</v>
       </c>
       <c r="O8">
-        <v>0.5416142590997044</v>
+        <v>-0.1492150107818642</v>
       </c>
       <c r="P8">
-        <v>0.0149387487092675</v>
+        <v>0.01399432302471124</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.2160393939877543</v>
+        <v>0.3733576473420636</v>
       </c>
       <c r="E9">
-        <v>0.5647495146165158</v>
+        <v>0.302473069422588</v>
       </c>
       <c r="F9">
-        <v>0.002455203543958292</v>
+        <v>0.002261848036833851</v>
       </c>
       <c r="G9">
-        <v>3.822950183948158</v>
+        <v>0.05299147909603294</v>
       </c>
       <c r="H9">
-        <v>-0.04559130907025389</v>
+        <v>0.2187243234895717</v>
       </c>
       <c r="I9">
-        <v>3.395997245774029E-36</v>
+        <v>2.064096578172843E-40</v>
       </c>
       <c r="J9">
-        <v>1.279999971389771</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="K9">
-        <v>51.91999816894531</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="L9">
-        <v>0.3103226804438002</v>
+        <v>0.2459464115719256</v>
       </c>
       <c r="M9">
-        <v>-0.3139008543004858</v>
+        <v>-0.2940287667319037</v>
       </c>
       <c r="N9">
-        <v>0.1223113387740357</v>
+        <v>0.1078514384642675</v>
       </c>
       <c r="O9">
-        <v>-0.1758495291109856</v>
+        <v>-0.1609628900517912</v>
       </c>
       <c r="P9">
-        <v>0.01500574918379669</v>
+        <v>0.01409832005637412</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1617</v>
+        <v>2485</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.3021820748400623</v>
+        <v>0.1320089189481585</v>
       </c>
       <c r="E10">
-        <v>0.5551602655928629</v>
+        <v>0.9251415912325844</v>
       </c>
       <c r="F10">
-        <v>0.0005752831885090979</v>
+        <v>0.001740825106121931</v>
       </c>
       <c r="G10">
-        <v>0.6772934555552409</v>
+        <v>1.82770016845648</v>
       </c>
       <c r="H10">
-        <v>2.028428281255522</v>
+        <v>0.1124609763541969</v>
       </c>
       <c r="I10">
-        <v>5.059233660150724E-41</v>
+        <v>2.204151902206718E-18</v>
       </c>
       <c r="J10">
-        <v>18.81999969482422</v>
+        <v>3.589999914169312</v>
       </c>
       <c r="K10">
-        <v>9.470000267028809</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="L10">
-        <v>1.335668706556394</v>
+        <v>0.6098121971425963</v>
       </c>
       <c r="M10">
-        <v>-1.490951095174609</v>
+        <v>-0.4538276630291644</v>
       </c>
       <c r="N10">
-        <v>0.6194667572717899</v>
+        <v>0.2043319658591057</v>
       </c>
       <c r="O10">
-        <v>-1.066510125869602</v>
+        <v>-0.2248857150459194</v>
       </c>
       <c r="P10">
-        <v>0.01560692028285421</v>
+        <v>0.01443756472448548</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1863</v>
+        <v>1784</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.8725867550981112</v>
+        <v>0.535732696924619</v>
       </c>
       <c r="E11">
-        <v>0.9953563169553479</v>
+        <v>0.7839102870420045</v>
       </c>
       <c r="F11">
-        <v>0.008651379839541912</v>
+        <v>0.003801738866413532</v>
       </c>
       <c r="G11">
-        <v>9.857561779912068</v>
+        <v>2.416104123067274</v>
       </c>
       <c r="H11">
-        <v>2.599804925239984</v>
+        <v>1.275771612329528</v>
       </c>
       <c r="I11">
-        <v>2.169706209703054E-57</v>
+        <v>2.057450745620542E-56</v>
       </c>
       <c r="J11">
-        <v>56.36000061035156</v>
+        <v>36.47000122070312</v>
       </c>
       <c r="K11">
-        <v>19.8700008392334</v>
+        <v>25.47999954223633</v>
       </c>
       <c r="L11">
-        <v>6.24948285637295</v>
+        <v>2.959978780900499</v>
       </c>
       <c r="M11">
-        <v>-6.705054687701718</v>
+        <v>-2.163187457262566</v>
       </c>
       <c r="N11">
-        <v>2.474444786244373</v>
+        <v>0.9040198990678606</v>
       </c>
       <c r="O11">
-        <v>-5.155687215922107</v>
+        <v>1.547236999481377</v>
       </c>
       <c r="P11">
-        <v>0.01584888040165682</v>
+        <v>0.01453732930434868</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -82,31 +82,34 @@
     <t>AZUL4</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
   </si>
   <si>
     <t>USIM5</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
   </si>
 </sst>
 </file>
@@ -534,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.535732696924619</v>
+        <v>0.5682892644707411</v>
       </c>
       <c r="E2">
-        <v>0.6343651448371677</v>
+        <v>0.6584393219869781</v>
       </c>
       <c r="F2">
-        <v>0.001092513797637984</v>
+        <v>0.001084175554696029</v>
       </c>
       <c r="G2">
-        <v>-3.496198118746264</v>
+        <v>-3.449860228351859</v>
       </c>
       <c r="H2">
-        <v>0.9799720103045944</v>
+        <v>0.9789375658623647</v>
       </c>
       <c r="I2">
-        <v>2.308713512867121E-143</v>
+        <v>3.443739518347907E-143</v>
       </c>
       <c r="J2">
-        <v>36.47000122070312</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="K2">
-        <v>40.45000076293945</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="L2">
-        <v>0.4394338070443808</v>
+        <v>0.4387149149738647</v>
       </c>
       <c r="M2">
-        <v>-0.5910675486207353</v>
+        <v>-0.5954276816553374</v>
       </c>
       <c r="N2">
-        <v>0.209780390789219</v>
+        <v>0.2105049191488866</v>
       </c>
       <c r="O2">
-        <v>0.3263307749692359</v>
+        <v>0.232570624252304</v>
       </c>
       <c r="P2">
-        <v>0.007183728606485282</v>
+        <v>0.007245570817179882</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,43 +596,43 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>0.2991942975232877</v>
+        <v>0.3261261567696476</v>
       </c>
       <c r="E3">
-        <v>0.535732696924619</v>
+        <v>0.5682892644707411</v>
       </c>
       <c r="F3">
-        <v>0.0009073472370477822</v>
+        <v>0.000944706903996601</v>
       </c>
       <c r="G3">
-        <v>-1.143012890230683</v>
+        <v>-1.164624422459385</v>
       </c>
       <c r="H3">
-        <v>0.1261710425371208</v>
+        <v>0.1267065382954159</v>
       </c>
       <c r="I3">
-        <v>1.983588025866861E-39</v>
+        <v>2.605650764136442E-39</v>
       </c>
       <c r="J3">
-        <v>3.170000076293945</v>
+        <v>3.109999895095825</v>
       </c>
       <c r="K3">
-        <v>36.47000122070312</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="L3">
-        <v>0.4421546548473696</v>
+        <v>0.4427961732629444</v>
       </c>
       <c r="M3">
-        <v>-0.5671610047704396</v>
+        <v>-0.5670549821131607</v>
       </c>
       <c r="N3">
-        <v>0.179039982675081</v>
+        <v>0.1803939231258829</v>
       </c>
       <c r="O3">
-        <v>-0.2884451088215538</v>
+        <v>-0.2804758308344102</v>
       </c>
       <c r="P3">
-        <v>0.01198126313654247</v>
+        <v>0.01209890804406668</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -640,450 +643,450 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>988</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4">
-        <v>0.2991942975232877</v>
+        <v>0.890629662756087</v>
       </c>
       <c r="E4">
-        <v>0.6343651448371677</v>
+        <v>0.4845410007146688</v>
       </c>
       <c r="F4">
-        <v>0.0008527002052283529</v>
+        <v>0.0005633091822017932</v>
       </c>
       <c r="G4">
-        <v>-1.680260120844854</v>
+        <v>17.08737981731764</v>
       </c>
       <c r="H4">
-        <v>0.1259127753208058</v>
+        <v>-3.094159175652663</v>
       </c>
       <c r="I4">
-        <v>1.224181787532622E-41</v>
+        <v>5.48751186434434E-40</v>
       </c>
       <c r="J4">
-        <v>3.170000076293945</v>
+        <v>14.21000003814697</v>
       </c>
       <c r="K4">
-        <v>40.45000076293945</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="L4">
-        <v>0.4392769359504616</v>
+        <v>1.293143915287107</v>
       </c>
       <c r="M4">
-        <v>-0.5156379246375566</v>
+        <v>-0.8610755364250373</v>
       </c>
       <c r="N4">
-        <v>0.1725299921380816</v>
+        <v>0.392033064786815</v>
       </c>
       <c r="O4">
-        <v>-0.2429116606516173</v>
+        <v>0.6809031990593883</v>
       </c>
       <c r="P4">
-        <v>0.01203207660944687</v>
+        <v>0.01210542562733895</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>18</v>
+        <v>988</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>0.8911437352789928</v>
+        <v>0.3261261567696476</v>
       </c>
       <c r="E5">
-        <v>0.3733576473420636</v>
+        <v>0.6584393219869781</v>
       </c>
       <c r="F5">
-        <v>0.0009851171605087957</v>
+        <v>0.0009308363796295852</v>
       </c>
       <c r="G5">
-        <v>16.8945114096727</v>
+        <v>-1.702368984461481</v>
       </c>
       <c r="H5">
-        <v>-2.96548551707624</v>
+        <v>0.126412815923958</v>
       </c>
       <c r="I5">
-        <v>5.536884397733007E-38</v>
+        <v>1.236004370401422E-41</v>
       </c>
       <c r="J5">
-        <v>14.22000026702881</v>
+        <v>3.109999895095825</v>
       </c>
       <c r="K5">
-        <v>1.200000047683716</v>
+        <v>40.0099983215332</v>
       </c>
       <c r="L5">
-        <v>1.321310043635616</v>
+        <v>0.4396190327222715</v>
       </c>
       <c r="M5">
-        <v>-0.8818053977220046</v>
+        <v>-0.5155808508569431</v>
       </c>
       <c r="N5">
-        <v>0.3971651748438261</v>
+        <v>0.1735020453784912</v>
       </c>
       <c r="O5">
-        <v>0.8840716192529694</v>
+        <v>-0.2454076733805399</v>
       </c>
       <c r="P5">
-        <v>0.01282748364389033</v>
+        <v>0.01215234035429291</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1756</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.535732696924619</v>
+        <v>0.3808378820541704</v>
       </c>
       <c r="E6">
-        <v>0.7767559440514844</v>
+        <v>0.7037208109481808</v>
       </c>
       <c r="F6">
-        <v>0.006783135038813237</v>
+        <v>0.0006924007498219683</v>
       </c>
       <c r="G6">
-        <v>3.787045841182277</v>
+        <v>25.59624100387508</v>
       </c>
       <c r="H6">
-        <v>2.297128154392039</v>
+        <v>-1.747528696574402</v>
       </c>
       <c r="I6">
-        <v>1.370017444963842E-65</v>
+        <v>3.790155499929176E-45</v>
       </c>
       <c r="J6">
-        <v>36.47000122070312</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="K6">
-        <v>13.09000015258789</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="L6">
-        <v>2.613547488015129</v>
+        <v>1.966350152752</v>
       </c>
       <c r="M6">
-        <v>-1.833783061247587</v>
+        <v>-1.924868088667804</v>
       </c>
       <c r="N6">
-        <v>0.7749473004909504</v>
+        <v>0.790344055591904</v>
       </c>
       <c r="O6">
-        <v>2.613547488015126</v>
+        <v>-0.8724819673585671</v>
       </c>
       <c r="P6">
-        <v>0.01333560012452457</v>
+        <v>0.01272986776812358</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>165</v>
+        <v>1756</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.5403350481973301</v>
+        <v>0.5682892644707411</v>
       </c>
       <c r="E7">
-        <v>0.6969364866334654</v>
+        <v>0.8439033589201033</v>
       </c>
       <c r="F7">
-        <v>0.001691603661588246</v>
+        <v>0.00340419406936093</v>
       </c>
       <c r="G7">
-        <v>25.66801536095478</v>
+        <v>4.214614598598892</v>
       </c>
       <c r="H7">
-        <v>-1.752846431016994</v>
+        <v>2.269289455717301</v>
       </c>
       <c r="I7">
-        <v>2.90680773167109E-45</v>
+        <v>2.966630947132451E-64</v>
       </c>
       <c r="J7">
-        <v>4.369999885559082</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="K7">
-        <v>11.5</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="L7">
-        <v>1.9547742722111</v>
+        <v>2.55038730049867</v>
       </c>
       <c r="M7">
-        <v>-1.946946035265182</v>
+        <v>-1.842561710639181</v>
       </c>
       <c r="N7">
-        <v>0.7927415924251224</v>
+        <v>0.7929410815564059</v>
       </c>
       <c r="O7">
-        <v>-1.140281518700263</v>
+        <v>1.962308765029142</v>
       </c>
       <c r="P7">
-        <v>0.01334886701961561</v>
+        <v>0.01322643634392473</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1272</v>
+        <v>2485</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.3733576473420636</v>
+        <v>0.1846600638483113</v>
       </c>
       <c r="E8">
-        <v>0.459617848679612</v>
+        <v>0.9338649137392626</v>
       </c>
       <c r="F8">
-        <v>0.002210533001001036</v>
+        <v>0.001851001678392498</v>
       </c>
       <c r="G8">
-        <v>2.9389253762249</v>
+        <v>1.707101312452897</v>
       </c>
       <c r="H8">
-        <v>-0.02859191297458844</v>
+        <v>0.1181029181414216</v>
       </c>
       <c r="I8">
-        <v>1.473591738620296E-45</v>
+        <v>1.607315729596827E-20</v>
       </c>
       <c r="J8">
-        <v>1.200000047683716</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="K8">
-        <v>55.59999847412109</v>
+        <v>17.55999946594238</v>
       </c>
       <c r="L8">
-        <v>0.3142216677078866</v>
+        <v>0.5952865430376875</v>
       </c>
       <c r="M8">
-        <v>-0.2176116613992154</v>
+        <v>-0.4486815555406833</v>
       </c>
       <c r="N8">
-        <v>0.09893532165952457</v>
+        <v>0.2017934047357102</v>
       </c>
       <c r="O8">
-        <v>-0.1492150107818642</v>
+        <v>-0.2509885205527271</v>
       </c>
       <c r="P8">
-        <v>0.01399432302471124</v>
+        <v>0.01428741410267323</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1268</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.3733576473420636</v>
+        <v>0.5682892644707411</v>
       </c>
       <c r="E9">
-        <v>0.302473069422588</v>
+        <v>0.8085600200203815</v>
       </c>
       <c r="F9">
-        <v>0.002261848036833851</v>
+        <v>0.003650348445110581</v>
       </c>
       <c r="G9">
-        <v>0.05299147909603294</v>
+        <v>2.742136254933083</v>
       </c>
       <c r="H9">
-        <v>0.2187243234895717</v>
+        <v>1.264734839916561</v>
       </c>
       <c r="I9">
-        <v>2.064096578172843E-40</v>
+        <v>2.177896269893072E-56</v>
       </c>
       <c r="J9">
-        <v>1.200000047683716</v>
+        <v>35.95000076293945</v>
       </c>
       <c r="K9">
-        <v>5.980000019073486</v>
+        <v>25.25</v>
       </c>
       <c r="L9">
-        <v>0.2459464115719256</v>
+        <v>2.920936076512703</v>
       </c>
       <c r="M9">
-        <v>-0.2940287667319037</v>
+        <v>-2.18870710094518</v>
       </c>
       <c r="N9">
-        <v>0.1078514384642675</v>
+        <v>0.9048736423068778</v>
       </c>
       <c r="O9">
-        <v>-0.1609628900517912</v>
+        <v>1.2733098001132</v>
       </c>
       <c r="P9">
-        <v>0.01409832005637412</v>
+        <v>0.01459735562798686</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2485</v>
+        <v>1563</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1320089189481585</v>
+        <v>0.2981877590398262</v>
       </c>
       <c r="E10">
-        <v>0.9251415912325844</v>
+        <v>0.9714637440064841</v>
       </c>
       <c r="F10">
-        <v>0.001740825106121931</v>
+        <v>0.002653119125611328</v>
       </c>
       <c r="G10">
-        <v>1.82770016845648</v>
+        <v>3.012382567285946</v>
       </c>
       <c r="H10">
-        <v>0.1124609763541969</v>
+        <v>-0.03754325230538296</v>
       </c>
       <c r="I10">
-        <v>2.204151902206718E-18</v>
+        <v>7.096185330954334E-16</v>
       </c>
       <c r="J10">
-        <v>3.589999914169312</v>
+        <v>2.079999923706055</v>
       </c>
       <c r="K10">
-        <v>17.67000007629395</v>
+        <v>18.95000076293945</v>
       </c>
       <c r="L10">
-        <v>0.6098121971425963</v>
+        <v>0.5908716633874782</v>
       </c>
       <c r="M10">
-        <v>-0.4538276630291644</v>
+        <v>-0.2394362718201508</v>
       </c>
       <c r="N10">
-        <v>0.2043319658591057</v>
+        <v>0.1587536698984781</v>
       </c>
       <c r="O10">
-        <v>-0.2248857150459194</v>
+        <v>-0.2209379837496557</v>
       </c>
       <c r="P10">
-        <v>0.01443756472448548</v>
+        <v>0.0147551669281685</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1784</v>
+        <v>1268</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.535732696924619</v>
+        <v>0.4845410007146688</v>
       </c>
       <c r="E11">
-        <v>0.7839102870420045</v>
+        <v>0.2976845556401994</v>
       </c>
       <c r="F11">
-        <v>0.003801738866413532</v>
+        <v>0.004981964995096124</v>
       </c>
       <c r="G11">
-        <v>2.416104123067274</v>
+        <v>0.05866623445299421</v>
       </c>
       <c r="H11">
-        <v>1.275771612329528</v>
+        <v>0.2174120537799117</v>
       </c>
       <c r="I11">
-        <v>2.057450745620542E-56</v>
+        <v>1.554539717575562E-39</v>
       </c>
       <c r="J11">
-        <v>36.47000122070312</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="K11">
-        <v>25.47999954223633</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="L11">
-        <v>2.959978780900499</v>
+        <v>0.2498774707149414</v>
       </c>
       <c r="M11">
-        <v>-2.163187457262566</v>
+        <v>-0.2888379292432943</v>
       </c>
       <c r="N11">
-        <v>0.9040198990678606</v>
+        <v>0.1085336208163489</v>
       </c>
       <c r="O11">
-        <v>1.547236999481377</v>
+        <v>-0.239228002547077</v>
       </c>
       <c r="P11">
-        <v>0.01453732930434868</v>
+        <v>0.0148087126067188</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
     <t>COGN3</t>
   </si>
   <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>USIM5</t>
+  </si>
+  <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -531,55 +528,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1751</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>0.5682892644707411</v>
+        <v>0.8866169516471527</v>
       </c>
       <c r="E2">
-        <v>0.6584393219869781</v>
+        <v>0.4843995172411804</v>
       </c>
       <c r="F2">
-        <v>0.001084175554696029</v>
+        <v>0.0007273627488582833</v>
       </c>
       <c r="G2">
-        <v>-3.449860228351859</v>
+        <v>17.26170973219848</v>
       </c>
       <c r="H2">
-        <v>0.9789375658623647</v>
+        <v>-3.209488559796477</v>
       </c>
       <c r="I2">
-        <v>3.443739518347907E-143</v>
+        <v>3.562041901849503E-41</v>
       </c>
       <c r="J2">
-        <v>35.95000076293945</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="K2">
-        <v>40.0099983215332</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="L2">
-        <v>0.4387149149738647</v>
+        <v>1.266435608810752</v>
       </c>
       <c r="M2">
-        <v>-0.5954276816553374</v>
+        <v>-0.8439586774766745</v>
       </c>
       <c r="N2">
-        <v>0.2105049191488866</v>
+        <v>0.3921103541414486</v>
       </c>
       <c r="O2">
-        <v>0.232570624252304</v>
+        <v>0.8596771503613052</v>
       </c>
       <c r="P2">
-        <v>0.007245570817179882</v>
+        <v>0.01193256314810083</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,169 +590,169 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.3261261567696476</v>
+        <v>0.3309114899240721</v>
       </c>
       <c r="E3">
-        <v>0.5682892644707411</v>
+        <v>0.5368429074029621</v>
       </c>
       <c r="F3">
-        <v>0.000944706903996601</v>
+        <v>0.001323028854490005</v>
       </c>
       <c r="G3">
-        <v>-1.164624422459385</v>
+        <v>-1.178529902656623</v>
       </c>
       <c r="H3">
-        <v>0.1267065382954159</v>
+        <v>0.1270401396849502</v>
       </c>
       <c r="I3">
-        <v>2.605650764136442E-39</v>
+        <v>4.703779288083422E-39</v>
       </c>
       <c r="J3">
-        <v>3.109999895095825</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="K3">
-        <v>35.95000076293945</v>
+        <v>36.43999862670898</v>
       </c>
       <c r="L3">
-        <v>0.4427961732629444</v>
+        <v>0.4436378230969251</v>
       </c>
       <c r="M3">
-        <v>-0.5670549821131607</v>
+        <v>-0.5665469336687132</v>
       </c>
       <c r="N3">
-        <v>0.1803939231258829</v>
+        <v>0.1818547296955291</v>
       </c>
       <c r="O3">
-        <v>-0.2804758308344102</v>
+        <v>-0.3008125176324477</v>
       </c>
       <c r="P3">
-        <v>0.01209890804406668</v>
+        <v>0.01242781472525252</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>18</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4">
-        <v>0.890629662756087</v>
+        <v>0.3309114899240721</v>
       </c>
       <c r="E4">
-        <v>0.4845410007146688</v>
+        <v>0.604512117954548</v>
       </c>
       <c r="F4">
-        <v>0.0005633091822017932</v>
+        <v>0.001425177267691972</v>
       </c>
       <c r="G4">
-        <v>17.08737981731764</v>
+        <v>-1.718271073270168</v>
       </c>
       <c r="H4">
-        <v>-3.094159175652663</v>
+        <v>0.1267606552768326</v>
       </c>
       <c r="I4">
-        <v>5.48751186434434E-40</v>
+        <v>2.165745692648282E-41</v>
       </c>
       <c r="J4">
-        <v>14.21000003814697</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="K4">
-        <v>1.149999976158142</v>
+        <v>40.65000152587891</v>
       </c>
       <c r="L4">
-        <v>1.293143915287107</v>
+        <v>0.4403796749249365</v>
       </c>
       <c r="M4">
-        <v>-0.8610755364250373</v>
+        <v>-0.5150184769792645</v>
       </c>
       <c r="N4">
-        <v>0.392033064786815</v>
+        <v>0.1748693113434785</v>
       </c>
       <c r="O4">
-        <v>0.6809031990593883</v>
+        <v>-0.2845496617870555</v>
       </c>
       <c r="P4">
-        <v>0.01210542562733895</v>
+        <v>0.01253685549081921</v>
       </c>
       <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>988</v>
+        <v>1756</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5">
-        <v>0.3261261567696476</v>
+        <v>0.5368429074029621</v>
       </c>
       <c r="E5">
-        <v>0.6584393219869781</v>
+        <v>0.8100831488094182</v>
       </c>
       <c r="F5">
-        <v>0.0009308363796295852</v>
+        <v>0.004935643552402485</v>
       </c>
       <c r="G5">
-        <v>-1.702368984461481</v>
+        <v>4.553620559318141</v>
       </c>
       <c r="H5">
-        <v>0.126412815923958</v>
+        <v>2.247290232793667</v>
       </c>
       <c r="I5">
-        <v>1.236004370401422E-41</v>
+        <v>5.369297127244862E-63</v>
       </c>
       <c r="J5">
-        <v>3.109999895095825</v>
+        <v>36.43999862670898</v>
       </c>
       <c r="K5">
-        <v>40.0099983215332</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="L5">
-        <v>0.4396190327222715</v>
+        <v>2.499351171206612</v>
       </c>
       <c r="M5">
-        <v>-0.5155808508569431</v>
+        <v>-1.850623432466413</v>
       </c>
       <c r="N5">
-        <v>0.1735020453784912</v>
+        <v>0.8093965698779088</v>
       </c>
       <c r="O5">
-        <v>-0.2454076733805399</v>
+        <v>1.929999435705906</v>
       </c>
       <c r="P5">
-        <v>0.01215234035429291</v>
+        <v>0.01393784033882127</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>165</v>
+        <v>2485</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -764,43 +761,43 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>0.3808378820541704</v>
+        <v>0.1435499492195727</v>
       </c>
       <c r="E6">
-        <v>0.7037208109481808</v>
+        <v>0.8647213801677776</v>
       </c>
       <c r="F6">
-        <v>0.0006924007498219683</v>
+        <v>0.00160800362911419</v>
       </c>
       <c r="G6">
-        <v>25.59624100387508</v>
+        <v>1.615967008514966</v>
       </c>
       <c r="H6">
-        <v>-1.747528696574402</v>
+        <v>0.1223979434020339</v>
       </c>
       <c r="I6">
-        <v>3.790155499929176E-45</v>
+        <v>3.375866225754813E-22</v>
       </c>
       <c r="J6">
-        <v>4.400000095367432</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="K6">
-        <v>11.63000011444092</v>
+        <v>18.27000045776367</v>
       </c>
       <c r="L6">
-        <v>1.966350152752</v>
+        <v>0.5998789835316298</v>
       </c>
       <c r="M6">
-        <v>-1.924868088667804</v>
+        <v>-0.4594153026130972</v>
       </c>
       <c r="N6">
-        <v>0.790344055591904</v>
+        <v>0.1992755666410301</v>
       </c>
       <c r="O6">
-        <v>-0.8724819673585671</v>
+        <v>-0.202177395132026</v>
       </c>
       <c r="P6">
-        <v>0.01272986776812358</v>
+        <v>0.01400751768143984</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
@@ -811,63 +808,63 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1756</v>
+        <v>1272</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.5682892644707411</v>
+        <v>0.4843995172411804</v>
       </c>
       <c r="E7">
-        <v>0.8439033589201033</v>
+        <v>0.3877511768524725</v>
       </c>
       <c r="F7">
-        <v>0.00340419406936093</v>
+        <v>0.003003998660077134</v>
       </c>
       <c r="G7">
-        <v>4.214614598598892</v>
+        <v>2.923149580930894</v>
       </c>
       <c r="H7">
-        <v>2.269289455717301</v>
+        <v>-0.02836036810338403</v>
       </c>
       <c r="I7">
-        <v>2.966630947132451E-64</v>
+        <v>2.294712497552765E-44</v>
       </c>
       <c r="J7">
-        <v>35.95000076293945</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="K7">
-        <v>13.11999988555908</v>
+        <v>56.88000106811523</v>
       </c>
       <c r="L7">
-        <v>2.55038730049867</v>
+        <v>0.3192822679644287</v>
       </c>
       <c r="M7">
-        <v>-1.842561710639181</v>
+        <v>-0.2107545957256267</v>
       </c>
       <c r="N7">
-        <v>0.7929410815564059</v>
+        <v>0.09918749957777953</v>
       </c>
       <c r="O7">
-        <v>1.962308765029142</v>
+        <v>-0.1100117652345531</v>
       </c>
       <c r="P7">
-        <v>0.01322643634392473</v>
+        <v>0.01431939909877638</v>
       </c>
       <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
         <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2485</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -876,43 +873,43 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>0.1846600638483113</v>
+        <v>0.4843995172411804</v>
       </c>
       <c r="E8">
-        <v>0.9338649137392626</v>
+        <v>0.2649613296841323</v>
       </c>
       <c r="F8">
-        <v>0.001851001678392498</v>
+        <v>0.004335789610595614</v>
       </c>
       <c r="G8">
-        <v>1.707101312452897</v>
+        <v>0.06485878719892063</v>
       </c>
       <c r="H8">
-        <v>0.1181029181414216</v>
+        <v>0.2160905270424964</v>
       </c>
       <c r="I8">
-        <v>1.607315729596827E-20</v>
+        <v>6.188628020238801E-39</v>
       </c>
       <c r="J8">
-        <v>3.529999971389771</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="K8">
-        <v>17.55999946594238</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="L8">
-        <v>0.5952865430376875</v>
+        <v>0.2533584939137505</v>
       </c>
       <c r="M8">
-        <v>-0.4486815555406833</v>
+        <v>-0.2840882409563075</v>
       </c>
       <c r="N8">
-        <v>0.2017934047357102</v>
+        <v>0.1086419071340699</v>
       </c>
       <c r="O8">
-        <v>-0.2509885205527271</v>
+        <v>-0.1873327402856844</v>
       </c>
       <c r="P8">
-        <v>0.01428741410267323</v>
+        <v>0.01479602615477261</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
@@ -926,108 +923,108 @@
         <v>1784</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5682892644707411</v>
+        <v>0.5368429074029621</v>
       </c>
       <c r="E9">
-        <v>0.8085600200203815</v>
+        <v>0.7721889978365889</v>
       </c>
       <c r="F9">
-        <v>0.003650348445110581</v>
+        <v>0.006285104774442623</v>
       </c>
       <c r="G9">
-        <v>2.742136254933083</v>
+        <v>3.293658907964438</v>
       </c>
       <c r="H9">
-        <v>1.264734839916561</v>
+        <v>1.243829819732701</v>
       </c>
       <c r="I9">
-        <v>2.177896269893072E-56</v>
+        <v>4.782826425816459E-56</v>
       </c>
       <c r="J9">
-        <v>35.95000076293945</v>
+        <v>36.43999862670898</v>
       </c>
       <c r="K9">
-        <v>25.25</v>
+        <v>25.51000022888184</v>
       </c>
       <c r="L9">
-        <v>2.920936076512703</v>
+        <v>2.852081063647574</v>
       </c>
       <c r="M9">
-        <v>-2.18870710094518</v>
+        <v>-2.237970181663641</v>
       </c>
       <c r="N9">
-        <v>0.9048736423068778</v>
+        <v>0.9095534361898181</v>
       </c>
       <c r="O9">
-        <v>1.2733098001132</v>
+        <v>1.416240732673295</v>
       </c>
       <c r="P9">
-        <v>0.01459735562798686</v>
+        <v>0.01537944553312222</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1563</v>
+        <v>2474</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.2981877590398262</v>
+        <v>0.1435499492195727</v>
       </c>
       <c r="E10">
-        <v>0.9714637440064841</v>
+        <v>0.7546499476640789</v>
       </c>
       <c r="F10">
-        <v>0.002653119125611328</v>
+        <v>0.005801994872381842</v>
       </c>
       <c r="G10">
-        <v>3.012382567285946</v>
+        <v>1.684338794311969</v>
       </c>
       <c r="H10">
-        <v>-0.03754325230538296</v>
+        <v>0.874757188669919</v>
       </c>
       <c r="I10">
-        <v>7.096185330954334E-16</v>
+        <v>6.731517714670728E-21</v>
       </c>
       <c r="J10">
-        <v>2.079999923706055</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="K10">
-        <v>18.95000076293945</v>
+        <v>2.529999971389771</v>
       </c>
       <c r="L10">
-        <v>0.5908716633874782</v>
+        <v>0.5599153598719786</v>
       </c>
       <c r="M10">
-        <v>-0.2394362718201508</v>
+        <v>-0.4575132286401793</v>
       </c>
       <c r="N10">
-        <v>0.1587536698984781</v>
+        <v>0.2036434791963275</v>
       </c>
       <c r="O10">
-        <v>-0.2209379837496557</v>
+        <v>-0.2474743612524286</v>
       </c>
       <c r="P10">
-        <v>0.0147551669281685</v>
+        <v>0.01541137013838667</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -1035,58 +1032,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1268</v>
+        <v>2179</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>0.4845410007146688</v>
+        <v>0.8160645756312244</v>
       </c>
       <c r="E11">
-        <v>0.2976845556401994</v>
+        <v>0.8647213801677776</v>
       </c>
       <c r="F11">
-        <v>0.004981964995096124</v>
+        <v>0.002219822533783492</v>
       </c>
       <c r="G11">
-        <v>0.05866623445299421</v>
+        <v>1.976648070188346</v>
       </c>
       <c r="H11">
-        <v>0.2174120537799117</v>
+        <v>-0.03888394392496368</v>
       </c>
       <c r="I11">
-        <v>1.554539717575562E-39</v>
+        <v>1.291607582047701E-11</v>
       </c>
       <c r="J11">
-        <v>1.149999976158142</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="K11">
-        <v>6.119999885559082</v>
+        <v>18.27000045776367</v>
       </c>
       <c r="L11">
-        <v>0.2498774707149414</v>
+        <v>0.3558156192759845</v>
       </c>
       <c r="M11">
-        <v>-0.2888379292432943</v>
+        <v>-0.1686737944559755</v>
       </c>
       <c r="N11">
-        <v>0.1085336208163489</v>
+        <v>0.09966905506110854</v>
       </c>
       <c r="O11">
-        <v>-0.239228002547077</v>
+        <v>0.1337615792785395</v>
       </c>
       <c r="P11">
-        <v>0.0148087126067188</v>
+        <v>0.01663167573239923</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -79,27 +79,24 @@
     <t>ELET3</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
     <t>USIM5</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
   </si>
 </sst>
 </file>
@@ -534,49 +537,49 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.8866169516471527</v>
+        <v>0.7013254790230987</v>
       </c>
       <c r="E2">
-        <v>0.4843995172411804</v>
+        <v>0.3783481422520391</v>
       </c>
       <c r="F2">
-        <v>0.0007273627488582833</v>
+        <v>0.0003935122176659419</v>
       </c>
       <c r="G2">
-        <v>17.26170973219848</v>
+        <v>17.30410642662468</v>
       </c>
       <c r="H2">
-        <v>-3.209488559796477</v>
+        <v>-3.234712281622691</v>
       </c>
       <c r="I2">
-        <v>3.562041901849503E-41</v>
+        <v>1.202516748892882E-41</v>
       </c>
       <c r="J2">
-        <v>14.27000045776367</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="K2">
-        <v>1.200000047683716</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="L2">
-        <v>1.266435608810752</v>
+        <v>1.256325277600444</v>
       </c>
       <c r="M2">
-        <v>-0.8439586774766745</v>
+        <v>-0.8444839945132969</v>
       </c>
       <c r="N2">
-        <v>0.3921103541414486</v>
+        <v>0.3940845830071091</v>
       </c>
       <c r="O2">
-        <v>0.8596771503613052</v>
+        <v>0.6039783000737557</v>
       </c>
       <c r="P2">
-        <v>0.01193256314810083</v>
+        <v>0.01171180879299205</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -593,43 +596,43 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.3309114899240721</v>
+        <v>0.2956264405550159</v>
       </c>
       <c r="E3">
-        <v>0.5368429074029621</v>
+        <v>0.5193657089844436</v>
       </c>
       <c r="F3">
-        <v>0.001323028854490005</v>
+        <v>0.001195379902179775</v>
       </c>
       <c r="G3">
-        <v>-1.178529902656623</v>
+        <v>-1.197953907982983</v>
       </c>
       <c r="H3">
-        <v>0.1270401396849502</v>
+        <v>0.1275019278736561</v>
       </c>
       <c r="I3">
-        <v>4.703779288083422E-39</v>
+        <v>3.228818667722284E-39</v>
       </c>
       <c r="J3">
-        <v>3.150000095367432</v>
+        <v>3.230000019073486</v>
       </c>
       <c r="K3">
-        <v>36.43999862670898</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="L3">
-        <v>0.4436378230969251</v>
+        <v>0.4449782030240264</v>
       </c>
       <c r="M3">
-        <v>-0.5665469336687132</v>
+        <v>-0.5656683419303188</v>
       </c>
       <c r="N3">
-        <v>0.1818547296955291</v>
+        <v>0.1825340036678091</v>
       </c>
       <c r="O3">
-        <v>-0.3008125176324477</v>
+        <v>-0.2590167275713746</v>
       </c>
       <c r="P3">
-        <v>0.01242781472525252</v>
+        <v>0.01250454920021836</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -646,52 +649,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>0.3309114899240721</v>
+        <v>0.2956264405550159</v>
       </c>
       <c r="E4">
-        <v>0.604512117954548</v>
+        <v>0.5797058160072434</v>
       </c>
       <c r="F4">
-        <v>0.001425177267691972</v>
+        <v>0.001367765838520234</v>
       </c>
       <c r="G4">
-        <v>-1.718271073270168</v>
+        <v>-1.739174042595592</v>
       </c>
       <c r="H4">
-        <v>0.1267606552768326</v>
+        <v>0.1272104332589383</v>
       </c>
       <c r="I4">
-        <v>2.165745692648282E-41</v>
+        <v>1.520694518285912E-41</v>
       </c>
       <c r="J4">
-        <v>3.150000095367432</v>
+        <v>3.230000019073486</v>
       </c>
       <c r="K4">
-        <v>40.65000152587891</v>
+        <v>41.08000183105469</v>
       </c>
       <c r="L4">
-        <v>0.4403796749249365</v>
+        <v>0.4417038092383465</v>
       </c>
       <c r="M4">
-        <v>-0.5150184769792645</v>
+        <v>-0.5139507159783938</v>
       </c>
       <c r="N4">
-        <v>0.1748693113434785</v>
+        <v>0.1756010358713709</v>
       </c>
       <c r="O4">
-        <v>-0.2845496617870555</v>
+        <v>-0.2566307695373666</v>
       </c>
       <c r="P4">
-        <v>0.01253685549081921</v>
+        <v>0.01266062117387031</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -702,49 +705,49 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.5368429074029621</v>
+        <v>0.5193657089844436</v>
       </c>
       <c r="E5">
-        <v>0.8100831488094182</v>
+        <v>0.6922000079011559</v>
       </c>
       <c r="F5">
-        <v>0.004935643552402485</v>
+        <v>0.002763584812451827</v>
       </c>
       <c r="G5">
-        <v>4.553620559318141</v>
+        <v>4.750806491467951</v>
       </c>
       <c r="H5">
-        <v>2.247290232793667</v>
+        <v>2.234692829184036</v>
       </c>
       <c r="I5">
-        <v>5.369297127244862E-63</v>
+        <v>6.305603621560625E-63</v>
       </c>
       <c r="J5">
-        <v>36.43999862670898</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="K5">
-        <v>13.32999992370605</v>
+        <v>13.72999954223633</v>
       </c>
       <c r="L5">
-        <v>2.499351171206612</v>
+        <v>2.467065254229077</v>
       </c>
       <c r="M5">
-        <v>-1.850623432466413</v>
+        <v>-1.858300936792347</v>
       </c>
       <c r="N5">
-        <v>0.8093965698779088</v>
+        <v>0.8144006113699703</v>
       </c>
       <c r="O5">
-        <v>1.929999435705906</v>
+        <v>1.326860308329636</v>
       </c>
       <c r="P5">
-        <v>0.01393784033882127</v>
+        <v>0.01367215298087325</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -752,279 +755,279 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2485</v>
+        <v>1268</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.1435499492195727</v>
+        <v>0.3783481422520391</v>
       </c>
       <c r="E6">
-        <v>0.8647213801677776</v>
+        <v>0.2607388648008918</v>
       </c>
       <c r="F6">
-        <v>0.00160800362911419</v>
+        <v>0.002711106933155765</v>
       </c>
       <c r="G6">
-        <v>1.615967008514966</v>
+        <v>0.05901671882963525</v>
       </c>
       <c r="H6">
-        <v>0.1223979434020339</v>
+        <v>0.2168376422356213</v>
       </c>
       <c r="I6">
-        <v>3.375866225754813E-22</v>
+        <v>3.026916698630365E-39</v>
       </c>
       <c r="J6">
-        <v>3.650000095367432</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="K6">
-        <v>18.27000045776367</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="L6">
-        <v>0.5998789835316298</v>
+        <v>0.2537316789411108</v>
       </c>
       <c r="M6">
-        <v>-0.4594153026130972</v>
+        <v>-0.2844322861865949</v>
       </c>
       <c r="N6">
-        <v>0.1992755666410301</v>
+        <v>0.1087183064444536</v>
       </c>
       <c r="O6">
-        <v>-0.202177395132026</v>
+        <v>-0.1182315096225788</v>
       </c>
       <c r="P6">
-        <v>0.01400751768143984</v>
+        <v>0.01444665395958558</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1272</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.4843995172411804</v>
+        <v>0.4873680797764656</v>
       </c>
       <c r="E7">
-        <v>0.3877511768524725</v>
+        <v>0.7652485081734</v>
       </c>
       <c r="F7">
-        <v>0.003003998660077134</v>
+        <v>0.005290004060461415</v>
       </c>
       <c r="G7">
-        <v>2.923149580930894</v>
+        <v>11.49167991746407</v>
       </c>
       <c r="H7">
-        <v>-0.02836036810338403</v>
+        <v>0.5158730613342998</v>
       </c>
       <c r="I7">
-        <v>2.294712497552765E-44</v>
+        <v>1.420566681372834E-55</v>
       </c>
       <c r="J7">
-        <v>1.200000047683716</v>
+        <v>25.18350982666016</v>
       </c>
       <c r="K7">
-        <v>56.88000106811523</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="L7">
-        <v>0.3192822679644287</v>
+        <v>0.7613916126645499</v>
       </c>
       <c r="M7">
-        <v>-0.2107545957256267</v>
+        <v>-1.240899199032331</v>
       </c>
       <c r="N7">
-        <v>0.09918749957777953</v>
+        <v>0.3851824111842305</v>
       </c>
       <c r="O7">
-        <v>-0.1100117652345531</v>
+        <v>0.5009558883100009</v>
       </c>
       <c r="P7">
-        <v>0.01431939909877638</v>
+        <v>0.01520881518004287</v>
       </c>
       <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
         <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1268</v>
+        <v>1784</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8">
-        <v>0.4843995172411804</v>
+        <v>0.5193657089844436</v>
       </c>
       <c r="E8">
-        <v>0.2649613296841323</v>
+        <v>0.7652485081734</v>
       </c>
       <c r="F8">
-        <v>0.004335789610595614</v>
+        <v>0.00839655737996867</v>
       </c>
       <c r="G8">
-        <v>0.06485878719892063</v>
+        <v>3.583058344125806</v>
       </c>
       <c r="H8">
-        <v>0.2160905270424964</v>
+        <v>1.233885318553609</v>
       </c>
       <c r="I8">
-        <v>6.188628020238801E-39</v>
+        <v>8.173667810599837E-56</v>
       </c>
       <c r="J8">
-        <v>1.200000047683716</v>
+        <v>36.7599983215332</v>
       </c>
       <c r="K8">
-        <v>6.119999885559082</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="L8">
-        <v>0.2533584939137505</v>
+        <v>2.821755810594368</v>
       </c>
       <c r="M8">
-        <v>-0.2840882409563075</v>
+        <v>-2.260060087775017</v>
       </c>
       <c r="N8">
-        <v>0.1086419071340699</v>
+        <v>0.9168874161989239</v>
       </c>
       <c r="O8">
-        <v>-0.1873327402856844</v>
+        <v>1.626492758543524</v>
       </c>
       <c r="P8">
-        <v>0.01479602615477261</v>
+        <v>0.01596585000938711</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1784</v>
+        <v>2719</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5368429074029621</v>
+        <v>0.4071434211850351</v>
       </c>
       <c r="E9">
-        <v>0.7721889978365889</v>
+        <v>0.6719910844349972</v>
       </c>
       <c r="F9">
-        <v>0.006285104774442623</v>
+        <v>0.007368608256986807</v>
       </c>
       <c r="G9">
-        <v>3.293658907964438</v>
+        <v>12.87291521271769</v>
       </c>
       <c r="H9">
-        <v>1.243829819732701</v>
+        <v>10.40470434766518</v>
       </c>
       <c r="I9">
-        <v>4.782826425816459E-56</v>
+        <v>4.926391938972138E-40</v>
       </c>
       <c r="J9">
-        <v>36.43999862670898</v>
+        <v>41.9900016784668</v>
       </c>
       <c r="K9">
-        <v>25.51000022888184</v>
+        <v>2.609999895095825</v>
       </c>
       <c r="L9">
-        <v>2.852081063647574</v>
+        <v>4.320014551892527</v>
       </c>
       <c r="M9">
-        <v>-2.237970181663641</v>
+        <v>-2.820603926411621</v>
       </c>
       <c r="N9">
-        <v>0.9095534361898181</v>
+        <v>1.440544163817885</v>
       </c>
       <c r="O9">
-        <v>1.416240732673295</v>
+        <v>1.960809209839905</v>
       </c>
       <c r="P9">
-        <v>0.01537944553312222</v>
+        <v>0.01599680605884403</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2474</v>
+        <v>2488</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1435499492195727</v>
+        <v>0.1042321011478705</v>
       </c>
       <c r="E10">
-        <v>0.7546499476640789</v>
+        <v>0.7442571551889535</v>
       </c>
       <c r="F10">
-        <v>0.005801994872381842</v>
+        <v>0.0091630946880487</v>
       </c>
       <c r="G10">
-        <v>1.684338794311969</v>
+        <v>1.731111708259637</v>
       </c>
       <c r="H10">
-        <v>0.874757188669919</v>
+        <v>0.1112777219609141</v>
       </c>
       <c r="I10">
-        <v>6.731517714670728E-21</v>
+        <v>6.903993860208031E-22</v>
       </c>
       <c r="J10">
-        <v>3.650000095367432</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="K10">
-        <v>2.529999971389771</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>0.5599153598719786</v>
+        <v>0.5338816516524592</v>
       </c>
       <c r="M10">
-        <v>-0.4575132286401793</v>
+        <v>-0.511177184276459</v>
       </c>
       <c r="N10">
-        <v>0.2036434791963275</v>
+        <v>0.2021253995157667</v>
       </c>
       <c r="O10">
-        <v>-0.2474743612524286</v>
+        <v>-0.2879438980490621</v>
       </c>
       <c r="P10">
-        <v>0.01541137013838667</v>
+        <v>0.01643317493556572</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -1032,58 +1035,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2179</v>
+        <v>1019</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.8160645756312244</v>
+        <v>0.2956264405550159</v>
       </c>
       <c r="E11">
-        <v>0.8647213801677776</v>
+        <v>0.6328870166894572</v>
       </c>
       <c r="F11">
-        <v>0.002219822533783492</v>
+        <v>0.008962541092964139</v>
       </c>
       <c r="G11">
-        <v>1.976648070188346</v>
+        <v>0.1485425059939509</v>
       </c>
       <c r="H11">
-        <v>-0.03888394392496368</v>
+        <v>0.1194238444229587</v>
       </c>
       <c r="I11">
-        <v>1.291607582047701E-11</v>
+        <v>7.116806059442645E-32</v>
       </c>
       <c r="J11">
-        <v>1.399999976158142</v>
+        <v>3.230000019073486</v>
       </c>
       <c r="K11">
-        <v>18.27000045776367</v>
+        <v>28.02000045776367</v>
       </c>
       <c r="L11">
-        <v>0.3558156192759845</v>
+        <v>0.6259872265103343</v>
       </c>
       <c r="M11">
-        <v>-0.1686737944559755</v>
+        <v>-0.4739344003438726</v>
       </c>
       <c r="N11">
-        <v>0.09966905506110854</v>
+        <v>0.2062403822946938</v>
       </c>
       <c r="O11">
-        <v>0.1337615792785395</v>
+        <v>-0.2647986623196643</v>
       </c>
       <c r="P11">
-        <v>0.01663167573239923</v>
+        <v>0.01671912702199229</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,46 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>ABEV3</t>
   </si>
   <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>COGN3</t>
   </si>
   <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
     <t>BBAS3</t>
   </si>
   <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
     <t>USIM5</t>
   </si>
   <si>
     <t>SANB11</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
   </si>
 </sst>
 </file>
@@ -531,55 +531,55 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>18</v>
+        <v>1751</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.7013254790230987</v>
+        <v>0.571667493295974</v>
       </c>
       <c r="E2">
-        <v>0.3783481422520391</v>
+        <v>0.6521472035428898</v>
       </c>
       <c r="F2">
-        <v>0.0003935122176659419</v>
+        <v>0.0005219387137330916</v>
       </c>
       <c r="G2">
-        <v>17.30410642662468</v>
+        <v>-3.402239561107236</v>
       </c>
       <c r="H2">
-        <v>-3.234712281622691</v>
+        <v>0.9778673367678307</v>
       </c>
       <c r="I2">
-        <v>1.202516748892882E-41</v>
+        <v>3.876987033409234E-145</v>
       </c>
       <c r="J2">
-        <v>13.80000019073486</v>
+        <v>35.68999862670898</v>
       </c>
       <c r="K2">
-        <v>1.269999980926514</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="L2">
-        <v>1.256325277600444</v>
+        <v>0.438291349165155</v>
       </c>
       <c r="M2">
-        <v>-0.8444839945132969</v>
+        <v>-0.5996184502841189</v>
       </c>
       <c r="N2">
-        <v>0.3940845830071091</v>
+        <v>0.2103173429554539</v>
       </c>
       <c r="O2">
-        <v>0.6039783000737557</v>
+        <v>0.2611271400299486</v>
       </c>
       <c r="P2">
-        <v>0.01171180879299205</v>
+        <v>0.007168287117892826</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
@@ -587,343 +587,343 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>987</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.2956264405550159</v>
+        <v>0.7244219098345397</v>
       </c>
       <c r="E3">
-        <v>0.5193657089844436</v>
+        <v>0.4697742872184603</v>
       </c>
       <c r="F3">
-        <v>0.001195379902179775</v>
+        <v>0.0001206353591644304</v>
       </c>
       <c r="G3">
-        <v>-1.197953907982983</v>
+        <v>17.26524115189322</v>
       </c>
       <c r="H3">
-        <v>0.1275019278736561</v>
+        <v>-3.210856575553473</v>
       </c>
       <c r="I3">
-        <v>3.228818667722284E-39</v>
+        <v>7.306237334394784E-42</v>
       </c>
       <c r="J3">
-        <v>3.230000019073486</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="K3">
-        <v>36.7599983215332</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="L3">
-        <v>0.4449782030240264</v>
+        <v>1.264655249245827</v>
       </c>
       <c r="M3">
-        <v>-0.5656683419303188</v>
+        <v>-0.8452191910604654</v>
       </c>
       <c r="N3">
-        <v>0.1825340036678091</v>
+        <v>0.394229217032467</v>
       </c>
       <c r="O3">
-        <v>-0.2590167275713746</v>
+        <v>-0.4085387148209465</v>
       </c>
       <c r="P3">
-        <v>0.01250454920021836</v>
+        <v>0.01069835063160522</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>988</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.2956264405550159</v>
+        <v>0.4406699618392546</v>
       </c>
       <c r="E4">
-        <v>0.5797058160072434</v>
+        <v>0.6248856235886824</v>
       </c>
       <c r="F4">
-        <v>0.001367765838520234</v>
+        <v>0.0009105744295840166</v>
       </c>
       <c r="G4">
-        <v>-1.739174042595592</v>
+        <v>25.57994087288187</v>
       </c>
       <c r="H4">
-        <v>0.1272104332589383</v>
+        <v>-1.748730869797184</v>
       </c>
       <c r="I4">
-        <v>1.520694518285912E-41</v>
+        <v>3.193117924217212E-46</v>
       </c>
       <c r="J4">
-        <v>3.230000019073486</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="K4">
-        <v>41.08000183105469</v>
+        <v>11.5</v>
       </c>
       <c r="L4">
-        <v>0.4417038092383465</v>
+        <v>1.996257606344304</v>
       </c>
       <c r="M4">
-        <v>-0.5139507159783938</v>
+        <v>-1.897333155599533</v>
       </c>
       <c r="N4">
-        <v>0.1756010358713709</v>
+        <v>0.7823067464755976</v>
       </c>
       <c r="O4">
-        <v>-0.2566307695373666</v>
+        <v>-1.229536099096084</v>
       </c>
       <c r="P4">
-        <v>0.01266062117387031</v>
+        <v>0.01279996734246898</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1756</v>
+        <v>987</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.5193657089844436</v>
+        <v>0.3921216464942658</v>
       </c>
       <c r="E5">
-        <v>0.6922000079011559</v>
+        <v>0.571667493295974</v>
       </c>
       <c r="F5">
-        <v>0.002763584812451827</v>
+        <v>0.001629493539209352</v>
       </c>
       <c r="G5">
-        <v>4.750806491467951</v>
+        <v>-1.239722027599865</v>
       </c>
       <c r="H5">
-        <v>2.234692829184036</v>
+        <v>0.1285408333197836</v>
       </c>
       <c r="I5">
-        <v>6.305603621560625E-63</v>
+        <v>1.560019696520895E-39</v>
       </c>
       <c r="J5">
-        <v>36.7599983215332</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="K5">
-        <v>13.72999954223633</v>
+        <v>35.68999862670898</v>
       </c>
       <c r="L5">
-        <v>2.467065254229077</v>
+        <v>0.4460627855290769</v>
       </c>
       <c r="M5">
-        <v>-1.858300936792347</v>
+        <v>-0.5656226648713956</v>
       </c>
       <c r="N5">
-        <v>0.8144006113699703</v>
+        <v>0.1838740720154292</v>
       </c>
       <c r="O5">
-        <v>1.326860308329636</v>
+        <v>-0.3179001656694709</v>
       </c>
       <c r="P5">
-        <v>0.01367215298087325</v>
+        <v>0.01284368803624896</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1268</v>
+        <v>988</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.3783481422520391</v>
+        <v>0.3921216464942658</v>
       </c>
       <c r="E6">
-        <v>0.2607388648008918</v>
+        <v>0.6521472035428898</v>
       </c>
       <c r="F6">
-        <v>0.002711106933155765</v>
+        <v>0.001600170222955724</v>
       </c>
       <c r="G6">
-        <v>0.05901671882963525</v>
+        <v>-1.783445994130195</v>
       </c>
       <c r="H6">
-        <v>0.2168376422356213</v>
+        <v>0.1282087403214061</v>
       </c>
       <c r="I6">
-        <v>3.026916698630365E-39</v>
+        <v>5.444862940220653E-42</v>
       </c>
       <c r="J6">
-        <v>1.269999980926514</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="K6">
-        <v>6.130000114440918</v>
+        <v>39.70999908447266</v>
       </c>
       <c r="L6">
-        <v>0.2537316789411108</v>
+        <v>0.4425194555623597</v>
       </c>
       <c r="M6">
-        <v>-0.2844322861865949</v>
+        <v>-0.5137041043753281</v>
       </c>
       <c r="N6">
-        <v>0.1087183064444536</v>
+        <v>0.1765592545830772</v>
       </c>
       <c r="O6">
-        <v>-0.1182315096225788</v>
+        <v>-0.2777229952644644</v>
       </c>
       <c r="P6">
-        <v>0.01444665395958558</v>
+        <v>0.01290814301165468</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>356</v>
+        <v>1272</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.4873680797764656</v>
+        <v>0.4697742872184603</v>
       </c>
       <c r="E7">
-        <v>0.7652485081734</v>
+        <v>0.4499469848722172</v>
       </c>
       <c r="F7">
-        <v>0.005290004060461415</v>
+        <v>0.00194404441181662</v>
       </c>
       <c r="G7">
-        <v>11.49167991746407</v>
+        <v>2.929851775316173</v>
       </c>
       <c r="H7">
-        <v>0.5158730613342998</v>
+        <v>-0.02850953811976515</v>
       </c>
       <c r="I7">
-        <v>1.420566681372834E-55</v>
+        <v>1.368713964613848E-45</v>
       </c>
       <c r="J7">
-        <v>25.18350982666016</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="K7">
-        <v>25.56999969482422</v>
+        <v>57.79999923706055</v>
       </c>
       <c r="L7">
-        <v>0.7613916126645499</v>
+        <v>0.3194832099386431</v>
       </c>
       <c r="M7">
-        <v>-1.240899199032331</v>
+        <v>-0.2117110051291173</v>
       </c>
       <c r="N7">
-        <v>0.3851824111842305</v>
+        <v>0.09894236258153918</v>
       </c>
       <c r="O7">
-        <v>0.5009558883100009</v>
+        <v>-0.1120005366601433</v>
       </c>
       <c r="P7">
-        <v>0.01520881518004287</v>
+        <v>0.01369140759020371</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1784</v>
+        <v>1756</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8">
-        <v>0.5193657089844436</v>
+        <v>0.571667493295974</v>
       </c>
       <c r="E8">
-        <v>0.7652485081734</v>
+        <v>0.7792247305493425</v>
       </c>
       <c r="F8">
-        <v>0.00839655737996867</v>
+        <v>0.00265842648570147</v>
       </c>
       <c r="G8">
-        <v>3.583058344125806</v>
+        <v>4.979306814413561</v>
       </c>
       <c r="H8">
-        <v>1.233885318553609</v>
+        <v>2.219902065023004</v>
       </c>
       <c r="I8">
-        <v>8.173667810599837E-56</v>
+        <v>3.781245991670194E-63</v>
       </c>
       <c r="J8">
-        <v>36.7599983215332</v>
+        <v>35.68999862670898</v>
       </c>
       <c r="K8">
-        <v>25.56999969482422</v>
+        <v>13.3100004196167</v>
       </c>
       <c r="L8">
-        <v>2.821755810594368</v>
+        <v>2.432176036408265</v>
       </c>
       <c r="M8">
-        <v>-2.260060087775017</v>
+        <v>-1.864297119255561</v>
       </c>
       <c r="N8">
-        <v>0.9168874161989239</v>
+        <v>0.8175642952063816</v>
       </c>
       <c r="O8">
-        <v>1.626492758543524</v>
+        <v>1.163794395331262</v>
       </c>
       <c r="P8">
-        <v>0.01596585000938711</v>
+        <v>0.01383998054293555</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2719</v>
+        <v>2310</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -932,43 +932,43 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.4071434211850351</v>
+        <v>0.6307357917498767</v>
       </c>
       <c r="E9">
-        <v>0.6719910844349972</v>
+        <v>0.3682919087332995</v>
       </c>
       <c r="F9">
-        <v>0.007368608256986807</v>
+        <v>0.003121352177898104</v>
       </c>
       <c r="G9">
-        <v>12.87291521271769</v>
+        <v>-4.435541121876704</v>
       </c>
       <c r="H9">
-        <v>10.40470434766518</v>
+        <v>10.57506580240691</v>
       </c>
       <c r="I9">
-        <v>4.926391938972138E-40</v>
+        <v>1.597751015138657E-44</v>
       </c>
       <c r="J9">
-        <v>41.9900016784668</v>
+        <v>40.25</v>
       </c>
       <c r="K9">
-        <v>2.609999895095825</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="L9">
-        <v>4.320014551892527</v>
+        <v>12.61475019529458</v>
       </c>
       <c r="M9">
-        <v>-2.820603926411621</v>
+        <v>-11.25362178801736</v>
       </c>
       <c r="N9">
-        <v>1.440544163817885</v>
+        <v>3.417990704680399</v>
       </c>
       <c r="O9">
-        <v>1.960809209839905</v>
+        <v>3.442783483972875</v>
       </c>
       <c r="P9">
-        <v>0.01599680605884403</v>
+        <v>0.01438547488521504</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -979,55 +979,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2488</v>
+        <v>1268</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.1042321011478705</v>
+        <v>0.4697742872184603</v>
       </c>
       <c r="E10">
-        <v>0.7442571551889535</v>
+        <v>0.2783860398623754</v>
       </c>
       <c r="F10">
-        <v>0.0091630946880487</v>
+        <v>0.003889460649794475</v>
       </c>
       <c r="G10">
-        <v>1.731111708259637</v>
+        <v>0.04794089131757058</v>
       </c>
       <c r="H10">
-        <v>0.1112777219609141</v>
+        <v>0.218304899811235</v>
       </c>
       <c r="I10">
-        <v>6.903993860208031E-22</v>
+        <v>1.625658949963678E-39</v>
       </c>
       <c r="J10">
-        <v>3.779999971389771</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="L10">
-        <v>0.5338816516524592</v>
+        <v>0.2540671807478119</v>
       </c>
       <c r="M10">
-        <v>-0.511177184276459</v>
+        <v>-0.2855053510088112</v>
       </c>
       <c r="N10">
-        <v>0.2021253995157667</v>
+        <v>0.1093898556222386</v>
       </c>
       <c r="O10">
-        <v>-0.2879438980490621</v>
+        <v>-0.1790381454355461</v>
       </c>
       <c r="P10">
-        <v>0.01643317493556572</v>
+        <v>0.01483789198523631</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -1035,58 +1035,58 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1019</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.2956264405550159</v>
+        <v>0.5308188497844026</v>
       </c>
       <c r="E11">
-        <v>0.6328870166894572</v>
+        <v>0.8580879238805595</v>
       </c>
       <c r="F11">
-        <v>0.008962541092964139</v>
+        <v>0.006940421358246785</v>
       </c>
       <c r="G11">
-        <v>0.1485425059939509</v>
+        <v>11.64081908453484</v>
       </c>
       <c r="H11">
-        <v>0.1194238444229587</v>
+        <v>0.5107050076247258</v>
       </c>
       <c r="I11">
-        <v>7.116806059442645E-32</v>
+        <v>1.118925735332985E-55</v>
       </c>
       <c r="J11">
-        <v>3.230000019073486</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="K11">
-        <v>28.02000045776367</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="L11">
-        <v>0.6259872265103343</v>
+        <v>0.7720084095558555</v>
       </c>
       <c r="M11">
-        <v>-0.4739344003438726</v>
+        <v>-1.240014944665528</v>
       </c>
       <c r="N11">
-        <v>0.2062403822946938</v>
+        <v>0.3872320915061155</v>
       </c>
       <c r="O11">
-        <v>-0.2647986623196643</v>
+        <v>0.6151958868365455</v>
       </c>
       <c r="P11">
-        <v>0.01671912702199229</v>
+        <v>0.01568567768669323</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -76,7 +76,7 @@
     <t>ABEV3</t>
   </si>
   <si>
-    <t>AZUL4</t>
+    <t>IGTI11</t>
   </si>
   <si>
     <t>CASH3</t>
@@ -85,25 +85,19 @@
     <t>COGN3</t>
   </si>
   <si>
-    <t>IRBR3</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>CMIG4</t>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>WEGE3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>USIM5</t>
@@ -537,52 +531,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.571667493295974</v>
+        <v>0.4720863958061084</v>
       </c>
       <c r="E2">
-        <v>0.6521472035428898</v>
+        <v>0.5082536827159796</v>
       </c>
       <c r="F2">
-        <v>0.0005219387137330916</v>
+        <v>0.0009259779894190041</v>
       </c>
       <c r="G2">
-        <v>-3.402239561107236</v>
+        <v>-3.521015643848106</v>
       </c>
       <c r="H2">
-        <v>0.9778673367678307</v>
+        <v>0.980528202043506</v>
       </c>
       <c r="I2">
-        <v>3.876987033409234E-145</v>
+        <v>1.186290034666048E-142</v>
       </c>
       <c r="J2">
-        <v>35.68999862670898</v>
+        <v>35.5</v>
       </c>
       <c r="K2">
-        <v>39.70999908447266</v>
+        <v>40.15000152587891</v>
       </c>
       <c r="L2">
-        <v>0.438291349165155</v>
+        <v>0.4397232773089002</v>
       </c>
       <c r="M2">
-        <v>-0.5996184502841189</v>
+        <v>-0.5888202853023472</v>
       </c>
       <c r="N2">
-        <v>0.2103173429554539</v>
+        <v>0.2119896566374441</v>
       </c>
       <c r="O2">
-        <v>0.2611271400299486</v>
+        <v>-0.3471931643659616</v>
       </c>
       <c r="P2">
-        <v>0.007168287117892826</v>
+        <v>0.00682158661340238</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -596,43 +590,43 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>0.7244219098345397</v>
+        <v>0.6885995842005941</v>
       </c>
       <c r="E3">
-        <v>0.4697742872184603</v>
+        <v>0.5596712750999111</v>
       </c>
       <c r="F3">
-        <v>0.0001206353591644304</v>
+        <v>0.0003044266821608827</v>
       </c>
       <c r="G3">
-        <v>17.26524115189322</v>
+        <v>17.37021508035973</v>
       </c>
       <c r="H3">
-        <v>-3.210856575553473</v>
+        <v>-3.291503543283637</v>
       </c>
       <c r="I3">
-        <v>7.306237334394784E-42</v>
+        <v>1.430863007856172E-41</v>
       </c>
       <c r="J3">
-        <v>13.10000038146973</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K3">
-        <v>1.169999957084656</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="L3">
-        <v>1.264655249245827</v>
+        <v>1.262909437166595</v>
       </c>
       <c r="M3">
-        <v>-0.8452191910604654</v>
+        <v>-0.8246200104865657</v>
       </c>
       <c r="N3">
-        <v>0.394229217032467</v>
+        <v>0.3913252897384664</v>
       </c>
       <c r="O3">
-        <v>-0.4085387148209465</v>
+        <v>-0.6037311724808951</v>
       </c>
       <c r="P3">
-        <v>0.01069835063160522</v>
+        <v>0.01079139734097879</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -643,58 +637,58 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>165</v>
+        <v>2279</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.4406699618392546</v>
+        <v>0.7761905257114972</v>
       </c>
       <c r="E4">
-        <v>0.6248856235886824</v>
+        <v>0.8098430912303007</v>
       </c>
       <c r="F4">
-        <v>0.0009105744295840166</v>
+        <v>0.001337834620998422</v>
       </c>
       <c r="G4">
-        <v>25.57994087288187</v>
+        <v>7.867737492089961</v>
       </c>
       <c r="H4">
-        <v>-1.748730869797184</v>
+        <v>4.515634481864456</v>
       </c>
       <c r="I4">
-        <v>3.193117924217212E-46</v>
+        <v>9.097297256308114E-49</v>
       </c>
       <c r="J4">
-        <v>4.239999771118164</v>
+        <v>18.38999938964844</v>
       </c>
       <c r="K4">
-        <v>11.5</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="L4">
-        <v>1.996257606344304</v>
+        <v>1.354426335812757</v>
       </c>
       <c r="M4">
-        <v>-1.897333155599533</v>
+        <v>-1.198598804584023</v>
       </c>
       <c r="N4">
-        <v>0.7823067464755976</v>
+        <v>0.530293458550263</v>
       </c>
       <c r="O4">
-        <v>-1.229536099096084</v>
+        <v>-0.5410427983316737</v>
       </c>
       <c r="P4">
-        <v>0.01279996734246898</v>
+        <v>0.01290714670648354</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -708,43 +702,43 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.3921216464942658</v>
+        <v>0.4219072971148684</v>
       </c>
       <c r="E5">
-        <v>0.571667493295974</v>
+        <v>0.4720863958061084</v>
       </c>
       <c r="F5">
-        <v>0.001629493539209352</v>
+        <v>0.002827125212822509</v>
       </c>
       <c r="G5">
-        <v>-1.239722027599865</v>
+        <v>-1.272183339152894</v>
       </c>
       <c r="H5">
-        <v>0.1285408333197836</v>
+        <v>0.1293559831838487</v>
       </c>
       <c r="I5">
-        <v>1.560019696520895E-39</v>
+        <v>1.997409463046653E-38</v>
       </c>
       <c r="J5">
-        <v>3.029999971389771</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="K5">
-        <v>35.68999862670898</v>
+        <v>35.5</v>
       </c>
       <c r="L5">
-        <v>0.4460627855290769</v>
+        <v>0.4466028285297012</v>
       </c>
       <c r="M5">
-        <v>-0.5656226648713956</v>
+        <v>-0.5658977717348357</v>
       </c>
       <c r="N5">
-        <v>0.1838740720154292</v>
+        <v>0.1876642764171301</v>
       </c>
       <c r="O5">
-        <v>-0.3179001656694709</v>
+        <v>-0.3699540161900172</v>
       </c>
       <c r="P5">
-        <v>0.01284368803624896</v>
+        <v>0.01334268994103011</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -761,220 +755,220 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>0.3921216464942658</v>
+        <v>0.4219072971148684</v>
       </c>
       <c r="E6">
-        <v>0.6521472035428898</v>
+        <v>0.5082536827159796</v>
       </c>
       <c r="F6">
-        <v>0.001600170222955724</v>
+        <v>0.003990552585908583</v>
       </c>
       <c r="G6">
-        <v>-1.783445994130195</v>
+        <v>-1.826687958120287</v>
       </c>
       <c r="H6">
-        <v>0.1282087403214061</v>
+        <v>0.1291742682062746</v>
       </c>
       <c r="I6">
-        <v>5.444862940220653E-42</v>
+        <v>1.587449206248545E-40</v>
       </c>
       <c r="J6">
-        <v>3.029999971389771</v>
+        <v>2.950000047683716</v>
       </c>
       <c r="K6">
-        <v>39.70999908447266</v>
+        <v>40.15000152587891</v>
       </c>
       <c r="L6">
-        <v>0.4425194555623597</v>
+        <v>0.443731991902748</v>
       </c>
       <c r="M6">
-        <v>-0.5137041043753281</v>
+        <v>-0.5130419186346584</v>
       </c>
       <c r="N6">
-        <v>0.1765592545830772</v>
+        <v>0.1811748131174769</v>
       </c>
       <c r="O6">
-        <v>-0.2777229952644644</v>
+        <v>-0.4096590597822152</v>
       </c>
       <c r="P6">
-        <v>0.01290814301165468</v>
+        <v>0.01367256875226281</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1272</v>
+        <v>1756</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.4697742872184603</v>
+        <v>0.4720863958061084</v>
       </c>
       <c r="E7">
-        <v>0.4499469848722172</v>
+        <v>0.7947459854141994</v>
       </c>
       <c r="F7">
-        <v>0.00194404441181662</v>
+        <v>0.003513077628390629</v>
       </c>
       <c r="G7">
-        <v>2.929851775316173</v>
+        <v>5.363011914357664</v>
       </c>
       <c r="H7">
-        <v>-0.02850953811976515</v>
+        <v>2.231572575175155</v>
       </c>
       <c r="I7">
-        <v>1.368713964613848E-45</v>
+        <v>1.645415590311276E-61</v>
       </c>
       <c r="J7">
-        <v>1.169999957084656</v>
+        <v>35.5</v>
       </c>
       <c r="K7">
-        <v>57.79999923706055</v>
+        <v>12.91608715057373</v>
       </c>
       <c r="L7">
-        <v>0.3194832099386431</v>
+        <v>2.371612704305733</v>
       </c>
       <c r="M7">
-        <v>-0.2117110051291173</v>
+        <v>-1.876638279288457</v>
       </c>
       <c r="N7">
-        <v>0.09894236258153918</v>
+        <v>0.8286684143780833</v>
       </c>
       <c r="O7">
-        <v>-0.1120005366601433</v>
+        <v>1.31380222184978</v>
       </c>
       <c r="P7">
-        <v>0.01369140759020371</v>
+        <v>0.0142502908918223</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1756</v>
+        <v>1272</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.571667493295974</v>
+        <v>0.5596712750999111</v>
       </c>
       <c r="E8">
-        <v>0.7792247305493425</v>
+        <v>0.3402407754821374</v>
       </c>
       <c r="F8">
-        <v>0.00265842648570147</v>
+        <v>0.004279516891703328</v>
       </c>
       <c r="G8">
-        <v>4.979306814413561</v>
+        <v>2.916443273531685</v>
       </c>
       <c r="H8">
-        <v>2.219902065023004</v>
+        <v>-0.02829368857475461</v>
       </c>
       <c r="I8">
-        <v>3.781245991670194E-63</v>
+        <v>1.000595908931495E-42</v>
       </c>
       <c r="J8">
-        <v>35.68999862670898</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="K8">
-        <v>13.3100004196167</v>
+        <v>57.65999984741211</v>
       </c>
       <c r="L8">
-        <v>2.432176036408265</v>
+        <v>0.3229029567555202</v>
       </c>
       <c r="M8">
-        <v>-1.864297119255561</v>
+        <v>-0.2066166746783555</v>
       </c>
       <c r="N8">
-        <v>0.8175642952063816</v>
+        <v>0.1001127356314547</v>
       </c>
       <c r="O8">
-        <v>1.163794395331262</v>
+        <v>-0.1650291898602363</v>
       </c>
       <c r="P8">
-        <v>0.01383998054293555</v>
+        <v>0.01437000539710424</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2310</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.6307357917498767</v>
+        <v>0.6885995842005941</v>
       </c>
       <c r="E9">
-        <v>0.3682919087332995</v>
+        <v>0.2436337283634122</v>
       </c>
       <c r="F9">
-        <v>0.003121352177898104</v>
+        <v>0.005119713528150687</v>
       </c>
       <c r="G9">
-        <v>-4.435541121876704</v>
+        <v>19.82290999662185</v>
       </c>
       <c r="H9">
-        <v>10.57506580240691</v>
+        <v>-0.7046184562587825</v>
       </c>
       <c r="I9">
-        <v>1.597751015138657E-44</v>
+        <v>5.179052771993713E-29</v>
       </c>
       <c r="J9">
-        <v>40.25</v>
+        <v>13.07999992370605</v>
       </c>
       <c r="K9">
-        <v>3.900000095367432</v>
+        <v>8.350000381469727</v>
       </c>
       <c r="L9">
-        <v>12.61475019529458</v>
+        <v>0.9724471944856052</v>
       </c>
       <c r="M9">
-        <v>-11.25362178801736</v>
+        <v>-1.082815725953804</v>
       </c>
       <c r="N9">
-        <v>3.417990704680399</v>
+        <v>0.482932705995457</v>
       </c>
       <c r="O9">
-        <v>3.442783483972875</v>
+        <v>-0.8593456943643476</v>
       </c>
       <c r="P9">
-        <v>0.01438547488521504</v>
+        <v>0.01469689118861874</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -985,108 +979,108 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.4697742872184603</v>
+        <v>0.5596712750999111</v>
       </c>
       <c r="E10">
-        <v>0.2783860398623754</v>
+        <v>0.3840110191037021</v>
       </c>
       <c r="F10">
-        <v>0.003889460649794475</v>
+        <v>0.004502172796506266</v>
       </c>
       <c r="G10">
-        <v>0.04794089131757058</v>
+        <v>0.07266344842701911</v>
       </c>
       <c r="H10">
-        <v>0.218304899811235</v>
+        <v>0.2138969583629631</v>
       </c>
       <c r="I10">
-        <v>1.625658949963678E-39</v>
+        <v>2.089671166887419E-37</v>
       </c>
       <c r="J10">
-        <v>1.169999957084656</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="K10">
-        <v>5.960000038146973</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="L10">
-        <v>0.2540671807478119</v>
+        <v>0.2616107557963865</v>
       </c>
       <c r="M10">
-        <v>-0.2855053510088112</v>
+        <v>-0.2737301541036166</v>
       </c>
       <c r="N10">
-        <v>0.1093898556222386</v>
+        <v>0.1094495233081027</v>
       </c>
       <c r="O10">
-        <v>-0.1790381454355461</v>
+        <v>-0.2060996482239363</v>
       </c>
       <c r="P10">
-        <v>0.01483789198523631</v>
+        <v>0.0148827095666858</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>356</v>
+        <v>1784</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>0.5308188497844026</v>
+        <v>0.4720863958061084</v>
       </c>
       <c r="E11">
-        <v>0.8580879238805595</v>
+        <v>0.8986099331880499</v>
       </c>
       <c r="F11">
-        <v>0.006940421358246785</v>
+        <v>0.00307910054839354</v>
       </c>
       <c r="G11">
-        <v>11.64081908453484</v>
+        <v>4.438503552399137</v>
       </c>
       <c r="H11">
-        <v>0.5107050076247258</v>
+        <v>1.206716666066517</v>
       </c>
       <c r="I11">
-        <v>1.118925735332985E-55</v>
+        <v>4.949520520227694E-55</v>
       </c>
       <c r="J11">
-        <v>24.85000038146973</v>
+        <v>35.5</v>
       </c>
       <c r="K11">
-        <v>24.65999984741211</v>
+        <v>24.25</v>
       </c>
       <c r="L11">
-        <v>0.7720084095558555</v>
+        <v>2.733216585988963</v>
       </c>
       <c r="M11">
-        <v>-1.240014944665528</v>
+        <v>-2.32421968537318</v>
       </c>
       <c r="N11">
-        <v>0.3872320915061155</v>
+        <v>0.9238628404170411</v>
       </c>
       <c r="O11">
-        <v>0.6151958868365455</v>
+        <v>1.798617295487833</v>
       </c>
       <c r="P11">
-        <v>0.01568567768669323</v>
+        <v>0.01503505339925648</v>
       </c>
       <c r="Q11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -70,40 +70,55 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
-  </si>
-  <si>
-    <t>CASH3</t>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>ITSA4</t>
   </si>
   <si>
     <t>COGN3</t>
   </si>
   <si>
+    <t>CPLE6</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
   </si>
   <si>
     <t>USIM5</t>
   </si>
   <si>
-    <t>SANB11</t>
+    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -525,450 +540,450 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1751</v>
+        <v>2279</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.4720863958061084</v>
+        <v>0.820689226467028</v>
       </c>
       <c r="E2">
-        <v>0.5082536827159796</v>
+        <v>0.836390635815178</v>
       </c>
       <c r="F2">
-        <v>0.0009259779894190041</v>
+        <v>0.001376344280113346</v>
       </c>
       <c r="G2">
-        <v>-3.521015643848106</v>
+        <v>7.741131987715125</v>
       </c>
       <c r="H2">
-        <v>0.980528202043506</v>
+        <v>4.557342720888293</v>
       </c>
       <c r="I2">
-        <v>1.186290034666048E-142</v>
+        <v>3.736143479182484E-50</v>
       </c>
       <c r="J2">
-        <v>35.5</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="K2">
-        <v>40.15000152587891</v>
+        <v>2.420000076293945</v>
       </c>
       <c r="L2">
-        <v>0.4397232773089002</v>
+        <v>1.380097898567822</v>
       </c>
       <c r="M2">
-        <v>-0.5888202853023472</v>
+        <v>-1.189211269161802</v>
       </c>
       <c r="N2">
-        <v>0.2119896566374441</v>
+        <v>0.530926632999562</v>
       </c>
       <c r="O2">
-        <v>-0.3471931643659616</v>
+        <v>-0.5999016436685061</v>
       </c>
       <c r="P2">
-        <v>0.00682158661340238</v>
+        <v>0.01297837750623773</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>18</v>
+        <v>987</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.6885995842005941</v>
+        <v>0.4607987305820969</v>
       </c>
       <c r="E3">
-        <v>0.5596712750999111</v>
+        <v>0.5173812859599207</v>
       </c>
       <c r="F3">
-        <v>0.0003044266821608827</v>
+        <v>0.002730446694380544</v>
       </c>
       <c r="G3">
-        <v>17.37021508035973</v>
+        <v>-1.329744326717543</v>
       </c>
       <c r="H3">
-        <v>-3.291503543283637</v>
+        <v>0.1308049741623464</v>
       </c>
       <c r="I3">
-        <v>1.430863007856172E-41</v>
+        <v>6.284216759035999E-39</v>
       </c>
       <c r="J3">
-        <v>13.07999992370605</v>
+        <v>2.910000085830688</v>
       </c>
       <c r="K3">
-        <v>1.120000004768372</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="L3">
-        <v>1.262909437166595</v>
+        <v>0.4474213295974776</v>
       </c>
       <c r="M3">
-        <v>-0.8246200104865657</v>
+        <v>-0.5665282616455576</v>
       </c>
       <c r="N3">
-        <v>0.3913252897384664</v>
+        <v>0.1892451678132403</v>
       </c>
       <c r="O3">
-        <v>-0.6037311724808951</v>
+        <v>-0.3410458424949043</v>
       </c>
       <c r="P3">
-        <v>0.01079139734097879</v>
+        <v>0.01351702617318213</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2279</v>
+        <v>988</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.7761905257114972</v>
+        <v>0.4607987305820969</v>
       </c>
       <c r="E4">
-        <v>0.8098430912303007</v>
+        <v>0.5854870554575076</v>
       </c>
       <c r="F4">
-        <v>0.001337834620998422</v>
+        <v>0.002911181298473611</v>
       </c>
       <c r="G4">
-        <v>7.867737492089961</v>
+        <v>-1.888345581777392</v>
       </c>
       <c r="H4">
-        <v>4.515634481864456</v>
+        <v>0.1305735423437776</v>
       </c>
       <c r="I4">
-        <v>9.097297256308114E-49</v>
+        <v>4.765307642403561E-41</v>
       </c>
       <c r="J4">
-        <v>18.38999938964844</v>
+        <v>2.910000085830688</v>
       </c>
       <c r="K4">
-        <v>2.450000047683716</v>
+        <v>39.2599983215332</v>
       </c>
       <c r="L4">
-        <v>1.354426335812757</v>
+        <v>0.4444792140624463</v>
       </c>
       <c r="M4">
-        <v>-1.198598804584023</v>
+        <v>-0.513092282306312</v>
       </c>
       <c r="N4">
-        <v>0.530293458550263</v>
+        <v>0.182685314683681</v>
       </c>
       <c r="O4">
-        <v>-0.5410427983316737</v>
+        <v>-0.3279713856452746</v>
       </c>
       <c r="P4">
-        <v>0.01290714670648354</v>
+        <v>0.0136342944502617</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>987</v>
+        <v>1756</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.4219072971148684</v>
+        <v>0.5173812859599207</v>
       </c>
       <c r="E5">
-        <v>0.4720863958061084</v>
+        <v>0.8235256031738405</v>
       </c>
       <c r="F5">
-        <v>0.002827125212822509</v>
+        <v>0.003010762062540858</v>
       </c>
       <c r="G5">
-        <v>-1.272183339152894</v>
+        <v>5.601509728684618</v>
       </c>
       <c r="H5">
-        <v>0.1293559831838487</v>
+        <v>2.215799995636057</v>
       </c>
       <c r="I5">
-        <v>1.997409463046653E-38</v>
+        <v>5.770851052561578E-62</v>
       </c>
       <c r="J5">
-        <v>2.950000047683716</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="K5">
-        <v>35.5</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="L5">
-        <v>0.4466028285297012</v>
+        <v>2.336214272935678</v>
       </c>
       <c r="M5">
-        <v>-0.5658977717348357</v>
+        <v>-1.881727710293752</v>
       </c>
       <c r="N5">
-        <v>0.1876642764171301</v>
+        <v>0.8306814297236879</v>
       </c>
       <c r="O5">
-        <v>-0.3699540161900172</v>
+        <v>1.056250362307217</v>
       </c>
       <c r="P5">
-        <v>0.01334268994103011</v>
+        <v>0.01429669239272352</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>988</v>
+        <v>2605</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.4219072971148684</v>
+        <v>0.1062670759101242</v>
       </c>
       <c r="E6">
-        <v>0.5082536827159796</v>
+        <v>0.3526852545335263</v>
       </c>
       <c r="F6">
-        <v>0.003990552585908583</v>
+        <v>0.005848084754454765</v>
       </c>
       <c r="G6">
-        <v>-1.826687958120287</v>
+        <v>17.48841847503348</v>
       </c>
       <c r="H6">
-        <v>0.1291742682062746</v>
+        <v>-0.7099799937146863</v>
       </c>
       <c r="I6">
-        <v>1.587449206248545E-40</v>
+        <v>1.19134694558487E-11</v>
       </c>
       <c r="J6">
-        <v>2.950000047683716</v>
+        <v>13.25</v>
       </c>
       <c r="K6">
-        <v>40.15000152587891</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="L6">
-        <v>0.443731991902748</v>
+        <v>1.732371829133161</v>
       </c>
       <c r="M6">
-        <v>-0.5130419186346584</v>
+        <v>-1.939496698866041</v>
       </c>
       <c r="N6">
-        <v>0.1811748131174769</v>
+        <v>0.6389582503614155</v>
       </c>
       <c r="O6">
-        <v>-0.4096590597822152</v>
+        <v>-1.476596225003481</v>
       </c>
       <c r="P6">
-        <v>0.01367256875226281</v>
+        <v>0.01444676710434224</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1756</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.4720863958061084</v>
+        <v>0.5969380779209424</v>
       </c>
       <c r="E7">
-        <v>0.7947459854141994</v>
+        <v>0.4473074210891536</v>
       </c>
       <c r="F7">
-        <v>0.003513077628390629</v>
+        <v>0.005556639866442599</v>
       </c>
       <c r="G7">
-        <v>5.363011914357664</v>
+        <v>25.41273252264304</v>
       </c>
       <c r="H7">
-        <v>2.231572575175155</v>
+        <v>-1.736853399877211</v>
       </c>
       <c r="I7">
-        <v>1.645415590311276E-61</v>
+        <v>5.318582646823178E-44</v>
       </c>
       <c r="J7">
-        <v>35.5</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="K7">
-        <v>12.91608715057373</v>
+        <v>11.39000034332275</v>
       </c>
       <c r="L7">
-        <v>2.371612704305733</v>
+        <v>2.029009160780067</v>
       </c>
       <c r="M7">
-        <v>-1.876638279288457</v>
+        <v>-1.841124635646825</v>
       </c>
       <c r="N7">
-        <v>0.8286684143780833</v>
+        <v>0.7939314098109415</v>
       </c>
       <c r="O7">
-        <v>1.31380222184978</v>
+        <v>-1.619971472858477</v>
       </c>
       <c r="P7">
-        <v>0.0142502908918223</v>
+        <v>0.01463487548978937</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1272</v>
+        <v>1784</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>0.5596712750999111</v>
+        <v>0.5173812859599207</v>
       </c>
       <c r="E8">
-        <v>0.3402407754821374</v>
+        <v>0.9251140965521316</v>
       </c>
       <c r="F8">
-        <v>0.004279516891703328</v>
+        <v>0.002986779886775284</v>
       </c>
       <c r="G8">
-        <v>2.916443273531685</v>
+        <v>5.121651700516878</v>
       </c>
       <c r="H8">
-        <v>-0.02829368857475461</v>
+        <v>1.180961890899975</v>
       </c>
       <c r="I8">
-        <v>1.000595908931495E-42</v>
+        <v>4.762266585154013E-55</v>
       </c>
       <c r="J8">
-        <v>1.120000004768372</v>
+        <v>35.02000045776367</v>
       </c>
       <c r="K8">
-        <v>57.65999984741211</v>
+        <v>23.95000076293945</v>
       </c>
       <c r="L8">
-        <v>0.3229029567555202</v>
+        <v>2.661921543239231</v>
       </c>
       <c r="M8">
-        <v>-0.2066166746783555</v>
+        <v>-2.376064586268157</v>
       </c>
       <c r="N8">
-        <v>0.1001127356314547</v>
+        <v>0.9321610133904016</v>
       </c>
       <c r="O8">
-        <v>-0.1650291898602363</v>
+        <v>1.614310569189971</v>
       </c>
       <c r="P8">
-        <v>0.01437000539710424</v>
+        <v>0.01538767897576691</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>76</v>
+        <v>2349</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.6885995842005941</v>
+        <v>0.5996369208403418</v>
       </c>
       <c r="E9">
-        <v>0.2436337283634122</v>
+        <v>0.6418624910365981</v>
       </c>
       <c r="F9">
-        <v>0.005119713528150687</v>
+        <v>0.004147141751323727</v>
       </c>
       <c r="G9">
-        <v>19.82290999662185</v>
+        <v>3.908925186023669</v>
       </c>
       <c r="H9">
-        <v>-0.7046184562587825</v>
+        <v>0.2003640008377583</v>
       </c>
       <c r="I9">
-        <v>5.179052771993713E-29</v>
+        <v>1.981224203321672E-57</v>
       </c>
       <c r="J9">
-        <v>13.07999992370605</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="K9">
-        <v>8.350000381469727</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="L9">
-        <v>0.9724471944856052</v>
+        <v>0.6302883601645188</v>
       </c>
       <c r="M9">
-        <v>-1.082815725953804</v>
+        <v>-0.3584779237601161</v>
       </c>
       <c r="N9">
-        <v>0.482932705995457</v>
+        <v>0.1971544343948638</v>
       </c>
       <c r="O9">
-        <v>-0.8593456943643476</v>
+        <v>-0.2727243708914928</v>
       </c>
       <c r="P9">
-        <v>0.01469689118861874</v>
+        <v>0.01548149889809647</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -976,111 +991,111 @@
         <v>1268</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.5596712750999111</v>
+        <v>0.7426810517122926</v>
       </c>
       <c r="E10">
-        <v>0.3840110191037021</v>
+        <v>0.3874846785172246</v>
       </c>
       <c r="F10">
-        <v>0.004502172796506266</v>
+        <v>0.007066190949237059</v>
       </c>
       <c r="G10">
-        <v>0.07266344842701911</v>
+        <v>0.05514852411059383</v>
       </c>
       <c r="H10">
-        <v>0.2138969583629631</v>
+        <v>0.2162683249975907</v>
       </c>
       <c r="I10">
-        <v>2.089671166887419E-37</v>
+        <v>1.562809621244435E-37</v>
       </c>
       <c r="J10">
-        <v>1.120000004768372</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="K10">
-        <v>5.860000133514404</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="L10">
-        <v>0.2616107557963865</v>
+        <v>0.2617672759402661</v>
       </c>
       <c r="M10">
-        <v>-0.2737301541036166</v>
+        <v>-0.2758501448886841</v>
       </c>
       <c r="N10">
-        <v>0.1094495233081027</v>
+        <v>0.111051103875702</v>
       </c>
       <c r="O10">
-        <v>-0.2060996482239363</v>
+        <v>-0.2459927898944962</v>
       </c>
       <c r="P10">
-        <v>0.0148827095666858</v>
+        <v>0.01556590437513722</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1784</v>
+        <v>1383</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>0.4720863958061084</v>
+        <v>0.2765421728032924</v>
       </c>
       <c r="E11">
-        <v>0.8986099331880499</v>
+        <v>0.8677755133227074</v>
       </c>
       <c r="F11">
-        <v>0.00307910054839354</v>
+        <v>0.002143973588500667</v>
       </c>
       <c r="G11">
-        <v>4.438503552399137</v>
+        <v>4.61996283887445</v>
       </c>
       <c r="H11">
-        <v>1.206716666066517</v>
+        <v>0.221770681039156</v>
       </c>
       <c r="I11">
-        <v>4.949520520227694E-55</v>
+        <v>1.979575347867364E-51</v>
       </c>
       <c r="J11">
-        <v>35.5</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="K11">
-        <v>24.25</v>
+        <v>19.14999961853027</v>
       </c>
       <c r="L11">
-        <v>2.733216585988963</v>
+        <v>0.4524180916690383</v>
       </c>
       <c r="M11">
-        <v>-2.32421968537318</v>
+        <v>-0.5057898132750225</v>
       </c>
       <c r="N11">
-        <v>0.9238628404170411</v>
+        <v>0.1961241835125247</v>
       </c>
       <c r="O11">
-        <v>1.798617295487833</v>
+        <v>0.2231288564124032</v>
       </c>
       <c r="P11">
-        <v>0.01503505339925648</v>
+        <v>0.01557726305362754</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,55 +70,52 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>IGTI11</t>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>ELET3</t>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>COGN3</t>
   </si>
   <si>
     <t>NTCO3</t>
   </si>
   <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>PCAR3</t>
+  </si>
+  <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>CMIG4</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
     <t>PETZ3</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
   </si>
 </sst>
 </file>
@@ -540,7 +537,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2279</v>
+        <v>1751</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -549,43 +546,43 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>0.820689226467028</v>
+        <v>0.5701393545071578</v>
       </c>
       <c r="E2">
-        <v>0.836390635815178</v>
+        <v>0.5864661753533931</v>
       </c>
       <c r="F2">
-        <v>0.001376344280113346</v>
+        <v>0.001465305455524762</v>
       </c>
       <c r="G2">
-        <v>7.741131987715125</v>
+        <v>-3.554686067345021</v>
       </c>
       <c r="H2">
-        <v>4.557342720888293</v>
+        <v>0.9812823428252502</v>
       </c>
       <c r="I2">
-        <v>3.736143479182484E-50</v>
+        <v>2.059278870974018E-143</v>
       </c>
       <c r="J2">
-        <v>18.17000007629395</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="K2">
-        <v>2.420000076293945</v>
+        <v>39.79999923706055</v>
       </c>
       <c r="L2">
-        <v>1.380097898567822</v>
+        <v>0.4401360934816267</v>
       </c>
       <c r="M2">
-        <v>-1.189211269161802</v>
+        <v>-0.5857528961094829</v>
       </c>
       <c r="N2">
-        <v>0.530926632999562</v>
+        <v>0.2131887951381341</v>
       </c>
       <c r="O2">
-        <v>-0.5999016436685061</v>
+        <v>-0.3403505810288081</v>
       </c>
       <c r="P2">
-        <v>0.01297837750623773</v>
+        <v>0.00656621259686419</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -596,506 +593,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>987</v>
+        <v>1744</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>0.4607987305820969</v>
+        <v>0.9634124700416445</v>
       </c>
       <c r="E3">
-        <v>0.5173812859599207</v>
+        <v>0.9730603330459894</v>
       </c>
       <c r="F3">
-        <v>0.002730446694380544</v>
+        <v>0.002420373449914482</v>
       </c>
       <c r="G3">
-        <v>-1.329744326717543</v>
+        <v>15.6547852827149</v>
       </c>
       <c r="H3">
-        <v>0.1308049741623464</v>
+        <v>1.250913820423157</v>
       </c>
       <c r="I3">
-        <v>6.284216759035999E-39</v>
+        <v>2.704482750865875E-68</v>
       </c>
       <c r="J3">
-        <v>2.910000085830688</v>
+        <v>37.41999816894531</v>
       </c>
       <c r="K3">
-        <v>35.02000045776367</v>
+        <v>16.77000045776367</v>
       </c>
       <c r="L3">
-        <v>0.4474213295974776</v>
+        <v>1.84393586623402</v>
       </c>
       <c r="M3">
-        <v>-0.5665282616455576</v>
+        <v>-2.17614441810818</v>
       </c>
       <c r="N3">
-        <v>0.1892451678132403</v>
+        <v>0.7772138108384329</v>
       </c>
       <c r="O3">
-        <v>-0.3410458424949043</v>
+        <v>0.7873875451111658</v>
       </c>
       <c r="P3">
-        <v>0.01351702617318213</v>
+        <v>0.00958064218251321</v>
       </c>
       <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>988</v>
+        <v>2467</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.4607987305820969</v>
+        <v>0.2581091136867798</v>
       </c>
       <c r="E4">
-        <v>0.5854870554575076</v>
+        <v>0.1218326868626148</v>
       </c>
       <c r="F4">
-        <v>0.002911181298473611</v>
+        <v>0.000483918424585161</v>
       </c>
       <c r="G4">
-        <v>-1.888345581777392</v>
+        <v>1.296081699693445</v>
       </c>
       <c r="H4">
-        <v>0.1305735423437776</v>
+        <v>0.9950802222961739</v>
       </c>
       <c r="I4">
-        <v>4.765307642403561E-41</v>
+        <v>1.577788023697258E-29</v>
       </c>
       <c r="J4">
-        <v>2.910000085830688</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="K4">
-        <v>39.2599983215332</v>
+        <v>2.509999990463257</v>
       </c>
       <c r="L4">
-        <v>0.4444792140624463</v>
+        <v>0.5212540710619002</v>
       </c>
       <c r="M4">
-        <v>-0.513092282306312</v>
+        <v>-0.559252754723115</v>
       </c>
       <c r="N4">
-        <v>0.182685314683681</v>
+        <v>0.1928073755415207</v>
       </c>
       <c r="O4">
-        <v>-0.3279713856452746</v>
+        <v>-0.2637330767772466</v>
       </c>
       <c r="P4">
-        <v>0.0136342944502617</v>
+        <v>0.01136565269134628</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1756</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>0.5173812859599207</v>
+        <v>0.7261055243702895</v>
       </c>
       <c r="E5">
-        <v>0.8235256031738405</v>
+        <v>0.6314434908543688</v>
       </c>
       <c r="F5">
-        <v>0.003010762062540858</v>
+        <v>0.0002332988110380228</v>
       </c>
       <c r="G5">
-        <v>5.601509728684618</v>
+        <v>17.20765089047752</v>
       </c>
       <c r="H5">
-        <v>2.215799995636057</v>
+        <v>-3.191622772706554</v>
       </c>
       <c r="I5">
-        <v>5.770851052561578E-62</v>
+        <v>5.550725152545527E-40</v>
       </c>
       <c r="J5">
-        <v>35.02000045776367</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="K5">
-        <v>12.80000019073486</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="L5">
-        <v>2.336214272935678</v>
+        <v>1.297626243567752</v>
       </c>
       <c r="M5">
-        <v>-1.881727710293752</v>
+        <v>-0.952614203686343</v>
       </c>
       <c r="N5">
-        <v>0.8306814297236879</v>
+        <v>0.401651914069093</v>
       </c>
       <c r="O5">
-        <v>1.056250362307217</v>
+        <v>-0.6287815802257497</v>
       </c>
       <c r="P5">
-        <v>0.01429669239272352</v>
+        <v>0.01155504938352557</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>2605</v>
+        <v>987</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0.1062670759101242</v>
+        <v>0.5500864641802828</v>
       </c>
       <c r="E6">
-        <v>0.3526852545335263</v>
+        <v>0.5701393545071578</v>
       </c>
       <c r="F6">
-        <v>0.005848084754454765</v>
+        <v>0.004682958492409233</v>
       </c>
       <c r="G6">
-        <v>17.48841847503348</v>
+        <v>-1.404535642214694</v>
       </c>
       <c r="H6">
-        <v>-0.7099799937146863</v>
+        <v>0.1326848115588182</v>
       </c>
       <c r="I6">
-        <v>1.19134694558487E-11</v>
+        <v>1.009039350072249E-38</v>
       </c>
       <c r="J6">
-        <v>13.25</v>
+        <v>2.839999914169312</v>
       </c>
       <c r="K6">
-        <v>3.890000104904175</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="L6">
-        <v>1.732371829133161</v>
+        <v>0.4485982129356341</v>
       </c>
       <c r="M6">
-        <v>-1.939496698866041</v>
+        <v>-0.567231215703873</v>
       </c>
       <c r="N6">
-        <v>0.6389582503614155</v>
+        <v>0.1925912100593435</v>
       </c>
       <c r="O6">
-        <v>-1.476596225003481</v>
+        <v>-0.4206623977779458</v>
       </c>
       <c r="P6">
-        <v>0.01444676710434224</v>
+        <v>0.01414002287602328</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>165</v>
+        <v>1756</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5969380779209424</v>
+        <v>0.5701393545071578</v>
       </c>
       <c r="E7">
-        <v>0.4473074210891536</v>
+        <v>0.9022784290671814</v>
       </c>
       <c r="F7">
-        <v>0.005556639866442599</v>
+        <v>0.003424146786118081</v>
       </c>
       <c r="G7">
-        <v>25.41273252264304</v>
+        <v>6.049166028236266</v>
       </c>
       <c r="H7">
-        <v>-1.736853399877211</v>
+        <v>2.186300251757848</v>
       </c>
       <c r="I7">
-        <v>5.318582646823178E-44</v>
+        <v>2.080712022686614E-61</v>
       </c>
       <c r="J7">
-        <v>4.010000228881836</v>
+        <v>35.15999984741211</v>
       </c>
       <c r="K7">
-        <v>11.39000034332275</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="L7">
-        <v>2.029009160780067</v>
+        <v>2.268418462544922</v>
       </c>
       <c r="M7">
-        <v>-1.841124635646825</v>
+        <v>-1.89283604317022</v>
       </c>
       <c r="N7">
-        <v>0.7939314098109415</v>
+        <v>0.8371152374110282</v>
       </c>
       <c r="O7">
-        <v>-1.619971472858477</v>
+        <v>1.432272965524437</v>
       </c>
       <c r="P7">
-        <v>0.01463487548978937</v>
+        <v>0.01451093310239069</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1784</v>
+        <v>1021</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5173812859599207</v>
+        <v>0.5500864641802828</v>
       </c>
       <c r="E8">
-        <v>0.9251140965521316</v>
+        <v>0.861099532727752</v>
       </c>
       <c r="F8">
-        <v>0.002986779886775284</v>
+        <v>0.003596851213353246</v>
       </c>
       <c r="G8">
-        <v>5.121651700516878</v>
+        <v>-0.9756167975374205</v>
       </c>
       <c r="H8">
-        <v>1.180961890899975</v>
+        <v>0.1660374529273969</v>
       </c>
       <c r="I8">
-        <v>4.762266585154013E-55</v>
+        <v>1.122483017908385E-34</v>
       </c>
       <c r="J8">
-        <v>35.02000045776367</v>
+        <v>2.839999914169312</v>
       </c>
       <c r="K8">
-        <v>23.95000076293945</v>
+        <v>24.61000061035156</v>
       </c>
       <c r="L8">
-        <v>2.661921543239231</v>
+        <v>0.5215598965723691</v>
       </c>
       <c r="M8">
-        <v>-2.376064586268157</v>
+        <v>-0.441729335348791</v>
       </c>
       <c r="N8">
-        <v>0.9321610133904016</v>
+        <v>0.2059979560793119</v>
       </c>
       <c r="O8">
-        <v>1.614310569189971</v>
+        <v>-0.2705651061777248</v>
       </c>
       <c r="P8">
-        <v>0.01538767897576691</v>
+        <v>0.01462228908559786</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2349</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.5996369208403418</v>
+        <v>0.5825990698944326</v>
       </c>
       <c r="E9">
-        <v>0.6418624910365981</v>
+        <v>0.5092429033330856</v>
       </c>
       <c r="F9">
-        <v>0.004147141751323727</v>
+        <v>0.004698362704207861</v>
       </c>
       <c r="G9">
-        <v>3.908925186023669</v>
+        <v>25.48037916943363</v>
       </c>
       <c r="H9">
-        <v>0.2003640008377583</v>
+        <v>-1.744117190825539</v>
       </c>
       <c r="I9">
-        <v>1.981224203321672E-57</v>
+        <v>3.638805291565702E-43</v>
       </c>
       <c r="J9">
-        <v>9.029999732971191</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="K9">
-        <v>26.92000007629395</v>
+        <v>11.47999954223633</v>
       </c>
       <c r="L9">
-        <v>0.6302883601645188</v>
+        <v>2.043592636979195</v>
       </c>
       <c r="M9">
-        <v>-0.3584779237601161</v>
+        <v>-1.840888175350567</v>
       </c>
       <c r="N9">
-        <v>0.1971544343948638</v>
+        <v>0.8026665925965725</v>
       </c>
       <c r="O9">
-        <v>-0.2727243708914928</v>
+        <v>-1.397914674370387</v>
       </c>
       <c r="P9">
-        <v>0.01548149889809647</v>
+        <v>0.01465375663550029</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.7426810517122926</v>
+        <v>0.6314434908543688</v>
       </c>
       <c r="E10">
-        <v>0.3874846785172246</v>
+        <v>0.2624084339586509</v>
       </c>
       <c r="F10">
-        <v>0.007066190949237059</v>
+        <v>0.006037707319395784</v>
       </c>
       <c r="G10">
-        <v>0.05514852411059383</v>
+        <v>2.94260375848771</v>
       </c>
       <c r="H10">
-        <v>0.2162683249975907</v>
+        <v>-0.02887072058726036</v>
       </c>
       <c r="I10">
-        <v>1.562809621244435E-37</v>
+        <v>2.763750376080787E-42</v>
       </c>
       <c r="J10">
-        <v>1.070000052452087</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="K10">
-        <v>5.829999923706055</v>
+        <v>57.90000152587891</v>
       </c>
       <c r="L10">
-        <v>0.2617672759402661</v>
+        <v>0.3234456569472819</v>
       </c>
       <c r="M10">
-        <v>-0.2758501448886841</v>
+        <v>-0.2237968356758939</v>
       </c>
       <c r="N10">
-        <v>0.111051103875702</v>
+        <v>0.1027759444459948</v>
       </c>
       <c r="O10">
-        <v>-0.2459927898944962</v>
+        <v>-0.1809889590535105</v>
       </c>
       <c r="P10">
-        <v>0.01556590437513722</v>
+        <v>0.01508648840092931</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1383</v>
+        <v>2605</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2765421728032924</v>
+        <v>0.1179709464744378</v>
       </c>
       <c r="E11">
-        <v>0.8677755133227074</v>
+        <v>0.3443940561062863</v>
       </c>
       <c r="F11">
-        <v>0.002143973588500667</v>
+        <v>0.008569216887023428</v>
       </c>
       <c r="G11">
-        <v>4.61996283887445</v>
+        <v>17.46097173691766</v>
       </c>
       <c r="H11">
-        <v>0.221770681039156</v>
+        <v>-0.7057352283380105</v>
       </c>
       <c r="I11">
-        <v>1.979575347867364E-51</v>
+        <v>3.760527498049381E-11</v>
       </c>
       <c r="J11">
-        <v>9.090000152587891</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="K11">
-        <v>19.14999961853027</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="L11">
-        <v>0.4524180916690383</v>
+        <v>1.743731113087607</v>
       </c>
       <c r="M11">
-        <v>-0.5057898132750225</v>
+        <v>-1.928604546124076</v>
       </c>
       <c r="N11">
-        <v>0.1961241835125247</v>
+        <v>0.6519875093190637</v>
       </c>
       <c r="O11">
-        <v>0.2231288564124032</v>
+        <v>-1.534489740577228</v>
       </c>
       <c r="P11">
-        <v>0.01557726305362754</v>
+        <v>0.01520640394851668</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -70,52 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>CASH3</t>
+  </si>
+  <si>
     <t>ELET3</t>
   </si>
   <si>
-    <t>EGIE3</t>
+    <t>PCAR3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
   </si>
   <si>
     <t>LWSA3</t>
   </si>
   <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
   <si>
     <t>UGPA3</t>
   </si>
   <si>
-    <t>PCAR3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>HYPE3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
   </si>
 </sst>
 </file>
@@ -537,562 +531,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1751</v>
+        <v>993</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5701393545071578</v>
+        <v>0.7592180641675048</v>
       </c>
       <c r="E2">
-        <v>0.5864661753533931</v>
+        <v>0.9587138450742608</v>
       </c>
       <c r="F2">
-        <v>0.001465305455524762</v>
+        <v>0.000116165685187037</v>
       </c>
       <c r="G2">
-        <v>-3.554686067345021</v>
+        <v>-1.268899015082664</v>
       </c>
       <c r="H2">
-        <v>0.9812823428252502</v>
+        <v>0.3355914282760349</v>
       </c>
       <c r="I2">
-        <v>2.059278870974018E-143</v>
+        <v>4.620607971772823E-51</v>
       </c>
       <c r="J2">
-        <v>35.15999984741211</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="K2">
-        <v>39.79999923706055</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="L2">
-        <v>0.4401360934816267</v>
+        <v>0.4906616692163164</v>
       </c>
       <c r="M2">
-        <v>-0.5857528961094829</v>
+        <v>-0.3372189827537317</v>
       </c>
       <c r="N2">
-        <v>0.2131887951381341</v>
+        <v>0.1622272242029368</v>
       </c>
       <c r="O2">
-        <v>-0.3403505810288081</v>
+        <v>-0.2451810966250312</v>
       </c>
       <c r="P2">
-        <v>0.00656621259686419</v>
+        <v>0.009999867996563584</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1744</v>
+        <v>991</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0.9634124700416445</v>
+        <v>0.7592180641675048</v>
       </c>
       <c r="E3">
-        <v>0.9730603330459894</v>
+        <v>0.9229069139703043</v>
       </c>
       <c r="F3">
-        <v>0.002420373449914482</v>
+        <v>0.00144153821686413</v>
       </c>
       <c r="G3">
-        <v>15.6547852827149</v>
+        <v>-1.258992326648141</v>
       </c>
       <c r="H3">
-        <v>1.250913820423157</v>
+        <v>0.1103890401384875</v>
       </c>
       <c r="I3">
-        <v>2.704482750865875E-68</v>
+        <v>3.756104110457315E-37</v>
       </c>
       <c r="J3">
-        <v>37.41999816894531</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="K3">
-        <v>16.77000045776367</v>
+        <v>37.11000061035156</v>
       </c>
       <c r="L3">
-        <v>1.84393586623402</v>
+        <v>0.4928492959262054</v>
       </c>
       <c r="M3">
-        <v>-2.17614441810818</v>
+        <v>-0.4966374127119884</v>
       </c>
       <c r="N3">
-        <v>0.7772138108384329</v>
+        <v>0.2041554245824348</v>
       </c>
       <c r="O3">
-        <v>0.7873875451111658</v>
+        <v>-0.2775450774877117</v>
       </c>
       <c r="P3">
-        <v>0.00958064218251321</v>
+        <v>0.01423450512023574</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2467</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.2581091136867798</v>
+        <v>0.7592180641675048</v>
       </c>
       <c r="E4">
-        <v>0.1218326868626148</v>
+        <v>0.9372246206180288</v>
       </c>
       <c r="F4">
-        <v>0.000483918424585161</v>
+        <v>0.004972552410800127</v>
       </c>
       <c r="G4">
-        <v>1.296081699693445</v>
+        <v>-1.076375526962698</v>
       </c>
       <c r="H4">
-        <v>0.9950802222961739</v>
+        <v>0.16957050673451</v>
       </c>
       <c r="I4">
-        <v>1.577788023697258E-29</v>
+        <v>3.832879639668055E-36</v>
       </c>
       <c r="J4">
-        <v>3.529999971389771</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="K4">
-        <v>2.509999990463257</v>
+        <v>23.55999946594238</v>
       </c>
       <c r="L4">
-        <v>0.5212540710619002</v>
+        <v>0.5311360079247738</v>
       </c>
       <c r="M4">
-        <v>-0.559252754723115</v>
+        <v>-0.4425591917232827</v>
       </c>
       <c r="N4">
-        <v>0.1928073755415207</v>
+        <v>0.2075844895445823</v>
       </c>
       <c r="O4">
-        <v>-0.2637330767772466</v>
+        <v>-0.3587055783623962</v>
       </c>
       <c r="P4">
-        <v>0.01136565269134628</v>
+        <v>0.01502823219522549</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>18</v>
+        <v>1756</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5">
-        <v>0.7261055243702895</v>
+        <v>0.6367576541417868</v>
       </c>
       <c r="E5">
-        <v>0.6314434908543688</v>
+        <v>0.9587138450742608</v>
       </c>
       <c r="F5">
-        <v>0.0002332988110380228</v>
+        <v>0.00584430298512657</v>
       </c>
       <c r="G5">
-        <v>17.20765089047752</v>
+        <v>6.561917158897555</v>
       </c>
       <c r="H5">
-        <v>-3.191622772706554</v>
+        <v>2.152098614208</v>
       </c>
       <c r="I5">
-        <v>5.550725152545527E-40</v>
+        <v>2.384766811874897E-61</v>
       </c>
       <c r="J5">
-        <v>13.10000038146973</v>
+        <v>34.47000122070312</v>
       </c>
       <c r="K5">
-        <v>1.090000033378601</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="L5">
-        <v>1.297626243567752</v>
+        <v>2.196072876536014</v>
       </c>
       <c r="M5">
-        <v>-0.952614203686343</v>
+        <v>-1.899458870108298</v>
       </c>
       <c r="N5">
-        <v>0.401651914069093</v>
+        <v>0.8482546736779701</v>
       </c>
       <c r="O5">
-        <v>-0.6287815802257497</v>
+        <v>1.781606146456031</v>
       </c>
       <c r="P5">
-        <v>0.01155504938352557</v>
+        <v>0.01533721831562975</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>987</v>
+        <v>1784</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>0.5500864641802828</v>
+        <v>0.6367576541417868</v>
       </c>
       <c r="E6">
-        <v>0.5701393545071578</v>
+        <v>0.9372246206180288</v>
       </c>
       <c r="F6">
-        <v>0.004682958492409233</v>
+        <v>0.003923619676149779</v>
       </c>
       <c r="G6">
-        <v>-1.404535642214694</v>
+        <v>5.606871275469586</v>
       </c>
       <c r="H6">
-        <v>0.1326848115588182</v>
+        <v>1.166299055439959</v>
       </c>
       <c r="I6">
-        <v>1.009039350072249E-38</v>
+        <v>1.724509652184693E-56</v>
       </c>
       <c r="J6">
-        <v>2.839999914169312</v>
+        <v>34.47000122070312</v>
       </c>
       <c r="K6">
-        <v>35.15999984741211</v>
+        <v>23.55999946594238</v>
       </c>
       <c r="L6">
-        <v>0.4485982129356341</v>
+        <v>2.615828850520408</v>
       </c>
       <c r="M6">
-        <v>-0.567231215703873</v>
+        <v>-2.408199338687758</v>
       </c>
       <c r="N6">
-        <v>0.1925912100593435</v>
+        <v>0.9192648680742652</v>
       </c>
       <c r="O6">
-        <v>-0.4206623977779458</v>
+        <v>1.385124821938987</v>
       </c>
       <c r="P6">
-        <v>0.01414002287602328</v>
+        <v>0.015575449173083</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1756</v>
+        <v>2644</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>0.5701393545071578</v>
+        <v>0.2671737066395911</v>
       </c>
       <c r="E7">
-        <v>0.9022784290671814</v>
+        <v>0.9855369609112694</v>
       </c>
       <c r="F7">
-        <v>0.003424146786118081</v>
+        <v>0.006571620363300903</v>
       </c>
       <c r="G7">
-        <v>6.049166028236266</v>
+        <v>1.039431013241809</v>
       </c>
       <c r="H7">
-        <v>2.186300251757848</v>
+        <v>0.08953064743877411</v>
       </c>
       <c r="I7">
-        <v>2.080712022686614E-61</v>
+        <v>1.942427457193957E-19</v>
       </c>
       <c r="J7">
-        <v>35.15999984741211</v>
+        <v>2.259999990463257</v>
       </c>
       <c r="K7">
-        <v>12.65999984741211</v>
+        <v>16.04000091552734</v>
       </c>
       <c r="L7">
-        <v>2.268418462544922</v>
+        <v>0.4675733093658132</v>
       </c>
       <c r="M7">
-        <v>-1.89283604317022</v>
+        <v>-0.4053235537543225</v>
       </c>
       <c r="N7">
-        <v>0.8371152374110282</v>
+        <v>0.1829372452991998</v>
       </c>
       <c r="O7">
-        <v>1.432272965524437</v>
+        <v>-0.2155026896642447</v>
       </c>
       <c r="P7">
-        <v>0.01451093310239069</v>
+        <v>0.0158903277077466</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1021</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>0.5500864641802828</v>
+        <v>0.731945539599258</v>
       </c>
       <c r="E8">
-        <v>0.861099532727752</v>
+        <v>0.4377233640574215</v>
       </c>
       <c r="F8">
-        <v>0.003596851213353246</v>
+        <v>0.007797806054711896</v>
       </c>
       <c r="G8">
-        <v>-0.9756167975374205</v>
+        <v>0.02727831424090414</v>
       </c>
       <c r="H8">
-        <v>0.1660374529273969</v>
+        <v>0.2197871957341423</v>
       </c>
       <c r="I8">
-        <v>1.122483017908385E-34</v>
+        <v>1.050474163787975E-37</v>
       </c>
       <c r="J8">
-        <v>2.839999914169312</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="K8">
-        <v>24.61000061035156</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="L8">
-        <v>0.5215598965723691</v>
+        <v>0.2638793514143438</v>
       </c>
       <c r="M8">
-        <v>-0.441729335348791</v>
+        <v>-0.2771161837780018</v>
       </c>
       <c r="N8">
-        <v>0.2059979560793119</v>
+        <v>0.1133351152746145</v>
       </c>
       <c r="O8">
-        <v>-0.2705651061777248</v>
+        <v>-0.2570972829497313</v>
       </c>
       <c r="P8">
-        <v>0.01462228908559786</v>
+        <v>0.01596815752704667</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>165</v>
+        <v>2069</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.5825990698944326</v>
+        <v>0.4817018547524077</v>
       </c>
       <c r="E9">
-        <v>0.5092429033330856</v>
+        <v>0.9934036103273681</v>
       </c>
       <c r="F9">
-        <v>0.004698362704207861</v>
+        <v>0.008831566099301066</v>
       </c>
       <c r="G9">
-        <v>25.48037916943363</v>
+        <v>24.9861856237761</v>
       </c>
       <c r="H9">
-        <v>-1.744117190825539</v>
+        <v>-0.2538184034969672</v>
       </c>
       <c r="I9">
-        <v>3.638805291565702E-43</v>
+        <v>5.983256559433174E-39</v>
       </c>
       <c r="J9">
-        <v>4.059999942779541</v>
+        <v>19.6200008392334</v>
       </c>
       <c r="K9">
-        <v>11.47999954223633</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="L9">
-        <v>2.043592636979195</v>
+        <v>1.19489884161478</v>
       </c>
       <c r="M9">
-        <v>-1.840888175350567</v>
+        <v>-1.390007892586333</v>
       </c>
       <c r="N9">
-        <v>0.8026665925965725</v>
+        <v>0.6118292745489563</v>
       </c>
       <c r="O9">
-        <v>-1.397914674370387</v>
+        <v>-1.102035799441724</v>
       </c>
       <c r="P9">
-        <v>0.01465375663550029</v>
+        <v>0.01636072349628666</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1272</v>
+        <v>2488</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.6314434908543688</v>
+        <v>0.3707334261283899</v>
       </c>
       <c r="E10">
-        <v>0.2624084339586509</v>
+        <v>0.9392761440187859</v>
       </c>
       <c r="F10">
-        <v>0.006037707319395784</v>
+        <v>0.006441143935936905</v>
       </c>
       <c r="G10">
-        <v>2.94260375848771</v>
+        <v>1.424536227844523</v>
       </c>
       <c r="H10">
-        <v>-0.02887072058726036</v>
+        <v>0.1242080089016249</v>
       </c>
       <c r="I10">
-        <v>2.763750376080787E-42</v>
+        <v>9.944219658909049E-26</v>
       </c>
       <c r="J10">
-        <v>1.090000033378601</v>
+        <v>3.390000104904175</v>
       </c>
       <c r="K10">
-        <v>57.90000152587891</v>
+        <v>18.10000038146973</v>
       </c>
       <c r="L10">
-        <v>0.3234456569472819</v>
+        <v>0.5771091765821632</v>
       </c>
       <c r="M10">
-        <v>-0.2237968356758939</v>
+        <v>-0.4683795525193313</v>
       </c>
       <c r="N10">
-        <v>0.1027759444459948</v>
+        <v>0.2106848631168567</v>
       </c>
       <c r="O10">
-        <v>-0.1809889590535105</v>
+        <v>-0.2827011314413528</v>
       </c>
       <c r="P10">
-        <v>0.01508648840092931</v>
+        <v>0.01719482848164908</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2605</v>
+        <v>997</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.1179709464744378</v>
+        <v>0.7592180641675048</v>
       </c>
       <c r="E11">
-        <v>0.3443940561062863</v>
+        <v>0.9962994544941467</v>
       </c>
       <c r="F11">
-        <v>0.008569216887023428</v>
+        <v>0.007776687165865299</v>
       </c>
       <c r="G11">
-        <v>17.46097173691766</v>
+        <v>1.771312091099208</v>
       </c>
       <c r="H11">
-        <v>-0.7057352283380105</v>
+        <v>0.488361850034225</v>
       </c>
       <c r="I11">
-        <v>3.760527498049381E-11</v>
+        <v>3.461778956978051E-31</v>
       </c>
       <c r="J11">
-        <v>13.15999984741211</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="K11">
-        <v>3.920000076293945</v>
+        <v>2.119999885559082</v>
       </c>
       <c r="L11">
-        <v>1.743731113087607</v>
+        <v>0.4566369137665278</v>
       </c>
       <c r="M11">
-        <v>-1.928604546124076</v>
+        <v>-0.5439339434735704</v>
       </c>
       <c r="N11">
-        <v>0.6519875093190637</v>
+        <v>0.2252755248062271</v>
       </c>
       <c r="O11">
-        <v>-1.534489740577228</v>
+        <v>-0.2466392145036451</v>
       </c>
       <c r="P11">
-        <v>0.01520640394851668</v>
+        <v>0.01783399707744117</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -70,46 +70,46 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>ABEV3</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
     <t>ELET3</t>
   </si>
   <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
     <t>PCAR3</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>FLRY3</t>
   </si>
   <si>
-    <t>ENGI11</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
   </si>
   <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
+    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -531,170 +531,170 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>993</v>
+        <v>2467</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.7592180641675048</v>
+        <v>0.3674736207564346</v>
       </c>
       <c r="E2">
-        <v>0.9587138450742608</v>
+        <v>0.2068327641449854</v>
       </c>
       <c r="F2">
-        <v>0.000116165685187037</v>
+        <v>0.0003120143564984072</v>
       </c>
       <c r="G2">
-        <v>-1.268899015082664</v>
+        <v>1.21368426655468</v>
       </c>
       <c r="H2">
-        <v>0.3355914282760349</v>
+        <v>1.022159306052919</v>
       </c>
       <c r="I2">
-        <v>4.620607971772823E-51</v>
+        <v>1.394667042545332E-32</v>
       </c>
       <c r="J2">
-        <v>2.559999942779541</v>
+        <v>3.410000085830688</v>
       </c>
       <c r="K2">
-        <v>12.14000034332275</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="L2">
-        <v>0.4906616692163164</v>
+        <v>0.5134781573566727</v>
       </c>
       <c r="M2">
-        <v>-0.3372189827537317</v>
+        <v>-0.565403924952415</v>
       </c>
       <c r="N2">
-        <v>0.1622272242029368</v>
+        <v>0.1926717479538998</v>
       </c>
       <c r="O2">
-        <v>-0.2451810966250312</v>
+        <v>-0.2057584524676446</v>
       </c>
       <c r="P2">
-        <v>0.009999867996563584</v>
+        <v>0.01113723648419173</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>991</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.7592180641675048</v>
+        <v>0.2588239843834954</v>
       </c>
       <c r="E3">
-        <v>0.9229069139703043</v>
+        <v>0.7121724731146493</v>
       </c>
       <c r="F3">
-        <v>0.00144153821686413</v>
+        <v>0.002122516221903072</v>
       </c>
       <c r="G3">
-        <v>-1.258992326648141</v>
+        <v>16.60429945330849</v>
       </c>
       <c r="H3">
-        <v>0.1103890401384875</v>
+        <v>-2.95630573843324</v>
       </c>
       <c r="I3">
-        <v>3.756104110457315E-37</v>
+        <v>2.661182265110107E-37</v>
       </c>
       <c r="J3">
-        <v>2.559999942779541</v>
+        <v>12.53520011901855</v>
       </c>
       <c r="K3">
-        <v>37.11000061035156</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="L3">
-        <v>0.4928492959262054</v>
+        <v>1.323558237664356</v>
       </c>
       <c r="M3">
-        <v>-0.4966374127119884</v>
+        <v>-1.161972752061661</v>
       </c>
       <c r="N3">
-        <v>0.2041554245824348</v>
+        <v>0.4129521400488371</v>
       </c>
       <c r="O3">
-        <v>-0.2775450774877117</v>
+        <v>-0.9649784499026781</v>
       </c>
       <c r="P3">
-        <v>0.01423450512023574</v>
+        <v>0.01359727172130088</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1021</v>
+        <v>987</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.7592180641675048</v>
+        <v>0.6180271061328587</v>
       </c>
       <c r="E4">
-        <v>0.9372246206180288</v>
+        <v>0.6010657604858192</v>
       </c>
       <c r="F4">
-        <v>0.004972552410800127</v>
+        <v>0.007405648209976605</v>
       </c>
       <c r="G4">
-        <v>-1.076375526962698</v>
+        <v>-1.59863945308576</v>
       </c>
       <c r="H4">
-        <v>0.16957050673451</v>
+        <v>0.1375960268418461</v>
       </c>
       <c r="I4">
-        <v>3.832879639668055E-36</v>
+        <v>3.087171218981717E-39</v>
       </c>
       <c r="J4">
-        <v>2.559999942779541</v>
+        <v>2.740000009536743</v>
       </c>
       <c r="K4">
-        <v>23.55999946594238</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="L4">
-        <v>0.5311360079247738</v>
+        <v>0.4503788340727168</v>
       </c>
       <c r="M4">
-        <v>-0.4425591917232827</v>
+        <v>-0.584295817337035</v>
       </c>
       <c r="N4">
-        <v>0.2075844895445823</v>
+        <v>0.2014929125481341</v>
       </c>
       <c r="O4">
-        <v>-0.3587055783623962</v>
+        <v>-0.4538304042248482</v>
       </c>
       <c r="P4">
-        <v>0.01502823219522549</v>
+        <v>0.01521917315681089</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -702,388 +702,388 @@
         <v>1756</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>0.6367576541417868</v>
+        <v>0.6010657604858192</v>
       </c>
       <c r="E5">
-        <v>0.9587138450742608</v>
+        <v>0.9267300453763676</v>
       </c>
       <c r="F5">
-        <v>0.00584430298512657</v>
+        <v>0.004927857941052266</v>
       </c>
       <c r="G5">
-        <v>6.561917158897555</v>
+        <v>6.926706566436035</v>
       </c>
       <c r="H5">
-        <v>2.152098614208</v>
+        <v>2.127843998062323</v>
       </c>
       <c r="I5">
-        <v>2.384766811874897E-61</v>
+        <v>1.696805506303828E-61</v>
       </c>
       <c r="J5">
-        <v>34.47000122070312</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="K5">
-        <v>12.14000034332275</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="L5">
-        <v>2.196072876536014</v>
+        <v>2.143603819694277</v>
       </c>
       <c r="M5">
-        <v>-1.899458870108298</v>
+        <v>-1.905319623737228</v>
       </c>
       <c r="N5">
-        <v>0.8482546736779701</v>
+        <v>0.8549372580533879</v>
       </c>
       <c r="O5">
-        <v>1.781606146456031</v>
+        <v>1.496751573348451</v>
       </c>
       <c r="P5">
-        <v>0.01533721831562975</v>
+        <v>0.01547360838668039</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1784</v>
+        <v>1268</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>0.6367576541417868</v>
+        <v>0.7121724731146493</v>
       </c>
       <c r="E6">
-        <v>0.9372246206180288</v>
+        <v>0.4447237889668044</v>
       </c>
       <c r="F6">
-        <v>0.003923619676149779</v>
+        <v>0.004444173427594779</v>
       </c>
       <c r="G6">
-        <v>5.606871275469586</v>
+        <v>0.01019453106202323</v>
       </c>
       <c r="H6">
-        <v>1.166299055439959</v>
+        <v>0.2221702682768772</v>
       </c>
       <c r="I6">
-        <v>1.724509652184693E-56</v>
+        <v>2.651622930571073E-38</v>
       </c>
       <c r="J6">
-        <v>34.47000122070312</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="K6">
-        <v>23.55999946594238</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="L6">
-        <v>2.615828850520408</v>
+        <v>0.2635190431713237</v>
       </c>
       <c r="M6">
-        <v>-2.408199338687758</v>
+        <v>-0.2797642406166168</v>
       </c>
       <c r="N6">
-        <v>0.9192648680742652</v>
+        <v>0.1140381310693474</v>
       </c>
       <c r="O6">
-        <v>1.385124821938987</v>
+        <v>-0.1865744553965394</v>
       </c>
       <c r="P6">
-        <v>0.015575449173083</v>
+        <v>0.01550509328282379</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2644</v>
+        <v>2382</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.2671737066395911</v>
+        <v>0.5455075813887857</v>
       </c>
       <c r="E7">
-        <v>0.9855369609112694</v>
+        <v>0.6563103447596121</v>
       </c>
       <c r="F7">
-        <v>0.006571620363300903</v>
+        <v>0.003718128140000559</v>
       </c>
       <c r="G7">
-        <v>1.039431013241809</v>
+        <v>12.60413597406828</v>
       </c>
       <c r="H7">
-        <v>0.08953064743877411</v>
+        <v>0.7324845010559894</v>
       </c>
       <c r="I7">
-        <v>1.942427457193957E-19</v>
+        <v>2.567653573343666E-57</v>
       </c>
       <c r="J7">
-        <v>2.259999990463257</v>
+        <v>31.13999938964844</v>
       </c>
       <c r="K7">
-        <v>16.04000091552734</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="L7">
-        <v>0.4675733093658132</v>
+        <v>1.917090971901835</v>
       </c>
       <c r="M7">
-        <v>-0.4053235537543225</v>
+        <v>-1.68762528926387</v>
       </c>
       <c r="N7">
-        <v>0.1829372452991998</v>
+        <v>0.7324187625796253</v>
       </c>
       <c r="O7">
-        <v>-0.2155026896642447</v>
+        <v>-0.7944021202143396</v>
       </c>
       <c r="P7">
-        <v>0.0158903277077466</v>
+        <v>0.01562902939949777</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1268</v>
+        <v>988</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.731945539599258</v>
+        <v>0.6180271061328587</v>
       </c>
       <c r="E8">
-        <v>0.4377233640574215</v>
+        <v>0.6341555393925665</v>
       </c>
       <c r="F8">
-        <v>0.007797806054711896</v>
+        <v>0.009932136706655518</v>
       </c>
       <c r="G8">
-        <v>0.02727831424090414</v>
+        <v>-2.178242879721538</v>
       </c>
       <c r="H8">
-        <v>0.2197871957341423</v>
+        <v>0.1371568978839128</v>
       </c>
       <c r="I8">
-        <v>1.050474163787975E-37</v>
+        <v>6.464752819348759E-41</v>
       </c>
       <c r="J8">
-        <v>0.9900000095367432</v>
+        <v>2.740000009536743</v>
       </c>
       <c r="K8">
-        <v>5.550000190734863</v>
+        <v>39.20999908447266</v>
       </c>
       <c r="L8">
-        <v>0.2638793514143438</v>
+        <v>0.4478030533808308</v>
       </c>
       <c r="M8">
-        <v>-0.2771161837780018</v>
+        <v>-0.5779583092660827</v>
       </c>
       <c r="N8">
-        <v>0.1133351152746145</v>
+        <v>0.1960198801205862</v>
       </c>
       <c r="O8">
-        <v>-0.2570972829497313</v>
+        <v>-0.4596789511990504</v>
       </c>
       <c r="P8">
-        <v>0.01596815752704667</v>
+        <v>0.01580411064254375</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2069</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.4817018547524077</v>
+        <v>0.6010657604858192</v>
       </c>
       <c r="E9">
-        <v>0.9934036103273681</v>
+        <v>0.9266344118997476</v>
       </c>
       <c r="F9">
-        <v>0.008831566099301066</v>
+        <v>0.004789865344952441</v>
       </c>
       <c r="G9">
-        <v>24.9861856237761</v>
+        <v>6.221654405113116</v>
       </c>
       <c r="H9">
-        <v>-0.2538184034969672</v>
+        <v>1.142985446697829</v>
       </c>
       <c r="I9">
-        <v>5.983256559433174E-39</v>
+        <v>1.149501209466743E-56</v>
       </c>
       <c r="J9">
-        <v>19.6200008392334</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="K9">
-        <v>16.79999923706055</v>
+        <v>23.73999977111816</v>
       </c>
       <c r="L9">
-        <v>1.19489884161478</v>
+        <v>2.551281382038681</v>
       </c>
       <c r="M9">
-        <v>-1.390007892586333</v>
+        <v>-2.455255359745166</v>
       </c>
       <c r="N9">
-        <v>0.6118292745489563</v>
+        <v>0.9255437551596322</v>
       </c>
       <c r="O9">
-        <v>-1.102035799441724</v>
+        <v>1.47387318294372</v>
       </c>
       <c r="P9">
-        <v>0.01636072349628666</v>
+        <v>0.01610226334099743</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2488</v>
+        <v>2621</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>0.3707334261283899</v>
+        <v>0.1208234463803062</v>
       </c>
       <c r="E10">
-        <v>0.9392761440187859</v>
+        <v>0.4447237889668044</v>
       </c>
       <c r="F10">
-        <v>0.006441143935936905</v>
+        <v>0.007552486192883174</v>
       </c>
       <c r="G10">
-        <v>1.424536227844523</v>
+        <v>10.67041932310187</v>
       </c>
       <c r="H10">
-        <v>0.1242080089016249</v>
+        <v>0.5870286201335122</v>
       </c>
       <c r="I10">
-        <v>9.944219658909049E-26</v>
+        <v>2.768593776716894E-14</v>
       </c>
       <c r="J10">
-        <v>3.390000104904175</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="K10">
-        <v>18.10000038146973</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="L10">
-        <v>0.5771091765821632</v>
+        <v>2.366761185716069</v>
       </c>
       <c r="M10">
-        <v>-0.4683795525193313</v>
+        <v>-1.418428047927847</v>
       </c>
       <c r="N10">
-        <v>0.2106848631168567</v>
+        <v>0.6399987132138844</v>
       </c>
       <c r="O10">
-        <v>-0.2827011314413528</v>
+        <v>-0.7908174094830889</v>
       </c>
       <c r="P10">
-        <v>0.01719482848164908</v>
+        <v>0.01631187259317294</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>997</v>
+        <v>2625</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.7592180641675048</v>
+        <v>0.1208234463803062</v>
       </c>
       <c r="E11">
-        <v>0.9962994544941467</v>
+        <v>0.1915123383021786</v>
       </c>
       <c r="F11">
-        <v>0.007776687165865299</v>
+        <v>0.008212856055981385</v>
       </c>
       <c r="G11">
-        <v>1.771312091099208</v>
+        <v>18.53265593187417</v>
       </c>
       <c r="H11">
-        <v>0.488361850034225</v>
+        <v>-0.07874730375398939</v>
       </c>
       <c r="I11">
-        <v>3.461778956978051E-31</v>
+        <v>2.312699188173181E-15</v>
       </c>
       <c r="J11">
-        <v>2.559999942779541</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="K11">
-        <v>2.119999885559082</v>
+        <v>56.45999908447266</v>
       </c>
       <c r="L11">
-        <v>0.4566369137665278</v>
+        <v>1.906192041871972</v>
       </c>
       <c r="M11">
-        <v>-0.5439339434735704</v>
+        <v>-1.530122083906665</v>
       </c>
       <c r="N11">
-        <v>0.2252755248062271</v>
+        <v>0.6288901107486217</v>
       </c>
       <c r="O11">
-        <v>-0.2466392145036451</v>
+        <v>-0.9665833484601576</v>
       </c>
       <c r="P11">
-        <v>0.01783399707744117</v>
+        <v>0.0165598847470168</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
         <v>31</v>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -70,46 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>LWSA3</t>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
   </si>
   <si>
     <t>ABEV3</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
     <t>COGN3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>PCAR3</t>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
   <si>
     <t>FLRY3</t>
   </si>
   <si>
+    <t>ENGI11</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
+  </si>
+  <si>
     <t>USIM5</t>
   </si>
   <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>RDOR3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>WEGE3</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>2467</v>
+        <v>1751</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -540,43 +543,43 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>0.3674736207564346</v>
+        <v>0.6366855350229446</v>
       </c>
       <c r="E2">
-        <v>0.2068327641449854</v>
+        <v>0.6451340639226302</v>
       </c>
       <c r="F2">
-        <v>0.0003120143564984072</v>
+        <v>0.001296473419205445</v>
       </c>
       <c r="G2">
-        <v>1.21368426655468</v>
+        <v>-3.671316060467875</v>
       </c>
       <c r="H2">
-        <v>1.022159306052919</v>
+        <v>0.9839036544053154</v>
       </c>
       <c r="I2">
-        <v>1.394667042545332E-32</v>
+        <v>1.213040115631734E-143</v>
       </c>
       <c r="J2">
-        <v>3.410000085830688</v>
+        <v>35.22999954223633</v>
       </c>
       <c r="K2">
-        <v>2.349999904632568</v>
+        <v>39.88999938964844</v>
       </c>
       <c r="L2">
-        <v>0.5134781573566727</v>
+        <v>0.4411662499234055</v>
       </c>
       <c r="M2">
-        <v>-0.565403924952415</v>
+        <v>-0.5754957317054377</v>
       </c>
       <c r="N2">
-        <v>0.1926717479538998</v>
+        <v>0.2145971494218243</v>
       </c>
       <c r="O2">
-        <v>-0.2057584524676446</v>
+        <v>-0.3466005709966922</v>
       </c>
       <c r="P2">
-        <v>0.01113723648419173</v>
+        <v>0.006410762642713483</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -587,506 +590,506 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>18</v>
+        <v>1744</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.2588239843834954</v>
+        <v>0.9641296180133093</v>
       </c>
       <c r="E3">
-        <v>0.7121724731146493</v>
+        <v>0.9810569956944859</v>
       </c>
       <c r="F3">
-        <v>0.002122516221903072</v>
+        <v>0.003055037624399042</v>
       </c>
       <c r="G3">
-        <v>16.60429945330849</v>
+        <v>15.80961502881607</v>
       </c>
       <c r="H3">
-        <v>-2.95630573843324</v>
+        <v>1.229000267928807</v>
       </c>
       <c r="I3">
-        <v>2.661182265110107E-37</v>
+        <v>8.91937920571165E-73</v>
       </c>
       <c r="J3">
-        <v>12.53520011901855</v>
+        <v>36.81999969482422</v>
       </c>
       <c r="K3">
-        <v>1.049999952316284</v>
+        <v>16.45999908447266</v>
       </c>
       <c r="L3">
-        <v>1.323558237664356</v>
+        <v>1.79661745514705</v>
       </c>
       <c r="M3">
-        <v>-1.161972752061661</v>
+        <v>-2.188210772960666</v>
       </c>
       <c r="N3">
-        <v>0.4129521400488371</v>
+        <v>0.7565024736285488</v>
       </c>
       <c r="O3">
-        <v>-0.9649784499026781</v>
+        <v>0.7810413810833374</v>
       </c>
       <c r="P3">
-        <v>0.01359727172130088</v>
+        <v>0.00943038114773464</v>
       </c>
       <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.6180271061328587</v>
+        <v>0.5891271053949731</v>
       </c>
       <c r="E4">
-        <v>0.6010657604858192</v>
+        <v>0.8886806853214826</v>
       </c>
       <c r="F4">
-        <v>0.007405648209976605</v>
+        <v>0.000100677189593556</v>
       </c>
       <c r="G4">
-        <v>-1.59863945308576</v>
+        <v>-1.321838100201623</v>
       </c>
       <c r="H4">
-        <v>0.1375960268418461</v>
+        <v>0.3391970986562967</v>
       </c>
       <c r="I4">
-        <v>3.087171218981717E-39</v>
+        <v>2.648978976963954E-52</v>
       </c>
       <c r="J4">
-        <v>2.740000009536743</v>
+        <v>2.789999961853027</v>
       </c>
       <c r="K4">
-        <v>34.83000183105469</v>
+        <v>12.65999984741211</v>
       </c>
       <c r="L4">
-        <v>0.4503788340727168</v>
+        <v>0.4894442678616109</v>
       </c>
       <c r="M4">
-        <v>-0.584295817337035</v>
+        <v>-0.3376032062296117</v>
       </c>
       <c r="N4">
-        <v>0.2014929125481341</v>
+        <v>0.1634378652101753</v>
       </c>
       <c r="O4">
-        <v>-0.4538304042248482</v>
+        <v>-0.1823971551766954</v>
       </c>
       <c r="P4">
-        <v>0.01521917315681089</v>
+        <v>0.009943945979961821</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1756</v>
+        <v>991</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>0.6010657604858192</v>
+        <v>0.5891271053949731</v>
       </c>
       <c r="E5">
-        <v>0.9267300453763676</v>
+        <v>0.8051317011019463</v>
       </c>
       <c r="F5">
-        <v>0.004927857941052266</v>
+        <v>0.0003400438766320587</v>
       </c>
       <c r="G5">
-        <v>6.926706566436035</v>
+        <v>-1.427809322348535</v>
       </c>
       <c r="H5">
-        <v>2.127843998062323</v>
+        <v>0.1143656706744409</v>
       </c>
       <c r="I5">
-        <v>1.696805506303828E-61</v>
+        <v>6.948737908058494E-42</v>
       </c>
       <c r="J5">
-        <v>34.83000183105469</v>
+        <v>2.789999961853027</v>
       </c>
       <c r="K5">
-        <v>12.40999984741211</v>
+        <v>38.81999969482422</v>
       </c>
       <c r="L5">
-        <v>2.143603819694277</v>
+        <v>0.4813261028889695</v>
       </c>
       <c r="M5">
-        <v>-1.905319623737228</v>
+        <v>-0.5084151628816267</v>
       </c>
       <c r="N5">
-        <v>0.8549372580533879</v>
+        <v>0.1944007454654772</v>
       </c>
       <c r="O5">
-        <v>1.496751573348451</v>
+        <v>-0.2218660164786002</v>
       </c>
       <c r="P5">
-        <v>0.01547360838668039</v>
+        <v>0.0123770225355423</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1268</v>
+        <v>1880</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>0.7121724731146493</v>
+        <v>0.6662581645964146</v>
       </c>
       <c r="E6">
-        <v>0.4447237889668044</v>
+        <v>0.7079909778086423</v>
       </c>
       <c r="F6">
-        <v>0.004444173427594779</v>
+        <v>7.366918556910517E-05</v>
       </c>
       <c r="G6">
-        <v>0.01019453106202323</v>
+        <v>109.175326682192</v>
       </c>
       <c r="H6">
-        <v>0.2221702682768772</v>
+        <v>-2.286456190967209</v>
       </c>
       <c r="I6">
-        <v>2.651622930571073E-38</v>
+        <v>1.763309821786687E-43</v>
       </c>
       <c r="J6">
-        <v>1.049999952316284</v>
+        <v>54.95999908447266</v>
       </c>
       <c r="K6">
-        <v>5.519999980926514</v>
+        <v>25.13999938964844</v>
       </c>
       <c r="L6">
-        <v>0.2635190431713237</v>
+        <v>6.695898859938104</v>
       </c>
       <c r="M6">
-        <v>-0.2797642406166168</v>
+        <v>-12.28674120567683</v>
       </c>
       <c r="N6">
-        <v>0.1140381310693474</v>
+        <v>3.207219806023634</v>
       </c>
       <c r="O6">
-        <v>-0.1865744553965394</v>
+        <v>3.266179647654219</v>
       </c>
       <c r="P6">
-        <v>0.01550509328282379</v>
+        <v>0.01268711767436906</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2382</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7">
-        <v>0.5455075813887857</v>
+        <v>0.241719839401415</v>
       </c>
       <c r="E7">
-        <v>0.6563103447596121</v>
+        <v>0.7058501410680589</v>
       </c>
       <c r="F7">
-        <v>0.003718128140000559</v>
+        <v>0.001308789847722547</v>
       </c>
       <c r="G7">
-        <v>12.60413597406828</v>
+        <v>16.04572278085436</v>
       </c>
       <c r="H7">
-        <v>0.7324845010559894</v>
+        <v>-2.864755610319919</v>
       </c>
       <c r="I7">
-        <v>2.567653573343666E-57</v>
+        <v>1.13173920894324E-35</v>
       </c>
       <c r="J7">
-        <v>31.13999938964844</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="K7">
-        <v>26.38999938964844</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="L7">
-        <v>1.917090971901835</v>
+        <v>1.287894245456808</v>
       </c>
       <c r="M7">
-        <v>-1.68762528926387</v>
+        <v>-1.116169875098453</v>
       </c>
       <c r="N7">
-        <v>0.7324187625796253</v>
+        <v>0.4038822518372603</v>
       </c>
       <c r="O7">
-        <v>-0.7944021202143396</v>
+        <v>-0.6931395277477872</v>
       </c>
       <c r="P7">
-        <v>0.01562902939949777</v>
+        <v>0.01338018824139053</v>
       </c>
       <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
         <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>988</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6180271061328587</v>
+        <v>0.7058501410680589</v>
       </c>
       <c r="E8">
-        <v>0.6341555393925665</v>
+        <v>0.5164861840330591</v>
       </c>
       <c r="F8">
-        <v>0.009932136706655518</v>
+        <v>0.001046974096629793</v>
       </c>
       <c r="G8">
-        <v>-2.178242879721538</v>
+        <v>0.03243674508515698</v>
       </c>
       <c r="H8">
-        <v>0.1371568978839128</v>
+        <v>0.2180291777967724</v>
       </c>
       <c r="I8">
-        <v>6.464752819348759E-41</v>
+        <v>6.260773206963562E-38</v>
       </c>
       <c r="J8">
-        <v>2.740000009536743</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="K8">
-        <v>39.20999908447266</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="L8">
-        <v>0.4478030533808308</v>
+        <v>0.2715896121734218</v>
       </c>
       <c r="M8">
-        <v>-0.5779583092660827</v>
+        <v>-0.267718226570274</v>
       </c>
       <c r="N8">
-        <v>0.1960198801205862</v>
+        <v>0.1117231088004793</v>
       </c>
       <c r="O8">
-        <v>-0.4596789511990504</v>
+        <v>-0.1263351097158414</v>
       </c>
       <c r="P8">
-        <v>0.01580411064254375</v>
+        <v>0.01387313352662096</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1784</v>
+        <v>1021</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.6010657604858192</v>
+        <v>0.5891271053949731</v>
       </c>
       <c r="E9">
-        <v>0.9266344118997476</v>
+        <v>0.8842769092094042</v>
       </c>
       <c r="F9">
-        <v>0.004789865344952441</v>
+        <v>0.003973263608117901</v>
       </c>
       <c r="G9">
-        <v>6.221654405113116</v>
+        <v>-1.158216856709056</v>
       </c>
       <c r="H9">
-        <v>1.142985446697829</v>
+        <v>0.1724892312929145</v>
       </c>
       <c r="I9">
-        <v>1.149501209466743E-56</v>
+        <v>1.87430299873833E-37</v>
       </c>
       <c r="J9">
-        <v>34.83000183105469</v>
+        <v>2.789999961853027</v>
       </c>
       <c r="K9">
-        <v>23.73999977111816</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="L9">
-        <v>2.551281382038681</v>
+        <v>0.5376490104228302</v>
       </c>
       <c r="M9">
-        <v>-2.455255359745166</v>
+        <v>-0.4446421712049395</v>
       </c>
       <c r="N9">
-        <v>0.9255437551596322</v>
+        <v>0.2092744654516218</v>
       </c>
       <c r="O9">
-        <v>1.47387318294372</v>
+        <v>-0.2415467674614189</v>
       </c>
       <c r="P9">
-        <v>0.01610226334099743</v>
+        <v>0.01484423480070056</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2621</v>
+        <v>2382</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.1208234463803062</v>
+        <v>0.5554940279512565</v>
       </c>
       <c r="E10">
-        <v>0.4447237889668044</v>
+        <v>0.6189322729573061</v>
       </c>
       <c r="F10">
-        <v>0.007552486192883174</v>
+        <v>0.001802779404814876</v>
       </c>
       <c r="G10">
-        <v>10.67041932310187</v>
+        <v>12.98842055227138</v>
       </c>
       <c r="H10">
-        <v>0.5870286201335122</v>
+        <v>0.7201557098687161</v>
       </c>
       <c r="I10">
-        <v>2.768593776716894E-14</v>
+        <v>2.587257384188423E-57</v>
       </c>
       <c r="J10">
-        <v>13.11999988555908</v>
+        <v>31.5</v>
       </c>
       <c r="K10">
-        <v>5.519999980926514</v>
+        <v>26.90999984741211</v>
       </c>
       <c r="L10">
-        <v>2.366761185716069</v>
+        <v>1.894211620222762</v>
       </c>
       <c r="M10">
-        <v>-1.418428047927847</v>
+        <v>-1.745723221662018</v>
       </c>
       <c r="N10">
-        <v>0.6399987132138844</v>
+        <v>0.7075373162677907</v>
       </c>
       <c r="O10">
-        <v>-0.7908174094830889</v>
+        <v>-0.8678105949514965</v>
       </c>
       <c r="P10">
-        <v>0.01631187259317294</v>
+        <v>0.01524992341212863</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2625</v>
+        <v>987</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>0.1208234463803062</v>
+        <v>0.5891271053949731</v>
       </c>
       <c r="E11">
-        <v>0.1915123383021786</v>
+        <v>0.6366855350229446</v>
       </c>
       <c r="F11">
-        <v>0.008212856055981385</v>
+        <v>0.009165630625947312</v>
       </c>
       <c r="G11">
-        <v>18.53265593187417</v>
+        <v>-1.665755319606965</v>
       </c>
       <c r="H11">
-        <v>-0.07874730375398939</v>
+        <v>0.1392827731601212</v>
       </c>
       <c r="I11">
-        <v>2.312699188173181E-15</v>
+        <v>2.752089498522251E-38</v>
       </c>
       <c r="J11">
-        <v>13.11999988555908</v>
+        <v>2.789999961853027</v>
       </c>
       <c r="K11">
-        <v>56.45999908447266</v>
+        <v>35.22999954223633</v>
       </c>
       <c r="L11">
-        <v>1.906192041871972</v>
+        <v>0.451441715027646</v>
       </c>
       <c r="M11">
-        <v>-1.530122083906665</v>
+        <v>-0.5753220984657892</v>
       </c>
       <c r="N11">
-        <v>0.6288901107486217</v>
+        <v>0.2063939998411961</v>
       </c>
       <c r="O11">
-        <v>-0.9665833484601576</v>
+        <v>-0.4511767532124846</v>
       </c>
       <c r="P11">
-        <v>0.0165598847470168</v>
+        <v>0.01565085149252758</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -70,49 +70,37 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>EGIE3</t>
+    <t>CPFE3</t>
   </si>
   <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>EMBR3</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>ENGI11</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>USIM5</t>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
   </si>
   <si>
     <t>SANB11</t>
   </si>
   <si>
-    <t>RDOR3</t>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
   </si>
 </sst>
 </file>
@@ -534,562 +522,562 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1751</v>
+        <v>1288</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0.6366855350229446</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E2">
-        <v>0.6451340639226302</v>
+        <v>0.9239977079603323</v>
       </c>
       <c r="F2">
-        <v>0.001296473419205445</v>
+        <v>0.0004132336807639751</v>
       </c>
       <c r="G2">
-        <v>-3.671316060467875</v>
+        <v>25.59501766461555</v>
       </c>
       <c r="H2">
-        <v>0.9839036544053154</v>
+        <v>0.5082138483177314</v>
       </c>
       <c r="I2">
-        <v>1.213040115631734E-143</v>
+        <v>4.401916902088927E-33</v>
       </c>
       <c r="J2">
-        <v>35.22999954223633</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K2">
-        <v>39.88999938964844</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="L2">
-        <v>0.4411662499234055</v>
+        <v>1.085908905407443</v>
       </c>
       <c r="M2">
-        <v>-0.5754957317054377</v>
+        <v>-0.7721421484220841</v>
       </c>
       <c r="N2">
-        <v>0.2145971494218243</v>
+        <v>0.3824332149090522</v>
       </c>
       <c r="O2">
-        <v>-0.3466005709966922</v>
+        <v>-0.5816236730848781</v>
       </c>
       <c r="P2">
-        <v>0.006410762642713483</v>
+        <v>0.007517028799519881</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1744</v>
+        <v>1286</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>0.9641296180133093</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E3">
-        <v>0.9810569956944859</v>
+        <v>0.908199096548431</v>
       </c>
       <c r="F3">
-        <v>0.003055037624399042</v>
+        <v>2.09190527886866E-05</v>
       </c>
       <c r="G3">
-        <v>15.80961502881607</v>
+        <v>25.18059729157343</v>
       </c>
       <c r="H3">
-        <v>1.229000267928807</v>
+        <v>0.1773422913770725</v>
       </c>
       <c r="I3">
-        <v>8.91937920571165E-73</v>
+        <v>5.753283633714252E-32</v>
       </c>
       <c r="J3">
-        <v>36.81999969482422</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K3">
-        <v>16.45999908447266</v>
+        <v>37.2400016784668</v>
       </c>
       <c r="L3">
-        <v>1.79661745514705</v>
+        <v>1.056342803362725</v>
       </c>
       <c r="M3">
-        <v>-2.188210772960666</v>
+        <v>-0.8743127117970246</v>
       </c>
       <c r="N3">
-        <v>0.7565024736285488</v>
+        <v>0.3896471930470391</v>
       </c>
       <c r="O3">
-        <v>0.7810413810833374</v>
+        <v>-0.4848252830582087</v>
       </c>
       <c r="P3">
-        <v>0.00943038114773464</v>
+        <v>0.008716679451124023</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>993</v>
+        <v>1283</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>0.5891271053949731</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E4">
-        <v>0.8886806853214826</v>
+        <v>0.6627746989048733</v>
       </c>
       <c r="F4">
-        <v>0.000100677189593556</v>
+        <v>0.003435903935852741</v>
       </c>
       <c r="G4">
-        <v>-1.321838100201623</v>
+        <v>24.04659996121255</v>
       </c>
       <c r="H4">
-        <v>0.3391970986562967</v>
+        <v>0.2115167895337724</v>
       </c>
       <c r="I4">
-        <v>2.648978976963954E-52</v>
+        <v>2.764764401322685E-27</v>
       </c>
       <c r="J4">
-        <v>2.789999961853027</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K4">
-        <v>12.65999984741211</v>
+        <v>39.27000045776367</v>
       </c>
       <c r="L4">
-        <v>0.4894442678616109</v>
+        <v>1.012318791399878</v>
       </c>
       <c r="M4">
-        <v>-0.3376032062296117</v>
+        <v>-1.052865145967949</v>
       </c>
       <c r="N4">
-        <v>0.1634378652101753</v>
+        <v>0.4213933726887932</v>
       </c>
       <c r="O4">
-        <v>-0.1823971551766954</v>
+        <v>-1.052865145967948</v>
       </c>
       <c r="P4">
-        <v>0.009943945979961821</v>
+        <v>0.009231512361838185</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>991</v>
+        <v>1292</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>0.5891271053949731</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E5">
-        <v>0.8051317011019463</v>
+        <v>0.99755425521943</v>
       </c>
       <c r="F5">
-        <v>0.0003400438766320587</v>
+        <v>0.005272397148785618</v>
       </c>
       <c r="G5">
-        <v>-1.427809322348535</v>
+        <v>30.2330916793258</v>
       </c>
       <c r="H5">
-        <v>0.1143656706744409</v>
+        <v>0.7352777709361904</v>
       </c>
       <c r="I5">
-        <v>6.948737908058494E-42</v>
+        <v>1.672665885320694E-23</v>
       </c>
       <c r="J5">
-        <v>2.789999961853027</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K5">
-        <v>38.81999969482422</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>0.4813261028889695</v>
+        <v>1.224311917319056</v>
       </c>
       <c r="M5">
-        <v>-0.5084151628816267</v>
+        <v>-1.122140050690973</v>
       </c>
       <c r="N5">
-        <v>0.1944007454654772</v>
+        <v>0.448880016794507</v>
       </c>
       <c r="O5">
-        <v>-0.2218660164786002</v>
+        <v>-0.5874674268716771</v>
       </c>
       <c r="P5">
-        <v>0.0123770225355423</v>
+        <v>0.009287789440834535</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1880</v>
+        <v>1303</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>0.6662581645964146</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E6">
-        <v>0.7079909778086423</v>
+        <v>0.805189533706264</v>
       </c>
       <c r="F6">
-        <v>7.366918556910517E-05</v>
+        <v>0.008282474855018063</v>
       </c>
       <c r="G6">
-        <v>109.175326682192</v>
+        <v>28.89647757537989</v>
       </c>
       <c r="H6">
-        <v>-2.286456190967209</v>
+        <v>0.5986829127543871</v>
       </c>
       <c r="I6">
-        <v>1.763309821786687E-43</v>
+        <v>1.312593405458948E-22</v>
       </c>
       <c r="J6">
-        <v>54.95999908447266</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K6">
-        <v>25.13999938964844</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="L6">
-        <v>6.695898859938104</v>
+        <v>1.245441491849803</v>
       </c>
       <c r="M6">
-        <v>-12.28674120567683</v>
+        <v>-0.9042292363387929</v>
       </c>
       <c r="N6">
-        <v>3.207219806023634</v>
+        <v>0.4556349835052498</v>
       </c>
       <c r="O6">
-        <v>3.266179647654219</v>
+        <v>-0.7455505964350642</v>
       </c>
       <c r="P6">
-        <v>0.01268711767436906</v>
+        <v>0.009340117326837189</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>18</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0.241719839401415</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E7">
-        <v>0.7058501410680589</v>
+        <v>0.9295420562292206</v>
       </c>
       <c r="F7">
-        <v>0.001308789847722547</v>
+        <v>0.003439282890171802</v>
       </c>
       <c r="G7">
-        <v>16.04572278085436</v>
+        <v>26.0384505177751</v>
       </c>
       <c r="H7">
-        <v>-2.864755610319919</v>
+        <v>0.2509804111500731</v>
       </c>
       <c r="I7">
-        <v>1.13173920894324E-35</v>
+        <v>1.368781421701655E-24</v>
       </c>
       <c r="J7">
-        <v>12.22999954223633</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K7">
-        <v>1.090000033378601</v>
+        <v>23.54000091552734</v>
       </c>
       <c r="L7">
-        <v>1.287894245456808</v>
+        <v>0.9930007975000592</v>
       </c>
       <c r="M7">
-        <v>-1.116169875098453</v>
+        <v>-0.9764815752133416</v>
       </c>
       <c r="N7">
-        <v>0.4038822518372603</v>
+        <v>0.4408041394955106</v>
       </c>
       <c r="O7">
-        <v>-0.6931395277477872</v>
+        <v>-0.6465303889666991</v>
       </c>
       <c r="P7">
-        <v>0.01338018824139053</v>
+        <v>0.009681348547068895</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1268</v>
+        <v>1322</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>0.7058501410680589</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E8">
-        <v>0.5164861840330591</v>
+        <v>0.7200404826203599</v>
       </c>
       <c r="F8">
-        <v>0.001046974096629793</v>
+        <v>0.004036910845412395</v>
       </c>
       <c r="G8">
-        <v>0.03243674508515698</v>
+        <v>25.76134345141934</v>
       </c>
       <c r="H8">
-        <v>0.2180291777967724</v>
+        <v>0.4379942982771896</v>
       </c>
       <c r="I8">
-        <v>6.260773206963562E-38</v>
+        <v>2.761767488018956E-23</v>
       </c>
       <c r="J8">
-        <v>1.090000033378601</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K8">
-        <v>5.429999828338623</v>
+        <v>14.63147163391113</v>
       </c>
       <c r="L8">
-        <v>0.2715896121734218</v>
+        <v>1.022901586411713</v>
       </c>
       <c r="M8">
-        <v>-0.267718226570274</v>
+        <v>-0.8698453654163103</v>
       </c>
       <c r="N8">
-        <v>0.1117231088004793</v>
+        <v>0.4505151577044382</v>
       </c>
       <c r="O8">
-        <v>-0.1263351097158414</v>
+        <v>-0.8698453654163076</v>
       </c>
       <c r="P8">
-        <v>0.01387313352662096</v>
+        <v>0.009731490832956977</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1021</v>
+        <v>1327</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.5891271053949731</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E9">
-        <v>0.8842769092094042</v>
+        <v>0.9091127203178684</v>
       </c>
       <c r="F9">
-        <v>0.003973263608117901</v>
+        <v>0.005644362738327281</v>
       </c>
       <c r="G9">
-        <v>-1.158216856709056</v>
+        <v>27.51470083706551</v>
       </c>
       <c r="H9">
-        <v>0.1724892312929145</v>
+        <v>0.2467367357621306</v>
       </c>
       <c r="I9">
-        <v>1.87430299873833E-37</v>
+        <v>7.420027827054882E-24</v>
       </c>
       <c r="J9">
-        <v>2.789999961853027</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K9">
-        <v>24.29000091552734</v>
+        <v>18.24800300598145</v>
       </c>
       <c r="L9">
-        <v>0.5376490104228302</v>
+        <v>0.8948940397183875</v>
       </c>
       <c r="M9">
-        <v>-0.4446421712049395</v>
+        <v>-0.8180345887915834</v>
       </c>
       <c r="N9">
-        <v>0.2092744654516218</v>
+        <v>0.4462418465733539</v>
       </c>
       <c r="O9">
-        <v>-0.2415467674614189</v>
+        <v>-0.7171542958783705</v>
       </c>
       <c r="P9">
-        <v>0.01484423480070056</v>
+        <v>0.009789573016987888</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2382</v>
+        <v>1313</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>0.5554940279512565</v>
+        <v>0.2700094281809609</v>
       </c>
       <c r="E10">
-        <v>0.6189322729573061</v>
+        <v>0.9492135267788283</v>
       </c>
       <c r="F10">
-        <v>0.001802779404814876</v>
+        <v>0.008131750353492785</v>
       </c>
       <c r="G10">
-        <v>12.98842055227138</v>
+        <v>28.10027841597267</v>
       </c>
       <c r="H10">
-        <v>0.7201557098687161</v>
+        <v>1.684743396574052</v>
       </c>
       <c r="I10">
-        <v>2.587257384188423E-57</v>
+        <v>3.876383930389156E-21</v>
       </c>
       <c r="J10">
-        <v>31.5</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="K10">
-        <v>26.90999984741211</v>
+        <v>2.180000066757202</v>
       </c>
       <c r="L10">
-        <v>1.894211620222762</v>
+        <v>1.428103248588975</v>
       </c>
       <c r="M10">
-        <v>-1.745723221662018</v>
+        <v>-0.9448815799403505</v>
       </c>
       <c r="N10">
-        <v>0.7075373162677907</v>
+        <v>0.4669506504699411</v>
       </c>
       <c r="O10">
-        <v>-0.8678105949514965</v>
+        <v>-0.4730198959123126</v>
       </c>
       <c r="P10">
-        <v>0.01524992341212863</v>
+        <v>0.009987674005872391</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="D11">
-        <v>0.5891271053949731</v>
+        <v>0.6882476713312047</v>
       </c>
       <c r="E11">
-        <v>0.6366855350229446</v>
+        <v>0.9239977079603323</v>
       </c>
       <c r="F11">
-        <v>0.009165630625947312</v>
+        <v>0.0001313182838806488</v>
       </c>
       <c r="G11">
-        <v>-1.665755319606965</v>
+        <v>-1.360201786911471</v>
       </c>
       <c r="H11">
-        <v>0.1392827731601212</v>
+        <v>0.3418033732152209</v>
       </c>
       <c r="I11">
-        <v>2.752089498522251E-38</v>
+        <v>9.099607969982912E-53</v>
       </c>
       <c r="J11">
-        <v>2.789999961853027</v>
+        <v>2.650000095367432</v>
       </c>
       <c r="K11">
-        <v>35.22999954223633</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="L11">
-        <v>0.451441715027646</v>
+        <v>0.4886622041252426</v>
       </c>
       <c r="M11">
-        <v>-0.5753220984657892</v>
+        <v>-0.3377830268101638</v>
       </c>
       <c r="N11">
-        <v>0.2063939998411961</v>
+        <v>0.1647635864681836</v>
       </c>
       <c r="O11">
-        <v>-0.4511767532124846</v>
+        <v>-0.2179058052770886</v>
       </c>
       <c r="P11">
-        <v>0.01565085149252758</v>
+        <v>0.0100424549786828</v>
       </c>
       <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
         <v>20</v>
-      </c>
-      <c r="R11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>N</t>
   </si>
@@ -70,37 +70,43 @@
     <t>acaoVende</t>
   </si>
   <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>CPFE3</t>
   </si>
   <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>IRBR3</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>VBBR3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
     <t>CASH3</t>
   </si>
   <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>ENGI11</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>HAPV3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>USIM5</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
   </si>
 </sst>
 </file>
@@ -522,223 +528,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1288</v>
+        <v>1751</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.2700094281809609</v>
+        <v>0.6385588806745638</v>
       </c>
       <c r="E2">
-        <v>0.9239977079603323</v>
+        <v>0.6325440930691092</v>
       </c>
       <c r="F2">
-        <v>0.0004132336807639751</v>
+        <v>0.001662680715744033</v>
       </c>
       <c r="G2">
-        <v>25.59501766461555</v>
+        <v>-3.805096582345089</v>
       </c>
       <c r="H2">
-        <v>0.5082138483177314</v>
+        <v>0.986912412626066</v>
       </c>
       <c r="I2">
-        <v>4.401916902088927E-33</v>
+        <v>1.011526678380803E-143</v>
       </c>
       <c r="J2">
-        <v>31.29999923706055</v>
+        <v>34.95999908447266</v>
       </c>
       <c r="K2">
-        <v>12.36999988555908</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="L2">
-        <v>1.085908905407443</v>
+        <v>0.442260538856516</v>
       </c>
       <c r="M2">
-        <v>-0.7721421484220841</v>
+        <v>-0.5674007128997047</v>
       </c>
       <c r="N2">
-        <v>0.3824332149090522</v>
+        <v>0.2161310407585305</v>
       </c>
       <c r="O2">
-        <v>-0.5816236730848781</v>
+        <v>-0.3265055996642658</v>
       </c>
       <c r="P2">
-        <v>0.007517028799519881</v>
+        <v>0.006435283380230129</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E3">
-        <v>0.908199096548431</v>
+        <v>0.6385588806745638</v>
       </c>
       <c r="F3">
-        <v>2.09190527886866E-05</v>
+        <v>6.66869103893753E-05</v>
       </c>
       <c r="G3">
-        <v>25.18059729157343</v>
+        <v>24.82138014035327</v>
       </c>
       <c r="H3">
-        <v>0.1773422913770725</v>
+        <v>0.2152186009279105</v>
       </c>
       <c r="I3">
-        <v>5.753283633714252E-32</v>
+        <v>5.126947250650619E-27</v>
       </c>
       <c r="J3">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K3">
-        <v>37.2400016784668</v>
+        <v>34.95999908447266</v>
       </c>
       <c r="L3">
-        <v>1.056342803362725</v>
+        <v>1.120427120013815</v>
       </c>
       <c r="M3">
-        <v>-0.8743127117970246</v>
+        <v>-1.000227285537612</v>
       </c>
       <c r="N3">
-        <v>0.3896471930470391</v>
+        <v>0.4312816890786595</v>
       </c>
       <c r="O3">
-        <v>-0.4848252830582087</v>
+        <v>-0.8554224606363396</v>
       </c>
       <c r="P3">
-        <v>0.008716679451124023</v>
+        <v>0.009306113921622025</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E4">
-        <v>0.6627746989048733</v>
+        <v>0.7829171184500576</v>
       </c>
       <c r="F4">
-        <v>0.003435903935852741</v>
+        <v>0.008709181569123044</v>
       </c>
       <c r="G4">
-        <v>24.04659996121255</v>
+        <v>28.81785670545454</v>
       </c>
       <c r="H4">
-        <v>0.2115167895337724</v>
+        <v>0.6095283410884893</v>
       </c>
       <c r="I4">
-        <v>2.764764401322685E-27</v>
+        <v>1.481060177365167E-23</v>
       </c>
       <c r="J4">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K4">
-        <v>39.27000045776367</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="L4">
-        <v>1.012318791399878</v>
+        <v>1.242396284143908</v>
       </c>
       <c r="M4">
-        <v>-1.052865145967949</v>
+        <v>-0.9099858011282151</v>
       </c>
       <c r="N4">
-        <v>0.4213933726887932</v>
+        <v>0.4567626803287571</v>
       </c>
       <c r="O4">
-        <v>-1.052865145967948</v>
+        <v>-0.582738368755551</v>
       </c>
       <c r="P4">
-        <v>0.009231512361838185</v>
+        <v>0.009382908910969111</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E5">
-        <v>0.99755425521943</v>
+        <v>0.6325440930691092</v>
       </c>
       <c r="F5">
-        <v>0.005272397148785618</v>
+        <v>9.117381774955525E-05</v>
       </c>
       <c r="G5">
-        <v>30.2330916793258</v>
+        <v>23.89739134213699</v>
       </c>
       <c r="H5">
-        <v>0.7352777709361904</v>
+        <v>0.2148836478173906</v>
       </c>
       <c r="I5">
-        <v>1.672665885320694E-23</v>
+        <v>1.339759134983327E-27</v>
       </c>
       <c r="J5">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>39.61000061035156</v>
       </c>
       <c r="L5">
-        <v>1.224311917319056</v>
+        <v>1.030825972932867</v>
       </c>
       <c r="M5">
-        <v>-1.122140050690973</v>
+        <v>-1.035873053231299</v>
       </c>
       <c r="N5">
-        <v>0.448880016794507</v>
+        <v>0.4271296270990395</v>
       </c>
       <c r="O5">
-        <v>-0.5874674268716771</v>
+        <v>-0.9189329922202383</v>
       </c>
       <c r="P5">
-        <v>0.009287789440834535</v>
+        <v>0.00948883498584161</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
         <v>23</v>
@@ -746,338 +752,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1303</v>
+        <v>1322</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E6">
-        <v>0.805189533706264</v>
+        <v>0.7820244475863272</v>
       </c>
       <c r="F6">
-        <v>0.008282474855018063</v>
+        <v>0.003781553036151994</v>
       </c>
       <c r="G6">
-        <v>28.89647757537989</v>
+        <v>25.63277855511601</v>
       </c>
       <c r="H6">
-        <v>0.5986829127543871</v>
+        <v>0.4455328766034649</v>
       </c>
       <c r="I6">
-        <v>1.312593405458948E-22</v>
+        <v>2.793292432110187E-24</v>
       </c>
       <c r="J6">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K6">
-        <v>5.260000228881836</v>
+        <v>14.35999965667725</v>
       </c>
       <c r="L6">
-        <v>1.245441491849803</v>
+        <v>1.016084306248828</v>
       </c>
       <c r="M6">
-        <v>-0.9042292363387929</v>
+        <v>-0.8515809640538876</v>
       </c>
       <c r="N6">
-        <v>0.4556349835052498</v>
+        <v>0.4513095660584078</v>
       </c>
       <c r="O6">
-        <v>-0.7455505964350642</v>
+        <v>-0.5406307390620286</v>
       </c>
       <c r="P6">
-        <v>0.009340117326837189</v>
+        <v>0.009647357276940598</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E7">
-        <v>0.9295420562292206</v>
+        <v>0.9179221019259451</v>
       </c>
       <c r="F7">
-        <v>0.003439282890171802</v>
+        <v>0.005555196555580332</v>
       </c>
       <c r="G7">
-        <v>26.0384505177751</v>
+        <v>27.42368732425613</v>
       </c>
       <c r="H7">
-        <v>0.2509804111500731</v>
+        <v>0.2506722370559575</v>
       </c>
       <c r="I7">
-        <v>1.368781421701655E-24</v>
+        <v>6.418405829509583E-25</v>
       </c>
       <c r="J7">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K7">
-        <v>23.54000091552734</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="L7">
-        <v>0.9930007975000592</v>
+        <v>0.8863717928215351</v>
       </c>
       <c r="M7">
-        <v>-0.9764815752133416</v>
+        <v>-0.8253275169802237</v>
       </c>
       <c r="N7">
-        <v>0.4408041394955106</v>
+        <v>0.4465548044538448</v>
       </c>
       <c r="O7">
-        <v>-0.6465303889666991</v>
+        <v>-0.4783750005899616</v>
       </c>
       <c r="P7">
-        <v>0.009681348547068895</v>
+        <v>0.009770938213579232</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>0.2700094281809609</v>
+        <v>0.3069710535594244</v>
       </c>
       <c r="E8">
-        <v>0.7200404826203599</v>
+        <v>0.9082666093821028</v>
       </c>
       <c r="F8">
-        <v>0.004036910845412395</v>
+        <v>0.003493379960826356</v>
       </c>
       <c r="G8">
-        <v>25.76134345141934</v>
+        <v>25.88378597885805</v>
       </c>
       <c r="H8">
-        <v>0.4379942982771896</v>
+        <v>0.2567594455369006</v>
       </c>
       <c r="I8">
-        <v>2.761767488018956E-23</v>
+        <v>1.711820316053788E-25</v>
       </c>
       <c r="J8">
-        <v>31.29999923706055</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="K8">
-        <v>14.63147163391113</v>
+        <v>23.77000045776367</v>
       </c>
       <c r="L8">
-        <v>1.022901586411713</v>
+        <v>0.9941163945227203</v>
       </c>
       <c r="M8">
-        <v>-0.8698453654163103</v>
+        <v>-0.9863733199063205</v>
       </c>
       <c r="N8">
-        <v>0.4505151577044382</v>
+        <v>0.4423236702168972</v>
       </c>
       <c r="O8">
-        <v>-0.8698453654163076</v>
+        <v>-0.49695834568716</v>
       </c>
       <c r="P8">
-        <v>0.009731490832956977</v>
+        <v>0.00977310355995685</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1327</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>0.2700094281809609</v>
+        <v>0.6672331108448671</v>
       </c>
       <c r="E9">
-        <v>0.9091127203178684</v>
+        <v>0.6652873325134434</v>
       </c>
       <c r="F9">
-        <v>0.005644362738327281</v>
+        <v>0.001110936572202086</v>
       </c>
       <c r="G9">
-        <v>27.51470083706551</v>
+        <v>17.44706980303981</v>
       </c>
       <c r="H9">
-        <v>0.2467367357621306</v>
+        <v>2.313200739990529</v>
       </c>
       <c r="I9">
-        <v>7.420027827054882E-24</v>
+        <v>4.051257369217422E-48</v>
       </c>
       <c r="J9">
-        <v>31.29999923706055</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="K9">
-        <v>18.24800300598145</v>
+        <v>2.690000057220459</v>
       </c>
       <c r="L9">
-        <v>0.8948940397183875</v>
+        <v>1.312699009561346</v>
       </c>
       <c r="M9">
-        <v>-0.8180345887915834</v>
+        <v>-1.480347814037245</v>
       </c>
       <c r="N9">
-        <v>0.4462418465733539</v>
+        <v>0.4751141962860113</v>
       </c>
       <c r="O9">
-        <v>-0.7171542958783705</v>
+        <v>0.5304208369627137</v>
       </c>
       <c r="P9">
-        <v>0.009789573016987888</v>
+        <v>0.0125859219369215</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1313</v>
+        <v>1268</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.2700094281809609</v>
+        <v>0.8924968283610955</v>
       </c>
       <c r="E10">
-        <v>0.9492135267788283</v>
+        <v>0.5927033433937811</v>
       </c>
       <c r="F10">
-        <v>0.008131750353492785</v>
+        <v>0.001290442711667319</v>
       </c>
       <c r="G10">
-        <v>28.10027841597267</v>
+        <v>0.0293498559032513</v>
       </c>
       <c r="H10">
-        <v>1.684743396574052</v>
+        <v>0.2177214172097364</v>
       </c>
       <c r="I10">
-        <v>3.876383930389156E-21</v>
+        <v>1.417256320007092E-39</v>
       </c>
       <c r="J10">
-        <v>31.29999923706055</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="K10">
-        <v>2.180000066757202</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="L10">
-        <v>1.428103248588975</v>
+        <v>0.2631063811852803</v>
       </c>
       <c r="M10">
-        <v>-0.9448815799403505</v>
+        <v>-0.2620830798098903</v>
       </c>
       <c r="N10">
-        <v>0.4669506504699411</v>
+        <v>0.1088469804720973</v>
       </c>
       <c r="O10">
-        <v>-0.4730198959123126</v>
+        <v>-0.1310961923210594</v>
       </c>
       <c r="P10">
-        <v>0.009987674005872391</v>
+        <v>0.01372080587979063</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>993</v>
+        <v>2310</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>0.6882476713312047</v>
+        <v>0.5603236456689084</v>
       </c>
       <c r="E11">
-        <v>0.9239977079603323</v>
+        <v>0.2603005727672598</v>
       </c>
       <c r="F11">
-        <v>0.0001313182838806488</v>
+        <v>0.004978332002994888</v>
       </c>
       <c r="G11">
-        <v>-1.360201786911471</v>
+        <v>-3.72849518258377</v>
       </c>
       <c r="H11">
-        <v>0.3418033732152209</v>
+        <v>10.44192245363755</v>
       </c>
       <c r="I11">
-        <v>9.099607969982912E-53</v>
+        <v>1.955613507816287E-41</v>
       </c>
       <c r="J11">
-        <v>2.650000095367432</v>
+        <v>42.84999847412109</v>
       </c>
       <c r="K11">
-        <v>12.36999988555908</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>0.4886622041252426</v>
+        <v>12.33968774544032</v>
       </c>
       <c r="M11">
-        <v>-0.3377830268101638</v>
+        <v>-11.22817405335744</v>
       </c>
       <c r="N11">
-        <v>0.1647635864681836</v>
+        <v>3.478531306798798</v>
       </c>
       <c r="O11">
-        <v>-0.2179058052770886</v>
+        <v>4.810803842154648</v>
       </c>
       <c r="P11">
-        <v>0.0100424549786828</v>
+        <v>0.01500625437412427</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -76,7 +76,7 @@
     <t>CPFE3</t>
   </si>
   <si>
-    <t>BBAS3</t>
+    <t>CMIG4</t>
   </si>
   <si>
     <t>COGN3</t>
@@ -85,6 +85,12 @@
     <t>IRBR3</t>
   </si>
   <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
@@ -94,19 +100,16 @@
     <t>TIMS3</t>
   </si>
   <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>CASH3</t>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>USIM5</t>
   </si>
   <si>
     <t>PETZ3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
   </si>
 </sst>
 </file>
@@ -534,225 +537,225 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.6385588806745638</v>
+        <v>0.6150192051799193</v>
       </c>
       <c r="E2">
-        <v>0.6325440930691092</v>
+        <v>0.6163325908675019</v>
       </c>
       <c r="F2">
-        <v>0.001662680715744033</v>
+        <v>0.001864807829941157</v>
       </c>
       <c r="G2">
-        <v>-3.805096582345089</v>
+        <v>-3.84146296782839</v>
       </c>
       <c r="H2">
-        <v>0.986912412626066</v>
+        <v>1.01203311062399</v>
       </c>
       <c r="I2">
-        <v>1.011526678380803E-143</v>
+        <v>1.257283181511006E-141</v>
       </c>
       <c r="J2">
-        <v>34.95999908447266</v>
+        <v>34.13702774047852</v>
       </c>
       <c r="K2">
-        <v>39.61000061035156</v>
+        <v>37.82693862915039</v>
       </c>
       <c r="L2">
-        <v>0.442260538856516</v>
+        <v>0.432671290849413</v>
       </c>
       <c r="M2">
-        <v>-0.5674007128997047</v>
+        <v>-0.5544022478629103</v>
       </c>
       <c r="N2">
-        <v>0.2161310407585305</v>
+        <v>0.2118849958751842</v>
       </c>
       <c r="O2">
-        <v>-0.3265055996642658</v>
+        <v>-0.3036236579349207</v>
       </c>
       <c r="P2">
-        <v>0.006435283380230129</v>
+        <v>0.006503292361277479</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.3069710535594244</v>
+        <v>0.2946134928137131</v>
       </c>
       <c r="E3">
-        <v>0.6385588806745638</v>
+        <v>0.7853380638968754</v>
       </c>
       <c r="F3">
-        <v>6.66869103893753E-05</v>
+        <v>0.008047631294452443</v>
       </c>
       <c r="G3">
-        <v>24.82138014035327</v>
+        <v>28.75293620200354</v>
       </c>
       <c r="H3">
-        <v>0.2152186009279105</v>
+        <v>0.6189472841862411</v>
       </c>
       <c r="I3">
-        <v>5.126947250650619E-27</v>
+        <v>4.64963914622267E-24</v>
       </c>
       <c r="J3">
-        <v>31.48999977111816</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="K3">
-        <v>34.95999908447266</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="L3">
-        <v>1.120427120013815</v>
+        <v>1.236643531518226</v>
       </c>
       <c r="M3">
-        <v>-1.000227285537612</v>
+        <v>-0.9183446769538932</v>
       </c>
       <c r="N3">
-        <v>0.4312816890786595</v>
+        <v>0.4609838229039577</v>
       </c>
       <c r="O3">
-        <v>-0.8554224606363396</v>
+        <v>-0.5143048763119697</v>
       </c>
       <c r="P3">
-        <v>0.009306113921622025</v>
+        <v>0.009450584330383795</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.3069710535594244</v>
+        <v>0.2946134928137131</v>
       </c>
       <c r="E4">
-        <v>0.7829171184500576</v>
+        <v>0.6150192051799193</v>
       </c>
       <c r="F4">
-        <v>0.008709181569123044</v>
+        <v>9.376967197509315E-05</v>
       </c>
       <c r="G4">
-        <v>28.81785670545454</v>
+        <v>24.59679125181674</v>
       </c>
       <c r="H4">
-        <v>0.6095283410884893</v>
+        <v>0.2263924800005028</v>
       </c>
       <c r="I4">
-        <v>1.481060177365167E-23</v>
+        <v>3.229213367050596E-27</v>
       </c>
       <c r="J4">
-        <v>31.48999977111816</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="K4">
-        <v>5.340000152587891</v>
+        <v>34.13702774047852</v>
       </c>
       <c r="L4">
-        <v>1.242396284143908</v>
+        <v>1.154613245383359</v>
       </c>
       <c r="M4">
-        <v>-0.9099858011282151</v>
+        <v>-0.969955872708411</v>
       </c>
       <c r="N4">
-        <v>0.4567626803287571</v>
+        <v>0.4371152915092024</v>
       </c>
       <c r="O4">
-        <v>-0.582738368755551</v>
+        <v>-0.7751583847690835</v>
       </c>
       <c r="P4">
-        <v>0.009382908910969111</v>
+        <v>0.009490755398406095</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1283</v>
+        <v>1322</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.3069710535594244</v>
+        <v>0.2946134928137131</v>
       </c>
       <c r="E5">
-        <v>0.6325440930691092</v>
+        <v>0.7373097655726274</v>
       </c>
       <c r="F5">
-        <v>9.117381774955525E-05</v>
+        <v>0.004041932762134536</v>
       </c>
       <c r="G5">
-        <v>23.89739134213699</v>
+        <v>25.39861065840875</v>
       </c>
       <c r="H5">
-        <v>0.2148836478173906</v>
+        <v>0.4590281458568587</v>
       </c>
       <c r="I5">
-        <v>1.339759134983327E-27</v>
+        <v>4.40511335915134E-25</v>
       </c>
       <c r="J5">
-        <v>31.48999977111816</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="K5">
-        <v>39.61000061035156</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="L5">
-        <v>1.030825972932867</v>
+        <v>1.007896304476667</v>
       </c>
       <c r="M5">
-        <v>-1.035873053231299</v>
+        <v>-0.8148687166196495</v>
       </c>
       <c r="N5">
-        <v>0.4271296270990395</v>
+        <v>0.4531126776152815</v>
       </c>
       <c r="O5">
-        <v>-0.9189329922202383</v>
+        <v>-0.4586165465816263</v>
       </c>
       <c r="P5">
-        <v>0.00948883498584161</v>
+        <v>0.009652832749075841</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1322</v>
+        <v>1283</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -761,43 +764,43 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>0.3069710535594244</v>
+        <v>0.2946134928137131</v>
       </c>
       <c r="E6">
-        <v>0.7820244475863272</v>
+        <v>0.6163325908675019</v>
       </c>
       <c r="F6">
-        <v>0.003781553036151994</v>
+        <v>0.0001343000007045896</v>
       </c>
       <c r="G6">
-        <v>25.63277855511601</v>
+        <v>23.62326249172329</v>
       </c>
       <c r="H6">
-        <v>0.4455328766034649</v>
+        <v>0.2316862410974215</v>
       </c>
       <c r="I6">
-        <v>2.793292432110187E-24</v>
+        <v>9.002897870946248E-28</v>
       </c>
       <c r="J6">
-        <v>31.48999977111816</v>
+        <v>31.54999923706055</v>
       </c>
       <c r="K6">
-        <v>14.35999965667725</v>
+        <v>37.82693862915039</v>
       </c>
       <c r="L6">
-        <v>1.016084306248828</v>
+        <v>1.066215083215262</v>
       </c>
       <c r="M6">
-        <v>-0.8515809640538876</v>
+        <v>-1.003251321735242</v>
       </c>
       <c r="N6">
-        <v>0.4513095660584078</v>
+        <v>0.4330501343280863</v>
       </c>
       <c r="O6">
-        <v>-0.5406307390620286</v>
+        <v>-0.837244477873444</v>
       </c>
       <c r="P6">
-        <v>0.009647357276940598</v>
+        <v>0.009713471682119848</v>
       </c>
       <c r="Q6" t="s">
         <v>19</v>
@@ -808,282 +811,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1327</v>
+        <v>1145</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>0.3069710535594244</v>
+        <v>0.3296615306303571</v>
       </c>
       <c r="E7">
-        <v>0.9179221019259451</v>
+        <v>0.7594355651547133</v>
       </c>
       <c r="F7">
-        <v>0.005555196555580332</v>
+        <v>0.003086060397428779</v>
       </c>
       <c r="G7">
-        <v>27.42368732425613</v>
+        <v>19.47062468253504</v>
       </c>
       <c r="H7">
-        <v>0.2506722370559575</v>
+        <v>-0.3324220978777139</v>
       </c>
       <c r="I7">
-        <v>6.418405829509583E-25</v>
+        <v>1.097092296368789E-46</v>
       </c>
       <c r="J7">
-        <v>31.48999977111816</v>
+        <v>11.03999996185303</v>
       </c>
       <c r="K7">
-        <v>18.1299991607666</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="L7">
-        <v>0.8863717928215351</v>
+        <v>0.8586518620747299</v>
       </c>
       <c r="M7">
-        <v>-0.8253275169802237</v>
+        <v>-1.159540623776982</v>
       </c>
       <c r="N7">
-        <v>0.4465548044538448</v>
+        <v>0.4379216586518863</v>
       </c>
       <c r="O7">
-        <v>-0.4783750005899616</v>
+        <v>-0.5887873810231499</v>
       </c>
       <c r="P7">
-        <v>0.009770938213579232</v>
+        <v>0.01149828883094241</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1316</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>0.3069710535594244</v>
+        <v>0.8087425315732264</v>
       </c>
       <c r="E8">
-        <v>0.9082666093821028</v>
+        <v>0.5796046051002448</v>
       </c>
       <c r="F8">
-        <v>0.003493379960826356</v>
+        <v>0.00303608856120728</v>
       </c>
       <c r="G8">
-        <v>25.88378597885805</v>
+        <v>0.0370526082748393</v>
       </c>
       <c r="H8">
-        <v>0.2567594455369006</v>
+        <v>0.2157531518494522</v>
       </c>
       <c r="I8">
-        <v>1.711820316053788E-25</v>
+        <v>2.594743833782977E-40</v>
       </c>
       <c r="J8">
-        <v>31.48999977111816</v>
+        <v>1.059999942779541</v>
       </c>
       <c r="K8">
-        <v>23.77000045776367</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="L8">
-        <v>0.9941163945227203</v>
+        <v>0.2666817893656619</v>
       </c>
       <c r="M8">
-        <v>-0.9863733199063205</v>
+        <v>-0.2534885955239092</v>
       </c>
       <c r="N8">
-        <v>0.4423236702168972</v>
+        <v>0.1058367288357528</v>
       </c>
       <c r="O8">
-        <v>-0.49695834568716</v>
+        <v>-0.1183868305485709</v>
       </c>
       <c r="P8">
-        <v>0.00977310355995685</v>
+        <v>0.01412816917193243</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>308</v>
+        <v>2310</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0.6672331108448671</v>
+        <v>0.5640446141677612</v>
       </c>
       <c r="E9">
-        <v>0.6652873325134434</v>
+        <v>0.1922779940775749</v>
       </c>
       <c r="F9">
-        <v>0.001110936572202086</v>
+        <v>0.00408710802249321</v>
       </c>
       <c r="G9">
-        <v>17.44706980303981</v>
+        <v>-3.963077153688847</v>
       </c>
       <c r="H9">
-        <v>2.313200739990529</v>
+        <v>10.50026716000326</v>
       </c>
       <c r="I9">
-        <v>4.051257369217422E-48</v>
+        <v>5.185413347705441E-40</v>
       </c>
       <c r="J9">
-        <v>24.20000076293945</v>
+        <v>43.34999847412109</v>
       </c>
       <c r="K9">
-        <v>2.690000057220459</v>
+        <v>4.150000095367432</v>
       </c>
       <c r="L9">
-        <v>1.312699009561346</v>
+        <v>12.38497036303587</v>
       </c>
       <c r="M9">
-        <v>-1.480347814037245</v>
+        <v>-11.31457791231098</v>
       </c>
       <c r="N9">
-        <v>0.4751141962860113</v>
+        <v>3.514923616398958</v>
       </c>
       <c r="O9">
-        <v>0.5304208369627137</v>
+        <v>3.736965912412892</v>
       </c>
       <c r="P9">
-        <v>0.0125859219369215</v>
+        <v>0.01473717093006047</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1268</v>
+        <v>2784</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>0.8924968283610955</v>
+        <v>0.9763382666010395</v>
       </c>
       <c r="E10">
-        <v>0.5927033433937811</v>
+        <v>0.9894951550492771</v>
       </c>
       <c r="F10">
-        <v>0.001290442711667319</v>
+        <v>0.003533031691161872</v>
       </c>
       <c r="G10">
-        <v>0.0293498559032513</v>
+        <v>0.2331747048309162</v>
       </c>
       <c r="H10">
-        <v>0.2177214172097364</v>
+        <v>0.126764044041094</v>
       </c>
       <c r="I10">
-        <v>1.417256320007092E-39</v>
+        <v>1.376921514518953E-60</v>
       </c>
       <c r="J10">
-        <v>1.049999952316284</v>
+        <v>2.119999885559082</v>
       </c>
       <c r="K10">
-        <v>5.289999961853027</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="L10">
-        <v>0.2631063811852803</v>
+        <v>0.221680661820169</v>
       </c>
       <c r="M10">
-        <v>-0.2620830798098903</v>
+        <v>-0.3607110329974166</v>
       </c>
       <c r="N10">
-        <v>0.1088469804720973</v>
+        <v>0.103988244753385</v>
       </c>
       <c r="O10">
-        <v>-0.1310961923210594</v>
+        <v>-0.1223849656798186</v>
       </c>
       <c r="P10">
-        <v>0.01372080587979063</v>
+        <v>0.01496625309489587</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2310</v>
+        <v>2485</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.5603236456689084</v>
+        <v>0.6733749253043768</v>
       </c>
       <c r="E11">
-        <v>0.2603005727672598</v>
+        <v>0.9894951550492771</v>
       </c>
       <c r="F11">
-        <v>0.004978332002994888</v>
+        <v>0.004302932967600188</v>
       </c>
       <c r="G11">
-        <v>-3.72849518258377</v>
+        <v>1.15812247399743</v>
       </c>
       <c r="H11">
-        <v>10.44192245363755</v>
+        <v>0.1441494377295934</v>
       </c>
       <c r="I11">
-        <v>1.955613507816287E-41</v>
+        <v>2.466282430539273E-38</v>
       </c>
       <c r="J11">
-        <v>42.84999847412109</v>
+        <v>3.220000028610229</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="L11">
-        <v>12.33968774544032</v>
+        <v>0.6535807551026176</v>
       </c>
       <c r="M11">
-        <v>-11.22817405335744</v>
+        <v>-0.3926675799871866</v>
       </c>
       <c r="N11">
-        <v>3.478531306798798</v>
+        <v>0.1899541140024017</v>
       </c>
       <c r="O11">
-        <v>4.810803842154648</v>
+        <v>-0.2228910883899027</v>
       </c>
       <c r="P11">
-        <v>0.01500625437412427</v>
+        <v>0.01497084857273574</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>N</t>
   </si>
@@ -76,40 +76,43 @@
     <t>CPFE3</t>
   </si>
   <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
     <t>CMIG4</t>
   </si>
   <si>
-    <t>COGN3</t>
-  </si>
-  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>RAIZ4</t>
-  </si>
-  <si>
-    <t>LWSA3</t>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>TIMS3</t>
+    <t>PCAR3</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
-    <t>USIM5</t>
-  </si>
-  <si>
     <t>PETZ3</t>
   </si>
   <si>
-    <t>UGPA3</t>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
   </si>
 </sst>
 </file>
@@ -537,217 +540,217 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.6150192051799193</v>
+        <v>0.5830942833932006</v>
       </c>
       <c r="E2">
-        <v>0.6163325908675019</v>
+        <v>0.5795904273922973</v>
       </c>
       <c r="F2">
-        <v>0.001864807829941157</v>
+        <v>0.002830707724778404</v>
       </c>
       <c r="G2">
-        <v>-3.84146296782839</v>
+        <v>-3.947022708892504</v>
       </c>
       <c r="H2">
-        <v>1.01203311062399</v>
+        <v>1.014523695844571</v>
       </c>
       <c r="I2">
-        <v>1.257283181511006E-141</v>
+        <v>2.352636037729274E-140</v>
       </c>
       <c r="J2">
-        <v>34.13702774047852</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="K2">
-        <v>37.82693862915039</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="L2">
-        <v>0.432671290849413</v>
+        <v>0.4334463074374568</v>
       </c>
       <c r="M2">
-        <v>-0.5544022478629103</v>
+        <v>-0.5555043289891017</v>
       </c>
       <c r="N2">
-        <v>0.2118849958751842</v>
+        <v>0.2132276760538053</v>
       </c>
       <c r="O2">
-        <v>-0.3036236579349207</v>
+        <v>-0.312553028554845</v>
       </c>
       <c r="P2">
-        <v>0.006503292361277479</v>
+        <v>0.006588572340457254</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.2946134928137131</v>
+        <v>0.2608097203626494</v>
       </c>
       <c r="E3">
-        <v>0.7853380638968754</v>
+        <v>0.5830942833932006</v>
       </c>
       <c r="F3">
-        <v>0.008047631294452443</v>
+        <v>0.005189330260346659</v>
       </c>
       <c r="G3">
-        <v>28.75293620200354</v>
+        <v>24.43371680025098</v>
       </c>
       <c r="H3">
-        <v>0.6189472841862411</v>
+        <v>0.2305800108649519</v>
       </c>
       <c r="I3">
-        <v>4.64963914622267E-24</v>
+        <v>2.560474115002692E-27</v>
       </c>
       <c r="J3">
-        <v>31.54999923706055</v>
+        <v>31.59000015258789</v>
       </c>
       <c r="K3">
-        <v>5.349999904632568</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="L3">
-        <v>1.236643531518226</v>
+        <v>1.178617915823388</v>
       </c>
       <c r="M3">
-        <v>-0.9183446769538932</v>
+        <v>-0.9488102099570099</v>
       </c>
       <c r="N3">
-        <v>0.4609838229039577</v>
+        <v>0.4424036663178303</v>
       </c>
       <c r="O3">
-        <v>-0.5143048763119697</v>
+        <v>-0.713412664769919</v>
       </c>
       <c r="P3">
-        <v>0.009450584330383795</v>
+        <v>0.009696204012506315</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.2946134928137131</v>
+        <v>0.2608097203626494</v>
       </c>
       <c r="E4">
-        <v>0.6150192051799193</v>
+        <v>0.5795904273922973</v>
       </c>
       <c r="F4">
-        <v>9.376967197509315E-05</v>
+        <v>0.006830784732825716</v>
       </c>
       <c r="G4">
-        <v>24.59679125181674</v>
+        <v>23.42672033734914</v>
       </c>
       <c r="H4">
-        <v>0.2263924800005028</v>
+        <v>0.2363252646443515</v>
       </c>
       <c r="I4">
-        <v>3.229213367050596E-27</v>
+        <v>8.55907716817471E-28</v>
       </c>
       <c r="J4">
-        <v>31.54999923706055</v>
+        <v>31.59000015258789</v>
       </c>
       <c r="K4">
-        <v>34.13702774047852</v>
+        <v>37.84000015258789</v>
       </c>
       <c r="L4">
-        <v>1.154613245383359</v>
+        <v>1.090950541128493</v>
       </c>
       <c r="M4">
-        <v>-0.969955872708411</v>
+        <v>-0.9805074423017643</v>
       </c>
       <c r="N4">
-        <v>0.4371152915092024</v>
+        <v>0.4388454141736744</v>
       </c>
       <c r="O4">
-        <v>-0.7751583847690835</v>
+        <v>-0.7792682349638813</v>
       </c>
       <c r="P4">
-        <v>0.009490755398406095</v>
+        <v>0.009985072586401912</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1322</v>
+        <v>2467</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.2946134928137131</v>
+        <v>0.5962141283540852</v>
       </c>
       <c r="E5">
-        <v>0.7373097655726274</v>
+        <v>0.1816967535751126</v>
       </c>
       <c r="F5">
-        <v>0.004041932762134536</v>
+        <v>0.001363622294562763</v>
       </c>
       <c r="G5">
-        <v>25.39861065840875</v>
+        <v>0.9514239144134867</v>
       </c>
       <c r="H5">
-        <v>0.4590281458568587</v>
+        <v>1.106376126185218</v>
       </c>
       <c r="I5">
-        <v>4.40511335915134E-25</v>
+        <v>5.956824152699585E-34</v>
       </c>
       <c r="J5">
-        <v>31.54999923706055</v>
+        <v>3.319999933242798</v>
       </c>
       <c r="K5">
-        <v>14.39999961853027</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="L5">
-        <v>1.007896304476667</v>
+        <v>0.4952965048825462</v>
       </c>
       <c r="M5">
-        <v>-0.8148687166196495</v>
+        <v>-0.5969379576619462</v>
       </c>
       <c r="N5">
-        <v>0.4531126776152815</v>
+        <v>0.2088036599711662</v>
       </c>
       <c r="O5">
-        <v>-0.4586165465816263</v>
+        <v>-0.4526830501868693</v>
       </c>
       <c r="P5">
-        <v>0.009652832749075841</v>
+        <v>0.01215409293278504</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5" t="s">
         <v>27</v>
@@ -755,338 +758,338 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1283</v>
+        <v>1145</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>0.2946134928137131</v>
+        <v>0.1821951214805246</v>
       </c>
       <c r="E6">
-        <v>0.6163325908675019</v>
+        <v>0.7740141378701063</v>
       </c>
       <c r="F6">
-        <v>0.0001343000007045896</v>
+        <v>0.006301616637448221</v>
       </c>
       <c r="G6">
-        <v>23.62326249172329</v>
+        <v>17.07857782555681</v>
       </c>
       <c r="H6">
-        <v>0.2316862410974215</v>
+        <v>-0.2312928251779852</v>
       </c>
       <c r="I6">
-        <v>9.002897870946248E-28</v>
+        <v>4.339364781432557E-36</v>
       </c>
       <c r="J6">
-        <v>31.54999923706055</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="K6">
-        <v>37.82693862915039</v>
+        <v>23.26000022888184</v>
       </c>
       <c r="L6">
-        <v>1.066215083215262</v>
+        <v>0.9605057257927427</v>
       </c>
       <c r="M6">
-        <v>-1.003251321735242</v>
+        <v>-1.055863309129968</v>
       </c>
       <c r="N6">
-        <v>0.4330501343280863</v>
+        <v>0.3890441173201629</v>
       </c>
       <c r="O6">
-        <v>-0.837244477873444</v>
+        <v>-0.5887070023009038</v>
       </c>
       <c r="P6">
-        <v>0.009713471682119848</v>
+        <v>0.0121676573160568</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1145</v>
+        <v>2310</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3296615306303571</v>
+        <v>0.5227339344869271</v>
       </c>
       <c r="E7">
-        <v>0.7594355651547133</v>
+        <v>0.1854973946424455</v>
       </c>
       <c r="F7">
-        <v>0.003086060397428779</v>
+        <v>0.004411473493762014</v>
       </c>
       <c r="G7">
-        <v>19.47062468253504</v>
+        <v>-4.304503208593396</v>
       </c>
       <c r="H7">
-        <v>-0.3324220978777139</v>
+        <v>10.58258339610384</v>
       </c>
       <c r="I7">
-        <v>1.097092296368789E-46</v>
+        <v>3.861798085856557E-39</v>
       </c>
       <c r="J7">
-        <v>11.03999996185303</v>
+        <v>42.45000076293945</v>
       </c>
       <c r="K7">
-        <v>23.59000015258789</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="L7">
-        <v>0.8586518620747299</v>
+        <v>12.45932145522647</v>
       </c>
       <c r="M7">
-        <v>-1.159540623776982</v>
+        <v>-11.42601805586547</v>
       </c>
       <c r="N7">
-        <v>0.4379216586518863</v>
+        <v>3.533361172993096</v>
       </c>
       <c r="O7">
-        <v>-0.5887873810231499</v>
+        <v>3.683387732769361</v>
       </c>
       <c r="P7">
-        <v>0.01149828883094241</v>
+        <v>0.01474025161167527</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1268</v>
+        <v>2382</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.8087425315732264</v>
+        <v>0.6626986906732601</v>
       </c>
       <c r="E8">
-        <v>0.5796046051002448</v>
+        <v>0.591594162123444</v>
       </c>
       <c r="F8">
-        <v>0.00303608856120728</v>
+        <v>0.002532932979101666</v>
       </c>
       <c r="G8">
-        <v>0.0370526082748393</v>
+        <v>13.83543934794823</v>
       </c>
       <c r="H8">
-        <v>0.2157531518494522</v>
+        <v>0.6923819298574746</v>
       </c>
       <c r="I8">
-        <v>2.594743833782977E-40</v>
+        <v>4.808278670845821E-60</v>
       </c>
       <c r="J8">
-        <v>1.059999942779541</v>
+        <v>30.71234893798828</v>
       </c>
       <c r="K8">
-        <v>5.289999961853027</v>
+        <v>25.42000007629395</v>
       </c>
       <c r="L8">
-        <v>0.2666817893656619</v>
+        <v>1.84006386540581</v>
       </c>
       <c r="M8">
-        <v>-0.2534885955239092</v>
+        <v>-1.35295096264592</v>
       </c>
       <c r="N8">
-        <v>0.1058367288357528</v>
+        <v>0.6348767707969215</v>
       </c>
       <c r="O8">
-        <v>-0.1183868305485709</v>
+        <v>-0.7234391197615082</v>
       </c>
       <c r="P8">
-        <v>0.01412816917193243</v>
+        <v>0.01502270516035374</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2310</v>
+        <v>1627</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.5640446141677612</v>
+        <v>0.636127994653957</v>
       </c>
       <c r="E9">
-        <v>0.1922779940775749</v>
+        <v>0.1816967535751126</v>
       </c>
       <c r="F9">
-        <v>0.00408710802249321</v>
+        <v>0.006580768028533562</v>
       </c>
       <c r="G9">
-        <v>-3.963077153688847</v>
+        <v>8.069707129581355</v>
       </c>
       <c r="H9">
-        <v>10.50026716000326</v>
+        <v>4.240389230733063</v>
       </c>
       <c r="I9">
-        <v>5.185413347705441E-40</v>
+        <v>2.991645821933625E-29</v>
       </c>
       <c r="J9">
-        <v>43.34999847412109</v>
+        <v>16.95000076293945</v>
       </c>
       <c r="K9">
-        <v>4.150000095367432</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="L9">
-        <v>12.38497036303587</v>
+        <v>1.722010854005291</v>
       </c>
       <c r="M9">
-        <v>-11.31457791231098</v>
+        <v>-2.200874669192654</v>
       </c>
       <c r="N9">
-        <v>3.514923616398958</v>
+        <v>0.9070801165037059</v>
       </c>
       <c r="O9">
-        <v>3.736965912412892</v>
+        <v>-1.932698702813697</v>
       </c>
       <c r="P9">
-        <v>0.01473717093006047</v>
+        <v>0.01570508747228408</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2784</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.9763382666010395</v>
+        <v>0.6913731342460615</v>
       </c>
       <c r="E10">
-        <v>0.9894951550492771</v>
+        <v>0.9415596612407758</v>
       </c>
       <c r="F10">
-        <v>0.003533031691161872</v>
+        <v>0.007382705030813745</v>
       </c>
       <c r="G10">
-        <v>0.2331747048309162</v>
+        <v>13.06678639609261</v>
       </c>
       <c r="H10">
-        <v>0.126764044041094</v>
+        <v>0.8753818932336281</v>
       </c>
       <c r="I10">
-        <v>1.376921514518953E-60</v>
+        <v>1.053763567616406E-50</v>
       </c>
       <c r="J10">
-        <v>2.119999885559082</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="K10">
-        <v>15.85000038146973</v>
+        <v>12.06999969482422</v>
       </c>
       <c r="L10">
-        <v>0.221680661820169</v>
+        <v>1.158484643899811</v>
       </c>
       <c r="M10">
-        <v>-0.3607110329974166</v>
+        <v>-1.239407572110238</v>
       </c>
       <c r="N10">
-        <v>0.103988244753385</v>
+        <v>0.4578326383365018</v>
       </c>
       <c r="O10">
-        <v>-0.1223849656798186</v>
+        <v>0.5373544960167944</v>
       </c>
       <c r="P10">
-        <v>0.01496625309489587</v>
+        <v>0.01592877131263737</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2485</v>
+        <v>1291</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>0.6733749253043768</v>
+        <v>0.2608097203626494</v>
       </c>
       <c r="E11">
-        <v>0.9894951550492771</v>
+        <v>0.2928470766338656</v>
       </c>
       <c r="F11">
-        <v>0.004302932967600188</v>
+        <v>0.009921581925193251</v>
       </c>
       <c r="G11">
-        <v>1.15812247399743</v>
+        <v>35.07144603225067</v>
       </c>
       <c r="H11">
-        <v>0.1441494377295934</v>
+        <v>-1.811874837005037</v>
       </c>
       <c r="I11">
-        <v>2.466282430539273E-38</v>
+        <v>6.713714777385129E-05</v>
       </c>
       <c r="J11">
-        <v>3.220000028610229</v>
+        <v>31.59000015258789</v>
       </c>
       <c r="K11">
-        <v>15.85000038146973</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="L11">
-        <v>0.6535807551026176</v>
+        <v>1.607261816848137</v>
       </c>
       <c r="M11">
-        <v>-0.3926675799871866</v>
+        <v>-1.416009593480496</v>
       </c>
       <c r="N11">
-        <v>0.1899541140024017</v>
+        <v>0.6447242556803724</v>
       </c>
       <c r="O11">
-        <v>-0.2228910883899027</v>
+        <v>-1.126008677953156</v>
       </c>
       <c r="P11">
-        <v>0.01497084857273574</v>
+        <v>0.01644159241997854</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -76,43 +76,46 @@
     <t>CPFE3</t>
   </si>
   <si>
-    <t>LWSA3</t>
-  </si>
-  <si>
     <t>CMIG4</t>
   </si>
   <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
     <t>IRBR3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
     <t>CYRE3</t>
   </si>
   <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
     <t>ELET6</t>
   </si>
   <si>
-    <t>PCAR3</t>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>SANB11</t>
   </si>
   <si>
     <t>SMTO3</t>
   </si>
   <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
     <t>PETZ3</t>
   </si>
   <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>FLRY3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
+    <t>MULT3</t>
   </si>
 </sst>
 </file>
@@ -540,273 +543,273 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0.5830942833932006</v>
+        <v>0.5975502521362611</v>
       </c>
       <c r="E2">
-        <v>0.5795904273922973</v>
+        <v>0.5816561900221716</v>
       </c>
       <c r="F2">
-        <v>0.002830707724778404</v>
+        <v>0.004624017089626292</v>
       </c>
       <c r="G2">
-        <v>-3.947022708892504</v>
+        <v>-4.016379769192797</v>
       </c>
       <c r="H2">
-        <v>1.014523695844571</v>
+        <v>1.016162336838371</v>
       </c>
       <c r="I2">
-        <v>2.352636037729274E-140</v>
+        <v>6.469152298252813E-141</v>
       </c>
       <c r="J2">
-        <v>34.13000106811523</v>
+        <v>34</v>
       </c>
       <c r="K2">
-        <v>37.84000015258789</v>
+        <v>37.83000183105469</v>
       </c>
       <c r="L2">
-        <v>0.4334463074374568</v>
+        <v>0.433861922316936</v>
       </c>
       <c r="M2">
-        <v>-0.5555043289891017</v>
+        <v>-0.5563237207411973</v>
       </c>
       <c r="N2">
-        <v>0.2132276760538053</v>
+        <v>0.2155653325985476</v>
       </c>
       <c r="O2">
-        <v>-0.312553028554845</v>
+        <v>-0.4250432940515907</v>
       </c>
       <c r="P2">
-        <v>0.006588572340457254</v>
+        <v>0.006785307388808785</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>0.2608097203626494</v>
+        <v>0.3110926502360664</v>
       </c>
       <c r="E3">
-        <v>0.5830942833932006</v>
+        <v>0.8278192149704409</v>
       </c>
       <c r="F3">
-        <v>0.005189330260346659</v>
+        <v>0.005481571488576099</v>
       </c>
       <c r="G3">
-        <v>24.43371680025098</v>
+        <v>28.63568787647365</v>
       </c>
       <c r="H3">
-        <v>0.2305800108649519</v>
+        <v>0.6356657885103461</v>
       </c>
       <c r="I3">
-        <v>2.560474115002692E-27</v>
+        <v>1.285075553492407E-25</v>
       </c>
       <c r="J3">
-        <v>31.59000015258789</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K3">
-        <v>34.13000106811523</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="L3">
-        <v>1.178617915823388</v>
+        <v>1.265283780941559</v>
       </c>
       <c r="M3">
-        <v>-0.9488102099570099</v>
+        <v>-0.9311663185732257</v>
       </c>
       <c r="N3">
-        <v>0.4424036663178303</v>
+        <v>0.4635821704231426</v>
       </c>
       <c r="O3">
-        <v>-0.713412664769919</v>
+        <v>-0.5338630828357211</v>
       </c>
       <c r="P3">
-        <v>0.009696204012506315</v>
+        <v>0.009453021165289784</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1283</v>
+        <v>1322</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>0.2608097203626494</v>
+        <v>0.3110926502360664</v>
       </c>
       <c r="E4">
-        <v>0.5795904273922973</v>
+        <v>0.7115584256655687</v>
       </c>
       <c r="F4">
-        <v>0.006830784732825716</v>
+        <v>0.005787378430125196</v>
       </c>
       <c r="G4">
-        <v>23.42672033734914</v>
+        <v>25.10302436762034</v>
       </c>
       <c r="H4">
-        <v>0.2363252646443515</v>
+        <v>0.4762177980294041</v>
       </c>
       <c r="I4">
-        <v>8.55907716817471E-28</v>
+        <v>1.570102686192881E-26</v>
       </c>
       <c r="J4">
-        <v>31.59000015258789</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K4">
-        <v>37.84000015258789</v>
+        <v>14.52000045776367</v>
       </c>
       <c r="L4">
-        <v>1.090950541128493</v>
+        <v>0.9947808184718099</v>
       </c>
       <c r="M4">
-        <v>-0.9805074423017643</v>
+        <v>-0.7899002534979118</v>
       </c>
       <c r="N4">
-        <v>0.4388454141736744</v>
+        <v>0.4565106919845556</v>
       </c>
       <c r="O4">
-        <v>-0.7792682349638813</v>
+        <v>-0.597706936708553</v>
       </c>
       <c r="P4">
-        <v>0.009985072586401912</v>
+        <v>0.009871423246207461</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2467</v>
+        <v>1282</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.5962141283540852</v>
+        <v>0.3110926502360664</v>
       </c>
       <c r="E5">
-        <v>0.1816967535751126</v>
+        <v>0.5975502521362611</v>
       </c>
       <c r="F5">
-        <v>0.001363622294562763</v>
+        <v>0.007021604961376013</v>
       </c>
       <c r="G5">
-        <v>0.9514239144134867</v>
+        <v>24.29175816734947</v>
       </c>
       <c r="H5">
-        <v>1.106376126185218</v>
+        <v>0.234244578617957</v>
       </c>
       <c r="I5">
-        <v>5.956824152699585E-34</v>
+        <v>7.869690895915452E-28</v>
       </c>
       <c r="J5">
-        <v>3.319999933242798</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K5">
-        <v>2.549999952316284</v>
+        <v>34</v>
       </c>
       <c r="L5">
-        <v>0.4952965048825462</v>
+        <v>1.198874607455046</v>
       </c>
       <c r="M5">
-        <v>-0.5969379576619462</v>
+        <v>-0.9310554765724532</v>
       </c>
       <c r="N5">
-        <v>0.2088036599711662</v>
+        <v>0.4466243266797346</v>
       </c>
       <c r="O5">
-        <v>-0.4526830501868693</v>
+        <v>-0.8360737640660636</v>
       </c>
       <c r="P5">
-        <v>0.01215409293278504</v>
+        <v>0.01000668095943776</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1145</v>
+        <v>1316</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.1821951214805246</v>
+        <v>0.3110926502360664</v>
       </c>
       <c r="E6">
-        <v>0.7740141378701063</v>
+        <v>0.9215123117523298</v>
       </c>
       <c r="F6">
-        <v>0.006301616637448221</v>
+        <v>0.004409319244454974</v>
       </c>
       <c r="G6">
-        <v>17.07857782555681</v>
+        <v>25.55033267496889</v>
       </c>
       <c r="H6">
-        <v>-0.2312928251779852</v>
+        <v>0.2682935280083327</v>
       </c>
       <c r="I6">
-        <v>4.339364781432557E-36</v>
+        <v>1.301661335221053E-27</v>
       </c>
       <c r="J6">
-        <v>11.10999965667725</v>
+        <v>31.42000007629395</v>
       </c>
       <c r="K6">
-        <v>23.26000022888184</v>
+        <v>23.75</v>
       </c>
       <c r="L6">
-        <v>0.9605057257927427</v>
+        <v>1.039159037733157</v>
       </c>
       <c r="M6">
-        <v>-1.055863309129968</v>
+        <v>-1.010613365624735</v>
       </c>
       <c r="N6">
-        <v>0.3890441173201629</v>
+        <v>0.4482715089806393</v>
       </c>
       <c r="O6">
-        <v>-0.5887070023009038</v>
+        <v>-0.5023038888728442</v>
       </c>
       <c r="P6">
-        <v>0.0121676573160568</v>
+        <v>0.01013130898497331</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
@@ -814,111 +817,111 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>2310</v>
+        <v>1145</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.5227339344869271</v>
+        <v>0.3386348468552594</v>
       </c>
       <c r="E7">
-        <v>0.1854973946424455</v>
+        <v>0.7931118140678725</v>
       </c>
       <c r="F7">
-        <v>0.004411473493762014</v>
+        <v>0.003757602694620897</v>
       </c>
       <c r="G7">
-        <v>-4.304503208593396</v>
+        <v>19.15540404825974</v>
       </c>
       <c r="H7">
-        <v>10.58258339610384</v>
+        <v>-0.3206301163605348</v>
       </c>
       <c r="I7">
-        <v>3.861798085856557E-39</v>
+        <v>5.550359609302225E-47</v>
       </c>
       <c r="J7">
-        <v>42.45000076293945</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="K7">
-        <v>4.070000171661377</v>
+        <v>23.01000022888184</v>
       </c>
       <c r="L7">
-        <v>12.45932145522647</v>
+        <v>0.8218959906670129</v>
       </c>
       <c r="M7">
-        <v>-11.42601805586547</v>
+        <v>-1.152947298034791</v>
       </c>
       <c r="N7">
-        <v>3.533361172993096</v>
+        <v>0.4255760202647653</v>
       </c>
       <c r="O7">
-        <v>3.683387732769361</v>
+        <v>-0.6977050737113704</v>
       </c>
       <c r="P7">
-        <v>0.01474025161167527</v>
+        <v>0.01125169017431306</v>
       </c>
       <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
         <v>29</v>
-      </c>
-      <c r="R7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2382</v>
+        <v>2784</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.6626986906732601</v>
+        <v>0.9710114064864852</v>
       </c>
       <c r="E8">
-        <v>0.591594162123444</v>
+        <v>0.987720737574884</v>
       </c>
       <c r="F8">
-        <v>0.002532932979101666</v>
+        <v>0.002273546003385668</v>
       </c>
       <c r="G8">
-        <v>13.83543934794823</v>
+        <v>0.1948481753182586</v>
       </c>
       <c r="H8">
-        <v>0.6923819298574746</v>
+        <v>0.1286372664000259</v>
       </c>
       <c r="I8">
-        <v>4.808278670845821E-60</v>
+        <v>3.042558219804031E-64</v>
       </c>
       <c r="J8">
-        <v>30.71234893798828</v>
+        <v>2.130000114440918</v>
       </c>
       <c r="K8">
-        <v>25.42000007629395</v>
+        <v>15.85999965667725</v>
       </c>
       <c r="L8">
-        <v>1.84006386540581</v>
+        <v>0.2200326259073888</v>
       </c>
       <c r="M8">
-        <v>-1.35295096264592</v>
+        <v>-0.3609166868363261</v>
       </c>
       <c r="N8">
-        <v>0.6348767707969215</v>
+        <v>0.10263204689838</v>
       </c>
       <c r="O8">
-        <v>-0.7234391197615082</v>
+        <v>-0.1050350618176501</v>
       </c>
       <c r="P8">
-        <v>0.01502270516035374</v>
+        <v>0.01423476816369176</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -926,170 +929,170 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1627</v>
+        <v>2382</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>0.636127994653957</v>
+        <v>0.6933883167613033</v>
       </c>
       <c r="E9">
-        <v>0.1816967535751126</v>
+        <v>0.6169045670571756</v>
       </c>
       <c r="F9">
-        <v>0.006580768028533562</v>
+        <v>0.002463780831427892</v>
       </c>
       <c r="G9">
-        <v>8.069707129581355</v>
+        <v>13.71676464968832</v>
       </c>
       <c r="H9">
-        <v>4.240389230733063</v>
+        <v>0.6962675018902789</v>
       </c>
       <c r="I9">
-        <v>2.991645821933625E-29</v>
+        <v>5.072055031407463E-61</v>
       </c>
       <c r="J9">
-        <v>16.95000076293945</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="K9">
-        <v>2.549999952316284</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="L9">
-        <v>1.722010854005291</v>
+        <v>1.844661440476408</v>
       </c>
       <c r="M9">
-        <v>-2.200874669192654</v>
+        <v>-1.366593035720662</v>
       </c>
       <c r="N9">
-        <v>0.9070801165037059</v>
+        <v>0.6357269892363943</v>
       </c>
       <c r="O9">
-        <v>-1.932698702813697</v>
+        <v>-0.734482211975525</v>
       </c>
       <c r="P9">
-        <v>0.01570508747228408</v>
+        <v>0.01511882963929593</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>328</v>
+        <v>2310</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>0.6913731342460615</v>
+        <v>0.5516056383501857</v>
       </c>
       <c r="E10">
-        <v>0.9415596612407758</v>
+        <v>0.1850550637005685</v>
       </c>
       <c r="F10">
-        <v>0.007382705030813745</v>
+        <v>0.007562004104967041</v>
       </c>
       <c r="G10">
-        <v>13.06678639609261</v>
+        <v>-4.163818000935644</v>
       </c>
       <c r="H10">
-        <v>0.8753818932336281</v>
+        <v>10.55995170849658</v>
       </c>
       <c r="I10">
-        <v>1.053763567616406E-50</v>
+        <v>7.997042048348998E-39</v>
       </c>
       <c r="J10">
-        <v>24.17000007629395</v>
+        <v>44.52000045776367</v>
       </c>
       <c r="K10">
-        <v>12.06999969482422</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>1.158484643899811</v>
+        <v>12.39206474005323</v>
       </c>
       <c r="M10">
-        <v>-1.239407572110238</v>
+        <v>-11.44219409234474</v>
       </c>
       <c r="N10">
-        <v>0.4578326383365018</v>
+        <v>3.56334433065768</v>
       </c>
       <c r="O10">
-        <v>0.5373544960167944</v>
+        <v>6.444011624713006</v>
       </c>
       <c r="P10">
-        <v>0.01592877131263737</v>
+        <v>0.01540188361968484</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1291</v>
+        <v>1625</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>0.2608097203626494</v>
+        <v>0.7186982901472054</v>
       </c>
       <c r="E11">
-        <v>0.2928470766338656</v>
+        <v>0.6817357413216971</v>
       </c>
       <c r="F11">
-        <v>0.009921581925193251</v>
+        <v>0.007265468793014675</v>
       </c>
       <c r="G11">
-        <v>35.07144603225067</v>
+        <v>-0.6678079377324746</v>
       </c>
       <c r="H11">
-        <v>-1.811874837005037</v>
+        <v>0.8778886031632149</v>
       </c>
       <c r="I11">
-        <v>6.713714777385129E-05</v>
+        <v>2.257632353885508E-52</v>
       </c>
       <c r="J11">
-        <v>31.59000015258789</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="K11">
-        <v>1.299999952316284</v>
+        <v>20.53000068664551</v>
       </c>
       <c r="L11">
-        <v>1.607261816848137</v>
+        <v>1.591656250753914</v>
       </c>
       <c r="M11">
-        <v>-1.416009593480496</v>
+        <v>-1.755697519522776</v>
       </c>
       <c r="N11">
-        <v>0.6447242556803724</v>
+        <v>0.6298140372198083</v>
       </c>
       <c r="O11">
-        <v>-1.126008677953156</v>
+        <v>-0.7852459931823716</v>
       </c>
       <c r="P11">
-        <v>0.01644159241997854</v>
+        <v>0.01615933255107544</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>N</t>
   </si>
@@ -76,46 +76,40 @@
     <t>CPFE3</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>CCRO3</t>
   </si>
   <si>
     <t>ITUB4</t>
   </si>
   <si>
-    <t>IRBR3</t>
+    <t>BBAS3</t>
   </si>
   <si>
     <t>CYRE3</t>
   </si>
   <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
     <t>ELET6</t>
   </si>
   <si>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
     <t>MRVE3</t>
   </si>
   <si>
-    <t>TIMS3</t>
-  </si>
-  <si>
-    <t>SANB11</t>
-  </si>
-  <si>
-    <t>SMTO3</t>
-  </si>
-  <si>
-    <t>UGPA3</t>
-  </si>
-  <si>
-    <t>RDOR3</t>
-  </si>
-  <si>
-    <t>PETZ3</t>
-  </si>
-  <si>
-    <t>MULT3</t>
+    <t>NTCO3</t>
   </si>
 </sst>
 </file>
@@ -543,273 +537,273 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>0.5975502521362611</v>
+        <v>0.5522820001178242</v>
       </c>
       <c r="E2">
-        <v>0.5816561900221716</v>
+        <v>0.5341785939693914</v>
       </c>
       <c r="F2">
-        <v>0.004624017089626292</v>
+        <v>0.004421805866932891</v>
       </c>
       <c r="G2">
-        <v>-4.016379769192797</v>
+        <v>-4.214156395780583</v>
       </c>
       <c r="H2">
-        <v>1.016162336838371</v>
+        <v>1.020863325548968</v>
       </c>
       <c r="I2">
-        <v>6.469152298252813E-141</v>
+        <v>1.380091326369834E-137</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="K2">
-        <v>37.83000183105469</v>
+        <v>37.68999862670898</v>
       </c>
       <c r="L2">
-        <v>0.433861922316936</v>
+        <v>0.4408185246816672</v>
       </c>
       <c r="M2">
-        <v>-0.5563237207411973</v>
+        <v>-0.5598716735433555</v>
       </c>
       <c r="N2">
-        <v>0.2155653325985476</v>
+        <v>0.2197169970240402</v>
       </c>
       <c r="O2">
-        <v>-0.4250432940515907</v>
+        <v>-0.2821813999812477</v>
       </c>
       <c r="P2">
-        <v>0.006785307388808785</v>
+        <v>0.006886282074630426</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.3110926502360664</v>
+        <v>0.3846684455149066</v>
       </c>
       <c r="E3">
-        <v>0.8278192149704409</v>
+        <v>0.5522820001178242</v>
       </c>
       <c r="F3">
-        <v>0.005481571488576099</v>
+        <v>0.0001678403888305311</v>
       </c>
       <c r="G3">
-        <v>28.63568787647365</v>
+        <v>23.85706977804644</v>
       </c>
       <c r="H3">
-        <v>0.6356657885103461</v>
+        <v>0.2455013732753174</v>
       </c>
       <c r="I3">
-        <v>1.285075553492407E-25</v>
+        <v>8.689223631716762E-28</v>
       </c>
       <c r="J3">
-        <v>31.42000007629395</v>
+        <v>31.57999992370605</v>
       </c>
       <c r="K3">
-        <v>5.21999979019165</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="L3">
-        <v>1.265283780941559</v>
+        <v>1.259719789423912</v>
       </c>
       <c r="M3">
-        <v>-0.9311663185732257</v>
+        <v>-1.09364066413066</v>
       </c>
       <c r="N3">
-        <v>0.4635821704231426</v>
+        <v>0.4620819846425939</v>
       </c>
       <c r="O3">
-        <v>-0.5338630828357211</v>
+        <v>-0.6192064058540652</v>
       </c>
       <c r="P3">
-        <v>0.009453021165289784</v>
+        <v>0.01014858504782301</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1322</v>
+        <v>1283</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>0.3110926502360664</v>
+        <v>0.3846684455149066</v>
       </c>
       <c r="E4">
-        <v>0.7115584256655687</v>
+        <v>0.5341785939693914</v>
       </c>
       <c r="F4">
-        <v>0.005787378430125196</v>
+        <v>0.0002763779438735469</v>
       </c>
       <c r="G4">
-        <v>25.10302436762034</v>
+        <v>22.76940899584515</v>
       </c>
       <c r="H4">
-        <v>0.4762177980294041</v>
+        <v>0.2519352499888521</v>
       </c>
       <c r="I4">
-        <v>1.570102686192881E-26</v>
+        <v>7.910199210166331E-28</v>
       </c>
       <c r="J4">
-        <v>31.42000007629395</v>
+        <v>31.57999992370605</v>
       </c>
       <c r="K4">
-        <v>14.52000045776367</v>
+        <v>37.68999862670898</v>
       </c>
       <c r="L4">
-        <v>0.9947808184718099</v>
+        <v>1.170144529549212</v>
       </c>
       <c r="M4">
-        <v>-0.7899002534979118</v>
+        <v>-1.16911351890964</v>
       </c>
       <c r="N4">
-        <v>0.4565106919845556</v>
+        <v>0.4617598116653548</v>
       </c>
       <c r="O4">
-        <v>-0.597706936708553</v>
+        <v>-0.6848482982385153</v>
       </c>
       <c r="P4">
-        <v>0.009871423246207461</v>
+        <v>0.01059698613236555</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1282</v>
+        <v>1060</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>0.3110926502360664</v>
+        <v>0.856307641721938</v>
       </c>
       <c r="E5">
-        <v>0.5975502521362611</v>
+        <v>0.9158708484445405</v>
       </c>
       <c r="F5">
-        <v>0.007021604961376013</v>
+        <v>0.001961637610839021</v>
       </c>
       <c r="G5">
-        <v>24.29175816734947</v>
+        <v>0.4511364782835501</v>
       </c>
       <c r="H5">
-        <v>0.234244578617957</v>
+        <v>0.5552942550121459</v>
       </c>
       <c r="I5">
-        <v>7.869690895915452E-28</v>
+        <v>8.779730073212703E-75</v>
       </c>
       <c r="J5">
-        <v>31.42000007629395</v>
+        <v>10.35000038146973</v>
       </c>
       <c r="K5">
-        <v>34</v>
+        <v>17.36000061035156</v>
       </c>
       <c r="L5">
-        <v>1.198874607455046</v>
+        <v>0.6387010928283949</v>
       </c>
       <c r="M5">
-        <v>-0.9310554765724532</v>
+        <v>-0.699214758610367</v>
       </c>
       <c r="N5">
-        <v>0.4466243266797346</v>
+        <v>0.2504200581120596</v>
       </c>
       <c r="O5">
-        <v>-0.8360737640660636</v>
+        <v>0.2589552972506084</v>
       </c>
       <c r="P5">
-        <v>0.01000668095943776</v>
+        <v>0.01403325305540796</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1316</v>
+        <v>2382</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.3110926502360664</v>
+        <v>0.593376583023253</v>
       </c>
       <c r="E6">
-        <v>0.9215123117523298</v>
+        <v>0.6211397466935517</v>
       </c>
       <c r="F6">
-        <v>0.004409319244454974</v>
+        <v>0.005831952291455824</v>
       </c>
       <c r="G6">
-        <v>25.55033267496889</v>
+        <v>13.61361189387775</v>
       </c>
       <c r="H6">
-        <v>0.2682935280083327</v>
+        <v>0.6996649202397187</v>
       </c>
       <c r="I6">
-        <v>1.301661335221053E-27</v>
+        <v>1.324327024372774E-58</v>
       </c>
       <c r="J6">
-        <v>31.42000007629395</v>
+        <v>31.15999984741211</v>
       </c>
       <c r="K6">
-        <v>23.75</v>
+        <v>26.02000045776367</v>
       </c>
       <c r="L6">
-        <v>1.039159037733157</v>
+        <v>1.848561717157637</v>
       </c>
       <c r="M6">
-        <v>-1.010613365624735</v>
+        <v>-1.39018467618147</v>
       </c>
       <c r="N6">
-        <v>0.4482715089806393</v>
+        <v>0.6504380094893267</v>
       </c>
       <c r="O6">
-        <v>-0.5023038888728442</v>
+        <v>-0.6588935913843024</v>
       </c>
       <c r="P6">
-        <v>0.01013130898497331</v>
+        <v>0.01486481175170947</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
         <v>28</v>
@@ -817,282 +811,282 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1145</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>0.3386348468552594</v>
+        <v>0.7565323218610956</v>
       </c>
       <c r="E7">
-        <v>0.7931118140678725</v>
+        <v>0.5341785939693914</v>
       </c>
       <c r="F7">
-        <v>0.003757602694620897</v>
+        <v>0.002890117806241893</v>
       </c>
       <c r="G7">
-        <v>19.15540404825974</v>
+        <v>7.64155022806343</v>
       </c>
       <c r="H7">
-        <v>-0.3206301163605348</v>
+        <v>0.4485255898541924</v>
       </c>
       <c r="I7">
-        <v>5.550359609302225E-47</v>
+        <v>5.544012400495668E-53</v>
       </c>
       <c r="J7">
-        <v>11.07999992370605</v>
+        <v>23.95999908447266</v>
       </c>
       <c r="K7">
-        <v>23.01000022888184</v>
+        <v>37.68999862670898</v>
       </c>
       <c r="L7">
-        <v>0.8218959906670129</v>
+        <v>1.252934866786113</v>
       </c>
       <c r="M7">
-        <v>-1.152947298034791</v>
+        <v>-1.398911705847386</v>
       </c>
       <c r="N7">
-        <v>0.4255760202647653</v>
+        <v>0.451677516695288</v>
       </c>
       <c r="O7">
-        <v>-0.6977050737113704</v>
+        <v>-0.5864800092391249</v>
       </c>
       <c r="P7">
-        <v>0.01125169017431306</v>
+        <v>0.0152047412621456</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>2784</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>0.9710114064864852</v>
+        <v>0.7565323218610956</v>
       </c>
       <c r="E8">
-        <v>0.987720737574884</v>
+        <v>0.5522820001178242</v>
       </c>
       <c r="F8">
-        <v>0.002273546003385668</v>
+        <v>0.003181763807605925</v>
       </c>
       <c r="G8">
-        <v>0.1948481753182586</v>
+        <v>9.705021605094714</v>
       </c>
       <c r="H8">
-        <v>0.1286372664000259</v>
+        <v>0.4336448000418356</v>
       </c>
       <c r="I8">
-        <v>3.042558219804031E-64</v>
+        <v>9.385189759422475E-51</v>
       </c>
       <c r="J8">
-        <v>2.130000114440918</v>
+        <v>23.95999908447266</v>
       </c>
       <c r="K8">
-        <v>15.85999965667725</v>
+        <v>33.97999954223633</v>
       </c>
       <c r="L8">
-        <v>0.2200326259073888</v>
+        <v>1.171906391189157</v>
       </c>
       <c r="M8">
-        <v>-0.3609166868363261</v>
+        <v>-1.577646244086921</v>
       </c>
       <c r="N8">
-        <v>0.10263204689838</v>
+        <v>0.4692814284786316</v>
       </c>
       <c r="O8">
-        <v>-0.1050350618176501</v>
+        <v>-0.4802726275367952</v>
       </c>
       <c r="P8">
-        <v>0.01423476816369176</v>
+        <v>0.01521341257809656</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>2382</v>
+        <v>1625</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.6933883167613033</v>
+        <v>0.7276274966689558</v>
       </c>
       <c r="E9">
-        <v>0.6169045670571756</v>
+        <v>0.5790416385410978</v>
       </c>
       <c r="F9">
-        <v>0.002463780831427892</v>
+        <v>0.004437804342635662</v>
       </c>
       <c r="G9">
-        <v>13.71676464968832</v>
+        <v>-1.635290151019511</v>
       </c>
       <c r="H9">
-        <v>0.6962675018902789</v>
+        <v>0.9167913576748289</v>
       </c>
       <c r="I9">
-        <v>5.072055031407463E-61</v>
+        <v>1.066802186693929E-53</v>
       </c>
       <c r="J9">
-        <v>30.56999969482422</v>
+        <v>16.73999977111816</v>
       </c>
       <c r="K9">
-        <v>25.26000022888184</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L9">
-        <v>1.844661440476408</v>
+        <v>1.6335895868066</v>
       </c>
       <c r="M9">
-        <v>-1.366593035720662</v>
+        <v>-1.752643267825821</v>
       </c>
       <c r="N9">
-        <v>0.6357269892363943</v>
+        <v>0.6303263211697139</v>
       </c>
       <c r="O9">
-        <v>-0.734482211975525</v>
+        <v>-0.813153473779014</v>
       </c>
       <c r="P9">
-        <v>0.01511882963929593</v>
+        <v>0.01528302924182173</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2310</v>
+        <v>2158</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0.5516056383501857</v>
+        <v>0.6906799150903058</v>
       </c>
       <c r="E10">
-        <v>0.1850550637005685</v>
+        <v>0.8027938898258409</v>
       </c>
       <c r="F10">
-        <v>0.007562004104967041</v>
+        <v>0.0009494098076095815</v>
       </c>
       <c r="G10">
-        <v>-4.163818000935644</v>
+        <v>1.89272513481033</v>
       </c>
       <c r="H10">
-        <v>10.55995170849658</v>
+        <v>-0.107356361309604</v>
       </c>
       <c r="I10">
-        <v>7.997042048348998E-39</v>
+        <v>6.126421344641985E-20</v>
       </c>
       <c r="J10">
-        <v>44.52000045776367</v>
+        <v>1.570000052452087</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="L10">
-        <v>12.39206474005323</v>
+        <v>0.4279739790784027</v>
       </c>
       <c r="M10">
-        <v>-11.44219409234474</v>
+        <v>-0.2049087767611608</v>
       </c>
       <c r="N10">
-        <v>3.56334433065768</v>
+        <v>0.09677926032474417</v>
       </c>
       <c r="O10">
-        <v>6.444011624713006</v>
+        <v>0.2505579034163236</v>
       </c>
       <c r="P10">
-        <v>0.01540188361968484</v>
+        <v>0.0156831853890779</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1625</v>
+        <v>885</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.7186982901472054</v>
+        <v>0.2539948691303786</v>
       </c>
       <c r="E11">
-        <v>0.6817357413216971</v>
+        <v>0.2280033737132625</v>
       </c>
       <c r="F11">
-        <v>0.007265468793014675</v>
+        <v>0.006370634925956542</v>
       </c>
       <c r="G11">
-        <v>-0.6678079377324746</v>
+        <v>46.77470352070029</v>
       </c>
       <c r="H11">
-        <v>0.8778886031632149</v>
+        <v>-1.606785278653643</v>
       </c>
       <c r="I11">
-        <v>2.257632353885508E-52</v>
+        <v>1.256348783542965E-20</v>
       </c>
       <c r="J11">
-        <v>16.56999969482422</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="K11">
-        <v>20.53000068664551</v>
+        <v>12.72000026702881</v>
       </c>
       <c r="L11">
-        <v>1.591656250753914</v>
+        <v>4.52349459302518</v>
       </c>
       <c r="M11">
-        <v>-1.755697519522776</v>
+        <v>-2.970979866216975</v>
       </c>
       <c r="N11">
-        <v>0.6298140372198083</v>
+        <v>1.482638120280487</v>
       </c>
       <c r="O11">
-        <v>-0.7852459931823716</v>
+        <v>-2.526394881225606</v>
       </c>
       <c r="P11">
-        <v>0.01615933255107544</v>
+        <v>0.01571264486413211</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tenpairs.xlsx
+++ b/tenpairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -70,43 +70,49 @@
     <t>acaoVende</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CPFE3</t>
+    <t>IGTI11</t>
+  </si>
+  <si>
+    <t>RAIZ4</t>
+  </si>
+  <si>
+    <t>EMBR3</t>
+  </si>
+  <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
+    <t>FLRY3</t>
   </si>
   <si>
     <t>CCRO3</t>
   </si>
   <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>BBAS3</t>
-  </si>
-  <si>
-    <t>CYRE3</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
+    <t>KLBN11</t>
   </si>
   <si>
     <t>BRFS3</t>
   </si>
   <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t>IGTI11</t>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
+  </si>
+  <si>
+    <t>UGPA3</t>
+  </si>
+  <si>
+    <t>SMTO3</t>
   </si>
   <si>
     <t>RDOR3</t>
   </si>
   <si>
-    <t>MULT3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>YDUQ3</t>
   </si>
   <si>
     <t>NTCO3</t>
@@ -531,223 +537,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>1751</v>
+        <v>2266</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>0.5522820001178242</v>
+        <v>0.9339220332314186</v>
       </c>
       <c r="E2">
-        <v>0.5341785939693914</v>
+        <v>0.5631066611418565</v>
       </c>
       <c r="F2">
-        <v>0.004421805866932891</v>
+        <v>0.009998082418213067</v>
       </c>
       <c r="G2">
-        <v>-4.214156395780583</v>
+        <v>5.436518047357081</v>
       </c>
       <c r="H2">
-        <v>1.020863325548968</v>
+        <v>3.705669041424717</v>
       </c>
       <c r="I2">
-        <v>1.380091326369834E-137</v>
+        <v>2.18216762310819E-63</v>
       </c>
       <c r="J2">
-        <v>33.97999954223633</v>
+        <v>17.35000038146973</v>
       </c>
       <c r="K2">
-        <v>37.68999862670898</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="L2">
-        <v>0.4408185246816672</v>
+        <v>1.229417978605248</v>
       </c>
       <c r="M2">
-        <v>-0.5598716735433555</v>
+        <v>-1.263263550719508</v>
       </c>
       <c r="N2">
-        <v>0.2197169970240402</v>
+        <v>0.5349981086550825</v>
       </c>
       <c r="O2">
-        <v>-0.2821813999812477</v>
+        <v>-0.8710760355026999</v>
       </c>
       <c r="P2">
-        <v>0.006886282074630426</v>
+        <v>0.01062433661421478</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>1282</v>
+        <v>2290</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>0.9339220332314186</v>
+      </c>
+      <c r="E3">
+        <v>0.9728517652011833</v>
+      </c>
+      <c r="F3">
+        <v>0.0009791538353742229</v>
+      </c>
+      <c r="G3">
+        <v>7.699637836184115</v>
+      </c>
+      <c r="H3">
+        <v>0.6328309972626107</v>
+      </c>
+      <c r="I3">
+        <v>9.405451961182322E-65</v>
+      </c>
+      <c r="J3">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="K3">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="L3">
+        <v>1.632362435545645</v>
+      </c>
+      <c r="M3">
+        <v>-1.179201426758347</v>
+      </c>
+      <c r="N3">
+        <v>0.5226029688471782</v>
+      </c>
+      <c r="O3">
+        <v>-0.7407224780476298</v>
+      </c>
+      <c r="P3">
+        <v>0.01298187610082877</v>
+      </c>
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>0.3846684455149066</v>
-      </c>
-      <c r="E3">
-        <v>0.5522820001178242</v>
-      </c>
-      <c r="F3">
-        <v>0.0001678403888305311</v>
-      </c>
-      <c r="G3">
-        <v>23.85706977804644</v>
-      </c>
-      <c r="H3">
-        <v>0.2455013732753174</v>
-      </c>
-      <c r="I3">
-        <v>8.689223631716762E-28</v>
-      </c>
-      <c r="J3">
-        <v>31.57999992370605</v>
-      </c>
-      <c r="K3">
-        <v>33.97999954223633</v>
-      </c>
-      <c r="L3">
-        <v>1.259719789423912</v>
-      </c>
-      <c r="M3">
-        <v>-1.09364066413066</v>
-      </c>
-      <c r="N3">
-        <v>0.4620819846425939</v>
-      </c>
-      <c r="O3">
-        <v>-0.6192064058540652</v>
-      </c>
-      <c r="P3">
-        <v>0.01014858504782301</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>1283</v>
+        <v>2784</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>0.3846684455149066</v>
+        <v>0.9673628241733129</v>
       </c>
       <c r="E4">
-        <v>0.5341785939693914</v>
+        <v>0.9728517652011833</v>
       </c>
       <c r="F4">
-        <v>0.0002763779438735469</v>
+        <v>0.002874081431645821</v>
       </c>
       <c r="G4">
-        <v>22.76940899584515</v>
+        <v>0.148503950487778</v>
       </c>
       <c r="H4">
-        <v>0.2519352499888521</v>
+        <v>0.1309966826519876</v>
       </c>
       <c r="I4">
-        <v>7.910199210166331E-28</v>
+        <v>1.961527147737031E-68</v>
       </c>
       <c r="J4">
-        <v>31.57999992370605</v>
+        <v>2.150000095367432</v>
       </c>
       <c r="K4">
-        <v>37.68999862670898</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="L4">
-        <v>1.170144529549212</v>
+        <v>0.2160269075609875</v>
       </c>
       <c r="M4">
-        <v>-1.16911351890964</v>
+        <v>-0.3631056535886619</v>
       </c>
       <c r="N4">
-        <v>0.4617598116653548</v>
+        <v>0.1007790757937853</v>
       </c>
       <c r="O4">
-        <v>-0.6848482982385153</v>
+        <v>-0.1494693942602368</v>
       </c>
       <c r="P4">
-        <v>0.01059698613236555</v>
+        <v>0.01394116262914195</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1060</v>
+        <v>1880</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.856307641721938</v>
+        <v>0.7550798747948571</v>
       </c>
       <c r="E5">
-        <v>0.9158708484445405</v>
+        <v>0.3157312097707066</v>
       </c>
       <c r="F5">
-        <v>0.001961637610839021</v>
+        <v>0.00625996552122582</v>
       </c>
       <c r="G5">
-        <v>0.4511364782835501</v>
+        <v>109.3320664872243</v>
       </c>
       <c r="H5">
-        <v>0.5552942550121459</v>
+        <v>-2.274148461567234</v>
       </c>
       <c r="I5">
-        <v>8.779730073212703E-75</v>
+        <v>6.85705520355081E-48</v>
       </c>
       <c r="J5">
-        <v>10.35000038146973</v>
+        <v>58.04999923706055</v>
       </c>
       <c r="K5">
-        <v>17.36000061035156</v>
+        <v>24.85000038146973</v>
       </c>
       <c r="L5">
-        <v>0.6387010928283949</v>
+        <v>6.221939071881906</v>
       </c>
       <c r="M5">
-        <v>-0.699214758610367</v>
+        <v>-9.417316341040966</v>
       </c>
       <c r="N5">
-        <v>0.2504200581120596</v>
+        <v>2.877401751886423</v>
       </c>
       <c r="O5">
-        <v>0.2589552972506084</v>
+        <v>5.23052288730085</v>
       </c>
       <c r="P5">
-        <v>0.01403325305540796</v>
+        <v>0.01473910566603626</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -761,332 +767,332 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.593376583023253</v>
+        <v>0.6089834209680131</v>
       </c>
       <c r="E6">
-        <v>0.6211397466935517</v>
+        <v>0.5831467752302006</v>
       </c>
       <c r="F6">
-        <v>0.005831952291455824</v>
+        <v>0.006572468080635874</v>
       </c>
       <c r="G6">
-        <v>13.61361189387775</v>
+        <v>13.59886462305199</v>
       </c>
       <c r="H6">
-        <v>0.6996649202397187</v>
+        <v>0.7001014329474904</v>
       </c>
       <c r="I6">
-        <v>1.324327024372774E-58</v>
+        <v>2.499569560001602E-58</v>
       </c>
       <c r="J6">
-        <v>31.15999984741211</v>
+        <v>31.5</v>
       </c>
       <c r="K6">
-        <v>26.02000045776367</v>
+        <v>26.64999961853027</v>
       </c>
       <c r="L6">
-        <v>1.848561717157637</v>
+        <v>1.850522882624382</v>
       </c>
       <c r="M6">
-        <v>-1.39018467618147</v>
+        <v>-1.386415699789659</v>
       </c>
       <c r="N6">
-        <v>0.6504380094893267</v>
+        <v>0.6523723100112969</v>
       </c>
       <c r="O6">
-        <v>-0.6588935913843024</v>
+        <v>-0.7565675440351107</v>
       </c>
       <c r="P6">
-        <v>0.01486481175170947</v>
+        <v>0.01519639058772546</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>323</v>
+        <v>2051</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>0.7565323218610956</v>
+        <v>0.9357927052417406</v>
       </c>
       <c r="E7">
-        <v>0.5341785939693914</v>
+        <v>0.8859778860947376</v>
       </c>
       <c r="F7">
-        <v>0.002890117806241893</v>
+        <v>0.007603270129022412</v>
       </c>
       <c r="G7">
-        <v>7.64155022806343</v>
+        <v>0.03739967330434668</v>
       </c>
       <c r="H7">
-        <v>0.4485255898541924</v>
+        <v>0.5239988305944001</v>
       </c>
       <c r="I7">
-        <v>5.544012400495668E-53</v>
+        <v>2.12180816404886E-68</v>
       </c>
       <c r="J7">
-        <v>23.95999908447266</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="K7">
-        <v>37.68999862670898</v>
+        <v>24.3700008392334</v>
       </c>
       <c r="L7">
-        <v>1.252934866786113</v>
+        <v>1.206026460084642</v>
       </c>
       <c r="M7">
-        <v>-1.398911705847386</v>
+        <v>-0.7792286011690486</v>
       </c>
       <c r="N7">
-        <v>0.451677516695288</v>
+        <v>0.366381853554802</v>
       </c>
       <c r="O7">
-        <v>-0.5864800092391249</v>
+        <v>-0.5672518435290321</v>
       </c>
       <c r="P7">
-        <v>0.0152047412621456</v>
+        <v>0.01600547239424923</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>322</v>
+        <v>1060</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>0.7565323218610956</v>
+        <v>0.829079739096494</v>
       </c>
       <c r="E8">
-        <v>0.5522820001178242</v>
+        <v>0.9339220332314186</v>
       </c>
       <c r="F8">
-        <v>0.003181763807605925</v>
+        <v>0.009789397292951439</v>
       </c>
       <c r="G8">
-        <v>9.705021605094714</v>
+        <v>0.5022155227714977</v>
       </c>
       <c r="H8">
-        <v>0.4336448000418356</v>
+        <v>0.5528172686398251</v>
       </c>
       <c r="I8">
-        <v>9.385189759422475E-51</v>
+        <v>9.22799133384808E-76</v>
       </c>
       <c r="J8">
-        <v>23.95999908447266</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="K8">
-        <v>33.97999954223633</v>
+        <v>17.35000038146973</v>
       </c>
       <c r="L8">
-        <v>1.171906391189157</v>
+        <v>0.6421900598234878</v>
       </c>
       <c r="M8">
-        <v>-1.577646244086921</v>
+        <v>-0.6989211063033167</v>
       </c>
       <c r="N8">
-        <v>0.4692814284786316</v>
+        <v>0.2491819126880562</v>
       </c>
       <c r="O8">
-        <v>-0.4802726275367952</v>
+        <v>0.376404922473295</v>
       </c>
       <c r="P8">
-        <v>0.01521341257809656</v>
+        <v>0.0160776209718186</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1625</v>
+        <v>2461</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.7276274966689558</v>
+        <v>0.425359152756684</v>
       </c>
       <c r="E9">
-        <v>0.5790416385410978</v>
+        <v>0.2508999447214161</v>
       </c>
       <c r="F9">
-        <v>0.004437804342635662</v>
+        <v>0.008024740032778845</v>
       </c>
       <c r="G9">
-        <v>-1.635290151019511</v>
+        <v>28.96534699279619</v>
       </c>
       <c r="H9">
-        <v>0.9167913576748289</v>
+        <v>-0.7809162160070154</v>
       </c>
       <c r="I9">
-        <v>1.066802186693929E-53</v>
+        <v>4.753022033155666E-24</v>
       </c>
       <c r="J9">
-        <v>16.73999977111816</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="K9">
-        <v>20.93000030517578</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="L9">
-        <v>1.6335895868066</v>
+        <v>1.494024413901041</v>
       </c>
       <c r="M9">
-        <v>-1.752643267825821</v>
+        <v>-1.674358678384998</v>
       </c>
       <c r="N9">
-        <v>0.6303263211697139</v>
+        <v>0.6967931709507299</v>
       </c>
       <c r="O9">
-        <v>-0.813153473779014</v>
+        <v>0.7087989328637958</v>
       </c>
       <c r="P9">
-        <v>0.01528302924182173</v>
+        <v>0.01619258937568726</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>2158</v>
+        <v>885</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0.6906799150903058</v>
+        <v>0.2601558902344036</v>
       </c>
       <c r="E10">
-        <v>0.8027938898258409</v>
+        <v>0.1565582797548326</v>
       </c>
       <c r="F10">
-        <v>0.0009494098076095815</v>
+        <v>0.008010774489819098</v>
       </c>
       <c r="G10">
-        <v>1.89272513481033</v>
+        <v>46.16479140055219</v>
       </c>
       <c r="H10">
-        <v>-0.107356361309604</v>
+        <v>-1.563967891913875</v>
       </c>
       <c r="I10">
-        <v>6.126421344641985E-20</v>
+        <v>3.715406800235986E-20</v>
       </c>
       <c r="J10">
-        <v>1.570000052452087</v>
+        <v>23.71999931335449</v>
       </c>
       <c r="K10">
-        <v>5.340000152587891</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="L10">
-        <v>0.4279739790784027</v>
+        <v>4.519405380791586</v>
       </c>
       <c r="M10">
-        <v>-0.2049087767611608</v>
+        <v>-2.988814287686964</v>
       </c>
       <c r="N10">
-        <v>0.09677926032474417</v>
+        <v>1.47659166692003</v>
       </c>
       <c r="O10">
-        <v>0.2505579034163236</v>
+        <v>-2.00373221716848</v>
       </c>
       <c r="P10">
-        <v>0.0156831853890779</v>
+        <v>0.01624316991259443</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>885</v>
+        <v>2206</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.2539948691303786</v>
+        <v>0.9771316962300133</v>
       </c>
       <c r="E11">
-        <v>0.2280033737132625</v>
+        <v>0.9673628241733129</v>
       </c>
       <c r="F11">
-        <v>0.006370634925956542</v>
+        <v>0.0002117606583795101</v>
       </c>
       <c r="G11">
-        <v>46.77470352070029</v>
+        <v>-2.588516321701877</v>
       </c>
       <c r="H11">
-        <v>-1.606785278653643</v>
+        <v>2.179539125435653</v>
       </c>
       <c r="I11">
-        <v>1.256348783542965E-20</v>
+        <v>1.198827221678814E-68</v>
       </c>
       <c r="J11">
-        <v>23.80999946594238</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="K11">
-        <v>12.72000026702881</v>
+        <v>2.150000095367432</v>
       </c>
       <c r="L11">
-        <v>4.52349459302518</v>
+        <v>0.6788757786646897</v>
       </c>
       <c r="M11">
-        <v>-2.970979866216975</v>
+        <v>-0.4654671504072851</v>
       </c>
       <c r="N11">
-        <v>1.482638120280487</v>
+        <v>0.2307816181989057</v>
       </c>
       <c r="O11">
-        <v>-2.526394881225606</v>
+        <v>0.2825071085990922</v>
       </c>
       <c r="P11">
-        <v>0.01571264486413211</v>
+        <v>0.01641716989181094</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
